--- a/Documentation/AzureTasks Tags Mappingv3.0.xlsx
+++ b/Documentation/AzureTasks Tags Mappingv3.0.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Azure Automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" tabRatio="649" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="510" yWindow="600" windowWidth="14055" windowHeight="4050" tabRatio="649" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Road-Map" sheetId="3" r:id="rId1"/>
@@ -49,7 +44,7 @@
     <author>SavindraSingh Shahoo</author>
   </authors>
   <commentList>
-    <comment ref="D44" authorId="0" shapeId="0">
+    <comment ref="D44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D45" authorId="0" shapeId="0">
+    <comment ref="D45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0">
+    <comment ref="C50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C58" authorId="0" shapeId="0">
+    <comment ref="C58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +152,7 @@
     <author>SavindraSingh Shahoo</author>
   </authors>
   <commentList>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0">
+    <comment ref="C13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +234,7 @@
     <author>SavindraSingh Shahoo</author>
   </authors>
   <commentList>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -273,7 +268,7 @@
     <author>SavindraSingh Shahoo</author>
   </authors>
   <commentList>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="C10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -307,7 +302,7 @@
     <author>SavindraSingh Shahoo</author>
   </authors>
   <commentList>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2773,9 +2768,336 @@
     <xf numFmtId="15" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2791,348 +3113,21 @@
     <xf numFmtId="15" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3151,6 +3146,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3158,18 +3165,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3192,103 +3187,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <b/>
@@ -3615,7 +3514,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3650,7 +3549,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4814,22 +4713,22 @@
   </sheetData>
   <autoFilter ref="A1:K21"/>
   <conditionalFormatting sqref="J22:J1048576 J1:J20">
-    <cfRule type="expression" dxfId="27" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>IF(J1="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B24 B61:B1048576">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>IF(J1="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H20 H25:H1048576">
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>IF(AND(H1&lt;TODAY(),AND(J1&lt;&gt;"Completed",J1&lt;&gt;"Script-Ready")),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>IF(J21="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5442,7 +5341,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -5470,7 +5369,7 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
@@ -5489,7 +5388,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
@@ -5510,7 +5409,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
@@ -5531,7 +5430,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
@@ -5552,7 +5451,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
@@ -5573,7 +5472,7 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>355</v>
@@ -5592,7 +5491,7 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>15</v>
@@ -5611,7 +5510,7 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>16</v>
@@ -5630,7 +5529,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>17</v>
@@ -5649,7 +5548,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="39" t="s">
         <v>102</v>
@@ -5668,7 +5567,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="185"/>
+      <c r="A13" s="287"/>
       <c r="B13" s="302"/>
       <c r="C13" s="39" t="s">
         <v>103</v>
@@ -5687,7 +5586,7 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="185"/>
+      <c r="A14" s="287"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
         <v>104</v>
@@ -5708,7 +5607,7 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="287"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
         <v>375</v>
@@ -5729,7 +5628,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="185"/>
+      <c r="A16" s="287"/>
       <c r="B16" s="302"/>
       <c r="C16" s="39" t="s">
         <v>106</v>
@@ -5750,7 +5649,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="185"/>
+      <c r="A17" s="287"/>
       <c r="B17" s="302"/>
       <c r="C17" s="39" t="s">
         <v>356</v>
@@ -5773,7 +5672,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="185"/>
+      <c r="A18" s="287"/>
       <c r="B18" s="302"/>
       <c r="C18" s="39" t="s">
         <v>357</v>
@@ -5794,7 +5693,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="287"/>
       <c r="B19" s="302"/>
       <c r="C19" s="39" t="s">
         <v>358</v>
@@ -5814,7 +5713,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="185"/>
+      <c r="A20" s="287"/>
       <c r="B20" s="302"/>
       <c r="C20" s="39" t="s">
         <v>359</v>
@@ -5834,7 +5733,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="185"/>
+      <c r="A21" s="287"/>
       <c r="B21" s="302"/>
       <c r="C21" s="39" t="s">
         <v>373</v>
@@ -5852,7 +5751,7 @@
       <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="185"/>
+      <c r="A22" s="287"/>
       <c r="B22" s="302"/>
       <c r="C22" s="39" t="s">
         <v>374</v>
@@ -5930,10 +5829,10 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="303" t="s">
         <v>207</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -5956,8 +5855,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
-      <c r="B3" s="304"/>
+      <c r="A3" s="287"/>
+      <c r="B3" s="303"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -5974,8 +5873,8 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
-      <c r="B4" s="304"/>
+      <c r="A4" s="287"/>
+      <c r="B4" s="303"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -5994,8 +5893,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
-      <c r="B5" s="304"/>
+      <c r="A5" s="287"/>
+      <c r="B5" s="303"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -6014,8 +5913,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
-      <c r="B6" s="304"/>
+      <c r="A6" s="287"/>
+      <c r="B6" s="303"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -6034,8 +5933,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
-      <c r="B7" s="304"/>
+      <c r="A7" s="287"/>
+      <c r="B7" s="303"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -6054,8 +5953,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="304"/>
+      <c r="A8" s="287"/>
+      <c r="B8" s="303"/>
       <c r="C8" s="41" t="s">
         <v>103</v>
       </c>
@@ -6072,8 +5971,8 @@
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
-      <c r="B9" s="304"/>
+      <c r="A9" s="287"/>
+      <c r="B9" s="303"/>
       <c r="C9" s="41" t="s">
         <v>351</v>
       </c>
@@ -6090,8 +5989,8 @@
       <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
-      <c r="B10" s="304"/>
+      <c r="A10" s="287"/>
+      <c r="B10" s="303"/>
       <c r="C10" s="50" t="s">
         <v>352</v>
       </c>
@@ -6108,8 +6007,8 @@
       <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
-      <c r="B11" s="304"/>
+      <c r="A11" s="287"/>
+      <c r="B11" s="303"/>
       <c r="C11" s="41" t="s">
         <v>353</v>
       </c>
@@ -6187,7 +6086,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -6214,7 +6113,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
@@ -6233,7 +6132,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
@@ -6254,7 +6153,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
@@ -6275,7 +6174,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
@@ -6296,7 +6195,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
@@ -6317,7 +6216,7 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>15</v>
@@ -6336,7 +6235,7 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>16</v>
@@ -6355,7 +6254,7 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>17</v>
@@ -6374,7 +6273,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>102</v>
@@ -6393,7 +6292,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="39" t="s">
         <v>103</v>
@@ -6412,7 +6311,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="185"/>
+      <c r="A13" s="287"/>
       <c r="B13" s="302"/>
       <c r="C13" s="39" t="s">
         <v>104</v>
@@ -6433,7 +6332,7 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="185"/>
+      <c r="A14" s="287"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
         <v>375</v>
@@ -6454,7 +6353,7 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="287"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
         <v>106</v>
@@ -6475,7 +6374,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="185"/>
+      <c r="A16" s="287"/>
       <c r="B16" s="302"/>
       <c r="C16" s="39" t="s">
         <v>376</v>
@@ -6496,7 +6395,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="185"/>
+      <c r="A17" s="287"/>
       <c r="B17" s="302"/>
       <c r="C17" s="39" t="s">
         <v>359</v>
@@ -6517,7 +6416,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="185"/>
+      <c r="A18" s="287"/>
       <c r="B18" s="302"/>
       <c r="C18" s="39" t="s">
         <v>373</v>
@@ -6536,7 +6435,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="287"/>
       <c r="B19" s="302"/>
       <c r="C19" s="39" t="s">
         <v>374</v>
@@ -6556,7 +6455,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="185"/>
+      <c r="A20" s="287"/>
       <c r="B20" s="302"/>
       <c r="C20" s="41" t="s">
         <v>355</v>
@@ -6576,7 +6475,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="185"/>
+      <c r="A21" s="287"/>
       <c r="B21" s="302"/>
       <c r="C21" s="41" t="s">
         <v>378</v>
@@ -6657,7 +6556,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -6684,7 +6583,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -6703,7 +6602,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -6724,7 +6623,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -6745,7 +6644,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -6766,7 +6665,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -6787,7 +6686,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>174</v>
@@ -6808,7 +6707,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>175</v>
@@ -6829,7 +6728,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>176</v>
@@ -6849,7 +6748,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="41" t="s">
         <v>90</v>
@@ -6869,7 +6768,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="41" t="s">
         <v>76</v>
@@ -6889,7 +6788,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="185"/>
+      <c r="A13" s="287"/>
       <c r="B13" s="302"/>
       <c r="C13" s="41" t="s">
         <v>445</v>
@@ -6909,7 +6808,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="185"/>
+      <c r="A14" s="287"/>
       <c r="B14" s="302"/>
       <c r="C14" s="41" t="s">
         <v>448</v>
@@ -6929,7 +6828,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="287"/>
       <c r="B15" s="302"/>
       <c r="C15" s="41" t="s">
         <v>450</v>
@@ -6949,7 +6848,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="185"/>
+      <c r="A16" s="287"/>
       <c r="B16" s="302"/>
       <c r="C16" s="41" t="s">
         <v>452</v>
@@ -6969,7 +6868,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="185"/>
+      <c r="A17" s="287"/>
       <c r="B17" s="302"/>
       <c r="C17" s="41" t="s">
         <v>453</v>
@@ -7049,7 +6948,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -7076,7 +6975,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -7095,7 +6994,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7116,7 +7015,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7137,7 +7036,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7158,7 +7057,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7179,7 +7078,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -7200,7 +7099,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>381</v>
@@ -7221,7 +7120,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>382</v>
@@ -7301,7 +7200,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -7328,7 +7227,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -7347,7 +7246,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7368,7 +7267,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7389,7 +7288,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7410,7 +7309,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7431,7 +7330,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -7452,7 +7351,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>351</v>
@@ -7473,7 +7372,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>388</v>
@@ -7491,7 +7390,7 @@
       <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="41" t="s">
         <v>389</v>
@@ -7569,7 +7468,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -7596,7 +7495,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -7615,7 +7514,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7636,7 +7535,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7657,7 +7556,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7678,7 +7577,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7699,7 +7598,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -7720,7 +7619,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>351</v>
@@ -7741,7 +7640,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>389</v>
@@ -7759,7 +7658,7 @@
       <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="41" t="s">
         <v>396</v>
@@ -7777,7 +7676,7 @@
       <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="41" t="s">
         <v>397</v>
@@ -7855,7 +7754,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302"/>
@@ -7880,7 +7779,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -7899,7 +7798,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7920,7 +7819,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7941,7 +7840,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7962,7 +7861,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7983,7 +7882,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -8004,7 +7903,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>329</v>
@@ -8025,7 +7924,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>399</v>
@@ -8076,16 +7975,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="314">
+      <c r="A2" s="311">
         <v>1</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="304" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="303" t="s">
+      <c r="D2" s="304" t="s">
         <v>161</v>
       </c>
       <c r="E2" s="76" t="s">
@@ -8103,12 +8002,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="314"/>
-      <c r="B3" s="303"/>
+      <c r="A3" s="311"/>
+      <c r="B3" s="304"/>
       <c r="C3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="303"/>
+      <c r="D3" s="304"/>
       <c r="E3" s="77" t="s">
         <v>19</v>
       </c>
@@ -8125,12 +8024,12 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="314"/>
-      <c r="B4" s="303"/>
+      <c r="A4" s="311"/>
+      <c r="B4" s="304"/>
       <c r="C4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="303"/>
+      <c r="D4" s="304"/>
       <c r="E4" s="77" t="s">
         <v>19</v>
       </c>
@@ -8147,12 +8046,12 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="314"/>
-      <c r="B5" s="303"/>
+      <c r="A5" s="311"/>
+      <c r="B5" s="304"/>
       <c r="C5" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="303"/>
+      <c r="D5" s="304"/>
       <c r="E5" s="77" t="s">
         <v>19</v>
       </c>
@@ -8171,12 +8070,12 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="314"/>
-      <c r="B6" s="303"/>
+      <c r="A6" s="311"/>
+      <c r="B6" s="304"/>
       <c r="C6" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="303"/>
+      <c r="D6" s="304"/>
       <c r="E6" s="77" t="s">
         <v>19</v>
       </c>
@@ -8197,12 +8096,12 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="314"/>
-      <c r="B7" s="303"/>
+      <c r="A7" s="311"/>
+      <c r="B7" s="304"/>
       <c r="C7" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="303"/>
+      <c r="D7" s="304"/>
       <c r="E7" s="77" t="s">
         <v>19</v>
       </c>
@@ -8223,12 +8122,12 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="314"/>
-      <c r="B8" s="303"/>
+      <c r="A8" s="311"/>
+      <c r="B8" s="304"/>
       <c r="C8" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="303"/>
+      <c r="D8" s="304"/>
       <c r="E8" s="77" t="s">
         <v>19</v>
       </c>
@@ -8249,12 +8148,12 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="314"/>
-      <c r="B9" s="303"/>
+      <c r="A9" s="311"/>
+      <c r="B9" s="304"/>
       <c r="C9" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="303"/>
+      <c r="D9" s="304"/>
       <c r="E9" s="77" t="s">
         <v>19</v>
       </c>
@@ -8271,16 +8170,16 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="315">
+      <c r="A10" s="312">
         <v>2</v>
       </c>
-      <c r="B10" s="315" t="s">
+      <c r="B10" s="312" t="s">
         <v>425</v>
       </c>
       <c r="C10" s="82" t="s">
         <v>304</v>
       </c>
-      <c r="D10" s="315" t="s">
+      <c r="D10" s="312" t="s">
         <v>426</v>
       </c>
       <c r="E10" s="82" t="s">
@@ -8301,12 +8200,12 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="316"/>
-      <c r="B11" s="316"/>
+      <c r="A11" s="313"/>
+      <c r="B11" s="313"/>
       <c r="C11" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="316"/>
+      <c r="D11" s="313"/>
       <c r="E11" s="83" t="s">
         <v>19</v>
       </c>
@@ -8320,12 +8219,12 @@
       <c r="I11" s="84"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="316"/>
-      <c r="B12" s="316"/>
+      <c r="A12" s="313"/>
+      <c r="B12" s="313"/>
       <c r="C12" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="316"/>
+      <c r="D12" s="313"/>
       <c r="E12" s="83" t="s">
         <v>19</v>
       </c>
@@ -8339,12 +8238,12 @@
       <c r="I12" s="84"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="316"/>
-      <c r="B13" s="316"/>
+      <c r="A13" s="313"/>
+      <c r="B13" s="313"/>
       <c r="C13" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="316"/>
+      <c r="D13" s="313"/>
       <c r="E13" s="83" t="s">
         <v>19</v>
       </c>
@@ -8358,12 +8257,12 @@
       <c r="I13" s="84"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="316"/>
-      <c r="B14" s="316"/>
+      <c r="A14" s="313"/>
+      <c r="B14" s="313"/>
       <c r="C14" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="316"/>
+      <c r="D14" s="313"/>
       <c r="E14" s="83" t="s">
         <v>19</v>
       </c>
@@ -8381,12 +8280,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="316"/>
-      <c r="B15" s="316"/>
+      <c r="A15" s="313"/>
+      <c r="B15" s="313"/>
       <c r="C15" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="316"/>
+      <c r="D15" s="313"/>
       <c r="E15" s="83" t="s">
         <v>19</v>
       </c>
@@ -8404,12 +8303,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="317"/>
-      <c r="B16" s="317"/>
+      <c r="A16" s="314"/>
+      <c r="B16" s="314"/>
       <c r="C16" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="317"/>
+      <c r="D16" s="314"/>
       <c r="E16" s="83" t="s">
         <v>19</v>
       </c>
@@ -8425,16 +8324,16 @@
       <c r="I16" s="84"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="311">
+      <c r="A17" s="315">
         <v>3</v>
       </c>
-      <c r="B17" s="311" t="s">
+      <c r="B17" s="315" t="s">
         <v>404</v>
       </c>
       <c r="C17" s="86" t="s">
         <v>304</v>
       </c>
-      <c r="D17" s="311" t="s">
+      <c r="D17" s="315" t="s">
         <v>407</v>
       </c>
       <c r="E17" s="87" t="s">
@@ -8450,12 +8349,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="312"/>
-      <c r="B18" s="312"/>
+      <c r="A18" s="316"/>
+      <c r="B18" s="316"/>
       <c r="C18" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="312"/>
+      <c r="D18" s="316"/>
       <c r="E18" s="87" t="s">
         <v>19</v>
       </c>
@@ -8469,12 +8368,12 @@
       <c r="I18" s="88"/>
     </row>
     <row r="19" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="312"/>
-      <c r="B19" s="312"/>
+      <c r="A19" s="316"/>
+      <c r="B19" s="316"/>
       <c r="C19" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="312"/>
+      <c r="D19" s="316"/>
       <c r="E19" s="87" t="s">
         <v>19</v>
       </c>
@@ -8488,12 +8387,12 @@
       <c r="I19" s="88"/>
     </row>
     <row r="20" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="312"/>
-      <c r="B20" s="312"/>
+      <c r="A20" s="316"/>
+      <c r="B20" s="316"/>
       <c r="C20" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="312"/>
+      <c r="D20" s="316"/>
       <c r="E20" s="87" t="s">
         <v>19</v>
       </c>
@@ -8507,12 +8406,12 @@
       <c r="I20" s="88"/>
     </row>
     <row r="21" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="312"/>
-      <c r="B21" s="312"/>
+      <c r="A21" s="316"/>
+      <c r="B21" s="316"/>
       <c r="C21" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="312"/>
+      <c r="D21" s="316"/>
       <c r="E21" s="87" t="s">
         <v>19</v>
       </c>
@@ -8530,12 +8429,12 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="312"/>
-      <c r="B22" s="312"/>
+      <c r="A22" s="316"/>
+      <c r="B22" s="316"/>
       <c r="C22" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="312"/>
+      <c r="D22" s="316"/>
       <c r="E22" s="87" t="s">
         <v>19</v>
       </c>
@@ -8553,12 +8452,12 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="312"/>
-      <c r="B23" s="312"/>
+      <c r="A23" s="316"/>
+      <c r="B23" s="316"/>
       <c r="C23" s="87" t="s">
         <v>428</v>
       </c>
-      <c r="D23" s="312"/>
+      <c r="D23" s="316"/>
       <c r="E23" s="87" t="s">
         <v>19</v>
       </c>
@@ -8573,12 +8472,12 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="312"/>
-      <c r="B24" s="312"/>
+      <c r="A24" s="316"/>
+      <c r="B24" s="316"/>
       <c r="C24" s="87" t="s">
         <v>429</v>
       </c>
-      <c r="D24" s="312"/>
+      <c r="D24" s="316"/>
       <c r="E24" s="87" t="s">
         <v>19</v>
       </c>
@@ -8596,12 +8495,12 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="312"/>
-      <c r="B25" s="312"/>
+      <c r="A25" s="316"/>
+      <c r="B25" s="316"/>
       <c r="C25" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="312"/>
+      <c r="D25" s="316"/>
       <c r="E25" s="87" t="s">
         <v>19</v>
       </c>
@@ -8614,12 +8513,12 @@
       <c r="I25" s="88"/>
     </row>
     <row r="26" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="313"/>
-      <c r="B26" s="313"/>
+      <c r="A26" s="317"/>
+      <c r="B26" s="317"/>
       <c r="C26" s="87" t="s">
         <v>431</v>
       </c>
-      <c r="D26" s="313"/>
+      <c r="D26" s="317"/>
       <c r="E26" s="87" t="s">
         <v>19</v>
       </c>
@@ -8635,16 +8534,16 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="281">
+      <c r="A27" s="213">
         <v>4</v>
       </c>
-      <c r="B27" s="278" t="s">
+      <c r="B27" s="210" t="s">
         <v>433</v>
       </c>
       <c r="C27" s="90" t="s">
         <v>304</v>
       </c>
-      <c r="D27" s="278" t="s">
+      <c r="D27" s="210" t="s">
         <v>163</v>
       </c>
       <c r="E27" s="90" t="s">
@@ -8660,12 +8559,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="282"/>
-      <c r="B28" s="279"/>
+      <c r="A28" s="214"/>
+      <c r="B28" s="211"/>
       <c r="C28" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="279"/>
+      <c r="D28" s="211"/>
       <c r="E28" s="90" t="s">
         <v>19</v>
       </c>
@@ -8679,12 +8578,12 @@
       <c r="I28" s="91"/>
     </row>
     <row r="29" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="282"/>
-      <c r="B29" s="279"/>
+      <c r="A29" s="214"/>
+      <c r="B29" s="211"/>
       <c r="C29" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="279"/>
+      <c r="D29" s="211"/>
       <c r="E29" s="90" t="s">
         <v>19</v>
       </c>
@@ -8698,12 +8597,12 @@
       <c r="I29" s="91"/>
     </row>
     <row r="30" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="282"/>
-      <c r="B30" s="279"/>
+      <c r="A30" s="214"/>
+      <c r="B30" s="211"/>
       <c r="C30" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="279"/>
+      <c r="D30" s="211"/>
       <c r="E30" s="90" t="s">
         <v>19</v>
       </c>
@@ -8717,12 +8616,12 @@
       <c r="I30" s="91"/>
     </row>
     <row r="31" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="282"/>
-      <c r="B31" s="279"/>
+      <c r="A31" s="214"/>
+      <c r="B31" s="211"/>
       <c r="C31" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="279"/>
+      <c r="D31" s="211"/>
       <c r="E31" s="90" t="s">
         <v>19</v>
       </c>
@@ -8740,12 +8639,12 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="282"/>
-      <c r="B32" s="279"/>
+      <c r="A32" s="214"/>
+      <c r="B32" s="211"/>
       <c r="C32" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="279"/>
+      <c r="D32" s="211"/>
       <c r="E32" s="90" t="s">
         <v>19</v>
       </c>
@@ -8763,12 +8662,12 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="282"/>
-      <c r="B33" s="279"/>
+      <c r="A33" s="214"/>
+      <c r="B33" s="211"/>
       <c r="C33" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="279"/>
+      <c r="D33" s="211"/>
       <c r="E33" s="90" t="s">
         <v>19</v>
       </c>
@@ -8786,12 +8685,12 @@
       </c>
     </row>
     <row r="34" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="282"/>
-      <c r="B34" s="279"/>
+      <c r="A34" s="214"/>
+      <c r="B34" s="211"/>
       <c r="C34" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="279"/>
+      <c r="D34" s="211"/>
       <c r="E34" s="90" t="s">
         <v>19</v>
       </c>
@@ -8810,12 +8709,12 @@
       <c r="L34" s="95"/>
     </row>
     <row r="35" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="282"/>
-      <c r="B35" s="279"/>
+      <c r="A35" s="214"/>
+      <c r="B35" s="211"/>
       <c r="C35" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="279"/>
+      <c r="D35" s="211"/>
       <c r="E35" s="90" t="s">
         <v>19</v>
       </c>
@@ -8834,12 +8733,12 @@
       <c r="L35" s="95"/>
     </row>
     <row r="36" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="282"/>
-      <c r="B36" s="279"/>
+      <c r="A36" s="214"/>
+      <c r="B36" s="211"/>
       <c r="C36" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="279"/>
+      <c r="D36" s="211"/>
       <c r="E36" s="90" t="s">
         <v>80</v>
       </c>
@@ -8858,12 +8757,12 @@
       <c r="L36" s="95"/>
     </row>
     <row r="37" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="282"/>
-      <c r="B37" s="279"/>
+      <c r="A37" s="214"/>
+      <c r="B37" s="211"/>
       <c r="C37" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="279"/>
+      <c r="D37" s="211"/>
       <c r="E37" s="90" t="s">
         <v>19</v>
       </c>
@@ -8882,12 +8781,12 @@
       <c r="L37" s="95"/>
     </row>
     <row r="38" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="282"/>
-      <c r="B38" s="279"/>
+      <c r="A38" s="214"/>
+      <c r="B38" s="211"/>
       <c r="C38" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="279"/>
+      <c r="D38" s="211"/>
       <c r="E38" s="90" t="s">
         <v>19</v>
       </c>
@@ -8906,12 +8805,12 @@
       <c r="L38" s="95"/>
     </row>
     <row r="39" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="282"/>
-      <c r="B39" s="279"/>
+      <c r="A39" s="214"/>
+      <c r="B39" s="211"/>
       <c r="C39" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="279"/>
+      <c r="D39" s="211"/>
       <c r="E39" s="90" t="s">
         <v>80</v>
       </c>
@@ -8930,12 +8829,12 @@
       <c r="L39" s="95"/>
     </row>
     <row r="40" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="283"/>
-      <c r="B40" s="280"/>
+      <c r="A40" s="215"/>
+      <c r="B40" s="212"/>
       <c r="C40" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="280"/>
+      <c r="D40" s="212"/>
       <c r="E40" s="90" t="s">
         <v>80</v>
       </c>
@@ -8955,18 +8854,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="D17:D26"/>
+    <mergeCell ref="A27:A40"/>
+    <mergeCell ref="B27:B40"/>
+    <mergeCell ref="D27:D40"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="B10:B16"/>
     <mergeCell ref="D10:D16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="D17:D26"/>
-    <mergeCell ref="A27:A40"/>
-    <mergeCell ref="B27:B40"/>
-    <mergeCell ref="D27:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8979,10 +8878,10 @@
   </sheetPr>
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
+      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9049,10 +8948,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="268">
+      <c r="A2" s="251">
         <v>1</v>
       </c>
-      <c r="B2" s="258" t="s">
+      <c r="B2" s="245" t="s">
         <v>410</v>
       </c>
       <c r="C2" s="63" t="s">
@@ -9090,8 +8989,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="269"/>
-      <c r="B3" s="258"/>
+      <c r="A3" s="252"/>
+      <c r="B3" s="245"/>
       <c r="C3" s="63" t="s">
         <v>403</v>
       </c>
@@ -9122,8 +9021,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="269"/>
-      <c r="B4" s="258"/>
+      <c r="A4" s="252"/>
+      <c r="B4" s="245"/>
       <c r="C4" s="63" t="s">
         <v>404</v>
       </c>
@@ -9154,8 +9053,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="269"/>
-      <c r="B5" s="258"/>
+      <c r="A5" s="252"/>
+      <c r="B5" s="245"/>
       <c r="C5" s="63" t="s">
         <v>405</v>
       </c>
@@ -9186,8 +9085,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="269"/>
-      <c r="B6" s="259" t="s">
+      <c r="A6" s="252"/>
+      <c r="B6" s="246" t="s">
         <v>412</v>
       </c>
       <c r="C6" s="63" t="s">
@@ -9214,8 +9113,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="269"/>
-      <c r="B7" s="260"/>
+      <c r="A7" s="252"/>
+      <c r="B7" s="247"/>
       <c r="C7" s="63" t="s">
         <v>190</v>
       </c>
@@ -9253,8 +9152,8 @@
       <c r="O7"/>
     </row>
     <row r="8" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="269"/>
-      <c r="B8" s="260"/>
+      <c r="A8" s="252"/>
+      <c r="B8" s="247"/>
       <c r="C8" s="63" t="s">
         <v>409</v>
       </c>
@@ -9283,8 +9182,8 @@
       <c r="O8"/>
     </row>
     <row r="9" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="269"/>
-      <c r="B9" s="260"/>
+      <c r="A9" s="252"/>
+      <c r="B9" s="247"/>
       <c r="C9" s="63" t="s">
         <v>419</v>
       </c>
@@ -9309,8 +9208,8 @@
       <c r="O9"/>
     </row>
     <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="269"/>
-      <c r="B10" s="260"/>
+      <c r="A10" s="252"/>
+      <c r="B10" s="247"/>
       <c r="C10" s="63" t="s">
         <v>394</v>
       </c>
@@ -9345,8 +9244,8 @@
       <c r="O10"/>
     </row>
     <row r="11" spans="1:15" s="71" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="269"/>
-      <c r="B11" s="259" t="s">
+      <c r="A11" s="252"/>
+      <c r="B11" s="246" t="s">
         <v>413</v>
       </c>
       <c r="C11" s="72" t="s">
@@ -9375,8 +9274,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="71" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="269"/>
-      <c r="B12" s="260"/>
+      <c r="A12" s="252"/>
+      <c r="B12" s="247"/>
       <c r="C12" s="72" t="s">
         <v>415</v>
       </c>
@@ -9407,10 +9306,10 @@
       </c>
     </row>
     <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="250">
+      <c r="A13" s="234">
         <v>2</v>
       </c>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="230" t="s">
         <v>186</v>
       </c>
       <c r="C13" s="100" t="s">
@@ -9454,8 +9353,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="251"/>
-      <c r="B14" s="247"/>
+      <c r="A14" s="235"/>
+      <c r="B14" s="231"/>
       <c r="C14" s="100" t="s">
         <v>194</v>
       </c>
@@ -9497,8 +9396,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="251"/>
-      <c r="B15" s="247"/>
+      <c r="A15" s="235"/>
+      <c r="B15" s="231"/>
       <c r="C15" s="100" t="s">
         <v>195</v>
       </c>
@@ -9540,8 +9439,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="252"/>
-      <c r="B16" s="248"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="232"/>
       <c r="C16" s="21" t="s">
         <v>196</v>
       </c>
@@ -9583,8 +9482,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="253"/>
-      <c r="B17" s="249"/>
+      <c r="A17" s="237"/>
+      <c r="B17" s="233"/>
       <c r="C17" s="21" t="s">
         <v>197</v>
       </c>
@@ -9626,91 +9525,91 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="254">
+      <c r="A18" s="241">
         <v>3</v>
       </c>
-      <c r="B18" s="261" t="s">
+      <c r="B18" s="248" t="s">
         <v>417</v>
       </c>
       <c r="C18" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="D18" s="287" t="s">
+      <c r="D18" s="197" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="289" t="s">
+      <c r="E18" s="200" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="295" t="s">
+      <c r="F18" s="208" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="295" t="s">
+      <c r="G18" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="H18" s="210">
+      <c r="H18" s="279">
         <v>42506</v>
       </c>
-      <c r="I18" s="210">
+      <c r="I18" s="279">
         <v>42524</v>
       </c>
-      <c r="J18" s="213">
+      <c r="J18" s="282">
         <v>42523</v>
       </c>
-      <c r="K18" s="208" t="s">
+      <c r="K18" s="205" t="s">
         <v>303</v>
       </c>
-      <c r="L18" s="187" t="s">
+      <c r="L18" s="296" t="s">
         <v>421</v>
       </c>
       <c r="M18" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="192" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="186" t="s">
+      <c r="N18" s="300" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="295" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="255"/>
-      <c r="B19" s="262"/>
+      <c r="A19" s="242"/>
+      <c r="B19" s="198"/>
       <c r="C19" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="262"/>
-      <c r="E19" s="290"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="216"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="214"/>
-      <c r="K19" s="209"/>
-      <c r="L19" s="187"/>
-      <c r="N19" s="193"/>
-      <c r="O19" s="186"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="280"/>
+      <c r="I19" s="280"/>
+      <c r="J19" s="283"/>
+      <c r="K19" s="278"/>
+      <c r="L19" s="296"/>
+      <c r="N19" s="301"/>
+      <c r="O19" s="295"/>
     </row>
     <row r="20" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="255"/>
-      <c r="B20" s="262"/>
+      <c r="A20" s="242"/>
+      <c r="B20" s="198"/>
       <c r="C20" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="D20" s="288"/>
-      <c r="E20" s="291"/>
-      <c r="F20" s="296"/>
-      <c r="G20" s="296"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="212"/>
-      <c r="J20" s="215"/>
-      <c r="K20" s="209"/>
-      <c r="L20" s="187"/>
-      <c r="N20" s="193"/>
-      <c r="O20" s="186"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="209"/>
+      <c r="H20" s="281"/>
+      <c r="I20" s="281"/>
+      <c r="J20" s="284"/>
+      <c r="K20" s="278"/>
+      <c r="L20" s="296"/>
+      <c r="N20" s="301"/>
+      <c r="O20" s="295"/>
     </row>
     <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="256"/>
-      <c r="B21" s="263"/>
+      <c r="A21" s="243"/>
+      <c r="B21" s="249"/>
       <c r="C21" s="106" t="s">
         <v>271</v>
       </c>
@@ -9749,8 +9648,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="256"/>
-      <c r="B22" s="263"/>
+      <c r="A22" s="243"/>
+      <c r="B22" s="249"/>
       <c r="C22" s="106" t="s">
         <v>270</v>
       </c>
@@ -9787,8 +9686,8 @@
       </c>
     </row>
     <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="256"/>
-      <c r="B23" s="263"/>
+      <c r="A23" s="243"/>
+      <c r="B23" s="249"/>
       <c r="C23" s="111" t="s">
         <v>273</v>
       </c>
@@ -9827,66 +9726,66 @@
       </c>
     </row>
     <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="256"/>
-      <c r="B24" s="263"/>
+      <c r="A24" s="243"/>
+      <c r="B24" s="249"/>
       <c r="C24" s="106" t="s">
         <v>202</v>
       </c>
-      <c r="D24" s="292" t="s">
+      <c r="D24" s="203" t="s">
         <v>285</v>
       </c>
-      <c r="E24" s="293" t="s">
+      <c r="E24" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="294" t="s">
+      <c r="F24" s="207" t="s">
         <v>183</v>
       </c>
-      <c r="G24" s="294" t="s">
+      <c r="G24" s="207" t="s">
         <v>198</v>
       </c>
-      <c r="H24" s="208">
+      <c r="H24" s="205">
         <v>42576</v>
       </c>
-      <c r="I24" s="208">
+      <c r="I24" s="205">
         <v>42579</v>
       </c>
-      <c r="J24" s="208">
+      <c r="J24" s="205">
         <v>42579</v>
       </c>
-      <c r="K24" s="217" t="s">
+      <c r="K24" s="285" t="s">
         <v>303</v>
       </c>
-      <c r="L24" s="188" t="s">
+      <c r="L24" s="297" t="s">
         <v>421</v>
       </c>
-      <c r="N24" s="194" t="s">
-        <v>19</v>
-      </c>
-      <c r="O24" s="185" t="s">
+      <c r="N24" s="289" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="287" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="257"/>
-      <c r="B25" s="262"/>
+      <c r="A25" s="244"/>
+      <c r="B25" s="198"/>
       <c r="C25" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="D25" s="288"/>
-      <c r="E25" s="290"/>
-      <c r="F25" s="216"/>
-      <c r="G25" s="216"/>
-      <c r="H25" s="216"/>
-      <c r="I25" s="216"/>
-      <c r="J25" s="216"/>
-      <c r="K25" s="214"/>
-      <c r="L25" s="189"/>
-      <c r="N25" s="191"/>
-      <c r="O25" s="185"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="201"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="283"/>
+      <c r="L25" s="298"/>
+      <c r="N25" s="290"/>
+      <c r="O25" s="287"/>
     </row>
     <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="112"/>
-      <c r="B26" s="264"/>
+      <c r="B26" s="250"/>
       <c r="C26" s="106" t="s">
         <v>418</v>
       </c>
@@ -9925,10 +9824,10 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="239">
+      <c r="A27" s="238">
         <v>4</v>
       </c>
-      <c r="B27" s="265" t="s">
+      <c r="B27" s="222" t="s">
         <v>205</v>
       </c>
       <c r="C27" s="113" t="s">
@@ -9969,8 +9868,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="240"/>
-      <c r="B28" s="266"/>
+      <c r="A28" s="239"/>
+      <c r="B28" s="223"/>
       <c r="C28" s="113" t="s">
         <v>207</v>
       </c>
@@ -10009,8 +9908,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="240"/>
-      <c r="B29" s="266"/>
+      <c r="A29" s="239"/>
+      <c r="B29" s="223"/>
       <c r="C29" s="113" t="s">
         <v>208</v>
       </c>
@@ -10049,8 +9948,8 @@
       </c>
     </row>
     <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="241"/>
-      <c r="B30" s="267"/>
+      <c r="A30" s="240"/>
+      <c r="B30" s="224"/>
       <c r="C30" s="26" t="s">
         <v>209</v>
       </c>
@@ -10089,10 +9988,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="239">
+      <c r="A31" s="238">
         <v>5</v>
       </c>
-      <c r="B31" s="265" t="s">
+      <c r="B31" s="222" t="s">
         <v>210</v>
       </c>
       <c r="C31" s="113" t="s">
@@ -10133,8 +10032,8 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="240"/>
-      <c r="B32" s="266"/>
+      <c r="A32" s="239"/>
+      <c r="B32" s="223"/>
       <c r="C32" s="113" t="s">
         <v>211</v>
       </c>
@@ -10173,8 +10072,8 @@
       </c>
     </row>
     <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="240"/>
-      <c r="B33" s="266"/>
+      <c r="A33" s="239"/>
+      <c r="B33" s="223"/>
       <c r="C33" s="113" t="s">
         <v>395</v>
       </c>
@@ -10213,8 +10112,8 @@
       </c>
     </row>
     <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="241"/>
-      <c r="B34" s="267"/>
+      <c r="A34" s="240"/>
+      <c r="B34" s="224"/>
       <c r="C34" s="26" t="s">
         <v>212</v>
       </c>
@@ -10253,89 +10152,89 @@
       </c>
     </row>
     <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="242">
+      <c r="A35" s="256">
         <v>6</v>
       </c>
-      <c r="B35" s="274" t="s">
+      <c r="B35" s="225" t="s">
         <v>213</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D35" s="278" t="s">
+      <c r="D35" s="210" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="281" t="s">
+      <c r="E35" s="213" t="s">
         <v>191</v>
       </c>
-      <c r="F35" s="281" t="s">
+      <c r="F35" s="213" t="s">
         <v>182</v>
       </c>
-      <c r="G35" s="281" t="s">
+      <c r="G35" s="213" t="s">
         <v>180</v>
       </c>
-      <c r="H35" s="281" t="s">
+      <c r="H35" s="213" t="s">
         <v>182</v>
       </c>
-      <c r="I35" s="281" t="s">
+      <c r="I35" s="213" t="s">
         <v>182</v>
       </c>
-      <c r="J35" s="284" t="s">
+      <c r="J35" s="216" t="s">
         <v>182</v>
       </c>
-      <c r="K35" s="199" t="s">
+      <c r="K35" s="286" t="s">
         <v>182</v>
       </c>
-      <c r="L35" s="190" t="s">
+      <c r="L35" s="299" t="s">
         <v>421</v>
       </c>
-      <c r="N35" s="191" t="s">
+      <c r="N35" s="290" t="s">
         <v>182</v>
       </c>
-      <c r="O35" s="185" t="s">
+      <c r="O35" s="287" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="243"/>
-      <c r="B36" s="275"/>
+      <c r="A36" s="257"/>
+      <c r="B36" s="226"/>
       <c r="C36" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="D36" s="279"/>
-      <c r="E36" s="282"/>
-      <c r="F36" s="282"/>
-      <c r="G36" s="282"/>
-      <c r="H36" s="282"/>
-      <c r="I36" s="282"/>
-      <c r="J36" s="285"/>
-      <c r="K36" s="199"/>
-      <c r="L36" s="190"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="214"/>
+      <c r="J36" s="217"/>
+      <c r="K36" s="286"/>
+      <c r="L36" s="299"/>
       <c r="M36" s="34"/>
-      <c r="N36" s="191"/>
-      <c r="O36" s="185"/>
+      <c r="N36" s="290"/>
+      <c r="O36" s="287"/>
     </row>
     <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="243"/>
-      <c r="B37" s="275"/>
+      <c r="A37" s="257"/>
+      <c r="B37" s="226"/>
       <c r="C37" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D37" s="280"/>
-      <c r="E37" s="283"/>
-      <c r="F37" s="283"/>
-      <c r="G37" s="283"/>
-      <c r="H37" s="283"/>
-      <c r="I37" s="283"/>
-      <c r="J37" s="286"/>
-      <c r="K37" s="199"/>
-      <c r="L37" s="190"/>
-      <c r="N37" s="191"/>
-      <c r="O37" s="185"/>
+      <c r="D37" s="212"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="218"/>
+      <c r="K37" s="286"/>
+      <c r="L37" s="299"/>
+      <c r="N37" s="290"/>
+      <c r="O37" s="287"/>
     </row>
     <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="240"/>
-      <c r="B38" s="266"/>
+      <c r="A38" s="239"/>
+      <c r="B38" s="223"/>
       <c r="C38" s="113" t="s">
         <v>217</v>
       </c>
@@ -10374,8 +10273,8 @@
       </c>
     </row>
     <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="240"/>
-      <c r="B39" s="266"/>
+      <c r="A39" s="239"/>
+      <c r="B39" s="223"/>
       <c r="C39" s="113" t="s">
         <v>218</v>
       </c>
@@ -10414,8 +10313,8 @@
       </c>
     </row>
     <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="241"/>
-      <c r="B40" s="267"/>
+      <c r="A40" s="240"/>
+      <c r="B40" s="224"/>
       <c r="C40" s="26" t="s">
         <v>212</v>
       </c>
@@ -10454,10 +10353,10 @@
       </c>
     </row>
     <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="237">
+      <c r="A41" s="255">
         <v>7</v>
       </c>
-      <c r="B41" s="272" t="s">
+      <c r="B41" s="221" t="s">
         <v>219</v>
       </c>
       <c r="C41" s="118" t="s">
@@ -10498,8 +10397,8 @@
       </c>
     </row>
     <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="244"/>
-      <c r="B42" s="276"/>
+      <c r="A42" s="258"/>
+      <c r="B42" s="227"/>
       <c r="C42" s="118" t="s">
         <v>221</v>
       </c>
@@ -10538,8 +10437,8 @@
       </c>
     </row>
     <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="244"/>
-      <c r="B43" s="276"/>
+      <c r="A43" s="258"/>
+      <c r="B43" s="227"/>
       <c r="C43" s="118" t="s">
         <v>222</v>
       </c>
@@ -10578,8 +10477,8 @@
       </c>
     </row>
     <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="245"/>
-      <c r="B44" s="277"/>
+      <c r="A44" s="259"/>
+      <c r="B44" s="228"/>
       <c r="C44" s="27" t="s">
         <v>223</v>
       </c>
@@ -10621,8 +10520,8 @@
       </c>
     </row>
     <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="244"/>
-      <c r="B45" s="276"/>
+      <c r="A45" s="258"/>
+      <c r="B45" s="227"/>
       <c r="C45" s="118" t="s">
         <v>224</v>
       </c>
@@ -10661,8 +10560,8 @@
       </c>
     </row>
     <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="238"/>
-      <c r="B46" s="273"/>
+      <c r="A46" s="260"/>
+      <c r="B46" s="229"/>
       <c r="C46" s="118" t="s">
         <v>225</v>
       </c>
@@ -10696,8 +10595,8 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="245"/>
-      <c r="B47" s="277"/>
+      <c r="A47" s="259"/>
+      <c r="B47" s="228"/>
       <c r="C47" s="27" t="s">
         <v>226</v>
       </c>
@@ -10736,8 +10635,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="238"/>
-      <c r="B48" s="273"/>
+      <c r="A48" s="260"/>
+      <c r="B48" s="229"/>
       <c r="C48" s="118" t="s">
         <v>272</v>
       </c>
@@ -10776,8 +10675,8 @@
       </c>
     </row>
     <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="244"/>
-      <c r="B49" s="276"/>
+      <c r="A49" s="258"/>
+      <c r="B49" s="227"/>
       <c r="C49" s="118" t="s">
         <v>279</v>
       </c>
@@ -10816,8 +10715,8 @@
       </c>
     </row>
     <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="236"/>
-      <c r="B50" s="271"/>
+      <c r="A50" s="254"/>
+      <c r="B50" s="220"/>
       <c r="C50" s="27" t="s">
         <v>227</v>
       </c>
@@ -10856,10 +10755,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="39" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="237">
+      <c r="A51" s="255">
         <v>8</v>
       </c>
-      <c r="B51" s="272" t="s">
+      <c r="B51" s="221" t="s">
         <v>228</v>
       </c>
       <c r="C51" s="118" t="s">
@@ -10895,8 +10794,8 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="236"/>
-      <c r="B52" s="271"/>
+      <c r="A52" s="254"/>
+      <c r="B52" s="220"/>
       <c r="C52" s="27" t="s">
         <v>229</v>
       </c>
@@ -10935,10 +10834,10 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="235">
+      <c r="A53" s="253">
         <v>9</v>
       </c>
-      <c r="B53" s="270" t="s">
+      <c r="B53" s="219" t="s">
         <v>231</v>
       </c>
       <c r="C53" s="27" t="s">
@@ -10979,8 +10878,8 @@
       </c>
     </row>
     <row r="54" spans="1:15" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="236"/>
-      <c r="B54" s="271"/>
+      <c r="A54" s="254"/>
+      <c r="B54" s="220"/>
       <c r="C54" s="27" t="s">
         <v>232</v>
       </c>
@@ -11019,10 +10918,10 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="222">
+      <c r="A55" s="263">
         <v>10</v>
       </c>
-      <c r="B55" s="220" t="s">
+      <c r="B55" s="261" t="s">
         <v>233</v>
       </c>
       <c r="C55" s="20" t="s">
@@ -11059,8 +10958,8 @@
       <c r="O55"/>
     </row>
     <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="223"/>
-      <c r="B56" s="229"/>
+      <c r="A56" s="264"/>
+      <c r="B56" s="270"/>
       <c r="C56" s="20" t="s">
         <v>221</v>
       </c>
@@ -11095,8 +10994,8 @@
       <c r="O56"/>
     </row>
     <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="223"/>
-      <c r="B57" s="229"/>
+      <c r="A57" s="264"/>
+      <c r="B57" s="270"/>
       <c r="C57" s="20" t="s">
         <v>222</v>
       </c>
@@ -11131,8 +11030,8 @@
       <c r="O57"/>
     </row>
     <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="224"/>
-      <c r="B58" s="229"/>
+      <c r="A58" s="265"/>
+      <c r="B58" s="270"/>
       <c r="C58" s="20" t="s">
         <v>235</v>
       </c>
@@ -11167,8 +11066,8 @@
       <c r="O58"/>
     </row>
     <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="224"/>
-      <c r="B59" s="229"/>
+      <c r="A59" s="265"/>
+      <c r="B59" s="270"/>
       <c r="C59" s="20" t="s">
         <v>272</v>
       </c>
@@ -11205,8 +11104,8 @@
       <c r="O59"/>
     </row>
     <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="223"/>
-      <c r="B60" s="229"/>
+      <c r="A60" s="264"/>
+      <c r="B60" s="270"/>
       <c r="C60" s="20" t="s">
         <v>279</v>
       </c>
@@ -11241,8 +11140,8 @@
       <c r="O60"/>
     </row>
     <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="223"/>
-      <c r="B61" s="229"/>
+      <c r="A61" s="264"/>
+      <c r="B61" s="270"/>
       <c r="C61" s="20" t="s">
         <v>280</v>
       </c>
@@ -11277,8 +11176,8 @@
       <c r="O61"/>
     </row>
     <row r="62" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="224"/>
-      <c r="B62" s="221"/>
+      <c r="A62" s="265"/>
+      <c r="B62" s="262"/>
       <c r="C62" s="20" t="s">
         <v>236</v>
       </c>
@@ -11313,32 +11212,32 @@
       <c r="O62"/>
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="224"/>
-      <c r="B63" s="220" t="s">
+      <c r="A63" s="265"/>
+      <c r="B63" s="261" t="s">
         <v>251</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="D63" s="218" t="s">
+      <c r="D63" s="185" t="s">
         <v>292</v>
       </c>
-      <c r="E63" s="197" t="s">
+      <c r="E63" s="187" t="s">
         <v>151</v>
       </c>
-      <c r="F63" s="197" t="s">
+      <c r="F63" s="187" t="s">
         <v>134</v>
       </c>
-      <c r="G63" s="197" t="s">
+      <c r="G63" s="187" t="s">
         <v>198</v>
       </c>
-      <c r="H63" s="195">
+      <c r="H63" s="189">
         <v>42594</v>
       </c>
-      <c r="I63" s="195">
+      <c r="I63" s="189">
         <v>42599</v>
       </c>
-      <c r="J63" s="197"/>
+      <c r="J63" s="187"/>
       <c r="K63" s="31" t="s">
         <v>283</v>
       </c>
@@ -11349,18 +11248,18 @@
       <c r="O63"/>
     </row>
     <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="224"/>
-      <c r="B64" s="229"/>
+      <c r="A64" s="265"/>
+      <c r="B64" s="270"/>
       <c r="C64" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="D64" s="219"/>
-      <c r="E64" s="198"/>
-      <c r="F64" s="198"/>
-      <c r="G64" s="198"/>
-      <c r="H64" s="196"/>
-      <c r="I64" s="196"/>
-      <c r="J64" s="198"/>
+      <c r="D64" s="277"/>
+      <c r="E64" s="188"/>
+      <c r="F64" s="188"/>
+      <c r="G64" s="188"/>
+      <c r="H64" s="276"/>
+      <c r="I64" s="276"/>
+      <c r="J64" s="188"/>
       <c r="K64" s="31"/>
       <c r="L64" s="75" t="s">
         <v>454</v>
@@ -11369,8 +11268,8 @@
       <c r="O64"/>
     </row>
     <row r="65" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="224"/>
-      <c r="B65" s="221"/>
+      <c r="A65" s="265"/>
+      <c r="B65" s="262"/>
       <c r="C65" s="20" t="s">
         <v>239</v>
       </c>
@@ -11405,8 +11304,8 @@
       <c r="O65"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="224"/>
-      <c r="B66" s="220" t="s">
+      <c r="A66" s="265"/>
+      <c r="B66" s="261" t="s">
         <v>250</v>
       </c>
       <c r="C66" s="20" t="s">
@@ -11441,8 +11340,8 @@
       <c r="O66"/>
     </row>
     <row r="67" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="224"/>
-      <c r="B67" s="229"/>
+      <c r="A67" s="265"/>
+      <c r="B67" s="270"/>
       <c r="C67" s="20" t="s">
         <v>241</v>
       </c>
@@ -11477,8 +11376,8 @@
       <c r="O67"/>
     </row>
     <row r="68" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="224"/>
-      <c r="B68" s="229"/>
+      <c r="A68" s="265"/>
+      <c r="B68" s="270"/>
       <c r="C68" s="20" t="s">
         <v>242</v>
       </c>
@@ -11513,8 +11412,8 @@
       <c r="O68"/>
     </row>
     <row r="69" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="224"/>
-      <c r="B69" s="229"/>
+      <c r="A69" s="265"/>
+      <c r="B69" s="270"/>
       <c r="C69" s="20" t="s">
         <v>243</v>
       </c>
@@ -11549,30 +11448,30 @@
       <c r="O69"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="224"/>
-      <c r="B70" s="229"/>
+      <c r="A70" s="265"/>
+      <c r="B70" s="270"/>
       <c r="C70" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="D70" s="218" t="s">
+      <c r="D70" s="185" t="s">
         <v>294</v>
       </c>
-      <c r="E70" s="197" t="s">
+      <c r="E70" s="187" t="s">
         <v>151</v>
       </c>
-      <c r="F70" s="197" t="s">
+      <c r="F70" s="187" t="s">
         <v>134</v>
       </c>
-      <c r="G70" s="197" t="s">
+      <c r="G70" s="187" t="s">
         <v>198</v>
       </c>
-      <c r="H70" s="195">
+      <c r="H70" s="189">
         <v>42605</v>
       </c>
-      <c r="I70" s="195">
+      <c r="I70" s="189">
         <v>42608</v>
       </c>
-      <c r="J70" s="197"/>
+      <c r="J70" s="187"/>
       <c r="K70" s="31" t="s">
         <v>283</v>
       </c>
@@ -11583,18 +11482,18 @@
       <c r="O70"/>
     </row>
     <row r="71" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="224"/>
-      <c r="B71" s="229"/>
+      <c r="A71" s="265"/>
+      <c r="B71" s="270"/>
       <c r="C71" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="D71" s="301"/>
-      <c r="E71" s="198"/>
-      <c r="F71" s="198"/>
-      <c r="G71" s="198"/>
-      <c r="H71" s="198"/>
-      <c r="I71" s="198"/>
-      <c r="J71" s="198"/>
+      <c r="D71" s="186"/>
+      <c r="E71" s="188"/>
+      <c r="F71" s="188"/>
+      <c r="G71" s="188"/>
+      <c r="H71" s="188"/>
+      <c r="I71" s="188"/>
+      <c r="J71" s="188"/>
       <c r="K71" s="31" t="s">
         <v>283</v>
       </c>
@@ -11605,8 +11504,8 @@
       <c r="O71"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="224"/>
-      <c r="B72" s="221"/>
+      <c r="A72" s="265"/>
+      <c r="B72" s="262"/>
       <c r="C72" s="20" t="s">
         <v>246</v>
       </c>
@@ -11639,8 +11538,8 @@
       <c r="O72"/>
     </row>
     <row r="73" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="224"/>
-      <c r="B73" s="220" t="s">
+      <c r="A73" s="265"/>
+      <c r="B73" s="261" t="s">
         <v>249</v>
       </c>
       <c r="C73" s="20" t="s">
@@ -11677,8 +11576,8 @@
       <c r="O73"/>
     </row>
     <row r="74" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="224"/>
-      <c r="B74" s="229"/>
+      <c r="A74" s="265"/>
+      <c r="B74" s="270"/>
       <c r="C74" s="20" t="s">
         <v>281</v>
       </c>
@@ -11713,8 +11612,8 @@
       <c r="O74"/>
     </row>
     <row r="75" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="224"/>
-      <c r="B75" s="221"/>
+      <c r="A75" s="265"/>
+      <c r="B75" s="262"/>
       <c r="C75" s="20" t="s">
         <v>248</v>
       </c>
@@ -11747,8 +11646,8 @@
       <c r="O75"/>
     </row>
     <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="223"/>
-      <c r="B76" s="230"/>
+      <c r="A76" s="264"/>
+      <c r="B76" s="271"/>
       <c r="C76" s="20" t="s">
         <v>252</v>
       </c>
@@ -11783,8 +11682,8 @@
       <c r="O76"/>
     </row>
     <row r="77" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="224"/>
-      <c r="B77" s="231"/>
+      <c r="A77" s="265"/>
+      <c r="B77" s="272"/>
       <c r="C77" s="20" t="s">
         <v>253</v>
       </c>
@@ -11819,8 +11718,8 @@
       <c r="O77"/>
     </row>
     <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="223"/>
-      <c r="B78" s="230"/>
+      <c r="A78" s="264"/>
+      <c r="B78" s="271"/>
       <c r="C78" s="20" t="s">
         <v>254</v>
       </c>
@@ -11855,8 +11754,8 @@
       <c r="O78"/>
     </row>
     <row r="79" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="224"/>
-      <c r="B79" s="220" t="s">
+      <c r="A79" s="265"/>
+      <c r="B79" s="261" t="s">
         <v>257</v>
       </c>
       <c r="C79" s="20" t="s">
@@ -11891,8 +11790,8 @@
       <c r="O79"/>
     </row>
     <row r="80" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="224"/>
-      <c r="B80" s="221"/>
+      <c r="A80" s="265"/>
+      <c r="B80" s="262"/>
       <c r="C80" s="20" t="s">
         <v>256</v>
       </c>
@@ -11927,7 +11826,7 @@
       <c r="O80"/>
     </row>
     <row r="81" spans="1:15" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="223"/>
+      <c r="A81" s="264"/>
       <c r="B81" s="19" t="s">
         <v>258</v>
       </c>
@@ -11965,7 +11864,7 @@
       <c r="O81"/>
     </row>
     <row r="82" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="224"/>
+      <c r="A82" s="265"/>
       <c r="B82" s="20" t="s">
         <v>260</v>
       </c>
@@ -11997,8 +11896,8 @@
       <c r="O82"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="224"/>
-      <c r="B83" s="220" t="s">
+      <c r="A83" s="265"/>
+      <c r="B83" s="261" t="s">
         <v>262</v>
       </c>
       <c r="C83" s="20" t="s">
@@ -12029,8 +11928,8 @@
       <c r="O83"/>
     </row>
     <row r="84" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="224"/>
-      <c r="B84" s="221"/>
+      <c r="A84" s="265"/>
+      <c r="B84" s="262"/>
       <c r="C84" s="20" t="s">
         <v>264</v>
       </c>
@@ -12050,7 +11949,7 @@
       <c r="I84" s="58"/>
       <c r="J84" s="58"/>
       <c r="K84" s="31" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="L84" s="75" t="s">
         <v>454</v>
@@ -12059,8 +11958,8 @@
       <c r="O84"/>
     </row>
     <row r="85" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="224"/>
-      <c r="B85" s="220" t="s">
+      <c r="A85" s="265"/>
+      <c r="B85" s="261" t="s">
         <v>265</v>
       </c>
       <c r="C85" s="20" t="s">
@@ -12091,8 +11990,8 @@
       <c r="O85"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="225"/>
-      <c r="B86" s="221"/>
+      <c r="A86" s="266"/>
+      <c r="B86" s="262"/>
       <c r="C86" s="20" t="s">
         <v>267</v>
       </c>
@@ -12121,10 +12020,10 @@
       <c r="O86"/>
     </row>
     <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="232">
+      <c r="A87" s="273">
         <v>11</v>
       </c>
-      <c r="B87" s="226" t="s">
+      <c r="B87" s="267" t="s">
         <v>269</v>
       </c>
       <c r="C87" s="123" t="s">
@@ -12165,80 +12064,80 @@
       </c>
     </row>
     <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="232"/>
-      <c r="B88" s="226"/>
+      <c r="A88" s="273"/>
+      <c r="B88" s="267"/>
       <c r="C88" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="D88" s="297" t="s">
+      <c r="D88" s="190" t="s">
         <v>285</v>
       </c>
-      <c r="E88" s="300" t="s">
+      <c r="E88" s="193" t="s">
         <v>151</v>
       </c>
-      <c r="F88" s="300" t="s">
+      <c r="F88" s="193" t="s">
         <v>183</v>
       </c>
-      <c r="G88" s="300" t="s">
+      <c r="G88" s="193" t="s">
         <v>198</v>
       </c>
-      <c r="H88" s="202">
+      <c r="H88" s="196">
         <v>42576</v>
       </c>
-      <c r="I88" s="202">
+      <c r="I88" s="196">
         <v>42579</v>
       </c>
-      <c r="J88" s="205">
+      <c r="J88" s="292">
         <v>42579</v>
       </c>
-      <c r="K88" s="200" t="s">
+      <c r="K88" s="288" t="s">
         <v>303</v>
       </c>
-      <c r="L88" s="200" t="s">
+      <c r="L88" s="288" t="s">
         <v>421</v>
       </c>
-      <c r="N88" s="194" t="s">
-        <v>19</v>
-      </c>
-      <c r="O88" s="185" t="s">
+      <c r="N88" s="289" t="s">
+        <v>19</v>
+      </c>
+      <c r="O88" s="287" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="233"/>
-      <c r="B89" s="227"/>
+      <c r="A89" s="274"/>
+      <c r="B89" s="268"/>
       <c r="C89" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="D89" s="298"/>
-      <c r="E89" s="203"/>
-      <c r="F89" s="203"/>
-      <c r="G89" s="203"/>
-      <c r="H89" s="203"/>
-      <c r="I89" s="203"/>
-      <c r="J89" s="206"/>
-      <c r="K89" s="201"/>
-      <c r="L89" s="200"/>
-      <c r="N89" s="191"/>
-      <c r="O89" s="185"/>
+      <c r="D89" s="191"/>
+      <c r="E89" s="194"/>
+      <c r="F89" s="194"/>
+      <c r="G89" s="194"/>
+      <c r="H89" s="194"/>
+      <c r="I89" s="194"/>
+      <c r="J89" s="293"/>
+      <c r="K89" s="291"/>
+      <c r="L89" s="288"/>
+      <c r="N89" s="290"/>
+      <c r="O89" s="287"/>
     </row>
     <row r="90" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="234"/>
-      <c r="B90" s="228"/>
+      <c r="A90" s="275"/>
+      <c r="B90" s="269"/>
       <c r="C90" s="159" t="s">
         <v>282</v>
       </c>
-      <c r="D90" s="299"/>
-      <c r="E90" s="204"/>
-      <c r="F90" s="204"/>
-      <c r="G90" s="204"/>
-      <c r="H90" s="204"/>
-      <c r="I90" s="204"/>
-      <c r="J90" s="207"/>
-      <c r="K90" s="201"/>
-      <c r="L90" s="200"/>
-      <c r="N90" s="191"/>
-      <c r="O90" s="185"/>
+      <c r="D90" s="192"/>
+      <c r="E90" s="195"/>
+      <c r="F90" s="195"/>
+      <c r="G90" s="195"/>
+      <c r="H90" s="195"/>
+      <c r="I90" s="195"/>
+      <c r="J90" s="294"/>
+      <c r="K90" s="291"/>
+      <c r="L90" s="288"/>
+      <c r="N90" s="290"/>
+      <c r="O90" s="287"/>
     </row>
     <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="160">
@@ -12284,7 +12183,7 @@
   </sheetData>
   <autoFilter ref="A1:O91">
     <filterColumn colId="10">
-      <filters blank="1">
+      <filters>
         <filter val="Not-Started"/>
       </filters>
     </filterColumn>
@@ -12295,75 +12194,14 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="89">
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="G88:G90"/>
-    <mergeCell ref="H88:H90"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A55:A86"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B66:B72"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N24:N25"/>
     <mergeCell ref="I63:I64"/>
     <mergeCell ref="J63:J64"/>
     <mergeCell ref="K35:K37"/>
@@ -12376,88 +12214,149 @@
     <mergeCell ref="J70:J71"/>
     <mergeCell ref="I88:I90"/>
     <mergeCell ref="J88:J90"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A55:A86"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B66:B72"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="H88:H90"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="H70:H71"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:L2 K38:L39 K27:L29 K32:L33 K35:L35 K21:L24 K3:K10 L3:L12 L38:L51 K41:L79">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="15" priority="24">
       <formula>IF(K1="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D22 D27:D35 D24 D38:D40 D13:D17 D1:D10">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="14" priority="23">
       <formula>IF(M1="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:L13 N13:N16 L21:L24 L26:L35 L13:L18">
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>IF(K13="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14 K14:L14">
-    <cfRule type="expression" dxfId="20" priority="17">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>IF(K14="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N16 K15:L15">
-    <cfRule type="expression" dxfId="19" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>IF(K15="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="18" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>IF(M18="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:L18">
-    <cfRule type="expression" dxfId="17" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>IF(K18="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:L31">
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>IF(K31="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:D1048576 D1:D10 D13:D79 D81:D88">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K81:L88">
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>IF(K81="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:L2 K3:K10 K91:L1048576 N13:N17 N30 N34 N40 K21:L24 K19:K20 K26:L35 K25 K36:K37 K13:L18 L3:L12 K38:L79 K81:L88">
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="Script-Ready">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Script-Ready">
       <formula>NOT(ISERROR(SEARCH("Script-Ready",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L91">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>IF(L91="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K80:L80">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>IF(K80="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K80:L80">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Script-Ready">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Script-Ready">
       <formula>NOT(ISERROR(SEARCH("Script-Ready",K80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K87">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(K87="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13578,10 +13477,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="304" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -13607,8 +13506,8 @@
       <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
-      <c r="B3" s="303"/>
+      <c r="A3" s="287"/>
+      <c r="B3" s="304"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -13628,8 +13527,8 @@
       <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
-      <c r="B4" s="303"/>
+      <c r="A4" s="287"/>
+      <c r="B4" s="304"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -13649,8 +13548,8 @@
       <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
-      <c r="B5" s="303"/>
+      <c r="A5" s="287"/>
+      <c r="B5" s="304"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -13670,8 +13569,8 @@
       <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
-      <c r="B6" s="303"/>
+      <c r="A6" s="287"/>
+      <c r="B6" s="304"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -13695,8 +13594,8 @@
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
-      <c r="B7" s="303"/>
+      <c r="A7" s="287"/>
+      <c r="B7" s="304"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -13720,8 +13619,8 @@
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="303"/>
+      <c r="A8" s="287"/>
+      <c r="B8" s="304"/>
       <c r="C8" s="39" t="s">
         <v>73</v>
       </c>
@@ -13745,8 +13644,8 @@
       <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
-      <c r="B9" s="303"/>
+      <c r="A9" s="287"/>
+      <c r="B9" s="304"/>
       <c r="C9" s="39" t="s">
         <v>18</v>
       </c>
@@ -13766,7 +13665,7 @@
       <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="185">
+      <c r="A10" s="287">
         <v>2</v>
       </c>
       <c r="B10" s="302" t="s">
@@ -13796,7 +13695,7 @@
       <c r="L10" s="39"/>
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>10</v>
@@ -13818,7 +13717,7 @@
       <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="39" t="s">
         <v>11</v>
@@ -13840,7 +13739,7 @@
       <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="185"/>
+      <c r="A13" s="287"/>
       <c r="B13" s="302"/>
       <c r="C13" s="39" t="s">
         <v>12</v>
@@ -13862,7 +13761,7 @@
       <c r="L13" s="39"/>
     </row>
     <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="185"/>
+      <c r="A14" s="287"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
         <v>13</v>
@@ -13886,7 +13785,7 @@
       <c r="L14" s="39"/>
     </row>
     <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="287"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
         <v>14</v>
@@ -13910,7 +13809,7 @@
       <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="185"/>
+      <c r="A16" s="287"/>
       <c r="B16" s="302"/>
       <c r="C16" s="39" t="s">
         <v>15</v>
@@ -13934,7 +13833,7 @@
       <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="185"/>
+      <c r="A17" s="287"/>
       <c r="B17" s="302"/>
       <c r="C17" s="39" t="s">
         <v>16</v>
@@ -13958,7 +13857,7 @@
       <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="185"/>
+      <c r="A18" s="287"/>
       <c r="B18" s="302"/>
       <c r="C18" s="39" t="s">
         <v>17</v>
@@ -13982,7 +13881,7 @@
       <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="287"/>
       <c r="B19" s="302"/>
       <c r="C19" s="39" t="s">
         <v>81</v>
@@ -14004,7 +13903,7 @@
       <c r="L19" s="39"/>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="185"/>
+      <c r="A20" s="287"/>
       <c r="B20" s="302"/>
       <c r="C20" s="40" t="s">
         <v>84</v>
@@ -14028,7 +13927,7 @@
       <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="185"/>
+      <c r="A21" s="287"/>
       <c r="B21" s="302"/>
       <c r="C21" s="40" t="s">
         <v>85</v>
@@ -14052,7 +13951,7 @@
       <c r="L21" s="39"/>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="185"/>
+      <c r="A22" s="287"/>
       <c r="B22" s="302"/>
       <c r="C22" s="39" t="s">
         <v>86</v>
@@ -14076,7 +13975,7 @@
       <c r="L22" s="39"/>
     </row>
     <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
+      <c r="A23" s="287"/>
       <c r="B23" s="302"/>
       <c r="C23" s="39" t="s">
         <v>101</v>
@@ -14100,7 +13999,7 @@
       <c r="L23" s="39"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="185">
+      <c r="A24" s="287">
         <v>3</v>
       </c>
       <c r="B24" s="302" t="s">
@@ -14109,7 +14008,7 @@
       <c r="C24" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="304" t="s">
+      <c r="D24" s="303" t="s">
         <v>163</v>
       </c>
       <c r="E24" s="39" t="s">
@@ -14129,12 +14028,12 @@
       <c r="K24" s="39"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="185"/>
+      <c r="A25" s="287"/>
       <c r="B25" s="302"/>
       <c r="C25" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="304"/>
+      <c r="D25" s="303"/>
       <c r="E25" s="39" t="s">
         <v>80</v>
       </c>
@@ -14152,12 +14051,12 @@
       <c r="K25" s="39"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="185"/>
+      <c r="A26" s="287"/>
       <c r="B26" s="302"/>
       <c r="C26" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="304"/>
+      <c r="D26" s="303"/>
       <c r="E26" s="39" t="s">
         <v>19</v>
       </c>
@@ -14175,12 +14074,12 @@
       <c r="K26" s="39"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
+      <c r="A27" s="287"/>
       <c r="B27" s="302"/>
       <c r="C27" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="304"/>
+      <c r="D27" s="303"/>
       <c r="E27" s="39" t="s">
         <v>19</v>
       </c>
@@ -14198,12 +14097,12 @@
       <c r="K27" s="39"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="185"/>
+      <c r="A28" s="287"/>
       <c r="B28" s="302"/>
       <c r="C28" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="304"/>
+      <c r="D28" s="303"/>
       <c r="E28" s="39" t="s">
         <v>19</v>
       </c>
@@ -14221,12 +14120,12 @@
       <c r="K28" s="39"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="185"/>
+      <c r="A29" s="287"/>
       <c r="B29" s="302"/>
       <c r="C29" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="304"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="39" t="s">
         <v>80</v>
       </c>
@@ -14244,12 +14143,12 @@
       <c r="K29" s="39"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="185"/>
+      <c r="A30" s="287"/>
       <c r="B30" s="302"/>
       <c r="C30" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="304"/>
+      <c r="D30" s="303"/>
       <c r="E30" s="39" t="s">
         <v>19</v>
       </c>
@@ -14267,7 +14166,7 @@
       <c r="K30" s="39"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185">
+      <c r="A31" s="287">
         <v>4</v>
       </c>
       <c r="B31" s="302" t="s">
@@ -14276,7 +14175,7 @@
       <c r="C31" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="304" t="s">
+      <c r="D31" s="303" t="s">
         <v>276</v>
       </c>
       <c r="E31" s="39" t="s">
@@ -14294,12 +14193,12 @@
       <c r="K31" s="39"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="185"/>
+      <c r="A32" s="287"/>
       <c r="B32" s="302"/>
       <c r="C32" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="304"/>
+      <c r="D32" s="303"/>
       <c r="E32" s="39" t="s">
         <v>19</v>
       </c>
@@ -14315,12 +14214,12 @@
       <c r="K32" s="39"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="185"/>
+      <c r="A33" s="287"/>
       <c r="B33" s="302"/>
       <c r="C33" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="304"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="39" t="s">
         <v>19</v>
       </c>
@@ -14336,12 +14235,12 @@
       <c r="K33" s="39"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="185"/>
+      <c r="A34" s="287"/>
       <c r="B34" s="302"/>
       <c r="C34" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="304"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="41" t="s">
         <v>19</v>
       </c>
@@ -14359,12 +14258,12 @@
       <c r="K34" s="39"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="185"/>
+      <c r="A35" s="287"/>
       <c r="B35" s="302"/>
       <c r="C35" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="304"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="39" t="s">
         <v>19</v>
       </c>
@@ -14384,12 +14283,12 @@
       <c r="K35" s="39"/>
     </row>
     <row r="36" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="185"/>
+      <c r="A36" s="287"/>
       <c r="B36" s="302"/>
       <c r="C36" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="304"/>
+      <c r="D36" s="303"/>
       <c r="E36" s="39" t="s">
         <v>80</v>
       </c>
@@ -14408,12 +14307,12 @@
       <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="185"/>
+      <c r="A37" s="287"/>
       <c r="B37" s="302"/>
       <c r="C37" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="304"/>
+      <c r="D37" s="303"/>
       <c r="E37" s="39" t="s">
         <v>19</v>
       </c>
@@ -14432,12 +14331,12 @@
       <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="185"/>
+      <c r="A38" s="287"/>
       <c r="B38" s="302"/>
       <c r="C38" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="304"/>
+      <c r="D38" s="303"/>
       <c r="E38" s="39" t="s">
         <v>19</v>
       </c>
@@ -14456,12 +14355,12 @@
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="185"/>
+      <c r="A39" s="287"/>
       <c r="B39" s="302"/>
       <c r="C39" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="304"/>
+      <c r="D39" s="303"/>
       <c r="E39" s="39" t="s">
         <v>19</v>
       </c>
@@ -14477,12 +14376,12 @@
       <c r="K39" s="39"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="185"/>
+      <c r="A40" s="287"/>
       <c r="B40" s="302"/>
       <c r="C40" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="304"/>
+      <c r="D40" s="303"/>
       <c r="E40" s="40" t="s">
         <v>19</v>
       </c>
@@ -14498,12 +14397,12 @@
       <c r="K40" s="39"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="185"/>
+      <c r="A41" s="287"/>
       <c r="B41" s="302"/>
       <c r="C41" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="304"/>
+      <c r="D41" s="303"/>
       <c r="E41" s="40" t="s">
         <v>19</v>
       </c>
@@ -14523,12 +14422,12 @@
       <c r="K41" s="39"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="185"/>
+      <c r="A42" s="287"/>
       <c r="B42" s="302"/>
       <c r="C42" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="304"/>
+      <c r="D42" s="303"/>
       <c r="E42" s="40" t="s">
         <v>19</v>
       </c>
@@ -14548,12 +14447,12 @@
       <c r="K42" s="39"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="185"/>
+      <c r="A43" s="287"/>
       <c r="B43" s="302"/>
       <c r="C43" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="304"/>
+      <c r="D43" s="303"/>
       <c r="E43" s="40" t="s">
         <v>19</v>
       </c>
@@ -14573,12 +14472,12 @@
       <c r="K43" s="39"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="185"/>
+      <c r="A44" s="287"/>
       <c r="B44" s="302"/>
       <c r="C44" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="304"/>
+      <c r="D44" s="303"/>
       <c r="E44" s="40" t="s">
         <v>19</v>
       </c>
@@ -14598,12 +14497,12 @@
       <c r="K44" s="39"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="185"/>
+      <c r="A45" s="287"/>
       <c r="B45" s="302"/>
       <c r="C45" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="304"/>
+      <c r="D45" s="303"/>
       <c r="E45" s="40" t="s">
         <v>80</v>
       </c>
@@ -14621,12 +14520,12 @@
       <c r="K45" s="39"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="185"/>
+      <c r="A46" s="287"/>
       <c r="B46" s="302"/>
       <c r="C46" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="304"/>
+      <c r="D46" s="303"/>
       <c r="E46" s="40" t="s">
         <v>19</v>
       </c>
@@ -14642,12 +14541,12 @@
       <c r="K46" s="39"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
+      <c r="A47" s="287"/>
       <c r="B47" s="302"/>
       <c r="C47" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="304"/>
+      <c r="D47" s="303"/>
       <c r="E47" s="40" t="s">
         <v>19</v>
       </c>
@@ -14663,7 +14562,7 @@
       <c r="K47" s="39"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="185">
+      <c r="A48" s="287">
         <v>5</v>
       </c>
       <c r="B48" s="302" t="s">
@@ -14672,7 +14571,7 @@
       <c r="C48" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="304" t="s">
+      <c r="D48" s="303" t="s">
         <v>278</v>
       </c>
       <c r="E48" s="39" t="s">
@@ -14690,12 +14589,12 @@
       <c r="K48" s="39"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="185"/>
+      <c r="A49" s="287"/>
       <c r="B49" s="302"/>
       <c r="C49" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="304"/>
+      <c r="D49" s="303"/>
       <c r="E49" s="39" t="s">
         <v>19</v>
       </c>
@@ -14711,12 +14610,12 @@
       <c r="K49" s="39"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="185"/>
+      <c r="A50" s="287"/>
       <c r="B50" s="302"/>
       <c r="C50" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="304"/>
+      <c r="D50" s="303"/>
       <c r="E50" s="39" t="s">
         <v>19</v>
       </c>
@@ -14732,12 +14631,12 @@
       <c r="K50" s="39"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="185"/>
+      <c r="A51" s="287"/>
       <c r="B51" s="302"/>
       <c r="C51" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="304"/>
+      <c r="D51" s="303"/>
       <c r="E51" s="41" t="s">
         <v>19</v>
       </c>
@@ -14755,12 +14654,12 @@
       <c r="K51" s="39"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="185"/>
+      <c r="A52" s="287"/>
       <c r="B52" s="302"/>
       <c r="C52" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="304"/>
+      <c r="D52" s="303"/>
       <c r="E52" s="39" t="s">
         <v>19</v>
       </c>
@@ -14780,12 +14679,12 @@
       <c r="K52" s="39"/>
     </row>
     <row r="53" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="185"/>
+      <c r="A53" s="287"/>
       <c r="B53" s="302"/>
       <c r="C53" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="304"/>
+      <c r="D53" s="303"/>
       <c r="E53" s="39" t="s">
         <v>80</v>
       </c>
@@ -14804,12 +14703,12 @@
       <c r="L53" s="13"/>
     </row>
     <row r="54" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="185"/>
+      <c r="A54" s="287"/>
       <c r="B54" s="302"/>
       <c r="C54" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="304"/>
+      <c r="D54" s="303"/>
       <c r="E54" s="39" t="s">
         <v>19</v>
       </c>
@@ -14828,12 +14727,12 @@
       <c r="L54" s="13"/>
     </row>
     <row r="55" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="185"/>
+      <c r="A55" s="287"/>
       <c r="B55" s="302"/>
       <c r="C55" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="304"/>
+      <c r="D55" s="303"/>
       <c r="E55" s="39" t="s">
         <v>19</v>
       </c>
@@ -14852,12 +14751,12 @@
       <c r="L55" s="13"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="185"/>
+      <c r="A56" s="287"/>
       <c r="B56" s="302"/>
       <c r="C56" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="304"/>
+      <c r="D56" s="303"/>
       <c r="E56" s="39" t="s">
         <v>19</v>
       </c>
@@ -14873,12 +14772,12 @@
       <c r="K56" s="39"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="185"/>
+      <c r="A57" s="287"/>
       <c r="B57" s="302"/>
       <c r="C57" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="304"/>
+      <c r="D57" s="303"/>
       <c r="E57" s="40" t="s">
         <v>19</v>
       </c>
@@ -14894,12 +14793,12 @@
       <c r="K57" s="39"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="185"/>
+      <c r="A58" s="287"/>
       <c r="B58" s="302"/>
       <c r="C58" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D58" s="304"/>
+      <c r="D58" s="303"/>
       <c r="E58" s="40" t="s">
         <v>19</v>
       </c>
@@ -14919,12 +14818,12 @@
       <c r="K58" s="39"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="185"/>
+      <c r="A59" s="287"/>
       <c r="B59" s="302"/>
       <c r="C59" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="304"/>
+      <c r="D59" s="303"/>
       <c r="E59" s="40" t="s">
         <v>19</v>
       </c>
@@ -14944,12 +14843,12 @@
       <c r="K59" s="39"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="185"/>
+      <c r="A60" s="287"/>
       <c r="B60" s="302"/>
       <c r="C60" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="304"/>
+      <c r="D60" s="303"/>
       <c r="E60" s="40" t="s">
         <v>19</v>
       </c>
@@ -14969,12 +14868,12 @@
       <c r="K60" s="39"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="185"/>
+      <c r="A61" s="287"/>
       <c r="B61" s="302"/>
       <c r="C61" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="304"/>
+      <c r="D61" s="303"/>
       <c r="E61" s="40" t="s">
         <v>19</v>
       </c>
@@ -14992,12 +14891,12 @@
       <c r="K61" s="39"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="185"/>
+      <c r="A62" s="287"/>
       <c r="B62" s="302"/>
       <c r="C62" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="304"/>
+      <c r="D62" s="303"/>
       <c r="E62" s="40" t="s">
         <v>80</v>
       </c>
@@ -15015,12 +14914,12 @@
       <c r="K62" s="39"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="185"/>
+      <c r="A63" s="287"/>
       <c r="B63" s="302"/>
       <c r="C63" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="304"/>
+      <c r="D63" s="303"/>
       <c r="E63" s="40" t="s">
         <v>19</v>
       </c>
@@ -15036,12 +14935,12 @@
       <c r="K63" s="39"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="185"/>
+      <c r="A64" s="287"/>
       <c r="B64" s="302"/>
       <c r="C64" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="304"/>
+      <c r="D64" s="303"/>
       <c r="E64" s="40" t="s">
         <v>19</v>
       </c>
@@ -15059,7 +14958,7 @@
       <c r="K64" s="39"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="185">
+      <c r="A65" s="287">
         <v>6</v>
       </c>
       <c r="B65" s="302" t="s">
@@ -15068,7 +14967,7 @@
       <c r="C65" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="304" t="s">
+      <c r="D65" s="303" t="s">
         <v>164</v>
       </c>
       <c r="E65" s="39" t="s">
@@ -15086,12 +14985,12 @@
       <c r="K65" s="39"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="185"/>
+      <c r="A66" s="287"/>
       <c r="B66" s="302"/>
       <c r="C66" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="304"/>
+      <c r="D66" s="303"/>
       <c r="E66" s="39" t="s">
         <v>19</v>
       </c>
@@ -15107,12 +15006,12 @@
       <c r="K66" s="39"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="185"/>
+      <c r="A67" s="287"/>
       <c r="B67" s="302"/>
       <c r="C67" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="304"/>
+      <c r="D67" s="303"/>
       <c r="E67" s="39" t="s">
         <v>19</v>
       </c>
@@ -15128,7 +15027,7 @@
       <c r="K67" s="39"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="185">
+      <c r="A68" s="287">
         <v>7</v>
       </c>
       <c r="B68" s="302" t="s">
@@ -15137,7 +15036,7 @@
       <c r="C68" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="304" t="s">
+      <c r="D68" s="303" t="s">
         <v>165</v>
       </c>
       <c r="E68" s="39" t="s">
@@ -15155,12 +15054,12 @@
       <c r="K68" s="39"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="185"/>
+      <c r="A69" s="287"/>
       <c r="B69" s="302"/>
       <c r="C69" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="304"/>
+      <c r="D69" s="303"/>
       <c r="E69" s="39" t="s">
         <v>19</v>
       </c>
@@ -15176,12 +15075,12 @@
       <c r="K69" s="39"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="185"/>
+      <c r="A70" s="287"/>
       <c r="B70" s="302"/>
       <c r="C70" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="304"/>
+      <c r="D70" s="303"/>
       <c r="E70" s="39" t="s">
         <v>19</v>
       </c>
@@ -15197,7 +15096,7 @@
       <c r="K70" s="39"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="185">
+      <c r="A71" s="287">
         <v>8</v>
       </c>
       <c r="B71" s="302" t="s">
@@ -15206,7 +15105,7 @@
       <c r="C71" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="304" t="s">
+      <c r="D71" s="303" t="s">
         <v>166</v>
       </c>
       <c r="E71" s="39" t="s">
@@ -15224,12 +15123,12 @@
       <c r="K71" s="39"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="185"/>
+      <c r="A72" s="287"/>
       <c r="B72" s="302"/>
       <c r="C72" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="304"/>
+      <c r="D72" s="303"/>
       <c r="E72" s="39" t="s">
         <v>19</v>
       </c>
@@ -15245,12 +15144,12 @@
       <c r="K72" s="39"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="185"/>
+      <c r="A73" s="287"/>
       <c r="B73" s="302"/>
       <c r="C73" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="304"/>
+      <c r="D73" s="303"/>
       <c r="E73" s="39" t="s">
         <v>19</v>
       </c>
@@ -15266,7 +15165,7 @@
       <c r="K73" s="39"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="185">
+      <c r="A74" s="287">
         <v>9</v>
       </c>
       <c r="B74" s="302" t="s">
@@ -15275,7 +15174,7 @@
       <c r="C74" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="304" t="s">
+      <c r="D74" s="303" t="s">
         <v>167</v>
       </c>
       <c r="E74" s="39" t="s">
@@ -15293,12 +15192,12 @@
       <c r="K74" s="39"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="185"/>
+      <c r="A75" s="287"/>
       <c r="B75" s="302"/>
       <c r="C75" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="304"/>
+      <c r="D75" s="303"/>
       <c r="E75" s="39" t="s">
         <v>19</v>
       </c>
@@ -15314,12 +15213,12 @@
       <c r="K75" s="39"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="185"/>
+      <c r="A76" s="287"/>
       <c r="B76" s="302"/>
       <c r="C76" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="304"/>
+      <c r="D76" s="303"/>
       <c r="E76" s="39" t="s">
         <v>19</v>
       </c>
@@ -15335,12 +15234,12 @@
       <c r="K76" s="39"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="185"/>
+      <c r="A77" s="287"/>
       <c r="B77" s="302"/>
       <c r="C77" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="304"/>
+      <c r="D77" s="303"/>
       <c r="E77" s="39" t="s">
         <v>19</v>
       </c>
@@ -15360,12 +15259,12 @@
       <c r="K77" s="39"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="185"/>
+      <c r="A78" s="287"/>
       <c r="B78" s="302"/>
       <c r="C78" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D78" s="304"/>
+      <c r="D78" s="303"/>
       <c r="E78" s="41" t="s">
         <v>19</v>
       </c>
@@ -15383,7 +15282,7 @@
       <c r="K78" s="39"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="185">
+      <c r="A79" s="287">
         <v>10</v>
       </c>
       <c r="B79" s="302" t="s">
@@ -15392,7 +15291,7 @@
       <c r="C79" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="304" t="s">
+      <c r="D79" s="303" t="s">
         <v>168</v>
       </c>
       <c r="E79" s="39" t="s">
@@ -15410,12 +15309,12 @@
       <c r="K79" s="39"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="185"/>
+      <c r="A80" s="287"/>
       <c r="B80" s="302"/>
       <c r="C80" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="304"/>
+      <c r="D80" s="303"/>
       <c r="E80" s="39" t="s">
         <v>19</v>
       </c>
@@ -15431,12 +15330,12 @@
       <c r="K80" s="39"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="185"/>
+      <c r="A81" s="287"/>
       <c r="B81" s="302"/>
       <c r="C81" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="304"/>
+      <c r="D81" s="303"/>
       <c r="E81" s="39" t="s">
         <v>19</v>
       </c>
@@ -15452,12 +15351,12 @@
       <c r="K81" s="39"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="185"/>
+      <c r="A82" s="287"/>
       <c r="B82" s="302"/>
       <c r="C82" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="304"/>
+      <c r="D82" s="303"/>
       <c r="E82" s="41" t="s">
         <v>19</v>
       </c>
@@ -15477,7 +15376,7 @@
       <c r="K82" s="39"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="185">
+      <c r="A83" s="287">
         <v>11</v>
       </c>
       <c r="B83" s="302" t="s">
@@ -15486,7 +15385,7 @@
       <c r="C83" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="304" t="s">
+      <c r="D83" s="303" t="s">
         <v>169</v>
       </c>
       <c r="E83" s="41" t="s">
@@ -15504,12 +15403,12 @@
       <c r="K83" s="39"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="185"/>
+      <c r="A84" s="287"/>
       <c r="B84" s="302"/>
       <c r="C84" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="304"/>
+      <c r="D84" s="303"/>
       <c r="E84" s="41" t="s">
         <v>19</v>
       </c>
@@ -15525,12 +15424,12 @@
       <c r="K84" s="39"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="185"/>
+      <c r="A85" s="287"/>
       <c r="B85" s="302"/>
       <c r="C85" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="304"/>
+      <c r="D85" s="303"/>
       <c r="E85" s="41" t="s">
         <v>19</v>
       </c>
@@ -15546,12 +15445,12 @@
       <c r="K85" s="39"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="185"/>
+      <c r="A86" s="287"/>
       <c r="B86" s="302"/>
       <c r="C86" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="304"/>
+      <c r="D86" s="303"/>
       <c r="E86" s="41" t="s">
         <v>19</v>
       </c>
@@ -15571,12 +15470,12 @@
       <c r="K86" s="39"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="185"/>
+      <c r="A87" s="287"/>
       <c r="B87" s="302"/>
       <c r="C87" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="304"/>
+      <c r="D87" s="303"/>
       <c r="E87" s="41" t="s">
         <v>19</v>
       </c>
@@ -15596,12 +15495,12 @@
       <c r="K87" s="41"/>
     </row>
     <row r="88" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="185"/>
+      <c r="A88" s="287"/>
       <c r="B88" s="302"/>
       <c r="C88" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="304"/>
+      <c r="D88" s="303"/>
       <c r="E88" s="41" t="s">
         <v>80</v>
       </c>
@@ -15620,12 +15519,12 @@
       <c r="L88" s="13"/>
     </row>
     <row r="89" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="185"/>
+      <c r="A89" s="287"/>
       <c r="B89" s="302"/>
       <c r="C89" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="304"/>
+      <c r="D89" s="303"/>
       <c r="E89" s="41" t="s">
         <v>19</v>
       </c>
@@ -15644,12 +15543,12 @@
       <c r="L89" s="13"/>
     </row>
     <row r="90" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="185"/>
+      <c r="A90" s="287"/>
       <c r="B90" s="302"/>
       <c r="C90" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D90" s="304"/>
+      <c r="D90" s="303"/>
       <c r="E90" s="41" t="s">
         <v>19</v>
       </c>
@@ -15668,12 +15567,12 @@
       <c r="L90" s="13"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="185"/>
+      <c r="A91" s="287"/>
       <c r="B91" s="302"/>
       <c r="C91" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D91" s="304"/>
+      <c r="D91" s="303"/>
       <c r="E91" s="41" t="s">
         <v>19</v>
       </c>
@@ -15693,12 +15592,12 @@
       <c r="K91" s="41"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="185"/>
+      <c r="A92" s="287"/>
       <c r="B92" s="302"/>
       <c r="C92" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D92" s="304"/>
+      <c r="D92" s="303"/>
       <c r="E92" s="40" t="s">
         <v>19</v>
       </c>
@@ -15714,7 +15613,7 @@
       <c r="K92" s="39"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="185">
+      <c r="A93" s="287">
         <v>12</v>
       </c>
       <c r="B93" s="302" t="s">
@@ -15741,7 +15640,7 @@
       <c r="K93" s="39"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="185"/>
+      <c r="A94" s="287"/>
       <c r="B94" s="302"/>
       <c r="C94" s="40" t="s">
         <v>11</v>
@@ -15762,7 +15661,7 @@
       <c r="K94" s="39"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="185"/>
+      <c r="A95" s="287"/>
       <c r="B95" s="302"/>
       <c r="C95" s="40" t="s">
         <v>12</v>
@@ -15783,7 +15682,7 @@
       <c r="K95" s="39"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="185"/>
+      <c r="A96" s="287"/>
       <c r="B96" s="302"/>
       <c r="C96" s="40" t="s">
         <v>13</v>
@@ -15808,7 +15707,7 @@
       <c r="K96" s="39"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="185"/>
+      <c r="A97" s="287"/>
       <c r="B97" s="302"/>
       <c r="C97" s="40" t="s">
         <v>14</v>
@@ -15833,7 +15732,7 @@
       <c r="K97" s="41"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="185"/>
+      <c r="A98" s="287"/>
       <c r="B98" s="302"/>
       <c r="C98" s="39" t="s">
         <v>174</v>
@@ -15854,7 +15753,7 @@
       <c r="K98" s="39"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="185"/>
+      <c r="A99" s="287"/>
       <c r="B99" s="302"/>
       <c r="C99" s="39" t="s">
         <v>175</v>
@@ -15877,7 +15776,7 @@
       <c r="K99" s="39"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="185"/>
+      <c r="A100" s="287"/>
       <c r="B100" s="302"/>
       <c r="C100" s="39" t="s">
         <v>176</v>
@@ -15907,34 +15806,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B93:B100"/>
-    <mergeCell ref="A93:A100"/>
-    <mergeCell ref="D93:D100"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="A83:A92"/>
-    <mergeCell ref="D83:D92"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D31:D47"/>
-    <mergeCell ref="D48:D64"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="D10:D23"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A48:A64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B48:B64"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="A31:A47"/>
     <mergeCell ref="B24:B30"/>
@@ -15943,6 +15814,34 @@
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A23"/>
     <mergeCell ref="B10:B23"/>
+    <mergeCell ref="A48:A64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B48:B64"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="D31:D47"/>
+    <mergeCell ref="D48:D64"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D10:D23"/>
+    <mergeCell ref="B93:B100"/>
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="D93:D100"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="A83:A92"/>
+    <mergeCell ref="D83:D92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16249,10 +16148,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="304" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -16275,8 +16174,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
-      <c r="B3" s="303"/>
+      <c r="A3" s="287"/>
+      <c r="B3" s="304"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -16293,8 +16192,8 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
-      <c r="B4" s="303"/>
+      <c r="A4" s="287"/>
+      <c r="B4" s="304"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -16313,8 +16212,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
-      <c r="B5" s="303"/>
+      <c r="A5" s="287"/>
+      <c r="B5" s="304"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -16333,8 +16232,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
-      <c r="B6" s="303"/>
+      <c r="A6" s="287"/>
+      <c r="B6" s="304"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -16353,8 +16252,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
-      <c r="B7" s="303"/>
+      <c r="A7" s="287"/>
+      <c r="B7" s="304"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -16373,8 +16272,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="303"/>
+      <c r="A8" s="287"/>
+      <c r="B8" s="304"/>
       <c r="C8" s="39" t="s">
         <v>73</v>
       </c>
@@ -16393,8 +16292,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
-      <c r="B9" s="303"/>
+      <c r="A9" s="287"/>
+      <c r="B9" s="304"/>
       <c r="C9" s="39" t="s">
         <v>18</v>
       </c>
@@ -16472,7 +16371,7 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -16499,7 +16398,7 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
@@ -16518,7 +16417,7 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
@@ -16539,7 +16438,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
@@ -16560,7 +16459,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
@@ -16581,7 +16480,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
@@ -16602,7 +16501,7 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>15</v>
@@ -16623,7 +16522,7 @@
       <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>16</v>
@@ -16644,7 +16543,7 @@
       <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>17</v>
@@ -16665,7 +16564,7 @@
       <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>81</v>
@@ -16684,7 +16583,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="40" t="s">
         <v>84</v>
@@ -16705,7 +16604,7 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="185"/>
+      <c r="A13" s="287"/>
       <c r="B13" s="302"/>
       <c r="C13" s="40" t="s">
         <v>85</v>
@@ -16726,7 +16625,7 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="185"/>
+      <c r="A14" s="287"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
         <v>86</v>
@@ -16747,7 +16646,7 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="287"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
         <v>101</v>
@@ -16828,7 +16727,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -16837,7 +16736,7 @@
       <c r="C2" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="304" t="s">
+      <c r="D2" s="303" t="s">
         <v>169</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -16855,12 +16754,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="304"/>
+      <c r="D3" s="303"/>
       <c r="E3" s="41" t="s">
         <v>19</v>
       </c>
@@ -16874,12 +16773,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="304"/>
+      <c r="D4" s="303"/>
       <c r="E4" s="41" t="s">
         <v>19</v>
       </c>
@@ -16895,12 +16794,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="304"/>
+      <c r="D5" s="303"/>
       <c r="E5" s="41" t="s">
         <v>19</v>
       </c>
@@ -16916,12 +16815,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="304"/>
+      <c r="D6" s="303"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -16937,12 +16836,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="304"/>
+      <c r="D7" s="303"/>
       <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
@@ -16958,12 +16857,12 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="304"/>
+      <c r="D8" s="303"/>
       <c r="E8" s="41" t="s">
         <v>80</v>
       </c>
@@ -16977,12 +16876,12 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="304"/>
+      <c r="D9" s="303"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
@@ -16996,12 +16895,12 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="304"/>
+      <c r="D10" s="303"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
@@ -17015,12 +16914,12 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="304"/>
+      <c r="D11" s="303"/>
       <c r="E11" s="41" t="s">
         <v>19</v>
       </c>
@@ -17036,12 +16935,12 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="304"/>
+      <c r="D12" s="303"/>
       <c r="E12" s="40" t="s">
         <v>19</v>
       </c>
@@ -17497,10 +17396,10 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="287" t="s">
         <v>327</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -17523,8 +17422,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
-      <c r="B3" s="185"/>
+      <c r="A3" s="287"/>
+      <c r="B3" s="287"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -17541,8 +17440,8 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
-      <c r="B4" s="185"/>
+      <c r="A4" s="287"/>
+      <c r="B4" s="287"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -17561,8 +17460,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
-      <c r="B5" s="185"/>
+      <c r="A5" s="287"/>
+      <c r="B5" s="287"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -17581,8 +17480,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
-      <c r="B6" s="185"/>
+      <c r="A6" s="287"/>
+      <c r="B6" s="287"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -17601,8 +17500,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
-      <c r="B7" s="185"/>
+      <c r="A7" s="287"/>
+      <c r="B7" s="287"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -17621,8 +17520,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="185"/>
+      <c r="A8" s="287"/>
+      <c r="B8" s="287"/>
       <c r="C8" s="41" t="s">
         <v>328</v>
       </c>
@@ -17639,8 +17538,8 @@
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
-      <c r="B9" s="185"/>
+      <c r="A9" s="287"/>
+      <c r="B9" s="287"/>
       <c r="C9" s="41" t="s">
         <v>103</v>
       </c>
@@ -17657,8 +17556,8 @@
       <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
-      <c r="B10" s="185"/>
+      <c r="A10" s="287"/>
+      <c r="B10" s="287"/>
       <c r="C10" s="41" t="s">
         <v>329</v>
       </c>

--- a/Documentation/AzureTasks Tags Mappingv3.0.xlsx
+++ b/Documentation/AzureTasks Tags Mappingv3.0.xlsx
@@ -331,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="499">
   <si>
     <t>SL #</t>
   </si>
@@ -1830,6 +1830,9 @@
   </si>
   <si>
     <t>Create file share folder and enable read/write permissions &amp; Provide any advanced user setting on folder or server (if applicable)</t>
+  </si>
+  <si>
+    <t>In-progress</t>
   </si>
 </sst>
 </file>
@@ -2768,19 +2771,340 @@
     <xf numFmtId="15" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2795,339 +3119,18 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3146,6 +3149,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3156,15 +3168,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5341,7 +5344,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -5369,7 +5372,7 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="302"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
@@ -5388,7 +5391,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="302"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
@@ -5409,7 +5412,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="302"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
@@ -5430,7 +5433,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="302"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
@@ -5451,7 +5454,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="302"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
@@ -5472,7 +5475,7 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>355</v>
@@ -5491,7 +5494,7 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>15</v>
@@ -5510,7 +5513,7 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>16</v>
@@ -5529,7 +5532,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="287"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>17</v>
@@ -5548,7 +5551,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="287"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="302"/>
       <c r="C12" s="39" t="s">
         <v>102</v>
@@ -5567,7 +5570,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="287"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="302"/>
       <c r="C13" s="39" t="s">
         <v>103</v>
@@ -5586,7 +5589,7 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="287"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
         <v>104</v>
@@ -5607,7 +5610,7 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="287"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
         <v>375</v>
@@ -5628,7 +5631,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="287"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="302"/>
       <c r="C16" s="39" t="s">
         <v>106</v>
@@ -5649,7 +5652,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="287"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="302"/>
       <c r="C17" s="39" t="s">
         <v>356</v>
@@ -5672,7 +5675,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="287"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="302"/>
       <c r="C18" s="39" t="s">
         <v>357</v>
@@ -5693,7 +5696,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="287"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="302"/>
       <c r="C19" s="39" t="s">
         <v>358</v>
@@ -5713,7 +5716,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="287"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="302"/>
       <c r="C20" s="39" t="s">
         <v>359</v>
@@ -5733,7 +5736,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="287"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="302"/>
       <c r="C21" s="39" t="s">
         <v>373</v>
@@ -5751,7 +5754,7 @@
       <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="287"/>
+      <c r="A22" s="185"/>
       <c r="B22" s="302"/>
       <c r="C22" s="39" t="s">
         <v>374</v>
@@ -5829,10 +5832,10 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="304" t="s">
         <v>207</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -5855,8 +5858,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
-      <c r="B3" s="303"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="304"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -5873,8 +5876,8 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
-      <c r="B4" s="303"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="304"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -5893,8 +5896,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
-      <c r="B5" s="303"/>
+      <c r="A5" s="185"/>
+      <c r="B5" s="304"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -5913,8 +5916,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
-      <c r="B6" s="303"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="304"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -5933,8 +5936,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
-      <c r="B7" s="303"/>
+      <c r="A7" s="185"/>
+      <c r="B7" s="304"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -5953,8 +5956,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
-      <c r="B8" s="303"/>
+      <c r="A8" s="185"/>
+      <c r="B8" s="304"/>
       <c r="C8" s="41" t="s">
         <v>103</v>
       </c>
@@ -5971,8 +5974,8 @@
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
-      <c r="B9" s="303"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="304"/>
       <c r="C9" s="41" t="s">
         <v>351</v>
       </c>
@@ -5989,8 +5992,8 @@
       <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
-      <c r="B10" s="303"/>
+      <c r="A10" s="185"/>
+      <c r="B10" s="304"/>
       <c r="C10" s="50" t="s">
         <v>352</v>
       </c>
@@ -6007,8 +6010,8 @@
       <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="287"/>
-      <c r="B11" s="303"/>
+      <c r="A11" s="185"/>
+      <c r="B11" s="304"/>
       <c r="C11" s="41" t="s">
         <v>353</v>
       </c>
@@ -6086,7 +6089,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -6113,7 +6116,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="302"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
@@ -6132,7 +6135,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="302"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
@@ -6153,7 +6156,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="302"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
@@ -6174,7 +6177,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="302"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
@@ -6195,7 +6198,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="302"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
@@ -6216,7 +6219,7 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>15</v>
@@ -6235,7 +6238,7 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>16</v>
@@ -6254,7 +6257,7 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>17</v>
@@ -6273,7 +6276,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="287"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>102</v>
@@ -6292,7 +6295,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="287"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="302"/>
       <c r="C12" s="39" t="s">
         <v>103</v>
@@ -6311,7 +6314,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="287"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="302"/>
       <c r="C13" s="39" t="s">
         <v>104</v>
@@ -6332,7 +6335,7 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="287"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
         <v>375</v>
@@ -6353,7 +6356,7 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="287"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
         <v>106</v>
@@ -6374,7 +6377,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="287"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="302"/>
       <c r="C16" s="39" t="s">
         <v>376</v>
@@ -6395,7 +6398,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="287"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="302"/>
       <c r="C17" s="39" t="s">
         <v>359</v>
@@ -6416,7 +6419,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="287"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="302"/>
       <c r="C18" s="39" t="s">
         <v>373</v>
@@ -6435,7 +6438,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="287"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="302"/>
       <c r="C19" s="39" t="s">
         <v>374</v>
@@ -6455,7 +6458,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="287"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="302"/>
       <c r="C20" s="41" t="s">
         <v>355</v>
@@ -6475,7 +6478,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="287"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="302"/>
       <c r="C21" s="41" t="s">
         <v>378</v>
@@ -6556,7 +6559,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -6583,7 +6586,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -6602,7 +6605,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -6623,7 +6626,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -6644,7 +6647,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -6665,7 +6668,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -6686,7 +6689,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>174</v>
@@ -6707,7 +6710,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>175</v>
@@ -6728,7 +6731,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>176</v>
@@ -6748,7 +6751,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="287"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="302"/>
       <c r="C11" s="41" t="s">
         <v>90</v>
@@ -6768,7 +6771,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="287"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="302"/>
       <c r="C12" s="41" t="s">
         <v>76</v>
@@ -6788,7 +6791,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="287"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="302"/>
       <c r="C13" s="41" t="s">
         <v>445</v>
@@ -6808,7 +6811,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="287"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="302"/>
       <c r="C14" s="41" t="s">
         <v>448</v>
@@ -6828,7 +6831,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="287"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="302"/>
       <c r="C15" s="41" t="s">
         <v>450</v>
@@ -6848,7 +6851,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="287"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="302"/>
       <c r="C16" s="41" t="s">
         <v>452</v>
@@ -6868,7 +6871,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="287"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="302"/>
       <c r="C17" s="41" t="s">
         <v>453</v>
@@ -6948,7 +6951,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -6975,7 +6978,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -6994,7 +6997,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7015,7 +7018,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7036,7 +7039,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7057,7 +7060,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7078,7 +7081,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -7099,7 +7102,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>381</v>
@@ -7120,7 +7123,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>382</v>
@@ -7200,7 +7203,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -7227,7 +7230,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -7246,7 +7249,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7267,7 +7270,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7288,7 +7291,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7309,7 +7312,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7330,7 +7333,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -7351,7 +7354,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>351</v>
@@ -7372,7 +7375,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>388</v>
@@ -7390,7 +7393,7 @@
       <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="287"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="302"/>
       <c r="C11" s="41" t="s">
         <v>389</v>
@@ -7468,7 +7471,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -7495,7 +7498,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -7514,7 +7517,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7535,7 +7538,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7556,7 +7559,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7577,7 +7580,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7598,7 +7601,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -7619,7 +7622,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>351</v>
@@ -7640,7 +7643,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>389</v>
@@ -7658,7 +7661,7 @@
       <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="287"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="302"/>
       <c r="C11" s="41" t="s">
         <v>396</v>
@@ -7676,7 +7679,7 @@
       <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="287"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="302"/>
       <c r="C12" s="41" t="s">
         <v>397</v>
@@ -7754,7 +7757,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
       <c r="B2" s="302"/>
@@ -7779,7 +7782,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -7798,7 +7801,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7819,7 +7822,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7840,7 +7843,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7861,7 +7864,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7882,7 +7885,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -7903,7 +7906,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>329</v>
@@ -7924,7 +7927,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>399</v>
@@ -7975,16 +7978,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="311">
+      <c r="A2" s="314">
         <v>1</v>
       </c>
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="303" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="304" t="s">
+      <c r="D2" s="303" t="s">
         <v>161</v>
       </c>
       <c r="E2" s="76" t="s">
@@ -8002,12 +8005,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="311"/>
-      <c r="B3" s="304"/>
+      <c r="A3" s="314"/>
+      <c r="B3" s="303"/>
       <c r="C3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="304"/>
+      <c r="D3" s="303"/>
       <c r="E3" s="77" t="s">
         <v>19</v>
       </c>
@@ -8024,12 +8027,12 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="311"/>
-      <c r="B4" s="304"/>
+      <c r="A4" s="314"/>
+      <c r="B4" s="303"/>
       <c r="C4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="304"/>
+      <c r="D4" s="303"/>
       <c r="E4" s="77" t="s">
         <v>19</v>
       </c>
@@ -8046,12 +8049,12 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="311"/>
-      <c r="B5" s="304"/>
+      <c r="A5" s="314"/>
+      <c r="B5" s="303"/>
       <c r="C5" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="304"/>
+      <c r="D5" s="303"/>
       <c r="E5" s="77" t="s">
         <v>19</v>
       </c>
@@ -8070,12 +8073,12 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="311"/>
-      <c r="B6" s="304"/>
+      <c r="A6" s="314"/>
+      <c r="B6" s="303"/>
       <c r="C6" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="304"/>
+      <c r="D6" s="303"/>
       <c r="E6" s="77" t="s">
         <v>19</v>
       </c>
@@ -8096,12 +8099,12 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="311"/>
-      <c r="B7" s="304"/>
+      <c r="A7" s="314"/>
+      <c r="B7" s="303"/>
       <c r="C7" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="304"/>
+      <c r="D7" s="303"/>
       <c r="E7" s="77" t="s">
         <v>19</v>
       </c>
@@ -8122,12 +8125,12 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="311"/>
-      <c r="B8" s="304"/>
+      <c r="A8" s="314"/>
+      <c r="B8" s="303"/>
       <c r="C8" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="304"/>
+      <c r="D8" s="303"/>
       <c r="E8" s="77" t="s">
         <v>19</v>
       </c>
@@ -8148,12 +8151,12 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="311"/>
-      <c r="B9" s="304"/>
+      <c r="A9" s="314"/>
+      <c r="B9" s="303"/>
       <c r="C9" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="304"/>
+      <c r="D9" s="303"/>
       <c r="E9" s="77" t="s">
         <v>19</v>
       </c>
@@ -8170,16 +8173,16 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="312">
+      <c r="A10" s="315">
         <v>2</v>
       </c>
-      <c r="B10" s="312" t="s">
+      <c r="B10" s="315" t="s">
         <v>425</v>
       </c>
       <c r="C10" s="82" t="s">
         <v>304</v>
       </c>
-      <c r="D10" s="312" t="s">
+      <c r="D10" s="315" t="s">
         <v>426</v>
       </c>
       <c r="E10" s="82" t="s">
@@ -8200,12 +8203,12 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="313"/>
-      <c r="B11" s="313"/>
+      <c r="A11" s="316"/>
+      <c r="B11" s="316"/>
       <c r="C11" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="313"/>
+      <c r="D11" s="316"/>
       <c r="E11" s="83" t="s">
         <v>19</v>
       </c>
@@ -8219,12 +8222,12 @@
       <c r="I11" s="84"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="313"/>
-      <c r="B12" s="313"/>
+      <c r="A12" s="316"/>
+      <c r="B12" s="316"/>
       <c r="C12" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="313"/>
+      <c r="D12" s="316"/>
       <c r="E12" s="83" t="s">
         <v>19</v>
       </c>
@@ -8238,12 +8241,12 @@
       <c r="I12" s="84"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="313"/>
-      <c r="B13" s="313"/>
+      <c r="A13" s="316"/>
+      <c r="B13" s="316"/>
       <c r="C13" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="313"/>
+      <c r="D13" s="316"/>
       <c r="E13" s="83" t="s">
         <v>19</v>
       </c>
@@ -8257,12 +8260,12 @@
       <c r="I13" s="84"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="313"/>
-      <c r="B14" s="313"/>
+      <c r="A14" s="316"/>
+      <c r="B14" s="316"/>
       <c r="C14" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="313"/>
+      <c r="D14" s="316"/>
       <c r="E14" s="83" t="s">
         <v>19</v>
       </c>
@@ -8280,12 +8283,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="313"/>
-      <c r="B15" s="313"/>
+      <c r="A15" s="316"/>
+      <c r="B15" s="316"/>
       <c r="C15" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="313"/>
+      <c r="D15" s="316"/>
       <c r="E15" s="83" t="s">
         <v>19</v>
       </c>
@@ -8303,12 +8306,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="314"/>
-      <c r="B16" s="314"/>
+      <c r="A16" s="317"/>
+      <c r="B16" s="317"/>
       <c r="C16" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="314"/>
+      <c r="D16" s="317"/>
       <c r="E16" s="83" t="s">
         <v>19</v>
       </c>
@@ -8324,16 +8327,16 @@
       <c r="I16" s="84"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="315">
+      <c r="A17" s="311">
         <v>3</v>
       </c>
-      <c r="B17" s="315" t="s">
+      <c r="B17" s="311" t="s">
         <v>404</v>
       </c>
       <c r="C17" s="86" t="s">
         <v>304</v>
       </c>
-      <c r="D17" s="315" t="s">
+      <c r="D17" s="311" t="s">
         <v>407</v>
       </c>
       <c r="E17" s="87" t="s">
@@ -8349,12 +8352,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="316"/>
-      <c r="B18" s="316"/>
+      <c r="A18" s="312"/>
+      <c r="B18" s="312"/>
       <c r="C18" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="316"/>
+      <c r="D18" s="312"/>
       <c r="E18" s="87" t="s">
         <v>19</v>
       </c>
@@ -8368,12 +8371,12 @@
       <c r="I18" s="88"/>
     </row>
     <row r="19" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="316"/>
-      <c r="B19" s="316"/>
+      <c r="A19" s="312"/>
+      <c r="B19" s="312"/>
       <c r="C19" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="316"/>
+      <c r="D19" s="312"/>
       <c r="E19" s="87" t="s">
         <v>19</v>
       </c>
@@ -8387,12 +8390,12 @@
       <c r="I19" s="88"/>
     </row>
     <row r="20" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="316"/>
-      <c r="B20" s="316"/>
+      <c r="A20" s="312"/>
+      <c r="B20" s="312"/>
       <c r="C20" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="316"/>
+      <c r="D20" s="312"/>
       <c r="E20" s="87" t="s">
         <v>19</v>
       </c>
@@ -8406,12 +8409,12 @@
       <c r="I20" s="88"/>
     </row>
     <row r="21" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="316"/>
-      <c r="B21" s="316"/>
+      <c r="A21" s="312"/>
+      <c r="B21" s="312"/>
       <c r="C21" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="316"/>
+      <c r="D21" s="312"/>
       <c r="E21" s="87" t="s">
         <v>19</v>
       </c>
@@ -8429,12 +8432,12 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="316"/>
-      <c r="B22" s="316"/>
+      <c r="A22" s="312"/>
+      <c r="B22" s="312"/>
       <c r="C22" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="316"/>
+      <c r="D22" s="312"/>
       <c r="E22" s="87" t="s">
         <v>19</v>
       </c>
@@ -8452,12 +8455,12 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="316"/>
-      <c r="B23" s="316"/>
+      <c r="A23" s="312"/>
+      <c r="B23" s="312"/>
       <c r="C23" s="87" t="s">
         <v>428</v>
       </c>
-      <c r="D23" s="316"/>
+      <c r="D23" s="312"/>
       <c r="E23" s="87" t="s">
         <v>19</v>
       </c>
@@ -8472,12 +8475,12 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="316"/>
-      <c r="B24" s="316"/>
+      <c r="A24" s="312"/>
+      <c r="B24" s="312"/>
       <c r="C24" s="87" t="s">
         <v>429</v>
       </c>
-      <c r="D24" s="316"/>
+      <c r="D24" s="312"/>
       <c r="E24" s="87" t="s">
         <v>19</v>
       </c>
@@ -8495,12 +8498,12 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="316"/>
-      <c r="B25" s="316"/>
+      <c r="A25" s="312"/>
+      <c r="B25" s="312"/>
       <c r="C25" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="316"/>
+      <c r="D25" s="312"/>
       <c r="E25" s="87" t="s">
         <v>19</v>
       </c>
@@ -8513,12 +8516,12 @@
       <c r="I25" s="88"/>
     </row>
     <row r="26" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="317"/>
-      <c r="B26" s="317"/>
+      <c r="A26" s="313"/>
+      <c r="B26" s="313"/>
       <c r="C26" s="87" t="s">
         <v>431</v>
       </c>
-      <c r="D26" s="317"/>
+      <c r="D26" s="313"/>
       <c r="E26" s="87" t="s">
         <v>19</v>
       </c>
@@ -8534,16 +8537,16 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="213">
+      <c r="A27" s="281">
         <v>4</v>
       </c>
-      <c r="B27" s="210" t="s">
+      <c r="B27" s="278" t="s">
         <v>433</v>
       </c>
       <c r="C27" s="90" t="s">
         <v>304</v>
       </c>
-      <c r="D27" s="210" t="s">
+      <c r="D27" s="278" t="s">
         <v>163</v>
       </c>
       <c r="E27" s="90" t="s">
@@ -8559,12 +8562,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="214"/>
-      <c r="B28" s="211"/>
+      <c r="A28" s="282"/>
+      <c r="B28" s="279"/>
       <c r="C28" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="211"/>
+      <c r="D28" s="279"/>
       <c r="E28" s="90" t="s">
         <v>19</v>
       </c>
@@ -8578,12 +8581,12 @@
       <c r="I28" s="91"/>
     </row>
     <row r="29" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="214"/>
-      <c r="B29" s="211"/>
+      <c r="A29" s="282"/>
+      <c r="B29" s="279"/>
       <c r="C29" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="211"/>
+      <c r="D29" s="279"/>
       <c r="E29" s="90" t="s">
         <v>19</v>
       </c>
@@ -8597,12 +8600,12 @@
       <c r="I29" s="91"/>
     </row>
     <row r="30" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="214"/>
-      <c r="B30" s="211"/>
+      <c r="A30" s="282"/>
+      <c r="B30" s="279"/>
       <c r="C30" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="211"/>
+      <c r="D30" s="279"/>
       <c r="E30" s="90" t="s">
         <v>19</v>
       </c>
@@ -8616,12 +8619,12 @@
       <c r="I30" s="91"/>
     </row>
     <row r="31" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="214"/>
-      <c r="B31" s="211"/>
+      <c r="A31" s="282"/>
+      <c r="B31" s="279"/>
       <c r="C31" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="211"/>
+      <c r="D31" s="279"/>
       <c r="E31" s="90" t="s">
         <v>19</v>
       </c>
@@ -8639,12 +8642,12 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="214"/>
-      <c r="B32" s="211"/>
+      <c r="A32" s="282"/>
+      <c r="B32" s="279"/>
       <c r="C32" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="211"/>
+      <c r="D32" s="279"/>
       <c r="E32" s="90" t="s">
         <v>19</v>
       </c>
@@ -8662,12 +8665,12 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="214"/>
-      <c r="B33" s="211"/>
+      <c r="A33" s="282"/>
+      <c r="B33" s="279"/>
       <c r="C33" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="211"/>
+      <c r="D33" s="279"/>
       <c r="E33" s="90" t="s">
         <v>19</v>
       </c>
@@ -8685,12 +8688,12 @@
       </c>
     </row>
     <row r="34" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="214"/>
-      <c r="B34" s="211"/>
+      <c r="A34" s="282"/>
+      <c r="B34" s="279"/>
       <c r="C34" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="211"/>
+      <c r="D34" s="279"/>
       <c r="E34" s="90" t="s">
         <v>19</v>
       </c>
@@ -8709,12 +8712,12 @@
       <c r="L34" s="95"/>
     </row>
     <row r="35" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="214"/>
-      <c r="B35" s="211"/>
+      <c r="A35" s="282"/>
+      <c r="B35" s="279"/>
       <c r="C35" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="211"/>
+      <c r="D35" s="279"/>
       <c r="E35" s="90" t="s">
         <v>19</v>
       </c>
@@ -8733,12 +8736,12 @@
       <c r="L35" s="95"/>
     </row>
     <row r="36" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="214"/>
-      <c r="B36" s="211"/>
+      <c r="A36" s="282"/>
+      <c r="B36" s="279"/>
       <c r="C36" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="211"/>
+      <c r="D36" s="279"/>
       <c r="E36" s="90" t="s">
         <v>80</v>
       </c>
@@ -8757,12 +8760,12 @@
       <c r="L36" s="95"/>
     </row>
     <row r="37" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="214"/>
-      <c r="B37" s="211"/>
+      <c r="A37" s="282"/>
+      <c r="B37" s="279"/>
       <c r="C37" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="211"/>
+      <c r="D37" s="279"/>
       <c r="E37" s="90" t="s">
         <v>19</v>
       </c>
@@ -8781,12 +8784,12 @@
       <c r="L37" s="95"/>
     </row>
     <row r="38" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="214"/>
-      <c r="B38" s="211"/>
+      <c r="A38" s="282"/>
+      <c r="B38" s="279"/>
       <c r="C38" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="211"/>
+      <c r="D38" s="279"/>
       <c r="E38" s="90" t="s">
         <v>19</v>
       </c>
@@ -8805,12 +8808,12 @@
       <c r="L38" s="95"/>
     </row>
     <row r="39" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="214"/>
-      <c r="B39" s="211"/>
+      <c r="A39" s="282"/>
+      <c r="B39" s="279"/>
       <c r="C39" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="211"/>
+      <c r="D39" s="279"/>
       <c r="E39" s="90" t="s">
         <v>80</v>
       </c>
@@ -8829,12 +8832,12 @@
       <c r="L39" s="95"/>
     </row>
     <row r="40" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="215"/>
-      <c r="B40" s="212"/>
+      <c r="A40" s="283"/>
+      <c r="B40" s="280"/>
       <c r="C40" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="212"/>
+      <c r="D40" s="280"/>
       <c r="E40" s="90" t="s">
         <v>80</v>
       </c>
@@ -8854,18 +8857,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="D10:D16"/>
     <mergeCell ref="A17:A26"/>
     <mergeCell ref="B17:B26"/>
     <mergeCell ref="D17:D26"/>
     <mergeCell ref="A27:A40"/>
     <mergeCell ref="B27:B40"/>
     <mergeCell ref="D27:D40"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="D10:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8879,9 +8882,9 @@
   <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
+      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8948,10 +8951,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251">
+      <c r="A2" s="268">
         <v>1</v>
       </c>
-      <c r="B2" s="245" t="s">
+      <c r="B2" s="258" t="s">
         <v>410</v>
       </c>
       <c r="C2" s="63" t="s">
@@ -8989,8 +8992,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="252"/>
-      <c r="B3" s="245"/>
+      <c r="A3" s="269"/>
+      <c r="B3" s="258"/>
       <c r="C3" s="63" t="s">
         <v>403</v>
       </c>
@@ -9021,8 +9024,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="252"/>
-      <c r="B4" s="245"/>
+      <c r="A4" s="269"/>
+      <c r="B4" s="258"/>
       <c r="C4" s="63" t="s">
         <v>404</v>
       </c>
@@ -9053,8 +9056,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252"/>
-      <c r="B5" s="245"/>
+      <c r="A5" s="269"/>
+      <c r="B5" s="258"/>
       <c r="C5" s="63" t="s">
         <v>405</v>
       </c>
@@ -9085,8 +9088,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="252"/>
-      <c r="B6" s="246" t="s">
+      <c r="A6" s="269"/>
+      <c r="B6" s="259" t="s">
         <v>412</v>
       </c>
       <c r="C6" s="63" t="s">
@@ -9113,8 +9116,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="252"/>
-      <c r="B7" s="247"/>
+      <c r="A7" s="269"/>
+      <c r="B7" s="260"/>
       <c r="C7" s="63" t="s">
         <v>190</v>
       </c>
@@ -9152,8 +9155,8 @@
       <c r="O7"/>
     </row>
     <row r="8" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="252"/>
-      <c r="B8" s="247"/>
+      <c r="A8" s="269"/>
+      <c r="B8" s="260"/>
       <c r="C8" s="63" t="s">
         <v>409</v>
       </c>
@@ -9182,8 +9185,8 @@
       <c r="O8"/>
     </row>
     <row r="9" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="252"/>
-      <c r="B9" s="247"/>
+      <c r="A9" s="269"/>
+      <c r="B9" s="260"/>
       <c r="C9" s="63" t="s">
         <v>419</v>
       </c>
@@ -9208,8 +9211,8 @@
       <c r="O9"/>
     </row>
     <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="252"/>
-      <c r="B10" s="247"/>
+      <c r="A10" s="269"/>
+      <c r="B10" s="260"/>
       <c r="C10" s="63" t="s">
         <v>394</v>
       </c>
@@ -9244,8 +9247,8 @@
       <c r="O10"/>
     </row>
     <row r="11" spans="1:15" s="71" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="252"/>
-      <c r="B11" s="246" t="s">
+      <c r="A11" s="269"/>
+      <c r="B11" s="259" t="s">
         <v>413</v>
       </c>
       <c r="C11" s="72" t="s">
@@ -9274,8 +9277,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="71" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="252"/>
-      <c r="B12" s="247"/>
+      <c r="A12" s="269"/>
+      <c r="B12" s="260"/>
       <c r="C12" s="72" t="s">
         <v>415</v>
       </c>
@@ -9306,10 +9309,10 @@
       </c>
     </row>
     <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="234">
+      <c r="A13" s="250">
         <v>2</v>
       </c>
-      <c r="B13" s="230" t="s">
+      <c r="B13" s="246" t="s">
         <v>186</v>
       </c>
       <c r="C13" s="100" t="s">
@@ -9353,8 +9356,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="235"/>
-      <c r="B14" s="231"/>
+      <c r="A14" s="251"/>
+      <c r="B14" s="247"/>
       <c r="C14" s="100" t="s">
         <v>194</v>
       </c>
@@ -9396,8 +9399,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="235"/>
-      <c r="B15" s="231"/>
+      <c r="A15" s="251"/>
+      <c r="B15" s="247"/>
       <c r="C15" s="100" t="s">
         <v>195</v>
       </c>
@@ -9439,8 +9442,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="236"/>
-      <c r="B16" s="232"/>
+      <c r="A16" s="252"/>
+      <c r="B16" s="248"/>
       <c r="C16" s="21" t="s">
         <v>196</v>
       </c>
@@ -9482,8 +9485,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="237"/>
-      <c r="B17" s="233"/>
+      <c r="A17" s="253"/>
+      <c r="B17" s="249"/>
       <c r="C17" s="21" t="s">
         <v>197</v>
       </c>
@@ -9525,91 +9528,91 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="241">
+      <c r="A18" s="254">
         <v>3</v>
       </c>
-      <c r="B18" s="248" t="s">
+      <c r="B18" s="261" t="s">
         <v>417</v>
       </c>
       <c r="C18" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="D18" s="197" t="s">
+      <c r="D18" s="287" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="200" t="s">
+      <c r="E18" s="289" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="208" t="s">
+      <c r="F18" s="295" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="208" t="s">
+      <c r="G18" s="295" t="s">
         <v>198</v>
       </c>
-      <c r="H18" s="279">
+      <c r="H18" s="210">
         <v>42506</v>
       </c>
-      <c r="I18" s="279">
+      <c r="I18" s="210">
         <v>42524</v>
       </c>
-      <c r="J18" s="282">
+      <c r="J18" s="213">
         <v>42523</v>
       </c>
-      <c r="K18" s="205" t="s">
+      <c r="K18" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L18" s="296" t="s">
+      <c r="L18" s="187" t="s">
         <v>421</v>
       </c>
       <c r="M18" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="300" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="295" t="s">
+      <c r="N18" s="192" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="186" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="242"/>
-      <c r="B19" s="198"/>
+      <c r="A19" s="255"/>
+      <c r="B19" s="262"/>
       <c r="C19" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="198"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="206"/>
-      <c r="G19" s="206"/>
-      <c r="H19" s="280"/>
-      <c r="I19" s="280"/>
-      <c r="J19" s="283"/>
-      <c r="K19" s="278"/>
-      <c r="L19" s="296"/>
-      <c r="N19" s="301"/>
-      <c r="O19" s="295"/>
+      <c r="D19" s="262"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="216"/>
+      <c r="H19" s="211"/>
+      <c r="I19" s="211"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="209"/>
+      <c r="L19" s="187"/>
+      <c r="N19" s="193"/>
+      <c r="O19" s="186"/>
     </row>
     <row r="20" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="242"/>
-      <c r="B20" s="198"/>
+      <c r="A20" s="255"/>
+      <c r="B20" s="262"/>
       <c r="C20" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="D20" s="199"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="209"/>
-      <c r="H20" s="281"/>
-      <c r="I20" s="281"/>
-      <c r="J20" s="284"/>
-      <c r="K20" s="278"/>
-      <c r="L20" s="296"/>
-      <c r="N20" s="301"/>
-      <c r="O20" s="295"/>
+      <c r="D20" s="288"/>
+      <c r="E20" s="291"/>
+      <c r="F20" s="296"/>
+      <c r="G20" s="296"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="212"/>
+      <c r="J20" s="215"/>
+      <c r="K20" s="209"/>
+      <c r="L20" s="187"/>
+      <c r="N20" s="193"/>
+      <c r="O20" s="186"/>
     </row>
     <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="243"/>
-      <c r="B21" s="249"/>
+      <c r="A21" s="256"/>
+      <c r="B21" s="263"/>
       <c r="C21" s="106" t="s">
         <v>271</v>
       </c>
@@ -9648,8 +9651,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="243"/>
-      <c r="B22" s="249"/>
+      <c r="A22" s="256"/>
+      <c r="B22" s="263"/>
       <c r="C22" s="106" t="s">
         <v>270</v>
       </c>
@@ -9686,8 +9689,8 @@
       </c>
     </row>
     <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="243"/>
-      <c r="B23" s="249"/>
+      <c r="A23" s="256"/>
+      <c r="B23" s="263"/>
       <c r="C23" s="111" t="s">
         <v>273</v>
       </c>
@@ -9726,66 +9729,66 @@
       </c>
     </row>
     <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="243"/>
-      <c r="B24" s="249"/>
+      <c r="A24" s="256"/>
+      <c r="B24" s="263"/>
       <c r="C24" s="106" t="s">
         <v>202</v>
       </c>
-      <c r="D24" s="203" t="s">
+      <c r="D24" s="292" t="s">
         <v>285</v>
       </c>
-      <c r="E24" s="204" t="s">
+      <c r="E24" s="293" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="207" t="s">
+      <c r="F24" s="294" t="s">
         <v>183</v>
       </c>
-      <c r="G24" s="207" t="s">
+      <c r="G24" s="294" t="s">
         <v>198</v>
       </c>
-      <c r="H24" s="205">
+      <c r="H24" s="208">
         <v>42576</v>
       </c>
-      <c r="I24" s="205">
+      <c r="I24" s="208">
         <v>42579</v>
       </c>
-      <c r="J24" s="205">
+      <c r="J24" s="208">
         <v>42579</v>
       </c>
-      <c r="K24" s="285" t="s">
+      <c r="K24" s="217" t="s">
         <v>303</v>
       </c>
-      <c r="L24" s="297" t="s">
+      <c r="L24" s="188" t="s">
         <v>421</v>
       </c>
-      <c r="N24" s="289" t="s">
-        <v>19</v>
-      </c>
-      <c r="O24" s="287" t="s">
+      <c r="N24" s="194" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="185" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="244"/>
-      <c r="B25" s="198"/>
+      <c r="A25" s="257"/>
+      <c r="B25" s="262"/>
       <c r="C25" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="D25" s="199"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="206"/>
-      <c r="G25" s="206"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="206"/>
-      <c r="J25" s="206"/>
-      <c r="K25" s="283"/>
-      <c r="L25" s="298"/>
-      <c r="N25" s="290"/>
-      <c r="O25" s="287"/>
+      <c r="D25" s="288"/>
+      <c r="E25" s="290"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="216"/>
+      <c r="H25" s="216"/>
+      <c r="I25" s="216"/>
+      <c r="J25" s="216"/>
+      <c r="K25" s="214"/>
+      <c r="L25" s="189"/>
+      <c r="N25" s="191"/>
+      <c r="O25" s="185"/>
     </row>
     <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="112"/>
-      <c r="B26" s="250"/>
+      <c r="B26" s="264"/>
       <c r="C26" s="106" t="s">
         <v>418</v>
       </c>
@@ -9827,7 +9830,7 @@
       <c r="A27" s="238">
         <v>4</v>
       </c>
-      <c r="B27" s="222" t="s">
+      <c r="B27" s="265" t="s">
         <v>205</v>
       </c>
       <c r="C27" s="113" t="s">
@@ -9869,7 +9872,7 @@
     </row>
     <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="239"/>
-      <c r="B28" s="223"/>
+      <c r="B28" s="266"/>
       <c r="C28" s="113" t="s">
         <v>207</v>
       </c>
@@ -9909,7 +9912,7 @@
     </row>
     <row r="29" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="239"/>
-      <c r="B29" s="223"/>
+      <c r="B29" s="266"/>
       <c r="C29" s="113" t="s">
         <v>208</v>
       </c>
@@ -9949,7 +9952,7 @@
     </row>
     <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="240"/>
-      <c r="B30" s="224"/>
+      <c r="B30" s="267"/>
       <c r="C30" s="26" t="s">
         <v>209</v>
       </c>
@@ -9991,7 +9994,7 @@
       <c r="A31" s="238">
         <v>5</v>
       </c>
-      <c r="B31" s="222" t="s">
+      <c r="B31" s="265" t="s">
         <v>210</v>
       </c>
       <c r="C31" s="113" t="s">
@@ -10033,7 +10036,7 @@
     </row>
     <row r="32" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="239"/>
-      <c r="B32" s="223"/>
+      <c r="B32" s="266"/>
       <c r="C32" s="113" t="s">
         <v>211</v>
       </c>
@@ -10073,7 +10076,7 @@
     </row>
     <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="239"/>
-      <c r="B33" s="223"/>
+      <c r="B33" s="266"/>
       <c r="C33" s="113" t="s">
         <v>395</v>
       </c>
@@ -10113,7 +10116,7 @@
     </row>
     <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="240"/>
-      <c r="B34" s="224"/>
+      <c r="B34" s="267"/>
       <c r="C34" s="26" t="s">
         <v>212</v>
       </c>
@@ -10152,89 +10155,89 @@
       </c>
     </row>
     <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="256">
+      <c r="A35" s="241">
         <v>6</v>
       </c>
-      <c r="B35" s="225" t="s">
+      <c r="B35" s="273" t="s">
         <v>213</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D35" s="210" t="s">
+      <c r="D35" s="278" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="213" t="s">
+      <c r="E35" s="281" t="s">
         <v>191</v>
       </c>
-      <c r="F35" s="213" t="s">
+      <c r="F35" s="281" t="s">
         <v>182</v>
       </c>
-      <c r="G35" s="213" t="s">
+      <c r="G35" s="281" t="s">
         <v>180</v>
       </c>
-      <c r="H35" s="213" t="s">
+      <c r="H35" s="281" t="s">
         <v>182</v>
       </c>
-      <c r="I35" s="213" t="s">
+      <c r="I35" s="281" t="s">
         <v>182</v>
       </c>
-      <c r="J35" s="216" t="s">
+      <c r="J35" s="284" t="s">
         <v>182</v>
       </c>
-      <c r="K35" s="286" t="s">
+      <c r="K35" s="199" t="s">
         <v>182</v>
       </c>
-      <c r="L35" s="299" t="s">
+      <c r="L35" s="190" t="s">
         <v>421</v>
       </c>
-      <c r="N35" s="290" t="s">
+      <c r="N35" s="191" t="s">
         <v>182</v>
       </c>
-      <c r="O35" s="287" t="s">
+      <c r="O35" s="185" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="257"/>
-      <c r="B36" s="226"/>
+      <c r="A36" s="242"/>
+      <c r="B36" s="274"/>
       <c r="C36" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="D36" s="211"/>
-      <c r="E36" s="214"/>
-      <c r="F36" s="214"/>
-      <c r="G36" s="214"/>
-      <c r="H36" s="214"/>
-      <c r="I36" s="214"/>
-      <c r="J36" s="217"/>
-      <c r="K36" s="286"/>
-      <c r="L36" s="299"/>
+      <c r="D36" s="279"/>
+      <c r="E36" s="282"/>
+      <c r="F36" s="282"/>
+      <c r="G36" s="282"/>
+      <c r="H36" s="282"/>
+      <c r="I36" s="282"/>
+      <c r="J36" s="285"/>
+      <c r="K36" s="199"/>
+      <c r="L36" s="190"/>
       <c r="M36" s="34"/>
-      <c r="N36" s="290"/>
-      <c r="O36" s="287"/>
+      <c r="N36" s="191"/>
+      <c r="O36" s="185"/>
     </row>
     <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="257"/>
-      <c r="B37" s="226"/>
+      <c r="A37" s="242"/>
+      <c r="B37" s="274"/>
       <c r="C37" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D37" s="212"/>
-      <c r="E37" s="215"/>
-      <c r="F37" s="215"/>
-      <c r="G37" s="215"/>
-      <c r="H37" s="215"/>
-      <c r="I37" s="215"/>
-      <c r="J37" s="218"/>
-      <c r="K37" s="286"/>
-      <c r="L37" s="299"/>
-      <c r="N37" s="290"/>
-      <c r="O37" s="287"/>
+      <c r="D37" s="280"/>
+      <c r="E37" s="283"/>
+      <c r="F37" s="283"/>
+      <c r="G37" s="283"/>
+      <c r="H37" s="283"/>
+      <c r="I37" s="283"/>
+      <c r="J37" s="286"/>
+      <c r="K37" s="199"/>
+      <c r="L37" s="190"/>
+      <c r="N37" s="191"/>
+      <c r="O37" s="185"/>
     </row>
     <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="239"/>
-      <c r="B38" s="223"/>
+      <c r="B38" s="266"/>
       <c r="C38" s="113" t="s">
         <v>217</v>
       </c>
@@ -10274,7 +10277,7 @@
     </row>
     <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="239"/>
-      <c r="B39" s="223"/>
+      <c r="B39" s="266"/>
       <c r="C39" s="113" t="s">
         <v>218</v>
       </c>
@@ -10314,7 +10317,7 @@
     </row>
     <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="240"/>
-      <c r="B40" s="224"/>
+      <c r="B40" s="267"/>
       <c r="C40" s="26" t="s">
         <v>212</v>
       </c>
@@ -10353,10 +10356,10 @@
       </c>
     </row>
     <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="255">
+      <c r="A41" s="237">
         <v>7</v>
       </c>
-      <c r="B41" s="221" t="s">
+      <c r="B41" s="272" t="s">
         <v>219</v>
       </c>
       <c r="C41" s="118" t="s">
@@ -10397,8 +10400,8 @@
       </c>
     </row>
     <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="258"/>
-      <c r="B42" s="227"/>
+      <c r="A42" s="243"/>
+      <c r="B42" s="275"/>
       <c r="C42" s="118" t="s">
         <v>221</v>
       </c>
@@ -10437,8 +10440,8 @@
       </c>
     </row>
     <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="258"/>
-      <c r="B43" s="227"/>
+      <c r="A43" s="243"/>
+      <c r="B43" s="275"/>
       <c r="C43" s="118" t="s">
         <v>222</v>
       </c>
@@ -10477,8 +10480,8 @@
       </c>
     </row>
     <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="259"/>
-      <c r="B44" s="228"/>
+      <c r="A44" s="244"/>
+      <c r="B44" s="276"/>
       <c r="C44" s="27" t="s">
         <v>223</v>
       </c>
@@ -10520,8 +10523,8 @@
       </c>
     </row>
     <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="258"/>
-      <c r="B45" s="227"/>
+      <c r="A45" s="243"/>
+      <c r="B45" s="275"/>
       <c r="C45" s="118" t="s">
         <v>224</v>
       </c>
@@ -10560,8 +10563,8 @@
       </c>
     </row>
     <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="260"/>
-      <c r="B46" s="229"/>
+      <c r="A46" s="245"/>
+      <c r="B46" s="277"/>
       <c r="C46" s="118" t="s">
         <v>225</v>
       </c>
@@ -10595,8 +10598,8 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="259"/>
-      <c r="B47" s="228"/>
+      <c r="A47" s="244"/>
+      <c r="B47" s="276"/>
       <c r="C47" s="27" t="s">
         <v>226</v>
       </c>
@@ -10635,8 +10638,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="260"/>
-      <c r="B48" s="229"/>
+      <c r="A48" s="245"/>
+      <c r="B48" s="277"/>
       <c r="C48" s="118" t="s">
         <v>272</v>
       </c>
@@ -10675,8 +10678,8 @@
       </c>
     </row>
     <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="258"/>
-      <c r="B49" s="227"/>
+      <c r="A49" s="243"/>
+      <c r="B49" s="275"/>
       <c r="C49" s="118" t="s">
         <v>279</v>
       </c>
@@ -10715,8 +10718,8 @@
       </c>
     </row>
     <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="254"/>
-      <c r="B50" s="220"/>
+      <c r="A50" s="236"/>
+      <c r="B50" s="271"/>
       <c r="C50" s="27" t="s">
         <v>227</v>
       </c>
@@ -10755,10 +10758,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="39" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="255">
+      <c r="A51" s="237">
         <v>8</v>
       </c>
-      <c r="B51" s="221" t="s">
+      <c r="B51" s="272" t="s">
         <v>228</v>
       </c>
       <c r="C51" s="118" t="s">
@@ -10794,8 +10797,8 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="254"/>
-      <c r="B52" s="220"/>
+      <c r="A52" s="236"/>
+      <c r="B52" s="271"/>
       <c r="C52" s="27" t="s">
         <v>229</v>
       </c>
@@ -10834,10 +10837,10 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="253">
+      <c r="A53" s="235">
         <v>9</v>
       </c>
-      <c r="B53" s="219" t="s">
+      <c r="B53" s="270" t="s">
         <v>231</v>
       </c>
       <c r="C53" s="27" t="s">
@@ -10878,8 +10881,8 @@
       </c>
     </row>
     <row r="54" spans="1:15" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="254"/>
-      <c r="B54" s="220"/>
+      <c r="A54" s="236"/>
+      <c r="B54" s="271"/>
       <c r="C54" s="27" t="s">
         <v>232</v>
       </c>
@@ -10918,10 +10921,10 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="263">
+      <c r="A55" s="222">
         <v>10</v>
       </c>
-      <c r="B55" s="261" t="s">
+      <c r="B55" s="220" t="s">
         <v>233</v>
       </c>
       <c r="C55" s="20" t="s">
@@ -10958,8 +10961,8 @@
       <c r="O55"/>
     </row>
     <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="264"/>
-      <c r="B56" s="270"/>
+      <c r="A56" s="223"/>
+      <c r="B56" s="229"/>
       <c r="C56" s="20" t="s">
         <v>221</v>
       </c>
@@ -10994,8 +10997,8 @@
       <c r="O56"/>
     </row>
     <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="264"/>
-      <c r="B57" s="270"/>
+      <c r="A57" s="223"/>
+      <c r="B57" s="229"/>
       <c r="C57" s="20" t="s">
         <v>222</v>
       </c>
@@ -11030,8 +11033,8 @@
       <c r="O57"/>
     </row>
     <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="265"/>
-      <c r="B58" s="270"/>
+      <c r="A58" s="224"/>
+      <c r="B58" s="229"/>
       <c r="C58" s="20" t="s">
         <v>235</v>
       </c>
@@ -11066,8 +11069,8 @@
       <c r="O58"/>
     </row>
     <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="265"/>
-      <c r="B59" s="270"/>
+      <c r="A59" s="224"/>
+      <c r="B59" s="229"/>
       <c r="C59" s="20" t="s">
         <v>272</v>
       </c>
@@ -11104,8 +11107,8 @@
       <c r="O59"/>
     </row>
     <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="264"/>
-      <c r="B60" s="270"/>
+      <c r="A60" s="223"/>
+      <c r="B60" s="229"/>
       <c r="C60" s="20" t="s">
         <v>279</v>
       </c>
@@ -11140,8 +11143,8 @@
       <c r="O60"/>
     </row>
     <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="264"/>
-      <c r="B61" s="270"/>
+      <c r="A61" s="223"/>
+      <c r="B61" s="229"/>
       <c r="C61" s="20" t="s">
         <v>280</v>
       </c>
@@ -11176,8 +11179,8 @@
       <c r="O61"/>
     </row>
     <row r="62" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="265"/>
-      <c r="B62" s="262"/>
+      <c r="A62" s="224"/>
+      <c r="B62" s="221"/>
       <c r="C62" s="20" t="s">
         <v>236</v>
       </c>
@@ -11212,34 +11215,34 @@
       <c r="O62"/>
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="265"/>
-      <c r="B63" s="261" t="s">
+      <c r="A63" s="224"/>
+      <c r="B63" s="220" t="s">
         <v>251</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="D63" s="185" t="s">
+      <c r="D63" s="218" t="s">
         <v>292</v>
       </c>
-      <c r="E63" s="187" t="s">
+      <c r="E63" s="197" t="s">
         <v>151</v>
       </c>
-      <c r="F63" s="187" t="s">
+      <c r="F63" s="197" t="s">
         <v>134</v>
       </c>
-      <c r="G63" s="187" t="s">
+      <c r="G63" s="197" t="s">
         <v>198</v>
       </c>
-      <c r="H63" s="189">
+      <c r="H63" s="195">
         <v>42594</v>
       </c>
-      <c r="I63" s="189">
+      <c r="I63" s="195">
         <v>42599</v>
       </c>
-      <c r="J63" s="187"/>
+      <c r="J63" s="197"/>
       <c r="K63" s="31" t="s">
-        <v>283</v>
+        <v>498</v>
       </c>
       <c r="L63" s="75" t="s">
         <v>454</v>
@@ -11248,19 +11251,21 @@
       <c r="O63"/>
     </row>
     <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="265"/>
-      <c r="B64" s="270"/>
+      <c r="A64" s="224"/>
+      <c r="B64" s="229"/>
       <c r="C64" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="D64" s="277"/>
-      <c r="E64" s="188"/>
-      <c r="F64" s="188"/>
-      <c r="G64" s="188"/>
-      <c r="H64" s="276"/>
-      <c r="I64" s="276"/>
-      <c r="J64" s="188"/>
-      <c r="K64" s="31"/>
+      <c r="D64" s="219"/>
+      <c r="E64" s="198"/>
+      <c r="F64" s="198"/>
+      <c r="G64" s="198"/>
+      <c r="H64" s="196"/>
+      <c r="I64" s="196"/>
+      <c r="J64" s="198"/>
+      <c r="K64" s="31" t="s">
+        <v>498</v>
+      </c>
       <c r="L64" s="75" t="s">
         <v>454</v>
       </c>
@@ -11268,8 +11273,8 @@
       <c r="O64"/>
     </row>
     <row r="65" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="265"/>
-      <c r="B65" s="262"/>
+      <c r="A65" s="224"/>
+      <c r="B65" s="221"/>
       <c r="C65" s="20" t="s">
         <v>239</v>
       </c>
@@ -11304,8 +11309,8 @@
       <c r="O65"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="265"/>
-      <c r="B66" s="261" t="s">
+      <c r="A66" s="224"/>
+      <c r="B66" s="220" t="s">
         <v>250</v>
       </c>
       <c r="C66" s="20" t="s">
@@ -11340,8 +11345,8 @@
       <c r="O66"/>
     </row>
     <row r="67" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="265"/>
-      <c r="B67" s="270"/>
+      <c r="A67" s="224"/>
+      <c r="B67" s="229"/>
       <c r="C67" s="20" t="s">
         <v>241</v>
       </c>
@@ -11376,8 +11381,8 @@
       <c r="O67"/>
     </row>
     <row r="68" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="265"/>
-      <c r="B68" s="270"/>
+      <c r="A68" s="224"/>
+      <c r="B68" s="229"/>
       <c r="C68" s="20" t="s">
         <v>242</v>
       </c>
@@ -11412,8 +11417,8 @@
       <c r="O68"/>
     </row>
     <row r="69" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="265"/>
-      <c r="B69" s="270"/>
+      <c r="A69" s="224"/>
+      <c r="B69" s="229"/>
       <c r="C69" s="20" t="s">
         <v>243</v>
       </c>
@@ -11448,30 +11453,30 @@
       <c r="O69"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="265"/>
-      <c r="B70" s="270"/>
+      <c r="A70" s="224"/>
+      <c r="B70" s="229"/>
       <c r="C70" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="D70" s="185" t="s">
+      <c r="D70" s="218" t="s">
         <v>294</v>
       </c>
-      <c r="E70" s="187" t="s">
+      <c r="E70" s="197" t="s">
         <v>151</v>
       </c>
-      <c r="F70" s="187" t="s">
+      <c r="F70" s="197" t="s">
         <v>134</v>
       </c>
-      <c r="G70" s="187" t="s">
+      <c r="G70" s="197" t="s">
         <v>198</v>
       </c>
-      <c r="H70" s="189">
+      <c r="H70" s="195">
         <v>42605</v>
       </c>
-      <c r="I70" s="189">
+      <c r="I70" s="195">
         <v>42608</v>
       </c>
-      <c r="J70" s="187"/>
+      <c r="J70" s="197"/>
       <c r="K70" s="31" t="s">
         <v>283</v>
       </c>
@@ -11482,18 +11487,18 @@
       <c r="O70"/>
     </row>
     <row r="71" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="265"/>
-      <c r="B71" s="270"/>
+      <c r="A71" s="224"/>
+      <c r="B71" s="229"/>
       <c r="C71" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="D71" s="186"/>
-      <c r="E71" s="188"/>
-      <c r="F71" s="188"/>
-      <c r="G71" s="188"/>
-      <c r="H71" s="188"/>
-      <c r="I71" s="188"/>
-      <c r="J71" s="188"/>
+      <c r="D71" s="301"/>
+      <c r="E71" s="198"/>
+      <c r="F71" s="198"/>
+      <c r="G71" s="198"/>
+      <c r="H71" s="198"/>
+      <c r="I71" s="198"/>
+      <c r="J71" s="198"/>
       <c r="K71" s="31" t="s">
         <v>283</v>
       </c>
@@ -11504,8 +11509,8 @@
       <c r="O71"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="265"/>
-      <c r="B72" s="262"/>
+      <c r="A72" s="224"/>
+      <c r="B72" s="221"/>
       <c r="C72" s="20" t="s">
         <v>246</v>
       </c>
@@ -11538,8 +11543,8 @@
       <c r="O72"/>
     </row>
     <row r="73" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="265"/>
-      <c r="B73" s="261" t="s">
+      <c r="A73" s="224"/>
+      <c r="B73" s="220" t="s">
         <v>249</v>
       </c>
       <c r="C73" s="20" t="s">
@@ -11576,8 +11581,8 @@
       <c r="O73"/>
     </row>
     <row r="74" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="265"/>
-      <c r="B74" s="270"/>
+      <c r="A74" s="224"/>
+      <c r="B74" s="229"/>
       <c r="C74" s="20" t="s">
         <v>281</v>
       </c>
@@ -11612,8 +11617,8 @@
       <c r="O74"/>
     </row>
     <row r="75" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="265"/>
-      <c r="B75" s="262"/>
+      <c r="A75" s="224"/>
+      <c r="B75" s="221"/>
       <c r="C75" s="20" t="s">
         <v>248</v>
       </c>
@@ -11646,8 +11651,8 @@
       <c r="O75"/>
     </row>
     <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="264"/>
-      <c r="B76" s="271"/>
+      <c r="A76" s="223"/>
+      <c r="B76" s="230"/>
       <c r="C76" s="20" t="s">
         <v>252</v>
       </c>
@@ -11682,8 +11687,8 @@
       <c r="O76"/>
     </row>
     <row r="77" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="265"/>
-      <c r="B77" s="272"/>
+      <c r="A77" s="224"/>
+      <c r="B77" s="231"/>
       <c r="C77" s="20" t="s">
         <v>253</v>
       </c>
@@ -11718,8 +11723,8 @@
       <c r="O77"/>
     </row>
     <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="264"/>
-      <c r="B78" s="271"/>
+      <c r="A78" s="223"/>
+      <c r="B78" s="230"/>
       <c r="C78" s="20" t="s">
         <v>254</v>
       </c>
@@ -11754,8 +11759,8 @@
       <c r="O78"/>
     </row>
     <row r="79" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="265"/>
-      <c r="B79" s="261" t="s">
+      <c r="A79" s="224"/>
+      <c r="B79" s="220" t="s">
         <v>257</v>
       </c>
       <c r="C79" s="20" t="s">
@@ -11790,8 +11795,8 @@
       <c r="O79"/>
     </row>
     <row r="80" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="265"/>
-      <c r="B80" s="262"/>
+      <c r="A80" s="224"/>
+      <c r="B80" s="221"/>
       <c r="C80" s="20" t="s">
         <v>256</v>
       </c>
@@ -11826,7 +11831,7 @@
       <c r="O80"/>
     </row>
     <row r="81" spans="1:15" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="264"/>
+      <c r="A81" s="223"/>
       <c r="B81" s="19" t="s">
         <v>258</v>
       </c>
@@ -11864,7 +11869,7 @@
       <c r="O81"/>
     </row>
     <row r="82" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="265"/>
+      <c r="A82" s="224"/>
       <c r="B82" s="20" t="s">
         <v>260</v>
       </c>
@@ -11896,8 +11901,8 @@
       <c r="O82"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="265"/>
-      <c r="B83" s="261" t="s">
+      <c r="A83" s="224"/>
+      <c r="B83" s="220" t="s">
         <v>262</v>
       </c>
       <c r="C83" s="20" t="s">
@@ -11928,8 +11933,8 @@
       <c r="O83"/>
     </row>
     <row r="84" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="265"/>
-      <c r="B84" s="262"/>
+      <c r="A84" s="224"/>
+      <c r="B84" s="221"/>
       <c r="C84" s="20" t="s">
         <v>264</v>
       </c>
@@ -11958,8 +11963,8 @@
       <c r="O84"/>
     </row>
     <row r="85" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="265"/>
-      <c r="B85" s="261" t="s">
+      <c r="A85" s="224"/>
+      <c r="B85" s="220" t="s">
         <v>265</v>
       </c>
       <c r="C85" s="20" t="s">
@@ -11990,8 +11995,8 @@
       <c r="O85"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="266"/>
-      <c r="B86" s="262"/>
+      <c r="A86" s="225"/>
+      <c r="B86" s="221"/>
       <c r="C86" s="20" t="s">
         <v>267</v>
       </c>
@@ -12020,10 +12025,10 @@
       <c r="O86"/>
     </row>
     <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="273">
+      <c r="A87" s="232">
         <v>11</v>
       </c>
-      <c r="B87" s="267" t="s">
+      <c r="B87" s="226" t="s">
         <v>269</v>
       </c>
       <c r="C87" s="123" t="s">
@@ -12064,80 +12069,80 @@
       </c>
     </row>
     <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="273"/>
-      <c r="B88" s="267"/>
+      <c r="A88" s="232"/>
+      <c r="B88" s="226"/>
       <c r="C88" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="D88" s="190" t="s">
+      <c r="D88" s="297" t="s">
         <v>285</v>
       </c>
-      <c r="E88" s="193" t="s">
+      <c r="E88" s="300" t="s">
         <v>151</v>
       </c>
-      <c r="F88" s="193" t="s">
+      <c r="F88" s="300" t="s">
         <v>183</v>
       </c>
-      <c r="G88" s="193" t="s">
+      <c r="G88" s="300" t="s">
         <v>198</v>
       </c>
-      <c r="H88" s="196">
+      <c r="H88" s="202">
         <v>42576</v>
       </c>
-      <c r="I88" s="196">
+      <c r="I88" s="202">
         <v>42579</v>
       </c>
-      <c r="J88" s="292">
+      <c r="J88" s="205">
         <v>42579</v>
       </c>
-      <c r="K88" s="288" t="s">
+      <c r="K88" s="200" t="s">
         <v>303</v>
       </c>
-      <c r="L88" s="288" t="s">
+      <c r="L88" s="200" t="s">
         <v>421</v>
       </c>
-      <c r="N88" s="289" t="s">
-        <v>19</v>
-      </c>
-      <c r="O88" s="287" t="s">
+      <c r="N88" s="194" t="s">
+        <v>19</v>
+      </c>
+      <c r="O88" s="185" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="274"/>
-      <c r="B89" s="268"/>
+      <c r="A89" s="233"/>
+      <c r="B89" s="227"/>
       <c r="C89" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="D89" s="191"/>
-      <c r="E89" s="194"/>
-      <c r="F89" s="194"/>
-      <c r="G89" s="194"/>
-      <c r="H89" s="194"/>
-      <c r="I89" s="194"/>
-      <c r="J89" s="293"/>
-      <c r="K89" s="291"/>
-      <c r="L89" s="288"/>
-      <c r="N89" s="290"/>
-      <c r="O89" s="287"/>
+      <c r="D89" s="298"/>
+      <c r="E89" s="203"/>
+      <c r="F89" s="203"/>
+      <c r="G89" s="203"/>
+      <c r="H89" s="203"/>
+      <c r="I89" s="203"/>
+      <c r="J89" s="206"/>
+      <c r="K89" s="201"/>
+      <c r="L89" s="200"/>
+      <c r="N89" s="191"/>
+      <c r="O89" s="185"/>
     </row>
     <row r="90" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="275"/>
-      <c r="B90" s="269"/>
+      <c r="A90" s="234"/>
+      <c r="B90" s="228"/>
       <c r="C90" s="159" t="s">
         <v>282</v>
       </c>
-      <c r="D90" s="192"/>
-      <c r="E90" s="195"/>
-      <c r="F90" s="195"/>
-      <c r="G90" s="195"/>
-      <c r="H90" s="195"/>
-      <c r="I90" s="195"/>
-      <c r="J90" s="294"/>
-      <c r="K90" s="291"/>
-      <c r="L90" s="288"/>
-      <c r="N90" s="290"/>
-      <c r="O90" s="287"/>
+      <c r="D90" s="299"/>
+      <c r="E90" s="204"/>
+      <c r="F90" s="204"/>
+      <c r="G90" s="204"/>
+      <c r="H90" s="204"/>
+      <c r="I90" s="204"/>
+      <c r="J90" s="207"/>
+      <c r="K90" s="201"/>
+      <c r="L90" s="200"/>
+      <c r="N90" s="191"/>
+      <c r="O90" s="185"/>
     </row>
     <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="160">
@@ -12194,14 +12199,75 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="89">
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="H88:H90"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A55:A86"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B66:B72"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
     <mergeCell ref="I63:I64"/>
     <mergeCell ref="J63:J64"/>
     <mergeCell ref="K35:K37"/>
@@ -12214,75 +12280,14 @@
     <mergeCell ref="J70:J71"/>
     <mergeCell ref="I88:I90"/>
     <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A55:A86"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B66:B72"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="G88:G90"/>
-    <mergeCell ref="H88:H90"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N24:N25"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:L2 K38:L39 K27:L29 K32:L33 K35:L35 K21:L24 K3:K10 L3:L12 L38:L51 K41:L79">
     <cfRule type="expression" dxfId="15" priority="24">
@@ -13477,10 +13482,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="303" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -13506,8 +13511,8 @@
       <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
-      <c r="B3" s="304"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="303"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -13527,8 +13532,8 @@
       <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
-      <c r="B4" s="304"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="303"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -13548,8 +13553,8 @@
       <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
-      <c r="B5" s="304"/>
+      <c r="A5" s="185"/>
+      <c r="B5" s="303"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -13569,8 +13574,8 @@
       <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
-      <c r="B6" s="304"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="303"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -13594,8 +13599,8 @@
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
-      <c r="B7" s="304"/>
+      <c r="A7" s="185"/>
+      <c r="B7" s="303"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -13619,8 +13624,8 @@
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
-      <c r="B8" s="304"/>
+      <c r="A8" s="185"/>
+      <c r="B8" s="303"/>
       <c r="C8" s="39" t="s">
         <v>73</v>
       </c>
@@ -13644,8 +13649,8 @@
       <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
-      <c r="B9" s="304"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="303"/>
       <c r="C9" s="39" t="s">
         <v>18</v>
       </c>
@@ -13665,7 +13670,7 @@
       <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="287">
+      <c r="A10" s="185">
         <v>2</v>
       </c>
       <c r="B10" s="302" t="s">
@@ -13695,7 +13700,7 @@
       <c r="L10" s="39"/>
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="287"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>10</v>
@@ -13717,7 +13722,7 @@
       <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="287"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="302"/>
       <c r="C12" s="39" t="s">
         <v>11</v>
@@ -13739,7 +13744,7 @@
       <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="287"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="302"/>
       <c r="C13" s="39" t="s">
         <v>12</v>
@@ -13761,7 +13766,7 @@
       <c r="L13" s="39"/>
     </row>
     <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="287"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
         <v>13</v>
@@ -13785,7 +13790,7 @@
       <c r="L14" s="39"/>
     </row>
     <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="287"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
         <v>14</v>
@@ -13809,7 +13814,7 @@
       <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="287"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="302"/>
       <c r="C16" s="39" t="s">
         <v>15</v>
@@ -13833,7 +13838,7 @@
       <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="287"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="302"/>
       <c r="C17" s="39" t="s">
         <v>16</v>
@@ -13857,7 +13862,7 @@
       <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="287"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="302"/>
       <c r="C18" s="39" t="s">
         <v>17</v>
@@ -13881,7 +13886,7 @@
       <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="287"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="302"/>
       <c r="C19" s="39" t="s">
         <v>81</v>
@@ -13903,7 +13908,7 @@
       <c r="L19" s="39"/>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="287"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="302"/>
       <c r="C20" s="40" t="s">
         <v>84</v>
@@ -13927,7 +13932,7 @@
       <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="287"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="302"/>
       <c r="C21" s="40" t="s">
         <v>85</v>
@@ -13951,7 +13956,7 @@
       <c r="L21" s="39"/>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="287"/>
+      <c r="A22" s="185"/>
       <c r="B22" s="302"/>
       <c r="C22" s="39" t="s">
         <v>86</v>
@@ -13975,7 +13980,7 @@
       <c r="L22" s="39"/>
     </row>
     <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="287"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="302"/>
       <c r="C23" s="39" t="s">
         <v>101</v>
@@ -13999,7 +14004,7 @@
       <c r="L23" s="39"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="287">
+      <c r="A24" s="185">
         <v>3</v>
       </c>
       <c r="B24" s="302" t="s">
@@ -14008,7 +14013,7 @@
       <c r="C24" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="303" t="s">
+      <c r="D24" s="304" t="s">
         <v>163</v>
       </c>
       <c r="E24" s="39" t="s">
@@ -14028,12 +14033,12 @@
       <c r="K24" s="39"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="287"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="302"/>
       <c r="C25" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="303"/>
+      <c r="D25" s="304"/>
       <c r="E25" s="39" t="s">
         <v>80</v>
       </c>
@@ -14051,12 +14056,12 @@
       <c r="K25" s="39"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="287"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="302"/>
       <c r="C26" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="303"/>
+      <c r="D26" s="304"/>
       <c r="E26" s="39" t="s">
         <v>19</v>
       </c>
@@ -14074,12 +14079,12 @@
       <c r="K26" s="39"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="287"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="302"/>
       <c r="C27" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="303"/>
+      <c r="D27" s="304"/>
       <c r="E27" s="39" t="s">
         <v>19</v>
       </c>
@@ -14097,12 +14102,12 @@
       <c r="K27" s="39"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="287"/>
+      <c r="A28" s="185"/>
       <c r="B28" s="302"/>
       <c r="C28" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="303"/>
+      <c r="D28" s="304"/>
       <c r="E28" s="39" t="s">
         <v>19</v>
       </c>
@@ -14120,12 +14125,12 @@
       <c r="K28" s="39"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="287"/>
+      <c r="A29" s="185"/>
       <c r="B29" s="302"/>
       <c r="C29" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="304"/>
       <c r="E29" s="39" t="s">
         <v>80</v>
       </c>
@@ -14143,12 +14148,12 @@
       <c r="K29" s="39"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="287"/>
+      <c r="A30" s="185"/>
       <c r="B30" s="302"/>
       <c r="C30" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="304"/>
       <c r="E30" s="39" t="s">
         <v>19</v>
       </c>
@@ -14166,7 +14171,7 @@
       <c r="K30" s="39"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="287">
+      <c r="A31" s="185">
         <v>4</v>
       </c>
       <c r="B31" s="302" t="s">
@@ -14175,7 +14180,7 @@
       <c r="C31" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="303" t="s">
+      <c r="D31" s="304" t="s">
         <v>276</v>
       </c>
       <c r="E31" s="39" t="s">
@@ -14193,12 +14198,12 @@
       <c r="K31" s="39"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="287"/>
+      <c r="A32" s="185"/>
       <c r="B32" s="302"/>
       <c r="C32" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="304"/>
       <c r="E32" s="39" t="s">
         <v>19</v>
       </c>
@@ -14214,12 +14219,12 @@
       <c r="K32" s="39"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="287"/>
+      <c r="A33" s="185"/>
       <c r="B33" s="302"/>
       <c r="C33" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="304"/>
       <c r="E33" s="39" t="s">
         <v>19</v>
       </c>
@@ -14235,12 +14240,12 @@
       <c r="K33" s="39"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="287"/>
+      <c r="A34" s="185"/>
       <c r="B34" s="302"/>
       <c r="C34" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="304"/>
       <c r="E34" s="41" t="s">
         <v>19</v>
       </c>
@@ -14258,12 +14263,12 @@
       <c r="K34" s="39"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="287"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="302"/>
       <c r="C35" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="304"/>
       <c r="E35" s="39" t="s">
         <v>19</v>
       </c>
@@ -14283,12 +14288,12 @@
       <c r="K35" s="39"/>
     </row>
     <row r="36" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="287"/>
+      <c r="A36" s="185"/>
       <c r="B36" s="302"/>
       <c r="C36" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="304"/>
       <c r="E36" s="39" t="s">
         <v>80</v>
       </c>
@@ -14307,12 +14312,12 @@
       <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="287"/>
+      <c r="A37" s="185"/>
       <c r="B37" s="302"/>
       <c r="C37" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="303"/>
+      <c r="D37" s="304"/>
       <c r="E37" s="39" t="s">
         <v>19</v>
       </c>
@@ -14331,12 +14336,12 @@
       <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="287"/>
+      <c r="A38" s="185"/>
       <c r="B38" s="302"/>
       <c r="C38" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="303"/>
+      <c r="D38" s="304"/>
       <c r="E38" s="39" t="s">
         <v>19</v>
       </c>
@@ -14355,12 +14360,12 @@
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="287"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="302"/>
       <c r="C39" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="303"/>
+      <c r="D39" s="304"/>
       <c r="E39" s="39" t="s">
         <v>19</v>
       </c>
@@ -14376,12 +14381,12 @@
       <c r="K39" s="39"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="287"/>
+      <c r="A40" s="185"/>
       <c r="B40" s="302"/>
       <c r="C40" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="303"/>
+      <c r="D40" s="304"/>
       <c r="E40" s="40" t="s">
         <v>19</v>
       </c>
@@ -14397,12 +14402,12 @@
       <c r="K40" s="39"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="287"/>
+      <c r="A41" s="185"/>
       <c r="B41" s="302"/>
       <c r="C41" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="303"/>
+      <c r="D41" s="304"/>
       <c r="E41" s="40" t="s">
         <v>19</v>
       </c>
@@ -14422,12 +14427,12 @@
       <c r="K41" s="39"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="287"/>
+      <c r="A42" s="185"/>
       <c r="B42" s="302"/>
       <c r="C42" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="303"/>
+      <c r="D42" s="304"/>
       <c r="E42" s="40" t="s">
         <v>19</v>
       </c>
@@ -14447,12 +14452,12 @@
       <c r="K42" s="39"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="287"/>
+      <c r="A43" s="185"/>
       <c r="B43" s="302"/>
       <c r="C43" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="303"/>
+      <c r="D43" s="304"/>
       <c r="E43" s="40" t="s">
         <v>19</v>
       </c>
@@ -14472,12 +14477,12 @@
       <c r="K43" s="39"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="287"/>
+      <c r="A44" s="185"/>
       <c r="B44" s="302"/>
       <c r="C44" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="303"/>
+      <c r="D44" s="304"/>
       <c r="E44" s="40" t="s">
         <v>19</v>
       </c>
@@ -14497,12 +14502,12 @@
       <c r="K44" s="39"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="287"/>
+      <c r="A45" s="185"/>
       <c r="B45" s="302"/>
       <c r="C45" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="303"/>
+      <c r="D45" s="304"/>
       <c r="E45" s="40" t="s">
         <v>80</v>
       </c>
@@ -14520,12 +14525,12 @@
       <c r="K45" s="39"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="287"/>
+      <c r="A46" s="185"/>
       <c r="B46" s="302"/>
       <c r="C46" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="303"/>
+      <c r="D46" s="304"/>
       <c r="E46" s="40" t="s">
         <v>19</v>
       </c>
@@ -14541,12 +14546,12 @@
       <c r="K46" s="39"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="287"/>
+      <c r="A47" s="185"/>
       <c r="B47" s="302"/>
       <c r="C47" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="303"/>
+      <c r="D47" s="304"/>
       <c r="E47" s="40" t="s">
         <v>19</v>
       </c>
@@ -14562,7 +14567,7 @@
       <c r="K47" s="39"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="287">
+      <c r="A48" s="185">
         <v>5</v>
       </c>
       <c r="B48" s="302" t="s">
@@ -14571,7 +14576,7 @@
       <c r="C48" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="303" t="s">
+      <c r="D48" s="304" t="s">
         <v>278</v>
       </c>
       <c r="E48" s="39" t="s">
@@ -14589,12 +14594,12 @@
       <c r="K48" s="39"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="287"/>
+      <c r="A49" s="185"/>
       <c r="B49" s="302"/>
       <c r="C49" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="303"/>
+      <c r="D49" s="304"/>
       <c r="E49" s="39" t="s">
         <v>19</v>
       </c>
@@ -14610,12 +14615,12 @@
       <c r="K49" s="39"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="287"/>
+      <c r="A50" s="185"/>
       <c r="B50" s="302"/>
       <c r="C50" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="303"/>
+      <c r="D50" s="304"/>
       <c r="E50" s="39" t="s">
         <v>19</v>
       </c>
@@ -14631,12 +14636,12 @@
       <c r="K50" s="39"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="287"/>
+      <c r="A51" s="185"/>
       <c r="B51" s="302"/>
       <c r="C51" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="303"/>
+      <c r="D51" s="304"/>
       <c r="E51" s="41" t="s">
         <v>19</v>
       </c>
@@ -14654,12 +14659,12 @@
       <c r="K51" s="39"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="287"/>
+      <c r="A52" s="185"/>
       <c r="B52" s="302"/>
       <c r="C52" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="303"/>
+      <c r="D52" s="304"/>
       <c r="E52" s="39" t="s">
         <v>19</v>
       </c>
@@ -14679,12 +14684,12 @@
       <c r="K52" s="39"/>
     </row>
     <row r="53" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="287"/>
+      <c r="A53" s="185"/>
       <c r="B53" s="302"/>
       <c r="C53" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="303"/>
+      <c r="D53" s="304"/>
       <c r="E53" s="39" t="s">
         <v>80</v>
       </c>
@@ -14703,12 +14708,12 @@
       <c r="L53" s="13"/>
     </row>
     <row r="54" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="287"/>
+      <c r="A54" s="185"/>
       <c r="B54" s="302"/>
       <c r="C54" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="303"/>
+      <c r="D54" s="304"/>
       <c r="E54" s="39" t="s">
         <v>19</v>
       </c>
@@ -14727,12 +14732,12 @@
       <c r="L54" s="13"/>
     </row>
     <row r="55" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="287"/>
+      <c r="A55" s="185"/>
       <c r="B55" s="302"/>
       <c r="C55" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="303"/>
+      <c r="D55" s="304"/>
       <c r="E55" s="39" t="s">
         <v>19</v>
       </c>
@@ -14751,12 +14756,12 @@
       <c r="L55" s="13"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="287"/>
+      <c r="A56" s="185"/>
       <c r="B56" s="302"/>
       <c r="C56" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="303"/>
+      <c r="D56" s="304"/>
       <c r="E56" s="39" t="s">
         <v>19</v>
       </c>
@@ -14772,12 +14777,12 @@
       <c r="K56" s="39"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="287"/>
+      <c r="A57" s="185"/>
       <c r="B57" s="302"/>
       <c r="C57" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="303"/>
+      <c r="D57" s="304"/>
       <c r="E57" s="40" t="s">
         <v>19</v>
       </c>
@@ -14793,12 +14798,12 @@
       <c r="K57" s="39"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="287"/>
+      <c r="A58" s="185"/>
       <c r="B58" s="302"/>
       <c r="C58" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D58" s="303"/>
+      <c r="D58" s="304"/>
       <c r="E58" s="40" t="s">
         <v>19</v>
       </c>
@@ -14818,12 +14823,12 @@
       <c r="K58" s="39"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="287"/>
+      <c r="A59" s="185"/>
       <c r="B59" s="302"/>
       <c r="C59" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="303"/>
+      <c r="D59" s="304"/>
       <c r="E59" s="40" t="s">
         <v>19</v>
       </c>
@@ -14843,12 +14848,12 @@
       <c r="K59" s="39"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="287"/>
+      <c r="A60" s="185"/>
       <c r="B60" s="302"/>
       <c r="C60" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="303"/>
+      <c r="D60" s="304"/>
       <c r="E60" s="40" t="s">
         <v>19</v>
       </c>
@@ -14868,12 +14873,12 @@
       <c r="K60" s="39"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="287"/>
+      <c r="A61" s="185"/>
       <c r="B61" s="302"/>
       <c r="C61" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="303"/>
+      <c r="D61" s="304"/>
       <c r="E61" s="40" t="s">
         <v>19</v>
       </c>
@@ -14891,12 +14896,12 @@
       <c r="K61" s="39"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="287"/>
+      <c r="A62" s="185"/>
       <c r="B62" s="302"/>
       <c r="C62" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="303"/>
+      <c r="D62" s="304"/>
       <c r="E62" s="40" t="s">
         <v>80</v>
       </c>
@@ -14914,12 +14919,12 @@
       <c r="K62" s="39"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="287"/>
+      <c r="A63" s="185"/>
       <c r="B63" s="302"/>
       <c r="C63" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="303"/>
+      <c r="D63" s="304"/>
       <c r="E63" s="40" t="s">
         <v>19</v>
       </c>
@@ -14935,12 +14940,12 @@
       <c r="K63" s="39"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="287"/>
+      <c r="A64" s="185"/>
       <c r="B64" s="302"/>
       <c r="C64" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="303"/>
+      <c r="D64" s="304"/>
       <c r="E64" s="40" t="s">
         <v>19</v>
       </c>
@@ -14958,7 +14963,7 @@
       <c r="K64" s="39"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="287">
+      <c r="A65" s="185">
         <v>6</v>
       </c>
       <c r="B65" s="302" t="s">
@@ -14967,7 +14972,7 @@
       <c r="C65" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="303" t="s">
+      <c r="D65" s="304" t="s">
         <v>164</v>
       </c>
       <c r="E65" s="39" t="s">
@@ -14985,12 +14990,12 @@
       <c r="K65" s="39"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="287"/>
+      <c r="A66" s="185"/>
       <c r="B66" s="302"/>
       <c r="C66" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="303"/>
+      <c r="D66" s="304"/>
       <c r="E66" s="39" t="s">
         <v>19</v>
       </c>
@@ -15006,12 +15011,12 @@
       <c r="K66" s="39"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="287"/>
+      <c r="A67" s="185"/>
       <c r="B67" s="302"/>
       <c r="C67" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="303"/>
+      <c r="D67" s="304"/>
       <c r="E67" s="39" t="s">
         <v>19</v>
       </c>
@@ -15027,7 +15032,7 @@
       <c r="K67" s="39"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="287">
+      <c r="A68" s="185">
         <v>7</v>
       </c>
       <c r="B68" s="302" t="s">
@@ -15036,7 +15041,7 @@
       <c r="C68" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="303" t="s">
+      <c r="D68" s="304" t="s">
         <v>165</v>
       </c>
       <c r="E68" s="39" t="s">
@@ -15054,12 +15059,12 @@
       <c r="K68" s="39"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="287"/>
+      <c r="A69" s="185"/>
       <c r="B69" s="302"/>
       <c r="C69" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="303"/>
+      <c r="D69" s="304"/>
       <c r="E69" s="39" t="s">
         <v>19</v>
       </c>
@@ -15075,12 +15080,12 @@
       <c r="K69" s="39"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="287"/>
+      <c r="A70" s="185"/>
       <c r="B70" s="302"/>
       <c r="C70" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="303"/>
+      <c r="D70" s="304"/>
       <c r="E70" s="39" t="s">
         <v>19</v>
       </c>
@@ -15096,7 +15101,7 @@
       <c r="K70" s="39"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="287">
+      <c r="A71" s="185">
         <v>8</v>
       </c>
       <c r="B71" s="302" t="s">
@@ -15105,7 +15110,7 @@
       <c r="C71" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="303" t="s">
+      <c r="D71" s="304" t="s">
         <v>166</v>
       </c>
       <c r="E71" s="39" t="s">
@@ -15123,12 +15128,12 @@
       <c r="K71" s="39"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="287"/>
+      <c r="A72" s="185"/>
       <c r="B72" s="302"/>
       <c r="C72" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="303"/>
+      <c r="D72" s="304"/>
       <c r="E72" s="39" t="s">
         <v>19</v>
       </c>
@@ -15144,12 +15149,12 @@
       <c r="K72" s="39"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="287"/>
+      <c r="A73" s="185"/>
       <c r="B73" s="302"/>
       <c r="C73" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="303"/>
+      <c r="D73" s="304"/>
       <c r="E73" s="39" t="s">
         <v>19</v>
       </c>
@@ -15165,7 +15170,7 @@
       <c r="K73" s="39"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="287">
+      <c r="A74" s="185">
         <v>9</v>
       </c>
       <c r="B74" s="302" t="s">
@@ -15174,7 +15179,7 @@
       <c r="C74" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="303" t="s">
+      <c r="D74" s="304" t="s">
         <v>167</v>
       </c>
       <c r="E74" s="39" t="s">
@@ -15192,12 +15197,12 @@
       <c r="K74" s="39"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="287"/>
+      <c r="A75" s="185"/>
       <c r="B75" s="302"/>
       <c r="C75" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="303"/>
+      <c r="D75" s="304"/>
       <c r="E75" s="39" t="s">
         <v>19</v>
       </c>
@@ -15213,12 +15218,12 @@
       <c r="K75" s="39"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="287"/>
+      <c r="A76" s="185"/>
       <c r="B76" s="302"/>
       <c r="C76" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="303"/>
+      <c r="D76" s="304"/>
       <c r="E76" s="39" t="s">
         <v>19</v>
       </c>
@@ -15234,12 +15239,12 @@
       <c r="K76" s="39"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="287"/>
+      <c r="A77" s="185"/>
       <c r="B77" s="302"/>
       <c r="C77" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="303"/>
+      <c r="D77" s="304"/>
       <c r="E77" s="39" t="s">
         <v>19</v>
       </c>
@@ -15259,12 +15264,12 @@
       <c r="K77" s="39"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="287"/>
+      <c r="A78" s="185"/>
       <c r="B78" s="302"/>
       <c r="C78" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D78" s="303"/>
+      <c r="D78" s="304"/>
       <c r="E78" s="41" t="s">
         <v>19</v>
       </c>
@@ -15282,7 +15287,7 @@
       <c r="K78" s="39"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="287">
+      <c r="A79" s="185">
         <v>10</v>
       </c>
       <c r="B79" s="302" t="s">
@@ -15291,7 +15296,7 @@
       <c r="C79" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="303" t="s">
+      <c r="D79" s="304" t="s">
         <v>168</v>
       </c>
       <c r="E79" s="39" t="s">
@@ -15309,12 +15314,12 @@
       <c r="K79" s="39"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="287"/>
+      <c r="A80" s="185"/>
       <c r="B80" s="302"/>
       <c r="C80" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="303"/>
+      <c r="D80" s="304"/>
       <c r="E80" s="39" t="s">
         <v>19</v>
       </c>
@@ -15330,12 +15335,12 @@
       <c r="K80" s="39"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="287"/>
+      <c r="A81" s="185"/>
       <c r="B81" s="302"/>
       <c r="C81" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="303"/>
+      <c r="D81" s="304"/>
       <c r="E81" s="39" t="s">
         <v>19</v>
       </c>
@@ -15351,12 +15356,12 @@
       <c r="K81" s="39"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="287"/>
+      <c r="A82" s="185"/>
       <c r="B82" s="302"/>
       <c r="C82" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="303"/>
+      <c r="D82" s="304"/>
       <c r="E82" s="41" t="s">
         <v>19</v>
       </c>
@@ -15376,7 +15381,7 @@
       <c r="K82" s="39"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="287">
+      <c r="A83" s="185">
         <v>11</v>
       </c>
       <c r="B83" s="302" t="s">
@@ -15385,7 +15390,7 @@
       <c r="C83" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="303" t="s">
+      <c r="D83" s="304" t="s">
         <v>169</v>
       </c>
       <c r="E83" s="41" t="s">
@@ -15403,12 +15408,12 @@
       <c r="K83" s="39"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="287"/>
+      <c r="A84" s="185"/>
       <c r="B84" s="302"/>
       <c r="C84" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="303"/>
+      <c r="D84" s="304"/>
       <c r="E84" s="41" t="s">
         <v>19</v>
       </c>
@@ -15424,12 +15429,12 @@
       <c r="K84" s="39"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="287"/>
+      <c r="A85" s="185"/>
       <c r="B85" s="302"/>
       <c r="C85" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="303"/>
+      <c r="D85" s="304"/>
       <c r="E85" s="41" t="s">
         <v>19</v>
       </c>
@@ -15445,12 +15450,12 @@
       <c r="K85" s="39"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="287"/>
+      <c r="A86" s="185"/>
       <c r="B86" s="302"/>
       <c r="C86" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="303"/>
+      <c r="D86" s="304"/>
       <c r="E86" s="41" t="s">
         <v>19</v>
       </c>
@@ -15470,12 +15475,12 @@
       <c r="K86" s="39"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="287"/>
+      <c r="A87" s="185"/>
       <c r="B87" s="302"/>
       <c r="C87" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="303"/>
+      <c r="D87" s="304"/>
       <c r="E87" s="41" t="s">
         <v>19</v>
       </c>
@@ -15495,12 +15500,12 @@
       <c r="K87" s="41"/>
     </row>
     <row r="88" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="287"/>
+      <c r="A88" s="185"/>
       <c r="B88" s="302"/>
       <c r="C88" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="303"/>
+      <c r="D88" s="304"/>
       <c r="E88" s="41" t="s">
         <v>80</v>
       </c>
@@ -15519,12 +15524,12 @@
       <c r="L88" s="13"/>
     </row>
     <row r="89" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="287"/>
+      <c r="A89" s="185"/>
       <c r="B89" s="302"/>
       <c r="C89" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="303"/>
+      <c r="D89" s="304"/>
       <c r="E89" s="41" t="s">
         <v>19</v>
       </c>
@@ -15543,12 +15548,12 @@
       <c r="L89" s="13"/>
     </row>
     <row r="90" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="287"/>
+      <c r="A90" s="185"/>
       <c r="B90" s="302"/>
       <c r="C90" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D90" s="303"/>
+      <c r="D90" s="304"/>
       <c r="E90" s="41" t="s">
         <v>19</v>
       </c>
@@ -15567,12 +15572,12 @@
       <c r="L90" s="13"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="287"/>
+      <c r="A91" s="185"/>
       <c r="B91" s="302"/>
       <c r="C91" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D91" s="303"/>
+      <c r="D91" s="304"/>
       <c r="E91" s="41" t="s">
         <v>19</v>
       </c>
@@ -15592,12 +15597,12 @@
       <c r="K91" s="41"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="287"/>
+      <c r="A92" s="185"/>
       <c r="B92" s="302"/>
       <c r="C92" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D92" s="303"/>
+      <c r="D92" s="304"/>
       <c r="E92" s="40" t="s">
         <v>19</v>
       </c>
@@ -15613,7 +15618,7 @@
       <c r="K92" s="39"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="287">
+      <c r="A93" s="185">
         <v>12</v>
       </c>
       <c r="B93" s="302" t="s">
@@ -15640,7 +15645,7 @@
       <c r="K93" s="39"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="287"/>
+      <c r="A94" s="185"/>
       <c r="B94" s="302"/>
       <c r="C94" s="40" t="s">
         <v>11</v>
@@ -15661,7 +15666,7 @@
       <c r="K94" s="39"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="287"/>
+      <c r="A95" s="185"/>
       <c r="B95" s="302"/>
       <c r="C95" s="40" t="s">
         <v>12</v>
@@ -15682,7 +15687,7 @@
       <c r="K95" s="39"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="287"/>
+      <c r="A96" s="185"/>
       <c r="B96" s="302"/>
       <c r="C96" s="40" t="s">
         <v>13</v>
@@ -15707,7 +15712,7 @@
       <c r="K96" s="39"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="287"/>
+      <c r="A97" s="185"/>
       <c r="B97" s="302"/>
       <c r="C97" s="40" t="s">
         <v>14</v>
@@ -15732,7 +15737,7 @@
       <c r="K97" s="41"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="287"/>
+      <c r="A98" s="185"/>
       <c r="B98" s="302"/>
       <c r="C98" s="39" t="s">
         <v>174</v>
@@ -15753,7 +15758,7 @@
       <c r="K98" s="39"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="287"/>
+      <c r="A99" s="185"/>
       <c r="B99" s="302"/>
       <c r="C99" s="39" t="s">
         <v>175</v>
@@ -15776,7 +15781,7 @@
       <c r="K99" s="39"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="287"/>
+      <c r="A100" s="185"/>
       <c r="B100" s="302"/>
       <c r="C100" s="39" t="s">
         <v>176</v>
@@ -15806,6 +15811,34 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B93:B100"/>
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="D93:D100"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="A83:A92"/>
+    <mergeCell ref="D83:D92"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="D31:D47"/>
+    <mergeCell ref="D48:D64"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D10:D23"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A48:A64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B48:B64"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="A31:A47"/>
     <mergeCell ref="B24:B30"/>
@@ -15814,34 +15847,6 @@
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A23"/>
     <mergeCell ref="B10:B23"/>
-    <mergeCell ref="A48:A64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B48:B64"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D31:D47"/>
-    <mergeCell ref="D48:D64"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="D10:D23"/>
-    <mergeCell ref="B93:B100"/>
-    <mergeCell ref="A93:A100"/>
-    <mergeCell ref="D93:D100"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="A83:A92"/>
-    <mergeCell ref="D83:D92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16148,10 +16153,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="303" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -16174,8 +16179,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
-      <c r="B3" s="304"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="303"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -16192,8 +16197,8 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
-      <c r="B4" s="304"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="303"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -16212,8 +16217,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
-      <c r="B5" s="304"/>
+      <c r="A5" s="185"/>
+      <c r="B5" s="303"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -16232,8 +16237,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
-      <c r="B6" s="304"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="303"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -16252,8 +16257,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
-      <c r="B7" s="304"/>
+      <c r="A7" s="185"/>
+      <c r="B7" s="303"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -16272,8 +16277,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
-      <c r="B8" s="304"/>
+      <c r="A8" s="185"/>
+      <c r="B8" s="303"/>
       <c r="C8" s="39" t="s">
         <v>73</v>
       </c>
@@ -16292,8 +16297,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
-      <c r="B9" s="304"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="303"/>
       <c r="C9" s="39" t="s">
         <v>18</v>
       </c>
@@ -16371,7 +16376,7 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -16398,7 +16403,7 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="302"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
@@ -16417,7 +16422,7 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="302"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
@@ -16438,7 +16443,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="302"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
@@ -16459,7 +16464,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="302"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
@@ -16480,7 +16485,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="302"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
@@ -16501,7 +16506,7 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>15</v>
@@ -16522,7 +16527,7 @@
       <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>16</v>
@@ -16543,7 +16548,7 @@
       <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>17</v>
@@ -16564,7 +16569,7 @@
       <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="287"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>81</v>
@@ -16583,7 +16588,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="287"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="302"/>
       <c r="C12" s="40" t="s">
         <v>84</v>
@@ -16604,7 +16609,7 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="287"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="302"/>
       <c r="C13" s="40" t="s">
         <v>85</v>
@@ -16625,7 +16630,7 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="287"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
         <v>86</v>
@@ -16646,7 +16651,7 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="287"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
         <v>101</v>
@@ -16727,7 +16732,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -16736,7 +16741,7 @@
       <c r="C2" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="303" t="s">
+      <c r="D2" s="304" t="s">
         <v>169</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -16754,12 +16759,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="303"/>
+      <c r="D3" s="304"/>
       <c r="E3" s="41" t="s">
         <v>19</v>
       </c>
@@ -16773,12 +16778,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="303"/>
+      <c r="D4" s="304"/>
       <c r="E4" s="41" t="s">
         <v>19</v>
       </c>
@@ -16794,12 +16799,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="303"/>
+      <c r="D5" s="304"/>
       <c r="E5" s="41" t="s">
         <v>19</v>
       </c>
@@ -16815,12 +16820,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="303"/>
+      <c r="D6" s="304"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -16836,12 +16841,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="303"/>
+      <c r="D7" s="304"/>
       <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
@@ -16857,12 +16862,12 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="302"/>
       <c r="C8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="303"/>
+      <c r="D8" s="304"/>
       <c r="E8" s="41" t="s">
         <v>80</v>
       </c>
@@ -16876,12 +16881,12 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="302"/>
       <c r="C9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="303"/>
+      <c r="D9" s="304"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
@@ -16895,12 +16900,12 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="302"/>
       <c r="C10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="303"/>
+      <c r="D10" s="304"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
@@ -16914,12 +16919,12 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="287"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="302"/>
       <c r="C11" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="303"/>
+      <c r="D11" s="304"/>
       <c r="E11" s="41" t="s">
         <v>19</v>
       </c>
@@ -16935,12 +16940,12 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="287"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="302"/>
       <c r="C12" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="303"/>
+      <c r="D12" s="304"/>
       <c r="E12" s="40" t="s">
         <v>19</v>
       </c>
@@ -17396,10 +17401,10 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
-      <c r="B2" s="287" t="s">
+      <c r="B2" s="185" t="s">
         <v>327</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -17422,8 +17427,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
-      <c r="B3" s="287"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="185"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -17440,8 +17445,8 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
-      <c r="B4" s="287"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="185"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -17460,8 +17465,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
-      <c r="B5" s="287"/>
+      <c r="A5" s="185"/>
+      <c r="B5" s="185"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -17480,8 +17485,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
-      <c r="B6" s="287"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="185"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -17500,8 +17505,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
-      <c r="B7" s="287"/>
+      <c r="A7" s="185"/>
+      <c r="B7" s="185"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -17520,8 +17525,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
-      <c r="B8" s="287"/>
+      <c r="A8" s="185"/>
+      <c r="B8" s="185"/>
       <c r="C8" s="41" t="s">
         <v>328</v>
       </c>
@@ -17538,8 +17543,8 @@
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
-      <c r="B9" s="287"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="41" t="s">
         <v>103</v>
       </c>
@@ -17556,8 +17561,8 @@
       <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
-      <c r="B10" s="287"/>
+      <c r="A10" s="185"/>
+      <c r="B10" s="185"/>
       <c r="C10" s="41" t="s">
         <v>329</v>
       </c>

--- a/Documentation/AzureTasks Tags Mappingv3.0.xlsx
+++ b/Documentation/AzureTasks Tags Mappingv3.0.xlsx
@@ -2768,19 +2768,340 @@
     <xf numFmtId="15" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2795,339 +3116,18 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3146,6 +3146,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3156,15 +3165,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5341,7 +5341,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -5369,7 +5369,7 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="302"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
@@ -5388,7 +5388,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="302"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
@@ -5409,7 +5409,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="302"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
@@ -5430,7 +5430,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="302"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
@@ -5451,7 +5451,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="302"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
@@ -5472,7 +5472,7 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>355</v>
@@ -5491,7 +5491,7 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>15</v>
@@ -5510,7 +5510,7 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>16</v>
@@ -5529,7 +5529,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="287"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>17</v>
@@ -5548,7 +5548,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="287"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="302"/>
       <c r="C12" s="39" t="s">
         <v>102</v>
@@ -5567,7 +5567,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="287"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="302"/>
       <c r="C13" s="39" t="s">
         <v>103</v>
@@ -5586,7 +5586,7 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="287"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
         <v>104</v>
@@ -5607,7 +5607,7 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="287"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
         <v>375</v>
@@ -5628,7 +5628,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="287"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="302"/>
       <c r="C16" s="39" t="s">
         <v>106</v>
@@ -5649,7 +5649,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="287"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="302"/>
       <c r="C17" s="39" t="s">
         <v>356</v>
@@ -5672,7 +5672,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="287"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="302"/>
       <c r="C18" s="39" t="s">
         <v>357</v>
@@ -5693,7 +5693,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="287"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="302"/>
       <c r="C19" s="39" t="s">
         <v>358</v>
@@ -5713,7 +5713,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="287"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="302"/>
       <c r="C20" s="39" t="s">
         <v>359</v>
@@ -5733,7 +5733,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="287"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="302"/>
       <c r="C21" s="39" t="s">
         <v>373</v>
@@ -5751,7 +5751,7 @@
       <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="287"/>
+      <c r="A22" s="185"/>
       <c r="B22" s="302"/>
       <c r="C22" s="39" t="s">
         <v>374</v>
@@ -5829,10 +5829,10 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="304" t="s">
         <v>207</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -5855,8 +5855,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
-      <c r="B3" s="303"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="304"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -5873,8 +5873,8 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
-      <c r="B4" s="303"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="304"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -5893,8 +5893,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
-      <c r="B5" s="303"/>
+      <c r="A5" s="185"/>
+      <c r="B5" s="304"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -5913,8 +5913,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
-      <c r="B6" s="303"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="304"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -5933,8 +5933,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
-      <c r="B7" s="303"/>
+      <c r="A7" s="185"/>
+      <c r="B7" s="304"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -5953,8 +5953,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
-      <c r="B8" s="303"/>
+      <c r="A8" s="185"/>
+      <c r="B8" s="304"/>
       <c r="C8" s="41" t="s">
         <v>103</v>
       </c>
@@ -5971,8 +5971,8 @@
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
-      <c r="B9" s="303"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="304"/>
       <c r="C9" s="41" t="s">
         <v>351</v>
       </c>
@@ -5989,8 +5989,8 @@
       <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
-      <c r="B10" s="303"/>
+      <c r="A10" s="185"/>
+      <c r="B10" s="304"/>
       <c r="C10" s="50" t="s">
         <v>352</v>
       </c>
@@ -6007,8 +6007,8 @@
       <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="287"/>
-      <c r="B11" s="303"/>
+      <c r="A11" s="185"/>
+      <c r="B11" s="304"/>
       <c r="C11" s="41" t="s">
         <v>353</v>
       </c>
@@ -6086,7 +6086,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -6113,7 +6113,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="302"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
@@ -6132,7 +6132,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="302"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
@@ -6153,7 +6153,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="302"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
@@ -6174,7 +6174,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="302"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
@@ -6195,7 +6195,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="302"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
@@ -6216,7 +6216,7 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>15</v>
@@ -6235,7 +6235,7 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>16</v>
@@ -6254,7 +6254,7 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>17</v>
@@ -6273,7 +6273,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="287"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>102</v>
@@ -6292,7 +6292,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="287"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="302"/>
       <c r="C12" s="39" t="s">
         <v>103</v>
@@ -6311,7 +6311,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="287"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="302"/>
       <c r="C13" s="39" t="s">
         <v>104</v>
@@ -6332,7 +6332,7 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="287"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
         <v>375</v>
@@ -6353,7 +6353,7 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="287"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
         <v>106</v>
@@ -6374,7 +6374,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="287"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="302"/>
       <c r="C16" s="39" t="s">
         <v>376</v>
@@ -6395,7 +6395,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="287"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="302"/>
       <c r="C17" s="39" t="s">
         <v>359</v>
@@ -6416,7 +6416,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="287"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="302"/>
       <c r="C18" s="39" t="s">
         <v>373</v>
@@ -6435,7 +6435,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="287"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="302"/>
       <c r="C19" s="39" t="s">
         <v>374</v>
@@ -6455,7 +6455,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="287"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="302"/>
       <c r="C20" s="41" t="s">
         <v>355</v>
@@ -6475,7 +6475,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="287"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="302"/>
       <c r="C21" s="41" t="s">
         <v>378</v>
@@ -6556,7 +6556,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -6583,7 +6583,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -6602,7 +6602,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -6623,7 +6623,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -6644,7 +6644,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -6665,7 +6665,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -6686,7 +6686,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>174</v>
@@ -6707,7 +6707,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>175</v>
@@ -6728,7 +6728,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>176</v>
@@ -6748,7 +6748,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="287"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="302"/>
       <c r="C11" s="41" t="s">
         <v>90</v>
@@ -6768,7 +6768,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="287"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="302"/>
       <c r="C12" s="41" t="s">
         <v>76</v>
@@ -6788,7 +6788,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="287"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="302"/>
       <c r="C13" s="41" t="s">
         <v>445</v>
@@ -6808,7 +6808,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="287"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="302"/>
       <c r="C14" s="41" t="s">
         <v>448</v>
@@ -6828,7 +6828,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="287"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="302"/>
       <c r="C15" s="41" t="s">
         <v>450</v>
@@ -6848,7 +6848,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="287"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="302"/>
       <c r="C16" s="41" t="s">
         <v>452</v>
@@ -6868,7 +6868,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="287"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="302"/>
       <c r="C17" s="41" t="s">
         <v>453</v>
@@ -6948,7 +6948,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -6975,7 +6975,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -6994,7 +6994,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7015,7 +7015,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7036,7 +7036,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7057,7 +7057,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7078,7 +7078,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -7099,7 +7099,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>381</v>
@@ -7120,7 +7120,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>382</v>
@@ -7200,7 +7200,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -7227,7 +7227,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -7246,7 +7246,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7267,7 +7267,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7288,7 +7288,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7309,7 +7309,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7330,7 +7330,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -7351,7 +7351,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>351</v>
@@ -7372,7 +7372,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>388</v>
@@ -7390,7 +7390,7 @@
       <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="287"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="302"/>
       <c r="C11" s="41" t="s">
         <v>389</v>
@@ -7468,7 +7468,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -7495,7 +7495,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -7514,7 +7514,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7535,7 +7535,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7556,7 +7556,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7577,7 +7577,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7598,7 +7598,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -7619,7 +7619,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>351</v>
@@ -7640,7 +7640,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>389</v>
@@ -7658,7 +7658,7 @@
       <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="287"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="302"/>
       <c r="C11" s="41" t="s">
         <v>396</v>
@@ -7676,7 +7676,7 @@
       <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="287"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="302"/>
       <c r="C12" s="41" t="s">
         <v>397</v>
@@ -7754,7 +7754,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
       <c r="B2" s="302"/>
@@ -7779,7 +7779,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -7798,7 +7798,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7819,7 +7819,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7840,7 +7840,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7861,7 +7861,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7882,7 +7882,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -7903,7 +7903,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>329</v>
@@ -7924,7 +7924,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>399</v>
@@ -7975,16 +7975,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="311">
+      <c r="A2" s="314">
         <v>1</v>
       </c>
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="303" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="304" t="s">
+      <c r="D2" s="303" t="s">
         <v>161</v>
       </c>
       <c r="E2" s="76" t="s">
@@ -8002,12 +8002,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="311"/>
-      <c r="B3" s="304"/>
+      <c r="A3" s="314"/>
+      <c r="B3" s="303"/>
       <c r="C3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="304"/>
+      <c r="D3" s="303"/>
       <c r="E3" s="77" t="s">
         <v>19</v>
       </c>
@@ -8024,12 +8024,12 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="311"/>
-      <c r="B4" s="304"/>
+      <c r="A4" s="314"/>
+      <c r="B4" s="303"/>
       <c r="C4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="304"/>
+      <c r="D4" s="303"/>
       <c r="E4" s="77" t="s">
         <v>19</v>
       </c>
@@ -8046,12 +8046,12 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="311"/>
-      <c r="B5" s="304"/>
+      <c r="A5" s="314"/>
+      <c r="B5" s="303"/>
       <c r="C5" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="304"/>
+      <c r="D5" s="303"/>
       <c r="E5" s="77" t="s">
         <v>19</v>
       </c>
@@ -8070,12 +8070,12 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="311"/>
-      <c r="B6" s="304"/>
+      <c r="A6" s="314"/>
+      <c r="B6" s="303"/>
       <c r="C6" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="304"/>
+      <c r="D6" s="303"/>
       <c r="E6" s="77" t="s">
         <v>19</v>
       </c>
@@ -8096,12 +8096,12 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="311"/>
-      <c r="B7" s="304"/>
+      <c r="A7" s="314"/>
+      <c r="B7" s="303"/>
       <c r="C7" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="304"/>
+      <c r="D7" s="303"/>
       <c r="E7" s="77" t="s">
         <v>19</v>
       </c>
@@ -8122,12 +8122,12 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="311"/>
-      <c r="B8" s="304"/>
+      <c r="A8" s="314"/>
+      <c r="B8" s="303"/>
       <c r="C8" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="304"/>
+      <c r="D8" s="303"/>
       <c r="E8" s="77" t="s">
         <v>19</v>
       </c>
@@ -8148,12 +8148,12 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="311"/>
-      <c r="B9" s="304"/>
+      <c r="A9" s="314"/>
+      <c r="B9" s="303"/>
       <c r="C9" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="304"/>
+      <c r="D9" s="303"/>
       <c r="E9" s="77" t="s">
         <v>19</v>
       </c>
@@ -8170,16 +8170,16 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="312">
+      <c r="A10" s="315">
         <v>2</v>
       </c>
-      <c r="B10" s="312" t="s">
+      <c r="B10" s="315" t="s">
         <v>425</v>
       </c>
       <c r="C10" s="82" t="s">
         <v>304</v>
       </c>
-      <c r="D10" s="312" t="s">
+      <c r="D10" s="315" t="s">
         <v>426</v>
       </c>
       <c r="E10" s="82" t="s">
@@ -8200,12 +8200,12 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="313"/>
-      <c r="B11" s="313"/>
+      <c r="A11" s="316"/>
+      <c r="B11" s="316"/>
       <c r="C11" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="313"/>
+      <c r="D11" s="316"/>
       <c r="E11" s="83" t="s">
         <v>19</v>
       </c>
@@ -8219,12 +8219,12 @@
       <c r="I11" s="84"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="313"/>
-      <c r="B12" s="313"/>
+      <c r="A12" s="316"/>
+      <c r="B12" s="316"/>
       <c r="C12" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="313"/>
+      <c r="D12" s="316"/>
       <c r="E12" s="83" t="s">
         <v>19</v>
       </c>
@@ -8238,12 +8238,12 @@
       <c r="I12" s="84"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="313"/>
-      <c r="B13" s="313"/>
+      <c r="A13" s="316"/>
+      <c r="B13" s="316"/>
       <c r="C13" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="313"/>
+      <c r="D13" s="316"/>
       <c r="E13" s="83" t="s">
         <v>19</v>
       </c>
@@ -8257,12 +8257,12 @@
       <c r="I13" s="84"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="313"/>
-      <c r="B14" s="313"/>
+      <c r="A14" s="316"/>
+      <c r="B14" s="316"/>
       <c r="C14" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="313"/>
+      <c r="D14" s="316"/>
       <c r="E14" s="83" t="s">
         <v>19</v>
       </c>
@@ -8280,12 +8280,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="313"/>
-      <c r="B15" s="313"/>
+      <c r="A15" s="316"/>
+      <c r="B15" s="316"/>
       <c r="C15" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="313"/>
+      <c r="D15" s="316"/>
       <c r="E15" s="83" t="s">
         <v>19</v>
       </c>
@@ -8303,12 +8303,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="314"/>
-      <c r="B16" s="314"/>
+      <c r="A16" s="317"/>
+      <c r="B16" s="317"/>
       <c r="C16" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="314"/>
+      <c r="D16" s="317"/>
       <c r="E16" s="83" t="s">
         <v>19</v>
       </c>
@@ -8324,16 +8324,16 @@
       <c r="I16" s="84"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="315">
+      <c r="A17" s="311">
         <v>3</v>
       </c>
-      <c r="B17" s="315" t="s">
+      <c r="B17" s="311" t="s">
         <v>404</v>
       </c>
       <c r="C17" s="86" t="s">
         <v>304</v>
       </c>
-      <c r="D17" s="315" t="s">
+      <c r="D17" s="311" t="s">
         <v>407</v>
       </c>
       <c r="E17" s="87" t="s">
@@ -8349,12 +8349,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="316"/>
-      <c r="B18" s="316"/>
+      <c r="A18" s="312"/>
+      <c r="B18" s="312"/>
       <c r="C18" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="316"/>
+      <c r="D18" s="312"/>
       <c r="E18" s="87" t="s">
         <v>19</v>
       </c>
@@ -8368,12 +8368,12 @@
       <c r="I18" s="88"/>
     </row>
     <row r="19" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="316"/>
-      <c r="B19" s="316"/>
+      <c r="A19" s="312"/>
+      <c r="B19" s="312"/>
       <c r="C19" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="316"/>
+      <c r="D19" s="312"/>
       <c r="E19" s="87" t="s">
         <v>19</v>
       </c>
@@ -8387,12 +8387,12 @@
       <c r="I19" s="88"/>
     </row>
     <row r="20" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="316"/>
-      <c r="B20" s="316"/>
+      <c r="A20" s="312"/>
+      <c r="B20" s="312"/>
       <c r="C20" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="316"/>
+      <c r="D20" s="312"/>
       <c r="E20" s="87" t="s">
         <v>19</v>
       </c>
@@ -8406,12 +8406,12 @@
       <c r="I20" s="88"/>
     </row>
     <row r="21" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="316"/>
-      <c r="B21" s="316"/>
+      <c r="A21" s="312"/>
+      <c r="B21" s="312"/>
       <c r="C21" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="316"/>
+      <c r="D21" s="312"/>
       <c r="E21" s="87" t="s">
         <v>19</v>
       </c>
@@ -8429,12 +8429,12 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="316"/>
-      <c r="B22" s="316"/>
+      <c r="A22" s="312"/>
+      <c r="B22" s="312"/>
       <c r="C22" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="316"/>
+      <c r="D22" s="312"/>
       <c r="E22" s="87" t="s">
         <v>19</v>
       </c>
@@ -8452,12 +8452,12 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="316"/>
-      <c r="B23" s="316"/>
+      <c r="A23" s="312"/>
+      <c r="B23" s="312"/>
       <c r="C23" s="87" t="s">
         <v>428</v>
       </c>
-      <c r="D23" s="316"/>
+      <c r="D23" s="312"/>
       <c r="E23" s="87" t="s">
         <v>19</v>
       </c>
@@ -8472,12 +8472,12 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="316"/>
-      <c r="B24" s="316"/>
+      <c r="A24" s="312"/>
+      <c r="B24" s="312"/>
       <c r="C24" s="87" t="s">
         <v>429</v>
       </c>
-      <c r="D24" s="316"/>
+      <c r="D24" s="312"/>
       <c r="E24" s="87" t="s">
         <v>19</v>
       </c>
@@ -8495,12 +8495,12 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="316"/>
-      <c r="B25" s="316"/>
+      <c r="A25" s="312"/>
+      <c r="B25" s="312"/>
       <c r="C25" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="316"/>
+      <c r="D25" s="312"/>
       <c r="E25" s="87" t="s">
         <v>19</v>
       </c>
@@ -8513,12 +8513,12 @@
       <c r="I25" s="88"/>
     </row>
     <row r="26" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="317"/>
-      <c r="B26" s="317"/>
+      <c r="A26" s="313"/>
+      <c r="B26" s="313"/>
       <c r="C26" s="87" t="s">
         <v>431</v>
       </c>
-      <c r="D26" s="317"/>
+      <c r="D26" s="313"/>
       <c r="E26" s="87" t="s">
         <v>19</v>
       </c>
@@ -8534,16 +8534,16 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="213">
+      <c r="A27" s="281">
         <v>4</v>
       </c>
-      <c r="B27" s="210" t="s">
+      <c r="B27" s="278" t="s">
         <v>433</v>
       </c>
       <c r="C27" s="90" t="s">
         <v>304</v>
       </c>
-      <c r="D27" s="210" t="s">
+      <c r="D27" s="278" t="s">
         <v>163</v>
       </c>
       <c r="E27" s="90" t="s">
@@ -8559,12 +8559,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="214"/>
-      <c r="B28" s="211"/>
+      <c r="A28" s="282"/>
+      <c r="B28" s="279"/>
       <c r="C28" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="211"/>
+      <c r="D28" s="279"/>
       <c r="E28" s="90" t="s">
         <v>19</v>
       </c>
@@ -8578,12 +8578,12 @@
       <c r="I28" s="91"/>
     </row>
     <row r="29" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="214"/>
-      <c r="B29" s="211"/>
+      <c r="A29" s="282"/>
+      <c r="B29" s="279"/>
       <c r="C29" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="211"/>
+      <c r="D29" s="279"/>
       <c r="E29" s="90" t="s">
         <v>19</v>
       </c>
@@ -8597,12 +8597,12 @@
       <c r="I29" s="91"/>
     </row>
     <row r="30" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="214"/>
-      <c r="B30" s="211"/>
+      <c r="A30" s="282"/>
+      <c r="B30" s="279"/>
       <c r="C30" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="211"/>
+      <c r="D30" s="279"/>
       <c r="E30" s="90" t="s">
         <v>19</v>
       </c>
@@ -8616,12 +8616,12 @@
       <c r="I30" s="91"/>
     </row>
     <row r="31" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="214"/>
-      <c r="B31" s="211"/>
+      <c r="A31" s="282"/>
+      <c r="B31" s="279"/>
       <c r="C31" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="211"/>
+      <c r="D31" s="279"/>
       <c r="E31" s="90" t="s">
         <v>19</v>
       </c>
@@ -8639,12 +8639,12 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="214"/>
-      <c r="B32" s="211"/>
+      <c r="A32" s="282"/>
+      <c r="B32" s="279"/>
       <c r="C32" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="211"/>
+      <c r="D32" s="279"/>
       <c r="E32" s="90" t="s">
         <v>19</v>
       </c>
@@ -8662,12 +8662,12 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="214"/>
-      <c r="B33" s="211"/>
+      <c r="A33" s="282"/>
+      <c r="B33" s="279"/>
       <c r="C33" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="211"/>
+      <c r="D33" s="279"/>
       <c r="E33" s="90" t="s">
         <v>19</v>
       </c>
@@ -8685,12 +8685,12 @@
       </c>
     </row>
     <row r="34" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="214"/>
-      <c r="B34" s="211"/>
+      <c r="A34" s="282"/>
+      <c r="B34" s="279"/>
       <c r="C34" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="211"/>
+      <c r="D34" s="279"/>
       <c r="E34" s="90" t="s">
         <v>19</v>
       </c>
@@ -8709,12 +8709,12 @@
       <c r="L34" s="95"/>
     </row>
     <row r="35" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="214"/>
-      <c r="B35" s="211"/>
+      <c r="A35" s="282"/>
+      <c r="B35" s="279"/>
       <c r="C35" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="211"/>
+      <c r="D35" s="279"/>
       <c r="E35" s="90" t="s">
         <v>19</v>
       </c>
@@ -8733,12 +8733,12 @@
       <c r="L35" s="95"/>
     </row>
     <row r="36" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="214"/>
-      <c r="B36" s="211"/>
+      <c r="A36" s="282"/>
+      <c r="B36" s="279"/>
       <c r="C36" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="211"/>
+      <c r="D36" s="279"/>
       <c r="E36" s="90" t="s">
         <v>80</v>
       </c>
@@ -8757,12 +8757,12 @@
       <c r="L36" s="95"/>
     </row>
     <row r="37" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="214"/>
-      <c r="B37" s="211"/>
+      <c r="A37" s="282"/>
+      <c r="B37" s="279"/>
       <c r="C37" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="211"/>
+      <c r="D37" s="279"/>
       <c r="E37" s="90" t="s">
         <v>19</v>
       </c>
@@ -8781,12 +8781,12 @@
       <c r="L37" s="95"/>
     </row>
     <row r="38" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="214"/>
-      <c r="B38" s="211"/>
+      <c r="A38" s="282"/>
+      <c r="B38" s="279"/>
       <c r="C38" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="211"/>
+      <c r="D38" s="279"/>
       <c r="E38" s="90" t="s">
         <v>19</v>
       </c>
@@ -8805,12 +8805,12 @@
       <c r="L38" s="95"/>
     </row>
     <row r="39" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="214"/>
-      <c r="B39" s="211"/>
+      <c r="A39" s="282"/>
+      <c r="B39" s="279"/>
       <c r="C39" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="211"/>
+      <c r="D39" s="279"/>
       <c r="E39" s="90" t="s">
         <v>80</v>
       </c>
@@ -8829,12 +8829,12 @@
       <c r="L39" s="95"/>
     </row>
     <row r="40" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="215"/>
-      <c r="B40" s="212"/>
+      <c r="A40" s="283"/>
+      <c r="B40" s="280"/>
       <c r="C40" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="212"/>
+      <c r="D40" s="280"/>
       <c r="E40" s="90" t="s">
         <v>80</v>
       </c>
@@ -8854,18 +8854,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="D10:D16"/>
     <mergeCell ref="A17:A26"/>
     <mergeCell ref="B17:B26"/>
     <mergeCell ref="D17:D26"/>
     <mergeCell ref="A27:A40"/>
     <mergeCell ref="B27:B40"/>
     <mergeCell ref="D27:D40"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="D10:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8879,9 +8879,9 @@
   <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
+      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8948,10 +8948,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251">
+      <c r="A2" s="268">
         <v>1</v>
       </c>
-      <c r="B2" s="245" t="s">
+      <c r="B2" s="258" t="s">
         <v>410</v>
       </c>
       <c r="C2" s="63" t="s">
@@ -8989,8 +8989,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="252"/>
-      <c r="B3" s="245"/>
+      <c r="A3" s="269"/>
+      <c r="B3" s="258"/>
       <c r="C3" s="63" t="s">
         <v>403</v>
       </c>
@@ -9021,8 +9021,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="252"/>
-      <c r="B4" s="245"/>
+      <c r="A4" s="269"/>
+      <c r="B4" s="258"/>
       <c r="C4" s="63" t="s">
         <v>404</v>
       </c>
@@ -9053,8 +9053,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252"/>
-      <c r="B5" s="245"/>
+      <c r="A5" s="269"/>
+      <c r="B5" s="258"/>
       <c r="C5" s="63" t="s">
         <v>405</v>
       </c>
@@ -9085,8 +9085,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="252"/>
-      <c r="B6" s="246" t="s">
+      <c r="A6" s="269"/>
+      <c r="B6" s="259" t="s">
         <v>412</v>
       </c>
       <c r="C6" s="63" t="s">
@@ -9113,8 +9113,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="252"/>
-      <c r="B7" s="247"/>
+      <c r="A7" s="269"/>
+      <c r="B7" s="260"/>
       <c r="C7" s="63" t="s">
         <v>190</v>
       </c>
@@ -9152,8 +9152,8 @@
       <c r="O7"/>
     </row>
     <row r="8" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="252"/>
-      <c r="B8" s="247"/>
+      <c r="A8" s="269"/>
+      <c r="B8" s="260"/>
       <c r="C8" s="63" t="s">
         <v>409</v>
       </c>
@@ -9182,8 +9182,8 @@
       <c r="O8"/>
     </row>
     <row r="9" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="252"/>
-      <c r="B9" s="247"/>
+      <c r="A9" s="269"/>
+      <c r="B9" s="260"/>
       <c r="C9" s="63" t="s">
         <v>419</v>
       </c>
@@ -9208,8 +9208,8 @@
       <c r="O9"/>
     </row>
     <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="252"/>
-      <c r="B10" s="247"/>
+      <c r="A10" s="269"/>
+      <c r="B10" s="260"/>
       <c r="C10" s="63" t="s">
         <v>394</v>
       </c>
@@ -9244,8 +9244,8 @@
       <c r="O10"/>
     </row>
     <row r="11" spans="1:15" s="71" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="252"/>
-      <c r="B11" s="246" t="s">
+      <c r="A11" s="269"/>
+      <c r="B11" s="259" t="s">
         <v>413</v>
       </c>
       <c r="C11" s="72" t="s">
@@ -9274,8 +9274,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="71" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="252"/>
-      <c r="B12" s="247"/>
+      <c r="A12" s="269"/>
+      <c r="B12" s="260"/>
       <c r="C12" s="72" t="s">
         <v>415</v>
       </c>
@@ -9306,10 +9306,10 @@
       </c>
     </row>
     <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="234">
+      <c r="A13" s="250">
         <v>2</v>
       </c>
-      <c r="B13" s="230" t="s">
+      <c r="B13" s="246" t="s">
         <v>186</v>
       </c>
       <c r="C13" s="100" t="s">
@@ -9353,8 +9353,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="235"/>
-      <c r="B14" s="231"/>
+      <c r="A14" s="251"/>
+      <c r="B14" s="247"/>
       <c r="C14" s="100" t="s">
         <v>194</v>
       </c>
@@ -9396,8 +9396,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="235"/>
-      <c r="B15" s="231"/>
+      <c r="A15" s="251"/>
+      <c r="B15" s="247"/>
       <c r="C15" s="100" t="s">
         <v>195</v>
       </c>
@@ -9439,8 +9439,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="236"/>
-      <c r="B16" s="232"/>
+      <c r="A16" s="252"/>
+      <c r="B16" s="248"/>
       <c r="C16" s="21" t="s">
         <v>196</v>
       </c>
@@ -9482,8 +9482,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="237"/>
-      <c r="B17" s="233"/>
+      <c r="A17" s="253"/>
+      <c r="B17" s="249"/>
       <c r="C17" s="21" t="s">
         <v>197</v>
       </c>
@@ -9525,91 +9525,91 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="241">
+      <c r="A18" s="254">
         <v>3</v>
       </c>
-      <c r="B18" s="248" t="s">
+      <c r="B18" s="261" t="s">
         <v>417</v>
       </c>
       <c r="C18" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="D18" s="197" t="s">
+      <c r="D18" s="287" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="200" t="s">
+      <c r="E18" s="289" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="208" t="s">
+      <c r="F18" s="295" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="208" t="s">
+      <c r="G18" s="295" t="s">
         <v>198</v>
       </c>
-      <c r="H18" s="279">
+      <c r="H18" s="210">
         <v>42506</v>
       </c>
-      <c r="I18" s="279">
+      <c r="I18" s="210">
         <v>42524</v>
       </c>
-      <c r="J18" s="282">
+      <c r="J18" s="213">
         <v>42523</v>
       </c>
-      <c r="K18" s="205" t="s">
+      <c r="K18" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L18" s="296" t="s">
+      <c r="L18" s="187" t="s">
         <v>421</v>
       </c>
       <c r="M18" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="300" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="295" t="s">
+      <c r="N18" s="192" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="186" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="242"/>
-      <c r="B19" s="198"/>
+      <c r="A19" s="255"/>
+      <c r="B19" s="262"/>
       <c r="C19" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="198"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="206"/>
-      <c r="G19" s="206"/>
-      <c r="H19" s="280"/>
-      <c r="I19" s="280"/>
-      <c r="J19" s="283"/>
-      <c r="K19" s="278"/>
-      <c r="L19" s="296"/>
-      <c r="N19" s="301"/>
-      <c r="O19" s="295"/>
+      <c r="D19" s="262"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="216"/>
+      <c r="H19" s="211"/>
+      <c r="I19" s="211"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="209"/>
+      <c r="L19" s="187"/>
+      <c r="N19" s="193"/>
+      <c r="O19" s="186"/>
     </row>
     <row r="20" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="242"/>
-      <c r="B20" s="198"/>
+      <c r="A20" s="255"/>
+      <c r="B20" s="262"/>
       <c r="C20" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="D20" s="199"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="209"/>
-      <c r="H20" s="281"/>
-      <c r="I20" s="281"/>
-      <c r="J20" s="284"/>
-      <c r="K20" s="278"/>
-      <c r="L20" s="296"/>
-      <c r="N20" s="301"/>
-      <c r="O20" s="295"/>
+      <c r="D20" s="288"/>
+      <c r="E20" s="291"/>
+      <c r="F20" s="296"/>
+      <c r="G20" s="296"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="212"/>
+      <c r="J20" s="215"/>
+      <c r="K20" s="209"/>
+      <c r="L20" s="187"/>
+      <c r="N20" s="193"/>
+      <c r="O20" s="186"/>
     </row>
     <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="243"/>
-      <c r="B21" s="249"/>
+      <c r="A21" s="256"/>
+      <c r="B21" s="263"/>
       <c r="C21" s="106" t="s">
         <v>271</v>
       </c>
@@ -9648,8 +9648,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="243"/>
-      <c r="B22" s="249"/>
+      <c r="A22" s="256"/>
+      <c r="B22" s="263"/>
       <c r="C22" s="106" t="s">
         <v>270</v>
       </c>
@@ -9686,8 +9686,8 @@
       </c>
     </row>
     <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="243"/>
-      <c r="B23" s="249"/>
+      <c r="A23" s="256"/>
+      <c r="B23" s="263"/>
       <c r="C23" s="111" t="s">
         <v>273</v>
       </c>
@@ -9726,66 +9726,66 @@
       </c>
     </row>
     <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="243"/>
-      <c r="B24" s="249"/>
+      <c r="A24" s="256"/>
+      <c r="B24" s="263"/>
       <c r="C24" s="106" t="s">
         <v>202</v>
       </c>
-      <c r="D24" s="203" t="s">
+      <c r="D24" s="292" t="s">
         <v>285</v>
       </c>
-      <c r="E24" s="204" t="s">
+      <c r="E24" s="293" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="207" t="s">
+      <c r="F24" s="294" t="s">
         <v>183</v>
       </c>
-      <c r="G24" s="207" t="s">
+      <c r="G24" s="294" t="s">
         <v>198</v>
       </c>
-      <c r="H24" s="205">
+      <c r="H24" s="208">
         <v>42576</v>
       </c>
-      <c r="I24" s="205">
+      <c r="I24" s="208">
         <v>42579</v>
       </c>
-      <c r="J24" s="205">
+      <c r="J24" s="208">
         <v>42579</v>
       </c>
-      <c r="K24" s="285" t="s">
+      <c r="K24" s="217" t="s">
         <v>303</v>
       </c>
-      <c r="L24" s="297" t="s">
+      <c r="L24" s="188" t="s">
         <v>421</v>
       </c>
-      <c r="N24" s="289" t="s">
-        <v>19</v>
-      </c>
-      <c r="O24" s="287" t="s">
+      <c r="N24" s="194" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="185" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="244"/>
-      <c r="B25" s="198"/>
+      <c r="A25" s="257"/>
+      <c r="B25" s="262"/>
       <c r="C25" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="D25" s="199"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="206"/>
-      <c r="G25" s="206"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="206"/>
-      <c r="J25" s="206"/>
-      <c r="K25" s="283"/>
-      <c r="L25" s="298"/>
-      <c r="N25" s="290"/>
-      <c r="O25" s="287"/>
+      <c r="D25" s="288"/>
+      <c r="E25" s="290"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="216"/>
+      <c r="H25" s="216"/>
+      <c r="I25" s="216"/>
+      <c r="J25" s="216"/>
+      <c r="K25" s="214"/>
+      <c r="L25" s="189"/>
+      <c r="N25" s="191"/>
+      <c r="O25" s="185"/>
     </row>
     <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="112"/>
-      <c r="B26" s="250"/>
+      <c r="B26" s="264"/>
       <c r="C26" s="106" t="s">
         <v>418</v>
       </c>
@@ -9827,7 +9827,7 @@
       <c r="A27" s="238">
         <v>4</v>
       </c>
-      <c r="B27" s="222" t="s">
+      <c r="B27" s="265" t="s">
         <v>205</v>
       </c>
       <c r="C27" s="113" t="s">
@@ -9869,7 +9869,7 @@
     </row>
     <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="239"/>
-      <c r="B28" s="223"/>
+      <c r="B28" s="266"/>
       <c r="C28" s="113" t="s">
         <v>207</v>
       </c>
@@ -9909,7 +9909,7 @@
     </row>
     <row r="29" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="239"/>
-      <c r="B29" s="223"/>
+      <c r="B29" s="266"/>
       <c r="C29" s="113" t="s">
         <v>208</v>
       </c>
@@ -9949,7 +9949,7 @@
     </row>
     <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="240"/>
-      <c r="B30" s="224"/>
+      <c r="B30" s="267"/>
       <c r="C30" s="26" t="s">
         <v>209</v>
       </c>
@@ -9991,7 +9991,7 @@
       <c r="A31" s="238">
         <v>5</v>
       </c>
-      <c r="B31" s="222" t="s">
+      <c r="B31" s="265" t="s">
         <v>210</v>
       </c>
       <c r="C31" s="113" t="s">
@@ -10033,7 +10033,7 @@
     </row>
     <row r="32" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="239"/>
-      <c r="B32" s="223"/>
+      <c r="B32" s="266"/>
       <c r="C32" s="113" t="s">
         <v>211</v>
       </c>
@@ -10073,7 +10073,7 @@
     </row>
     <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="239"/>
-      <c r="B33" s="223"/>
+      <c r="B33" s="266"/>
       <c r="C33" s="113" t="s">
         <v>395</v>
       </c>
@@ -10113,7 +10113,7 @@
     </row>
     <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="240"/>
-      <c r="B34" s="224"/>
+      <c r="B34" s="267"/>
       <c r="C34" s="26" t="s">
         <v>212</v>
       </c>
@@ -10152,89 +10152,89 @@
       </c>
     </row>
     <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="256">
+      <c r="A35" s="241">
         <v>6</v>
       </c>
-      <c r="B35" s="225" t="s">
+      <c r="B35" s="273" t="s">
         <v>213</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D35" s="210" t="s">
+      <c r="D35" s="278" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="213" t="s">
+      <c r="E35" s="281" t="s">
         <v>191</v>
       </c>
-      <c r="F35" s="213" t="s">
+      <c r="F35" s="281" t="s">
         <v>182</v>
       </c>
-      <c r="G35" s="213" t="s">
+      <c r="G35" s="281" t="s">
         <v>180</v>
       </c>
-      <c r="H35" s="213" t="s">
+      <c r="H35" s="281" t="s">
         <v>182</v>
       </c>
-      <c r="I35" s="213" t="s">
+      <c r="I35" s="281" t="s">
         <v>182</v>
       </c>
-      <c r="J35" s="216" t="s">
+      <c r="J35" s="284" t="s">
         <v>182</v>
       </c>
-      <c r="K35" s="286" t="s">
+      <c r="K35" s="199" t="s">
         <v>182</v>
       </c>
-      <c r="L35" s="299" t="s">
+      <c r="L35" s="190" t="s">
         <v>421</v>
       </c>
-      <c r="N35" s="290" t="s">
+      <c r="N35" s="191" t="s">
         <v>182</v>
       </c>
-      <c r="O35" s="287" t="s">
+      <c r="O35" s="185" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="257"/>
-      <c r="B36" s="226"/>
+      <c r="A36" s="242"/>
+      <c r="B36" s="274"/>
       <c r="C36" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="D36" s="211"/>
-      <c r="E36" s="214"/>
-      <c r="F36" s="214"/>
-      <c r="G36" s="214"/>
-      <c r="H36" s="214"/>
-      <c r="I36" s="214"/>
-      <c r="J36" s="217"/>
-      <c r="K36" s="286"/>
-      <c r="L36" s="299"/>
+      <c r="D36" s="279"/>
+      <c r="E36" s="282"/>
+      <c r="F36" s="282"/>
+      <c r="G36" s="282"/>
+      <c r="H36" s="282"/>
+      <c r="I36" s="282"/>
+      <c r="J36" s="285"/>
+      <c r="K36" s="199"/>
+      <c r="L36" s="190"/>
       <c r="M36" s="34"/>
-      <c r="N36" s="290"/>
-      <c r="O36" s="287"/>
+      <c r="N36" s="191"/>
+      <c r="O36" s="185"/>
     </row>
     <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="257"/>
-      <c r="B37" s="226"/>
+      <c r="A37" s="242"/>
+      <c r="B37" s="274"/>
       <c r="C37" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D37" s="212"/>
-      <c r="E37" s="215"/>
-      <c r="F37" s="215"/>
-      <c r="G37" s="215"/>
-      <c r="H37" s="215"/>
-      <c r="I37" s="215"/>
-      <c r="J37" s="218"/>
-      <c r="K37" s="286"/>
-      <c r="L37" s="299"/>
-      <c r="N37" s="290"/>
-      <c r="O37" s="287"/>
+      <c r="D37" s="280"/>
+      <c r="E37" s="283"/>
+      <c r="F37" s="283"/>
+      <c r="G37" s="283"/>
+      <c r="H37" s="283"/>
+      <c r="I37" s="283"/>
+      <c r="J37" s="286"/>
+      <c r="K37" s="199"/>
+      <c r="L37" s="190"/>
+      <c r="N37" s="191"/>
+      <c r="O37" s="185"/>
     </row>
     <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="239"/>
-      <c r="B38" s="223"/>
+      <c r="B38" s="266"/>
       <c r="C38" s="113" t="s">
         <v>217</v>
       </c>
@@ -10274,7 +10274,7 @@
     </row>
     <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="239"/>
-      <c r="B39" s="223"/>
+      <c r="B39" s="266"/>
       <c r="C39" s="113" t="s">
         <v>218</v>
       </c>
@@ -10314,7 +10314,7 @@
     </row>
     <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="240"/>
-      <c r="B40" s="224"/>
+      <c r="B40" s="267"/>
       <c r="C40" s="26" t="s">
         <v>212</v>
       </c>
@@ -10353,10 +10353,10 @@
       </c>
     </row>
     <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="255">
+      <c r="A41" s="237">
         <v>7</v>
       </c>
-      <c r="B41" s="221" t="s">
+      <c r="B41" s="272" t="s">
         <v>219</v>
       </c>
       <c r="C41" s="118" t="s">
@@ -10397,8 +10397,8 @@
       </c>
     </row>
     <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="258"/>
-      <c r="B42" s="227"/>
+      <c r="A42" s="243"/>
+      <c r="B42" s="275"/>
       <c r="C42" s="118" t="s">
         <v>221</v>
       </c>
@@ -10437,8 +10437,8 @@
       </c>
     </row>
     <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="258"/>
-      <c r="B43" s="227"/>
+      <c r="A43" s="243"/>
+      <c r="B43" s="275"/>
       <c r="C43" s="118" t="s">
         <v>222</v>
       </c>
@@ -10477,8 +10477,8 @@
       </c>
     </row>
     <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="259"/>
-      <c r="B44" s="228"/>
+      <c r="A44" s="244"/>
+      <c r="B44" s="276"/>
       <c r="C44" s="27" t="s">
         <v>223</v>
       </c>
@@ -10520,8 +10520,8 @@
       </c>
     </row>
     <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="258"/>
-      <c r="B45" s="227"/>
+      <c r="A45" s="243"/>
+      <c r="B45" s="275"/>
       <c r="C45" s="118" t="s">
         <v>224</v>
       </c>
@@ -10560,8 +10560,8 @@
       </c>
     </row>
     <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="260"/>
-      <c r="B46" s="229"/>
+      <c r="A46" s="245"/>
+      <c r="B46" s="277"/>
       <c r="C46" s="118" t="s">
         <v>225</v>
       </c>
@@ -10595,8 +10595,8 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="259"/>
-      <c r="B47" s="228"/>
+      <c r="A47" s="244"/>
+      <c r="B47" s="276"/>
       <c r="C47" s="27" t="s">
         <v>226</v>
       </c>
@@ -10635,8 +10635,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="260"/>
-      <c r="B48" s="229"/>
+      <c r="A48" s="245"/>
+      <c r="B48" s="277"/>
       <c r="C48" s="118" t="s">
         <v>272</v>
       </c>
@@ -10675,8 +10675,8 @@
       </c>
     </row>
     <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="258"/>
-      <c r="B49" s="227"/>
+      <c r="A49" s="243"/>
+      <c r="B49" s="275"/>
       <c r="C49" s="118" t="s">
         <v>279</v>
       </c>
@@ -10715,8 +10715,8 @@
       </c>
     </row>
     <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="254"/>
-      <c r="B50" s="220"/>
+      <c r="A50" s="236"/>
+      <c r="B50" s="271"/>
       <c r="C50" s="27" t="s">
         <v>227</v>
       </c>
@@ -10755,10 +10755,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="39" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="255">
+      <c r="A51" s="237">
         <v>8</v>
       </c>
-      <c r="B51" s="221" t="s">
+      <c r="B51" s="272" t="s">
         <v>228</v>
       </c>
       <c r="C51" s="118" t="s">
@@ -10794,8 +10794,8 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="254"/>
-      <c r="B52" s="220"/>
+      <c r="A52" s="236"/>
+      <c r="B52" s="271"/>
       <c r="C52" s="27" t="s">
         <v>229</v>
       </c>
@@ -10834,10 +10834,10 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="253">
+      <c r="A53" s="235">
         <v>9</v>
       </c>
-      <c r="B53" s="219" t="s">
+      <c r="B53" s="270" t="s">
         <v>231</v>
       </c>
       <c r="C53" s="27" t="s">
@@ -10878,8 +10878,8 @@
       </c>
     </row>
     <row r="54" spans="1:15" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="254"/>
-      <c r="B54" s="220"/>
+      <c r="A54" s="236"/>
+      <c r="B54" s="271"/>
       <c r="C54" s="27" t="s">
         <v>232</v>
       </c>
@@ -10918,10 +10918,10 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="263">
+      <c r="A55" s="222">
         <v>10</v>
       </c>
-      <c r="B55" s="261" t="s">
+      <c r="B55" s="220" t="s">
         <v>233</v>
       </c>
       <c r="C55" s="20" t="s">
@@ -10958,8 +10958,8 @@
       <c r="O55"/>
     </row>
     <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="264"/>
-      <c r="B56" s="270"/>
+      <c r="A56" s="223"/>
+      <c r="B56" s="229"/>
       <c r="C56" s="20" t="s">
         <v>221</v>
       </c>
@@ -10994,8 +10994,8 @@
       <c r="O56"/>
     </row>
     <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="264"/>
-      <c r="B57" s="270"/>
+      <c r="A57" s="223"/>
+      <c r="B57" s="229"/>
       <c r="C57" s="20" t="s">
         <v>222</v>
       </c>
@@ -11030,8 +11030,8 @@
       <c r="O57"/>
     </row>
     <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="265"/>
-      <c r="B58" s="270"/>
+      <c r="A58" s="224"/>
+      <c r="B58" s="229"/>
       <c r="C58" s="20" t="s">
         <v>235</v>
       </c>
@@ -11066,8 +11066,8 @@
       <c r="O58"/>
     </row>
     <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="265"/>
-      <c r="B59" s="270"/>
+      <c r="A59" s="224"/>
+      <c r="B59" s="229"/>
       <c r="C59" s="20" t="s">
         <v>272</v>
       </c>
@@ -11104,8 +11104,8 @@
       <c r="O59"/>
     </row>
     <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="264"/>
-      <c r="B60" s="270"/>
+      <c r="A60" s="223"/>
+      <c r="B60" s="229"/>
       <c r="C60" s="20" t="s">
         <v>279</v>
       </c>
@@ -11140,8 +11140,8 @@
       <c r="O60"/>
     </row>
     <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="264"/>
-      <c r="B61" s="270"/>
+      <c r="A61" s="223"/>
+      <c r="B61" s="229"/>
       <c r="C61" s="20" t="s">
         <v>280</v>
       </c>
@@ -11176,8 +11176,8 @@
       <c r="O61"/>
     </row>
     <row r="62" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="265"/>
-      <c r="B62" s="262"/>
+      <c r="A62" s="224"/>
+      <c r="B62" s="221"/>
       <c r="C62" s="20" t="s">
         <v>236</v>
       </c>
@@ -11212,32 +11212,32 @@
       <c r="O62"/>
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="265"/>
-      <c r="B63" s="261" t="s">
+      <c r="A63" s="224"/>
+      <c r="B63" s="220" t="s">
         <v>251</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="D63" s="185" t="s">
+      <c r="D63" s="218" t="s">
         <v>292</v>
       </c>
-      <c r="E63" s="187" t="s">
+      <c r="E63" s="197" t="s">
         <v>151</v>
       </c>
-      <c r="F63" s="187" t="s">
+      <c r="F63" s="197" t="s">
         <v>134</v>
       </c>
-      <c r="G63" s="187" t="s">
+      <c r="G63" s="197" t="s">
         <v>198</v>
       </c>
-      <c r="H63" s="189">
+      <c r="H63" s="195">
         <v>42594</v>
       </c>
-      <c r="I63" s="189">
+      <c r="I63" s="195">
         <v>42599</v>
       </c>
-      <c r="J63" s="187"/>
+      <c r="J63" s="197"/>
       <c r="K63" s="31" t="s">
         <v>283</v>
       </c>
@@ -11247,19 +11247,19 @@
       <c r="N63"/>
       <c r="O63"/>
     </row>
-    <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="265"/>
-      <c r="B64" s="270"/>
+    <row r="64" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="224"/>
+      <c r="B64" s="229"/>
       <c r="C64" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="D64" s="277"/>
-      <c r="E64" s="188"/>
-      <c r="F64" s="188"/>
-      <c r="G64" s="188"/>
-      <c r="H64" s="276"/>
-      <c r="I64" s="276"/>
-      <c r="J64" s="188"/>
+      <c r="D64" s="219"/>
+      <c r="E64" s="198"/>
+      <c r="F64" s="198"/>
+      <c r="G64" s="198"/>
+      <c r="H64" s="196"/>
+      <c r="I64" s="196"/>
+      <c r="J64" s="198"/>
       <c r="K64" s="31"/>
       <c r="L64" s="75" t="s">
         <v>454</v>
@@ -11268,8 +11268,8 @@
       <c r="O64"/>
     </row>
     <row r="65" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="265"/>
-      <c r="B65" s="262"/>
+      <c r="A65" s="224"/>
+      <c r="B65" s="221"/>
       <c r="C65" s="20" t="s">
         <v>239</v>
       </c>
@@ -11304,8 +11304,8 @@
       <c r="O65"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="265"/>
-      <c r="B66" s="261" t="s">
+      <c r="A66" s="224"/>
+      <c r="B66" s="220" t="s">
         <v>250</v>
       </c>
       <c r="C66" s="20" t="s">
@@ -11340,8 +11340,8 @@
       <c r="O66"/>
     </row>
     <row r="67" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="265"/>
-      <c r="B67" s="270"/>
+      <c r="A67" s="224"/>
+      <c r="B67" s="229"/>
       <c r="C67" s="20" t="s">
         <v>241</v>
       </c>
@@ -11376,8 +11376,8 @@
       <c r="O67"/>
     </row>
     <row r="68" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="265"/>
-      <c r="B68" s="270"/>
+      <c r="A68" s="224"/>
+      <c r="B68" s="229"/>
       <c r="C68" s="20" t="s">
         <v>242</v>
       </c>
@@ -11412,8 +11412,8 @@
       <c r="O68"/>
     </row>
     <row r="69" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="265"/>
-      <c r="B69" s="270"/>
+      <c r="A69" s="224"/>
+      <c r="B69" s="229"/>
       <c r="C69" s="20" t="s">
         <v>243</v>
       </c>
@@ -11448,30 +11448,30 @@
       <c r="O69"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="265"/>
-      <c r="B70" s="270"/>
+      <c r="A70" s="224"/>
+      <c r="B70" s="229"/>
       <c r="C70" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="D70" s="185" t="s">
+      <c r="D70" s="218" t="s">
         <v>294</v>
       </c>
-      <c r="E70" s="187" t="s">
+      <c r="E70" s="197" t="s">
         <v>151</v>
       </c>
-      <c r="F70" s="187" t="s">
+      <c r="F70" s="197" t="s">
         <v>134</v>
       </c>
-      <c r="G70" s="187" t="s">
+      <c r="G70" s="197" t="s">
         <v>198</v>
       </c>
-      <c r="H70" s="189">
+      <c r="H70" s="195">
         <v>42605</v>
       </c>
-      <c r="I70" s="189">
+      <c r="I70" s="195">
         <v>42608</v>
       </c>
-      <c r="J70" s="187"/>
+      <c r="J70" s="197"/>
       <c r="K70" s="31" t="s">
         <v>283</v>
       </c>
@@ -11481,19 +11481,19 @@
       <c r="N70"/>
       <c r="O70"/>
     </row>
-    <row r="71" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="265"/>
-      <c r="B71" s="270"/>
+    <row r="71" spans="1:15" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="224"/>
+      <c r="B71" s="229"/>
       <c r="C71" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="D71" s="186"/>
-      <c r="E71" s="188"/>
-      <c r="F71" s="188"/>
-      <c r="G71" s="188"/>
-      <c r="H71" s="188"/>
-      <c r="I71" s="188"/>
-      <c r="J71" s="188"/>
+      <c r="D71" s="301"/>
+      <c r="E71" s="198"/>
+      <c r="F71" s="198"/>
+      <c r="G71" s="198"/>
+      <c r="H71" s="198"/>
+      <c r="I71" s="198"/>
+      <c r="J71" s="198"/>
       <c r="K71" s="31" t="s">
         <v>283</v>
       </c>
@@ -11504,8 +11504,8 @@
       <c r="O71"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="265"/>
-      <c r="B72" s="262"/>
+      <c r="A72" s="224"/>
+      <c r="B72" s="221"/>
       <c r="C72" s="20" t="s">
         <v>246</v>
       </c>
@@ -11538,8 +11538,8 @@
       <c r="O72"/>
     </row>
     <row r="73" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="265"/>
-      <c r="B73" s="261" t="s">
+      <c r="A73" s="224"/>
+      <c r="B73" s="220" t="s">
         <v>249</v>
       </c>
       <c r="C73" s="20" t="s">
@@ -11576,8 +11576,8 @@
       <c r="O73"/>
     </row>
     <row r="74" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="265"/>
-      <c r="B74" s="270"/>
+      <c r="A74" s="224"/>
+      <c r="B74" s="229"/>
       <c r="C74" s="20" t="s">
         <v>281</v>
       </c>
@@ -11611,9 +11611,9 @@
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="265"/>
-      <c r="B75" s="262"/>
+    <row r="75" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="224"/>
+      <c r="B75" s="221"/>
       <c r="C75" s="20" t="s">
         <v>248</v>
       </c>
@@ -11646,8 +11646,8 @@
       <c r="O75"/>
     </row>
     <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="264"/>
-      <c r="B76" s="271"/>
+      <c r="A76" s="223"/>
+      <c r="B76" s="230"/>
       <c r="C76" s="20" t="s">
         <v>252</v>
       </c>
@@ -11682,8 +11682,8 @@
       <c r="O76"/>
     </row>
     <row r="77" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="265"/>
-      <c r="B77" s="272"/>
+      <c r="A77" s="224"/>
+      <c r="B77" s="231"/>
       <c r="C77" s="20" t="s">
         <v>253</v>
       </c>
@@ -11718,8 +11718,8 @@
       <c r="O77"/>
     </row>
     <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="264"/>
-      <c r="B78" s="271"/>
+      <c r="A78" s="223"/>
+      <c r="B78" s="230"/>
       <c r="C78" s="20" t="s">
         <v>254</v>
       </c>
@@ -11753,9 +11753,9 @@
       <c r="N78"/>
       <c r="O78"/>
     </row>
-    <row r="79" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="265"/>
-      <c r="B79" s="261" t="s">
+    <row r="79" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="224"/>
+      <c r="B79" s="220" t="s">
         <v>257</v>
       </c>
       <c r="C79" s="20" t="s">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="J79" s="58"/>
       <c r="K79" s="31" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="L79" s="75" t="s">
         <v>454</v>
@@ -11790,8 +11790,8 @@
       <c r="O79"/>
     </row>
     <row r="80" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="265"/>
-      <c r="B80" s="262"/>
+      <c r="A80" s="224"/>
+      <c r="B80" s="221"/>
       <c r="C80" s="20" t="s">
         <v>256</v>
       </c>
@@ -11826,7 +11826,7 @@
       <c r="O80"/>
     </row>
     <row r="81" spans="1:15" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="264"/>
+      <c r="A81" s="223"/>
       <c r="B81" s="19" t="s">
         <v>258</v>
       </c>
@@ -11863,8 +11863,8 @@
       <c r="N81"/>
       <c r="O81"/>
     </row>
-    <row r="82" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="265"/>
+    <row r="82" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="224"/>
       <c r="B82" s="20" t="s">
         <v>260</v>
       </c>
@@ -11887,7 +11887,7 @@
       <c r="I82" s="58"/>
       <c r="J82" s="58"/>
       <c r="K82" s="31" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="L82" s="75" t="s">
         <v>454</v>
@@ -11895,9 +11895,9 @@
       <c r="N82"/>
       <c r="O82"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="265"/>
-      <c r="B83" s="261" t="s">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="224"/>
+      <c r="B83" s="220" t="s">
         <v>262</v>
       </c>
       <c r="C83" s="20" t="s">
@@ -11919,7 +11919,7 @@
       <c r="I83" s="58"/>
       <c r="J83" s="58"/>
       <c r="K83" s="31" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="L83" s="75" t="s">
         <v>454</v>
@@ -11927,9 +11927,9 @@
       <c r="N83"/>
       <c r="O83"/>
     </row>
-    <row r="84" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="265"/>
-      <c r="B84" s="262"/>
+    <row r="84" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="224"/>
+      <c r="B84" s="221"/>
       <c r="C84" s="20" t="s">
         <v>264</v>
       </c>
@@ -11957,9 +11957,9 @@
       <c r="N84"/>
       <c r="O84"/>
     </row>
-    <row r="85" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="265"/>
-      <c r="B85" s="261" t="s">
+    <row r="85" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="224"/>
+      <c r="B85" s="220" t="s">
         <v>265</v>
       </c>
       <c r="C85" s="20" t="s">
@@ -11989,9 +11989,9 @@
       <c r="N85"/>
       <c r="O85"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="266"/>
-      <c r="B86" s="262"/>
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="225"/>
+      <c r="B86" s="221"/>
       <c r="C86" s="20" t="s">
         <v>267</v>
       </c>
@@ -12020,10 +12020,10 @@
       <c r="O86"/>
     </row>
     <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="273">
+      <c r="A87" s="232">
         <v>11</v>
       </c>
-      <c r="B87" s="267" t="s">
+      <c r="B87" s="226" t="s">
         <v>269</v>
       </c>
       <c r="C87" s="123" t="s">
@@ -12064,80 +12064,80 @@
       </c>
     </row>
     <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="273"/>
-      <c r="B88" s="267"/>
+      <c r="A88" s="232"/>
+      <c r="B88" s="226"/>
       <c r="C88" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="D88" s="190" t="s">
+      <c r="D88" s="297" t="s">
         <v>285</v>
       </c>
-      <c r="E88" s="193" t="s">
+      <c r="E88" s="300" t="s">
         <v>151</v>
       </c>
-      <c r="F88" s="193" t="s">
+      <c r="F88" s="300" t="s">
         <v>183</v>
       </c>
-      <c r="G88" s="193" t="s">
+      <c r="G88" s="300" t="s">
         <v>198</v>
       </c>
-      <c r="H88" s="196">
+      <c r="H88" s="202">
         <v>42576</v>
       </c>
-      <c r="I88" s="196">
+      <c r="I88" s="202">
         <v>42579</v>
       </c>
-      <c r="J88" s="292">
+      <c r="J88" s="205">
         <v>42579</v>
       </c>
-      <c r="K88" s="288" t="s">
+      <c r="K88" s="200" t="s">
         <v>303</v>
       </c>
-      <c r="L88" s="288" t="s">
+      <c r="L88" s="200" t="s">
         <v>421</v>
       </c>
-      <c r="N88" s="289" t="s">
-        <v>19</v>
-      </c>
-      <c r="O88" s="287" t="s">
+      <c r="N88" s="194" t="s">
+        <v>19</v>
+      </c>
+      <c r="O88" s="185" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="274"/>
-      <c r="B89" s="268"/>
+      <c r="A89" s="233"/>
+      <c r="B89" s="227"/>
       <c r="C89" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="D89" s="191"/>
-      <c r="E89" s="194"/>
-      <c r="F89" s="194"/>
-      <c r="G89" s="194"/>
-      <c r="H89" s="194"/>
-      <c r="I89" s="194"/>
-      <c r="J89" s="293"/>
-      <c r="K89" s="291"/>
-      <c r="L89" s="288"/>
-      <c r="N89" s="290"/>
-      <c r="O89" s="287"/>
+      <c r="D89" s="298"/>
+      <c r="E89" s="203"/>
+      <c r="F89" s="203"/>
+      <c r="G89" s="203"/>
+      <c r="H89" s="203"/>
+      <c r="I89" s="203"/>
+      <c r="J89" s="206"/>
+      <c r="K89" s="201"/>
+      <c r="L89" s="200"/>
+      <c r="N89" s="191"/>
+      <c r="O89" s="185"/>
     </row>
     <row r="90" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="275"/>
-      <c r="B90" s="269"/>
+      <c r="A90" s="234"/>
+      <c r="B90" s="228"/>
       <c r="C90" s="159" t="s">
         <v>282</v>
       </c>
-      <c r="D90" s="192"/>
-      <c r="E90" s="195"/>
-      <c r="F90" s="195"/>
-      <c r="G90" s="195"/>
-      <c r="H90" s="195"/>
-      <c r="I90" s="195"/>
-      <c r="J90" s="294"/>
-      <c r="K90" s="291"/>
-      <c r="L90" s="288"/>
-      <c r="N90" s="290"/>
-      <c r="O90" s="287"/>
+      <c r="D90" s="299"/>
+      <c r="E90" s="204"/>
+      <c r="F90" s="204"/>
+      <c r="G90" s="204"/>
+      <c r="H90" s="204"/>
+      <c r="I90" s="204"/>
+      <c r="J90" s="207"/>
+      <c r="K90" s="201"/>
+      <c r="L90" s="200"/>
+      <c r="N90" s="191"/>
+      <c r="O90" s="185"/>
     </row>
     <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="160">
@@ -12182,26 +12182,87 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O91">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Script"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="10">
       <filters>
         <filter val="Not-Started"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="Diva 2.1 (10/10)"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <mergeCells count="89">
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="H88:H90"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A55:A86"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B66:B72"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
     <mergeCell ref="I63:I64"/>
     <mergeCell ref="J63:J64"/>
     <mergeCell ref="K35:K37"/>
@@ -12214,75 +12275,14 @@
     <mergeCell ref="J70:J71"/>
     <mergeCell ref="I88:I90"/>
     <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A55:A86"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B66:B72"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="G88:G90"/>
-    <mergeCell ref="H88:H90"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N24:N25"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:L2 K38:L39 K27:L29 K32:L33 K35:L35 K21:L24 K3:K10 L3:L12 L38:L51 K41:L79">
     <cfRule type="expression" dxfId="15" priority="24">
@@ -13477,10 +13477,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="303" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -13506,8 +13506,8 @@
       <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
-      <c r="B3" s="304"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="303"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -13527,8 +13527,8 @@
       <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
-      <c r="B4" s="304"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="303"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -13548,8 +13548,8 @@
       <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
-      <c r="B5" s="304"/>
+      <c r="A5" s="185"/>
+      <c r="B5" s="303"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -13569,8 +13569,8 @@
       <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
-      <c r="B6" s="304"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="303"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -13594,8 +13594,8 @@
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
-      <c r="B7" s="304"/>
+      <c r="A7" s="185"/>
+      <c r="B7" s="303"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -13619,8 +13619,8 @@
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
-      <c r="B8" s="304"/>
+      <c r="A8" s="185"/>
+      <c r="B8" s="303"/>
       <c r="C8" s="39" t="s">
         <v>73</v>
       </c>
@@ -13644,8 +13644,8 @@
       <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
-      <c r="B9" s="304"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="303"/>
       <c r="C9" s="39" t="s">
         <v>18</v>
       </c>
@@ -13665,7 +13665,7 @@
       <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="287">
+      <c r="A10" s="185">
         <v>2</v>
       </c>
       <c r="B10" s="302" t="s">
@@ -13695,7 +13695,7 @@
       <c r="L10" s="39"/>
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="287"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>10</v>
@@ -13717,7 +13717,7 @@
       <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="287"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="302"/>
       <c r="C12" s="39" t="s">
         <v>11</v>
@@ -13739,7 +13739,7 @@
       <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="287"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="302"/>
       <c r="C13" s="39" t="s">
         <v>12</v>
@@ -13761,7 +13761,7 @@
       <c r="L13" s="39"/>
     </row>
     <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="287"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
         <v>13</v>
@@ -13785,7 +13785,7 @@
       <c r="L14" s="39"/>
     </row>
     <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="287"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
         <v>14</v>
@@ -13809,7 +13809,7 @@
       <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="287"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="302"/>
       <c r="C16" s="39" t="s">
         <v>15</v>
@@ -13833,7 +13833,7 @@
       <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="287"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="302"/>
       <c r="C17" s="39" t="s">
         <v>16</v>
@@ -13857,7 +13857,7 @@
       <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="287"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="302"/>
       <c r="C18" s="39" t="s">
         <v>17</v>
@@ -13881,7 +13881,7 @@
       <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="287"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="302"/>
       <c r="C19" s="39" t="s">
         <v>81</v>
@@ -13903,7 +13903,7 @@
       <c r="L19" s="39"/>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="287"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="302"/>
       <c r="C20" s="40" t="s">
         <v>84</v>
@@ -13927,7 +13927,7 @@
       <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="287"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="302"/>
       <c r="C21" s="40" t="s">
         <v>85</v>
@@ -13951,7 +13951,7 @@
       <c r="L21" s="39"/>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="287"/>
+      <c r="A22" s="185"/>
       <c r="B22" s="302"/>
       <c r="C22" s="39" t="s">
         <v>86</v>
@@ -13975,7 +13975,7 @@
       <c r="L22" s="39"/>
     </row>
     <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="287"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="302"/>
       <c r="C23" s="39" t="s">
         <v>101</v>
@@ -13999,7 +13999,7 @@
       <c r="L23" s="39"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="287">
+      <c r="A24" s="185">
         <v>3</v>
       </c>
       <c r="B24" s="302" t="s">
@@ -14008,7 +14008,7 @@
       <c r="C24" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="303" t="s">
+      <c r="D24" s="304" t="s">
         <v>163</v>
       </c>
       <c r="E24" s="39" t="s">
@@ -14028,12 +14028,12 @@
       <c r="K24" s="39"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="287"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="302"/>
       <c r="C25" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="303"/>
+      <c r="D25" s="304"/>
       <c r="E25" s="39" t="s">
         <v>80</v>
       </c>
@@ -14051,12 +14051,12 @@
       <c r="K25" s="39"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="287"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="302"/>
       <c r="C26" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="303"/>
+      <c r="D26" s="304"/>
       <c r="E26" s="39" t="s">
         <v>19</v>
       </c>
@@ -14074,12 +14074,12 @@
       <c r="K26" s="39"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="287"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="302"/>
       <c r="C27" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="303"/>
+      <c r="D27" s="304"/>
       <c r="E27" s="39" t="s">
         <v>19</v>
       </c>
@@ -14097,12 +14097,12 @@
       <c r="K27" s="39"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="287"/>
+      <c r="A28" s="185"/>
       <c r="B28" s="302"/>
       <c r="C28" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="303"/>
+      <c r="D28" s="304"/>
       <c r="E28" s="39" t="s">
         <v>19</v>
       </c>
@@ -14120,12 +14120,12 @@
       <c r="K28" s="39"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="287"/>
+      <c r="A29" s="185"/>
       <c r="B29" s="302"/>
       <c r="C29" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="304"/>
       <c r="E29" s="39" t="s">
         <v>80</v>
       </c>
@@ -14143,12 +14143,12 @@
       <c r="K29" s="39"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="287"/>
+      <c r="A30" s="185"/>
       <c r="B30" s="302"/>
       <c r="C30" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="304"/>
       <c r="E30" s="39" t="s">
         <v>19</v>
       </c>
@@ -14166,7 +14166,7 @@
       <c r="K30" s="39"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="287">
+      <c r="A31" s="185">
         <v>4</v>
       </c>
       <c r="B31" s="302" t="s">
@@ -14175,7 +14175,7 @@
       <c r="C31" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="303" t="s">
+      <c r="D31" s="304" t="s">
         <v>276</v>
       </c>
       <c r="E31" s="39" t="s">
@@ -14193,12 +14193,12 @@
       <c r="K31" s="39"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="287"/>
+      <c r="A32" s="185"/>
       <c r="B32" s="302"/>
       <c r="C32" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="304"/>
       <c r="E32" s="39" t="s">
         <v>19</v>
       </c>
@@ -14214,12 +14214,12 @@
       <c r="K32" s="39"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="287"/>
+      <c r="A33" s="185"/>
       <c r="B33" s="302"/>
       <c r="C33" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="304"/>
       <c r="E33" s="39" t="s">
         <v>19</v>
       </c>
@@ -14235,12 +14235,12 @@
       <c r="K33" s="39"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="287"/>
+      <c r="A34" s="185"/>
       <c r="B34" s="302"/>
       <c r="C34" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="304"/>
       <c r="E34" s="41" t="s">
         <v>19</v>
       </c>
@@ -14258,12 +14258,12 @@
       <c r="K34" s="39"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="287"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="302"/>
       <c r="C35" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="304"/>
       <c r="E35" s="39" t="s">
         <v>19</v>
       </c>
@@ -14283,12 +14283,12 @@
       <c r="K35" s="39"/>
     </row>
     <row r="36" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="287"/>
+      <c r="A36" s="185"/>
       <c r="B36" s="302"/>
       <c r="C36" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="304"/>
       <c r="E36" s="39" t="s">
         <v>80</v>
       </c>
@@ -14307,12 +14307,12 @@
       <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="287"/>
+      <c r="A37" s="185"/>
       <c r="B37" s="302"/>
       <c r="C37" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="303"/>
+      <c r="D37" s="304"/>
       <c r="E37" s="39" t="s">
         <v>19</v>
       </c>
@@ -14331,12 +14331,12 @@
       <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="287"/>
+      <c r="A38" s="185"/>
       <c r="B38" s="302"/>
       <c r="C38" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="303"/>
+      <c r="D38" s="304"/>
       <c r="E38" s="39" t="s">
         <v>19</v>
       </c>
@@ -14355,12 +14355,12 @@
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="287"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="302"/>
       <c r="C39" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="303"/>
+      <c r="D39" s="304"/>
       <c r="E39" s="39" t="s">
         <v>19</v>
       </c>
@@ -14376,12 +14376,12 @@
       <c r="K39" s="39"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="287"/>
+      <c r="A40" s="185"/>
       <c r="B40" s="302"/>
       <c r="C40" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="303"/>
+      <c r="D40" s="304"/>
       <c r="E40" s="40" t="s">
         <v>19</v>
       </c>
@@ -14397,12 +14397,12 @@
       <c r="K40" s="39"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="287"/>
+      <c r="A41" s="185"/>
       <c r="B41" s="302"/>
       <c r="C41" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="303"/>
+      <c r="D41" s="304"/>
       <c r="E41" s="40" t="s">
         <v>19</v>
       </c>
@@ -14422,12 +14422,12 @@
       <c r="K41" s="39"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="287"/>
+      <c r="A42" s="185"/>
       <c r="B42" s="302"/>
       <c r="C42" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="303"/>
+      <c r="D42" s="304"/>
       <c r="E42" s="40" t="s">
         <v>19</v>
       </c>
@@ -14447,12 +14447,12 @@
       <c r="K42" s="39"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="287"/>
+      <c r="A43" s="185"/>
       <c r="B43" s="302"/>
       <c r="C43" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="303"/>
+      <c r="D43" s="304"/>
       <c r="E43" s="40" t="s">
         <v>19</v>
       </c>
@@ -14472,12 +14472,12 @@
       <c r="K43" s="39"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="287"/>
+      <c r="A44" s="185"/>
       <c r="B44" s="302"/>
       <c r="C44" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="303"/>
+      <c r="D44" s="304"/>
       <c r="E44" s="40" t="s">
         <v>19</v>
       </c>
@@ -14497,12 +14497,12 @@
       <c r="K44" s="39"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="287"/>
+      <c r="A45" s="185"/>
       <c r="B45" s="302"/>
       <c r="C45" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="303"/>
+      <c r="D45" s="304"/>
       <c r="E45" s="40" t="s">
         <v>80</v>
       </c>
@@ -14520,12 +14520,12 @@
       <c r="K45" s="39"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="287"/>
+      <c r="A46" s="185"/>
       <c r="B46" s="302"/>
       <c r="C46" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="303"/>
+      <c r="D46" s="304"/>
       <c r="E46" s="40" t="s">
         <v>19</v>
       </c>
@@ -14541,12 +14541,12 @@
       <c r="K46" s="39"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="287"/>
+      <c r="A47" s="185"/>
       <c r="B47" s="302"/>
       <c r="C47" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="303"/>
+      <c r="D47" s="304"/>
       <c r="E47" s="40" t="s">
         <v>19</v>
       </c>
@@ -14562,7 +14562,7 @@
       <c r="K47" s="39"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="287">
+      <c r="A48" s="185">
         <v>5</v>
       </c>
       <c r="B48" s="302" t="s">
@@ -14571,7 +14571,7 @@
       <c r="C48" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="303" t="s">
+      <c r="D48" s="304" t="s">
         <v>278</v>
       </c>
       <c r="E48" s="39" t="s">
@@ -14589,12 +14589,12 @@
       <c r="K48" s="39"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="287"/>
+      <c r="A49" s="185"/>
       <c r="B49" s="302"/>
       <c r="C49" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="303"/>
+      <c r="D49" s="304"/>
       <c r="E49" s="39" t="s">
         <v>19</v>
       </c>
@@ -14610,12 +14610,12 @@
       <c r="K49" s="39"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="287"/>
+      <c r="A50" s="185"/>
       <c r="B50" s="302"/>
       <c r="C50" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="303"/>
+      <c r="D50" s="304"/>
       <c r="E50" s="39" t="s">
         <v>19</v>
       </c>
@@ -14631,12 +14631,12 @@
       <c r="K50" s="39"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="287"/>
+      <c r="A51" s="185"/>
       <c r="B51" s="302"/>
       <c r="C51" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="303"/>
+      <c r="D51" s="304"/>
       <c r="E51" s="41" t="s">
         <v>19</v>
       </c>
@@ -14654,12 +14654,12 @@
       <c r="K51" s="39"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="287"/>
+      <c r="A52" s="185"/>
       <c r="B52" s="302"/>
       <c r="C52" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="303"/>
+      <c r="D52" s="304"/>
       <c r="E52" s="39" t="s">
         <v>19</v>
       </c>
@@ -14679,12 +14679,12 @@
       <c r="K52" s="39"/>
     </row>
     <row r="53" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="287"/>
+      <c r="A53" s="185"/>
       <c r="B53" s="302"/>
       <c r="C53" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="303"/>
+      <c r="D53" s="304"/>
       <c r="E53" s="39" t="s">
         <v>80</v>
       </c>
@@ -14703,12 +14703,12 @@
       <c r="L53" s="13"/>
     </row>
     <row r="54" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="287"/>
+      <c r="A54" s="185"/>
       <c r="B54" s="302"/>
       <c r="C54" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="303"/>
+      <c r="D54" s="304"/>
       <c r="E54" s="39" t="s">
         <v>19</v>
       </c>
@@ -14727,12 +14727,12 @@
       <c r="L54" s="13"/>
     </row>
     <row r="55" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="287"/>
+      <c r="A55" s="185"/>
       <c r="B55" s="302"/>
       <c r="C55" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="303"/>
+      <c r="D55" s="304"/>
       <c r="E55" s="39" t="s">
         <v>19</v>
       </c>
@@ -14751,12 +14751,12 @@
       <c r="L55" s="13"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="287"/>
+      <c r="A56" s="185"/>
       <c r="B56" s="302"/>
       <c r="C56" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="303"/>
+      <c r="D56" s="304"/>
       <c r="E56" s="39" t="s">
         <v>19</v>
       </c>
@@ -14772,12 +14772,12 @@
       <c r="K56" s="39"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="287"/>
+      <c r="A57" s="185"/>
       <c r="B57" s="302"/>
       <c r="C57" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="303"/>
+      <c r="D57" s="304"/>
       <c r="E57" s="40" t="s">
         <v>19</v>
       </c>
@@ -14793,12 +14793,12 @@
       <c r="K57" s="39"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="287"/>
+      <c r="A58" s="185"/>
       <c r="B58" s="302"/>
       <c r="C58" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D58" s="303"/>
+      <c r="D58" s="304"/>
       <c r="E58" s="40" t="s">
         <v>19</v>
       </c>
@@ -14818,12 +14818,12 @@
       <c r="K58" s="39"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="287"/>
+      <c r="A59" s="185"/>
       <c r="B59" s="302"/>
       <c r="C59" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="303"/>
+      <c r="D59" s="304"/>
       <c r="E59" s="40" t="s">
         <v>19</v>
       </c>
@@ -14843,12 +14843,12 @@
       <c r="K59" s="39"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="287"/>
+      <c r="A60" s="185"/>
       <c r="B60" s="302"/>
       <c r="C60" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="303"/>
+      <c r="D60" s="304"/>
       <c r="E60" s="40" t="s">
         <v>19</v>
       </c>
@@ -14868,12 +14868,12 @@
       <c r="K60" s="39"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="287"/>
+      <c r="A61" s="185"/>
       <c r="B61" s="302"/>
       <c r="C61" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="303"/>
+      <c r="D61" s="304"/>
       <c r="E61" s="40" t="s">
         <v>19</v>
       </c>
@@ -14891,12 +14891,12 @@
       <c r="K61" s="39"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="287"/>
+      <c r="A62" s="185"/>
       <c r="B62" s="302"/>
       <c r="C62" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="303"/>
+      <c r="D62" s="304"/>
       <c r="E62" s="40" t="s">
         <v>80</v>
       </c>
@@ -14914,12 +14914,12 @@
       <c r="K62" s="39"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="287"/>
+      <c r="A63" s="185"/>
       <c r="B63" s="302"/>
       <c r="C63" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="303"/>
+      <c r="D63" s="304"/>
       <c r="E63" s="40" t="s">
         <v>19</v>
       </c>
@@ -14935,12 +14935,12 @@
       <c r="K63" s="39"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="287"/>
+      <c r="A64" s="185"/>
       <c r="B64" s="302"/>
       <c r="C64" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="303"/>
+      <c r="D64" s="304"/>
       <c r="E64" s="40" t="s">
         <v>19</v>
       </c>
@@ -14958,7 +14958,7 @@
       <c r="K64" s="39"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="287">
+      <c r="A65" s="185">
         <v>6</v>
       </c>
       <c r="B65" s="302" t="s">
@@ -14967,7 +14967,7 @@
       <c r="C65" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="303" t="s">
+      <c r="D65" s="304" t="s">
         <v>164</v>
       </c>
       <c r="E65" s="39" t="s">
@@ -14985,12 +14985,12 @@
       <c r="K65" s="39"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="287"/>
+      <c r="A66" s="185"/>
       <c r="B66" s="302"/>
       <c r="C66" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="303"/>
+      <c r="D66" s="304"/>
       <c r="E66" s="39" t="s">
         <v>19</v>
       </c>
@@ -15006,12 +15006,12 @@
       <c r="K66" s="39"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="287"/>
+      <c r="A67" s="185"/>
       <c r="B67" s="302"/>
       <c r="C67" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="303"/>
+      <c r="D67" s="304"/>
       <c r="E67" s="39" t="s">
         <v>19</v>
       </c>
@@ -15027,7 +15027,7 @@
       <c r="K67" s="39"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="287">
+      <c r="A68" s="185">
         <v>7</v>
       </c>
       <c r="B68" s="302" t="s">
@@ -15036,7 +15036,7 @@
       <c r="C68" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="303" t="s">
+      <c r="D68" s="304" t="s">
         <v>165</v>
       </c>
       <c r="E68" s="39" t="s">
@@ -15054,12 +15054,12 @@
       <c r="K68" s="39"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="287"/>
+      <c r="A69" s="185"/>
       <c r="B69" s="302"/>
       <c r="C69" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="303"/>
+      <c r="D69" s="304"/>
       <c r="E69" s="39" t="s">
         <v>19</v>
       </c>
@@ -15075,12 +15075,12 @@
       <c r="K69" s="39"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="287"/>
+      <c r="A70" s="185"/>
       <c r="B70" s="302"/>
       <c r="C70" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="303"/>
+      <c r="D70" s="304"/>
       <c r="E70" s="39" t="s">
         <v>19</v>
       </c>
@@ -15096,7 +15096,7 @@
       <c r="K70" s="39"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="287">
+      <c r="A71" s="185">
         <v>8</v>
       </c>
       <c r="B71" s="302" t="s">
@@ -15105,7 +15105,7 @@
       <c r="C71" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="303" t="s">
+      <c r="D71" s="304" t="s">
         <v>166</v>
       </c>
       <c r="E71" s="39" t="s">
@@ -15123,12 +15123,12 @@
       <c r="K71" s="39"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="287"/>
+      <c r="A72" s="185"/>
       <c r="B72" s="302"/>
       <c r="C72" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="303"/>
+      <c r="D72" s="304"/>
       <c r="E72" s="39" t="s">
         <v>19</v>
       </c>
@@ -15144,12 +15144,12 @@
       <c r="K72" s="39"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="287"/>
+      <c r="A73" s="185"/>
       <c r="B73" s="302"/>
       <c r="C73" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="303"/>
+      <c r="D73" s="304"/>
       <c r="E73" s="39" t="s">
         <v>19</v>
       </c>
@@ -15165,7 +15165,7 @@
       <c r="K73" s="39"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="287">
+      <c r="A74" s="185">
         <v>9</v>
       </c>
       <c r="B74" s="302" t="s">
@@ -15174,7 +15174,7 @@
       <c r="C74" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="303" t="s">
+      <c r="D74" s="304" t="s">
         <v>167</v>
       </c>
       <c r="E74" s="39" t="s">
@@ -15192,12 +15192,12 @@
       <c r="K74" s="39"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="287"/>
+      <c r="A75" s="185"/>
       <c r="B75" s="302"/>
       <c r="C75" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="303"/>
+      <c r="D75" s="304"/>
       <c r="E75" s="39" t="s">
         <v>19</v>
       </c>
@@ -15213,12 +15213,12 @@
       <c r="K75" s="39"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="287"/>
+      <c r="A76" s="185"/>
       <c r="B76" s="302"/>
       <c r="C76" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="303"/>
+      <c r="D76" s="304"/>
       <c r="E76" s="39" t="s">
         <v>19</v>
       </c>
@@ -15234,12 +15234,12 @@
       <c r="K76" s="39"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="287"/>
+      <c r="A77" s="185"/>
       <c r="B77" s="302"/>
       <c r="C77" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="303"/>
+      <c r="D77" s="304"/>
       <c r="E77" s="39" t="s">
         <v>19</v>
       </c>
@@ -15259,12 +15259,12 @@
       <c r="K77" s="39"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="287"/>
+      <c r="A78" s="185"/>
       <c r="B78" s="302"/>
       <c r="C78" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D78" s="303"/>
+      <c r="D78" s="304"/>
       <c r="E78" s="41" t="s">
         <v>19</v>
       </c>
@@ -15282,7 +15282,7 @@
       <c r="K78" s="39"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="287">
+      <c r="A79" s="185">
         <v>10</v>
       </c>
       <c r="B79" s="302" t="s">
@@ -15291,7 +15291,7 @@
       <c r="C79" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="303" t="s">
+      <c r="D79" s="304" t="s">
         <v>168</v>
       </c>
       <c r="E79" s="39" t="s">
@@ -15309,12 +15309,12 @@
       <c r="K79" s="39"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="287"/>
+      <c r="A80" s="185"/>
       <c r="B80" s="302"/>
       <c r="C80" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="303"/>
+      <c r="D80" s="304"/>
       <c r="E80" s="39" t="s">
         <v>19</v>
       </c>
@@ -15330,12 +15330,12 @@
       <c r="K80" s="39"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="287"/>
+      <c r="A81" s="185"/>
       <c r="B81" s="302"/>
       <c r="C81" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="303"/>
+      <c r="D81" s="304"/>
       <c r="E81" s="39" t="s">
         <v>19</v>
       </c>
@@ -15351,12 +15351,12 @@
       <c r="K81" s="39"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="287"/>
+      <c r="A82" s="185"/>
       <c r="B82" s="302"/>
       <c r="C82" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="303"/>
+      <c r="D82" s="304"/>
       <c r="E82" s="41" t="s">
         <v>19</v>
       </c>
@@ -15376,7 +15376,7 @@
       <c r="K82" s="39"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="287">
+      <c r="A83" s="185">
         <v>11</v>
       </c>
       <c r="B83" s="302" t="s">
@@ -15385,7 +15385,7 @@
       <c r="C83" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="303" t="s">
+      <c r="D83" s="304" t="s">
         <v>169</v>
       </c>
       <c r="E83" s="41" t="s">
@@ -15403,12 +15403,12 @@
       <c r="K83" s="39"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="287"/>
+      <c r="A84" s="185"/>
       <c r="B84" s="302"/>
       <c r="C84" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="303"/>
+      <c r="D84" s="304"/>
       <c r="E84" s="41" t="s">
         <v>19</v>
       </c>
@@ -15424,12 +15424,12 @@
       <c r="K84" s="39"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="287"/>
+      <c r="A85" s="185"/>
       <c r="B85" s="302"/>
       <c r="C85" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="303"/>
+      <c r="D85" s="304"/>
       <c r="E85" s="41" t="s">
         <v>19</v>
       </c>
@@ -15445,12 +15445,12 @@
       <c r="K85" s="39"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="287"/>
+      <c r="A86" s="185"/>
       <c r="B86" s="302"/>
       <c r="C86" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="303"/>
+      <c r="D86" s="304"/>
       <c r="E86" s="41" t="s">
         <v>19</v>
       </c>
@@ -15470,12 +15470,12 @@
       <c r="K86" s="39"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="287"/>
+      <c r="A87" s="185"/>
       <c r="B87" s="302"/>
       <c r="C87" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="303"/>
+      <c r="D87" s="304"/>
       <c r="E87" s="41" t="s">
         <v>19</v>
       </c>
@@ -15495,12 +15495,12 @@
       <c r="K87" s="41"/>
     </row>
     <row r="88" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="287"/>
+      <c r="A88" s="185"/>
       <c r="B88" s="302"/>
       <c r="C88" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="303"/>
+      <c r="D88" s="304"/>
       <c r="E88" s="41" t="s">
         <v>80</v>
       </c>
@@ -15519,12 +15519,12 @@
       <c r="L88" s="13"/>
     </row>
     <row r="89" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="287"/>
+      <c r="A89" s="185"/>
       <c r="B89" s="302"/>
       <c r="C89" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="303"/>
+      <c r="D89" s="304"/>
       <c r="E89" s="41" t="s">
         <v>19</v>
       </c>
@@ -15543,12 +15543,12 @@
       <c r="L89" s="13"/>
     </row>
     <row r="90" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="287"/>
+      <c r="A90" s="185"/>
       <c r="B90" s="302"/>
       <c r="C90" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D90" s="303"/>
+      <c r="D90" s="304"/>
       <c r="E90" s="41" t="s">
         <v>19</v>
       </c>
@@ -15567,12 +15567,12 @@
       <c r="L90" s="13"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="287"/>
+      <c r="A91" s="185"/>
       <c r="B91" s="302"/>
       <c r="C91" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D91" s="303"/>
+      <c r="D91" s="304"/>
       <c r="E91" s="41" t="s">
         <v>19</v>
       </c>
@@ -15592,12 +15592,12 @@
       <c r="K91" s="41"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="287"/>
+      <c r="A92" s="185"/>
       <c r="B92" s="302"/>
       <c r="C92" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D92" s="303"/>
+      <c r="D92" s="304"/>
       <c r="E92" s="40" t="s">
         <v>19</v>
       </c>
@@ -15613,7 +15613,7 @@
       <c r="K92" s="39"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="287">
+      <c r="A93" s="185">
         <v>12</v>
       </c>
       <c r="B93" s="302" t="s">
@@ -15640,7 +15640,7 @@
       <c r="K93" s="39"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="287"/>
+      <c r="A94" s="185"/>
       <c r="B94" s="302"/>
       <c r="C94" s="40" t="s">
         <v>11</v>
@@ -15661,7 +15661,7 @@
       <c r="K94" s="39"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="287"/>
+      <c r="A95" s="185"/>
       <c r="B95" s="302"/>
       <c r="C95" s="40" t="s">
         <v>12</v>
@@ -15682,7 +15682,7 @@
       <c r="K95" s="39"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="287"/>
+      <c r="A96" s="185"/>
       <c r="B96" s="302"/>
       <c r="C96" s="40" t="s">
         <v>13</v>
@@ -15707,7 +15707,7 @@
       <c r="K96" s="39"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="287"/>
+      <c r="A97" s="185"/>
       <c r="B97" s="302"/>
       <c r="C97" s="40" t="s">
         <v>14</v>
@@ -15732,7 +15732,7 @@
       <c r="K97" s="41"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="287"/>
+      <c r="A98" s="185"/>
       <c r="B98" s="302"/>
       <c r="C98" s="39" t="s">
         <v>174</v>
@@ -15753,7 +15753,7 @@
       <c r="K98" s="39"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="287"/>
+      <c r="A99" s="185"/>
       <c r="B99" s="302"/>
       <c r="C99" s="39" t="s">
         <v>175</v>
@@ -15776,7 +15776,7 @@
       <c r="K99" s="39"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="287"/>
+      <c r="A100" s="185"/>
       <c r="B100" s="302"/>
       <c r="C100" s="39" t="s">
         <v>176</v>
@@ -15806,6 +15806,34 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B93:B100"/>
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="D93:D100"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="A83:A92"/>
+    <mergeCell ref="D83:D92"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="D31:D47"/>
+    <mergeCell ref="D48:D64"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D10:D23"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A48:A64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B48:B64"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="A31:A47"/>
     <mergeCell ref="B24:B30"/>
@@ -15814,34 +15842,6 @@
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A23"/>
     <mergeCell ref="B10:B23"/>
-    <mergeCell ref="A48:A64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B48:B64"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D31:D47"/>
-    <mergeCell ref="D48:D64"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="D10:D23"/>
-    <mergeCell ref="B93:B100"/>
-    <mergeCell ref="A93:A100"/>
-    <mergeCell ref="D93:D100"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="A83:A92"/>
-    <mergeCell ref="D83:D92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16148,10 +16148,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="303" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -16174,8 +16174,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
-      <c r="B3" s="304"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="303"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -16192,8 +16192,8 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
-      <c r="B4" s="304"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="303"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -16212,8 +16212,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
-      <c r="B5" s="304"/>
+      <c r="A5" s="185"/>
+      <c r="B5" s="303"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -16232,8 +16232,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
-      <c r="B6" s="304"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="303"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -16252,8 +16252,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
-      <c r="B7" s="304"/>
+      <c r="A7" s="185"/>
+      <c r="B7" s="303"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -16272,8 +16272,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
-      <c r="B8" s="304"/>
+      <c r="A8" s="185"/>
+      <c r="B8" s="303"/>
       <c r="C8" s="39" t="s">
         <v>73</v>
       </c>
@@ -16292,8 +16292,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
-      <c r="B9" s="304"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="303"/>
       <c r="C9" s="39" t="s">
         <v>18</v>
       </c>
@@ -16371,7 +16371,7 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -16398,7 +16398,7 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="302"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
@@ -16417,7 +16417,7 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="302"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
@@ -16438,7 +16438,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="302"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
@@ -16459,7 +16459,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="302"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
@@ -16480,7 +16480,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="302"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
@@ -16501,7 +16501,7 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>15</v>
@@ -16522,7 +16522,7 @@
       <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>16</v>
@@ -16543,7 +16543,7 @@
       <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>17</v>
@@ -16564,7 +16564,7 @@
       <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="287"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>81</v>
@@ -16583,7 +16583,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="287"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="302"/>
       <c r="C12" s="40" t="s">
         <v>84</v>
@@ -16604,7 +16604,7 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="287"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="302"/>
       <c r="C13" s="40" t="s">
         <v>85</v>
@@ -16625,7 +16625,7 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="287"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
         <v>86</v>
@@ -16646,7 +16646,7 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="287"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
         <v>101</v>
@@ -16727,7 +16727,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -16736,7 +16736,7 @@
       <c r="C2" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="303" t="s">
+      <c r="D2" s="304" t="s">
         <v>169</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -16754,12 +16754,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="303"/>
+      <c r="D3" s="304"/>
       <c r="E3" s="41" t="s">
         <v>19</v>
       </c>
@@ -16773,12 +16773,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="303"/>
+      <c r="D4" s="304"/>
       <c r="E4" s="41" t="s">
         <v>19</v>
       </c>
@@ -16794,12 +16794,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="303"/>
+      <c r="D5" s="304"/>
       <c r="E5" s="41" t="s">
         <v>19</v>
       </c>
@@ -16815,12 +16815,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="303"/>
+      <c r="D6" s="304"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -16836,12 +16836,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="303"/>
+      <c r="D7" s="304"/>
       <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
@@ -16857,12 +16857,12 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="302"/>
       <c r="C8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="303"/>
+      <c r="D8" s="304"/>
       <c r="E8" s="41" t="s">
         <v>80</v>
       </c>
@@ -16876,12 +16876,12 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="302"/>
       <c r="C9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="303"/>
+      <c r="D9" s="304"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
@@ -16895,12 +16895,12 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="302"/>
       <c r="C10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="303"/>
+      <c r="D10" s="304"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
@@ -16914,12 +16914,12 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="287"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="302"/>
       <c r="C11" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="303"/>
+      <c r="D11" s="304"/>
       <c r="E11" s="41" t="s">
         <v>19</v>
       </c>
@@ -16935,12 +16935,12 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="287"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="302"/>
       <c r="C12" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="303"/>
+      <c r="D12" s="304"/>
       <c r="E12" s="40" t="s">
         <v>19</v>
       </c>
@@ -17396,10 +17396,10 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="287">
+      <c r="A2" s="185">
         <v>1</v>
       </c>
-      <c r="B2" s="287" t="s">
+      <c r="B2" s="185" t="s">
         <v>327</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -17422,8 +17422,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
-      <c r="B3" s="287"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="185"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -17440,8 +17440,8 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="287"/>
-      <c r="B4" s="287"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="185"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -17460,8 +17460,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
-      <c r="B5" s="287"/>
+      <c r="A5" s="185"/>
+      <c r="B5" s="185"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -17480,8 +17480,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
-      <c r="B6" s="287"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="185"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -17500,8 +17500,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
-      <c r="B7" s="287"/>
+      <c r="A7" s="185"/>
+      <c r="B7" s="185"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -17520,8 +17520,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
-      <c r="B8" s="287"/>
+      <c r="A8" s="185"/>
+      <c r="B8" s="185"/>
       <c r="C8" s="41" t="s">
         <v>328</v>
       </c>
@@ -17538,8 +17538,8 @@
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="287"/>
-      <c r="B9" s="287"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="41" t="s">
         <v>103</v>
       </c>
@@ -17556,8 +17556,8 @@
       <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="287"/>
-      <c r="B10" s="287"/>
+      <c r="A10" s="185"/>
+      <c r="B10" s="185"/>
       <c r="C10" s="41" t="s">
         <v>329</v>
       </c>

--- a/Documentation/AzureTasks Tags Mappingv3.0.xlsx
+++ b/Documentation/AzureTasks Tags Mappingv3.0.xlsx
@@ -2771,9 +2771,336 @@
     <xf numFmtId="15" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2789,348 +3116,21 @@
     <xf numFmtId="15" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3149,6 +3149,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3156,18 +3168,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5344,7 +5344,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -5372,7 +5372,7 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
@@ -5391,7 +5391,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
@@ -5412,7 +5412,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
@@ -5433,7 +5433,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
@@ -5454,7 +5454,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
@@ -5475,7 +5475,7 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>355</v>
@@ -5494,7 +5494,7 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>15</v>
@@ -5513,7 +5513,7 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>16</v>
@@ -5532,7 +5532,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>17</v>
@@ -5551,7 +5551,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="39" t="s">
         <v>102</v>
@@ -5570,7 +5570,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="185"/>
+      <c r="A13" s="287"/>
       <c r="B13" s="302"/>
       <c r="C13" s="39" t="s">
         <v>103</v>
@@ -5589,7 +5589,7 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="185"/>
+      <c r="A14" s="287"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
         <v>104</v>
@@ -5610,7 +5610,7 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="287"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
         <v>375</v>
@@ -5631,7 +5631,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="185"/>
+      <c r="A16" s="287"/>
       <c r="B16" s="302"/>
       <c r="C16" s="39" t="s">
         <v>106</v>
@@ -5652,7 +5652,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="185"/>
+      <c r="A17" s="287"/>
       <c r="B17" s="302"/>
       <c r="C17" s="39" t="s">
         <v>356</v>
@@ -5675,7 +5675,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="185"/>
+      <c r="A18" s="287"/>
       <c r="B18" s="302"/>
       <c r="C18" s="39" t="s">
         <v>357</v>
@@ -5696,7 +5696,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="287"/>
       <c r="B19" s="302"/>
       <c r="C19" s="39" t="s">
         <v>358</v>
@@ -5716,7 +5716,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="185"/>
+      <c r="A20" s="287"/>
       <c r="B20" s="302"/>
       <c r="C20" s="39" t="s">
         <v>359</v>
@@ -5736,7 +5736,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="185"/>
+      <c r="A21" s="287"/>
       <c r="B21" s="302"/>
       <c r="C21" s="39" t="s">
         <v>373</v>
@@ -5754,7 +5754,7 @@
       <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="185"/>
+      <c r="A22" s="287"/>
       <c r="B22" s="302"/>
       <c r="C22" s="39" t="s">
         <v>374</v>
@@ -5832,10 +5832,10 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="303" t="s">
         <v>207</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -5858,8 +5858,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
-      <c r="B3" s="304"/>
+      <c r="A3" s="287"/>
+      <c r="B3" s="303"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -5876,8 +5876,8 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
-      <c r="B4" s="304"/>
+      <c r="A4" s="287"/>
+      <c r="B4" s="303"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -5896,8 +5896,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
-      <c r="B5" s="304"/>
+      <c r="A5" s="287"/>
+      <c r="B5" s="303"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -5916,8 +5916,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
-      <c r="B6" s="304"/>
+      <c r="A6" s="287"/>
+      <c r="B6" s="303"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -5936,8 +5936,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
-      <c r="B7" s="304"/>
+      <c r="A7" s="287"/>
+      <c r="B7" s="303"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -5956,8 +5956,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="304"/>
+      <c r="A8" s="287"/>
+      <c r="B8" s="303"/>
       <c r="C8" s="41" t="s">
         <v>103</v>
       </c>
@@ -5974,8 +5974,8 @@
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
-      <c r="B9" s="304"/>
+      <c r="A9" s="287"/>
+      <c r="B9" s="303"/>
       <c r="C9" s="41" t="s">
         <v>351</v>
       </c>
@@ -5992,8 +5992,8 @@
       <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
-      <c r="B10" s="304"/>
+      <c r="A10" s="287"/>
+      <c r="B10" s="303"/>
       <c r="C10" s="50" t="s">
         <v>352</v>
       </c>
@@ -6010,8 +6010,8 @@
       <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
-      <c r="B11" s="304"/>
+      <c r="A11" s="287"/>
+      <c r="B11" s="303"/>
       <c r="C11" s="41" t="s">
         <v>353</v>
       </c>
@@ -6089,7 +6089,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -6116,7 +6116,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
@@ -6135,7 +6135,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
@@ -6156,7 +6156,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
@@ -6177,7 +6177,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
@@ -6198,7 +6198,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
@@ -6219,7 +6219,7 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>15</v>
@@ -6238,7 +6238,7 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>16</v>
@@ -6257,7 +6257,7 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>17</v>
@@ -6276,7 +6276,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>102</v>
@@ -6295,7 +6295,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="39" t="s">
         <v>103</v>
@@ -6314,7 +6314,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="185"/>
+      <c r="A13" s="287"/>
       <c r="B13" s="302"/>
       <c r="C13" s="39" t="s">
         <v>104</v>
@@ -6335,7 +6335,7 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="185"/>
+      <c r="A14" s="287"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
         <v>375</v>
@@ -6356,7 +6356,7 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="287"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
         <v>106</v>
@@ -6377,7 +6377,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="185"/>
+      <c r="A16" s="287"/>
       <c r="B16" s="302"/>
       <c r="C16" s="39" t="s">
         <v>376</v>
@@ -6398,7 +6398,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="185"/>
+      <c r="A17" s="287"/>
       <c r="B17" s="302"/>
       <c r="C17" s="39" t="s">
         <v>359</v>
@@ -6419,7 +6419,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="185"/>
+      <c r="A18" s="287"/>
       <c r="B18" s="302"/>
       <c r="C18" s="39" t="s">
         <v>373</v>
@@ -6438,7 +6438,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="287"/>
       <c r="B19" s="302"/>
       <c r="C19" s="39" t="s">
         <v>374</v>
@@ -6458,7 +6458,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="185"/>
+      <c r="A20" s="287"/>
       <c r="B20" s="302"/>
       <c r="C20" s="41" t="s">
         <v>355</v>
@@ -6478,7 +6478,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="185"/>
+      <c r="A21" s="287"/>
       <c r="B21" s="302"/>
       <c r="C21" s="41" t="s">
         <v>378</v>
@@ -6559,7 +6559,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -6586,7 +6586,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -6605,7 +6605,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -6626,7 +6626,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -6647,7 +6647,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -6668,7 +6668,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -6689,7 +6689,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>174</v>
@@ -6710,7 +6710,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>175</v>
@@ -6731,7 +6731,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>176</v>
@@ -6751,7 +6751,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="41" t="s">
         <v>90</v>
@@ -6771,7 +6771,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="41" t="s">
         <v>76</v>
@@ -6791,7 +6791,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="185"/>
+      <c r="A13" s="287"/>
       <c r="B13" s="302"/>
       <c r="C13" s="41" t="s">
         <v>445</v>
@@ -6811,7 +6811,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="185"/>
+      <c r="A14" s="287"/>
       <c r="B14" s="302"/>
       <c r="C14" s="41" t="s">
         <v>448</v>
@@ -6831,7 +6831,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="287"/>
       <c r="B15" s="302"/>
       <c r="C15" s="41" t="s">
         <v>450</v>
@@ -6851,7 +6851,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="185"/>
+      <c r="A16" s="287"/>
       <c r="B16" s="302"/>
       <c r="C16" s="41" t="s">
         <v>452</v>
@@ -6871,7 +6871,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="185"/>
+      <c r="A17" s="287"/>
       <c r="B17" s="302"/>
       <c r="C17" s="41" t="s">
         <v>453</v>
@@ -6951,7 +6951,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -6978,7 +6978,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -6997,7 +6997,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7018,7 +7018,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7039,7 +7039,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7060,7 +7060,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7081,7 +7081,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -7102,7 +7102,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>381</v>
@@ -7123,7 +7123,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>382</v>
@@ -7203,7 +7203,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -7230,7 +7230,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -7249,7 +7249,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7270,7 +7270,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7291,7 +7291,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7312,7 +7312,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7333,7 +7333,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -7354,7 +7354,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>351</v>
@@ -7375,7 +7375,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>388</v>
@@ -7393,7 +7393,7 @@
       <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="41" t="s">
         <v>389</v>
@@ -7471,7 +7471,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -7498,7 +7498,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -7517,7 +7517,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7538,7 +7538,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7559,7 +7559,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7580,7 +7580,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7601,7 +7601,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -7622,7 +7622,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>351</v>
@@ -7643,7 +7643,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>389</v>
@@ -7661,7 +7661,7 @@
       <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="41" t="s">
         <v>396</v>
@@ -7679,7 +7679,7 @@
       <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="41" t="s">
         <v>397</v>
@@ -7757,7 +7757,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302"/>
@@ -7782,7 +7782,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -7801,7 +7801,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7822,7 +7822,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7843,7 +7843,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7864,7 +7864,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7885,7 +7885,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -7906,7 +7906,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>329</v>
@@ -7927,7 +7927,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>399</v>
@@ -7978,16 +7978,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="314">
+      <c r="A2" s="311">
         <v>1</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="304" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="303" t="s">
+      <c r="D2" s="304" t="s">
         <v>161</v>
       </c>
       <c r="E2" s="76" t="s">
@@ -8005,12 +8005,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="314"/>
-      <c r="B3" s="303"/>
+      <c r="A3" s="311"/>
+      <c r="B3" s="304"/>
       <c r="C3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="303"/>
+      <c r="D3" s="304"/>
       <c r="E3" s="77" t="s">
         <v>19</v>
       </c>
@@ -8027,12 +8027,12 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="314"/>
-      <c r="B4" s="303"/>
+      <c r="A4" s="311"/>
+      <c r="B4" s="304"/>
       <c r="C4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="303"/>
+      <c r="D4" s="304"/>
       <c r="E4" s="77" t="s">
         <v>19</v>
       </c>
@@ -8049,12 +8049,12 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="314"/>
-      <c r="B5" s="303"/>
+      <c r="A5" s="311"/>
+      <c r="B5" s="304"/>
       <c r="C5" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="303"/>
+      <c r="D5" s="304"/>
       <c r="E5" s="77" t="s">
         <v>19</v>
       </c>
@@ -8073,12 +8073,12 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="314"/>
-      <c r="B6" s="303"/>
+      <c r="A6" s="311"/>
+      <c r="B6" s="304"/>
       <c r="C6" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="303"/>
+      <c r="D6" s="304"/>
       <c r="E6" s="77" t="s">
         <v>19</v>
       </c>
@@ -8099,12 +8099,12 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="314"/>
-      <c r="B7" s="303"/>
+      <c r="A7" s="311"/>
+      <c r="B7" s="304"/>
       <c r="C7" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="303"/>
+      <c r="D7" s="304"/>
       <c r="E7" s="77" t="s">
         <v>19</v>
       </c>
@@ -8125,12 +8125,12 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="314"/>
-      <c r="B8" s="303"/>
+      <c r="A8" s="311"/>
+      <c r="B8" s="304"/>
       <c r="C8" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="303"/>
+      <c r="D8" s="304"/>
       <c r="E8" s="77" t="s">
         <v>19</v>
       </c>
@@ -8151,12 +8151,12 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="314"/>
-      <c r="B9" s="303"/>
+      <c r="A9" s="311"/>
+      <c r="B9" s="304"/>
       <c r="C9" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="303"/>
+      <c r="D9" s="304"/>
       <c r="E9" s="77" t="s">
         <v>19</v>
       </c>
@@ -8173,16 +8173,16 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="315">
+      <c r="A10" s="312">
         <v>2</v>
       </c>
-      <c r="B10" s="315" t="s">
+      <c r="B10" s="312" t="s">
         <v>425</v>
       </c>
       <c r="C10" s="82" t="s">
         <v>304</v>
       </c>
-      <c r="D10" s="315" t="s">
+      <c r="D10" s="312" t="s">
         <v>426</v>
       </c>
       <c r="E10" s="82" t="s">
@@ -8203,12 +8203,12 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="316"/>
-      <c r="B11" s="316"/>
+      <c r="A11" s="313"/>
+      <c r="B11" s="313"/>
       <c r="C11" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="316"/>
+      <c r="D11" s="313"/>
       <c r="E11" s="83" t="s">
         <v>19</v>
       </c>
@@ -8222,12 +8222,12 @@
       <c r="I11" s="84"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="316"/>
-      <c r="B12" s="316"/>
+      <c r="A12" s="313"/>
+      <c r="B12" s="313"/>
       <c r="C12" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="316"/>
+      <c r="D12" s="313"/>
       <c r="E12" s="83" t="s">
         <v>19</v>
       </c>
@@ -8241,12 +8241,12 @@
       <c r="I12" s="84"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="316"/>
-      <c r="B13" s="316"/>
+      <c r="A13" s="313"/>
+      <c r="B13" s="313"/>
       <c r="C13" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="316"/>
+      <c r="D13" s="313"/>
       <c r="E13" s="83" t="s">
         <v>19</v>
       </c>
@@ -8260,12 +8260,12 @@
       <c r="I13" s="84"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="316"/>
-      <c r="B14" s="316"/>
+      <c r="A14" s="313"/>
+      <c r="B14" s="313"/>
       <c r="C14" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="316"/>
+      <c r="D14" s="313"/>
       <c r="E14" s="83" t="s">
         <v>19</v>
       </c>
@@ -8283,12 +8283,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="316"/>
-      <c r="B15" s="316"/>
+      <c r="A15" s="313"/>
+      <c r="B15" s="313"/>
       <c r="C15" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="316"/>
+      <c r="D15" s="313"/>
       <c r="E15" s="83" t="s">
         <v>19</v>
       </c>
@@ -8306,12 +8306,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="317"/>
-      <c r="B16" s="317"/>
+      <c r="A16" s="314"/>
+      <c r="B16" s="314"/>
       <c r="C16" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="317"/>
+      <c r="D16" s="314"/>
       <c r="E16" s="83" t="s">
         <v>19</v>
       </c>
@@ -8327,16 +8327,16 @@
       <c r="I16" s="84"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="311">
+      <c r="A17" s="315">
         <v>3</v>
       </c>
-      <c r="B17" s="311" t="s">
+      <c r="B17" s="315" t="s">
         <v>404</v>
       </c>
       <c r="C17" s="86" t="s">
         <v>304</v>
       </c>
-      <c r="D17" s="311" t="s">
+      <c r="D17" s="315" t="s">
         <v>407</v>
       </c>
       <c r="E17" s="87" t="s">
@@ -8352,12 +8352,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="312"/>
-      <c r="B18" s="312"/>
+      <c r="A18" s="316"/>
+      <c r="B18" s="316"/>
       <c r="C18" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="312"/>
+      <c r="D18" s="316"/>
       <c r="E18" s="87" t="s">
         <v>19</v>
       </c>
@@ -8371,12 +8371,12 @@
       <c r="I18" s="88"/>
     </row>
     <row r="19" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="312"/>
-      <c r="B19" s="312"/>
+      <c r="A19" s="316"/>
+      <c r="B19" s="316"/>
       <c r="C19" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="312"/>
+      <c r="D19" s="316"/>
       <c r="E19" s="87" t="s">
         <v>19</v>
       </c>
@@ -8390,12 +8390,12 @@
       <c r="I19" s="88"/>
     </row>
     <row r="20" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="312"/>
-      <c r="B20" s="312"/>
+      <c r="A20" s="316"/>
+      <c r="B20" s="316"/>
       <c r="C20" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="312"/>
+      <c r="D20" s="316"/>
       <c r="E20" s="87" t="s">
         <v>19</v>
       </c>
@@ -8409,12 +8409,12 @@
       <c r="I20" s="88"/>
     </row>
     <row r="21" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="312"/>
-      <c r="B21" s="312"/>
+      <c r="A21" s="316"/>
+      <c r="B21" s="316"/>
       <c r="C21" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="312"/>
+      <c r="D21" s="316"/>
       <c r="E21" s="87" t="s">
         <v>19</v>
       </c>
@@ -8432,12 +8432,12 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="312"/>
-      <c r="B22" s="312"/>
+      <c r="A22" s="316"/>
+      <c r="B22" s="316"/>
       <c r="C22" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="312"/>
+      <c r="D22" s="316"/>
       <c r="E22" s="87" t="s">
         <v>19</v>
       </c>
@@ -8455,12 +8455,12 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="312"/>
-      <c r="B23" s="312"/>
+      <c r="A23" s="316"/>
+      <c r="B23" s="316"/>
       <c r="C23" s="87" t="s">
         <v>428</v>
       </c>
-      <c r="D23" s="312"/>
+      <c r="D23" s="316"/>
       <c r="E23" s="87" t="s">
         <v>19</v>
       </c>
@@ -8475,12 +8475,12 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="312"/>
-      <c r="B24" s="312"/>
+      <c r="A24" s="316"/>
+      <c r="B24" s="316"/>
       <c r="C24" s="87" t="s">
         <v>429</v>
       </c>
-      <c r="D24" s="312"/>
+      <c r="D24" s="316"/>
       <c r="E24" s="87" t="s">
         <v>19</v>
       </c>
@@ -8498,12 +8498,12 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="312"/>
-      <c r="B25" s="312"/>
+      <c r="A25" s="316"/>
+      <c r="B25" s="316"/>
       <c r="C25" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="312"/>
+      <c r="D25" s="316"/>
       <c r="E25" s="87" t="s">
         <v>19</v>
       </c>
@@ -8516,12 +8516,12 @@
       <c r="I25" s="88"/>
     </row>
     <row r="26" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="313"/>
-      <c r="B26" s="313"/>
+      <c r="A26" s="317"/>
+      <c r="B26" s="317"/>
       <c r="C26" s="87" t="s">
         <v>431</v>
       </c>
-      <c r="D26" s="313"/>
+      <c r="D26" s="317"/>
       <c r="E26" s="87" t="s">
         <v>19</v>
       </c>
@@ -8537,16 +8537,16 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="281">
+      <c r="A27" s="213">
         <v>4</v>
       </c>
-      <c r="B27" s="278" t="s">
+      <c r="B27" s="210" t="s">
         <v>433</v>
       </c>
       <c r="C27" s="90" t="s">
         <v>304</v>
       </c>
-      <c r="D27" s="278" t="s">
+      <c r="D27" s="210" t="s">
         <v>163</v>
       </c>
       <c r="E27" s="90" t="s">
@@ -8562,12 +8562,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="282"/>
-      <c r="B28" s="279"/>
+      <c r="A28" s="214"/>
+      <c r="B28" s="211"/>
       <c r="C28" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="279"/>
+      <c r="D28" s="211"/>
       <c r="E28" s="90" t="s">
         <v>19</v>
       </c>
@@ -8581,12 +8581,12 @@
       <c r="I28" s="91"/>
     </row>
     <row r="29" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="282"/>
-      <c r="B29" s="279"/>
+      <c r="A29" s="214"/>
+      <c r="B29" s="211"/>
       <c r="C29" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="279"/>
+      <c r="D29" s="211"/>
       <c r="E29" s="90" t="s">
         <v>19</v>
       </c>
@@ -8600,12 +8600,12 @@
       <c r="I29" s="91"/>
     </row>
     <row r="30" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="282"/>
-      <c r="B30" s="279"/>
+      <c r="A30" s="214"/>
+      <c r="B30" s="211"/>
       <c r="C30" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="279"/>
+      <c r="D30" s="211"/>
       <c r="E30" s="90" t="s">
         <v>19</v>
       </c>
@@ -8619,12 +8619,12 @@
       <c r="I30" s="91"/>
     </row>
     <row r="31" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="282"/>
-      <c r="B31" s="279"/>
+      <c r="A31" s="214"/>
+      <c r="B31" s="211"/>
       <c r="C31" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="279"/>
+      <c r="D31" s="211"/>
       <c r="E31" s="90" t="s">
         <v>19</v>
       </c>
@@ -8642,12 +8642,12 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="282"/>
-      <c r="B32" s="279"/>
+      <c r="A32" s="214"/>
+      <c r="B32" s="211"/>
       <c r="C32" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="279"/>
+      <c r="D32" s="211"/>
       <c r="E32" s="90" t="s">
         <v>19</v>
       </c>
@@ -8665,12 +8665,12 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="282"/>
-      <c r="B33" s="279"/>
+      <c r="A33" s="214"/>
+      <c r="B33" s="211"/>
       <c r="C33" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="279"/>
+      <c r="D33" s="211"/>
       <c r="E33" s="90" t="s">
         <v>19</v>
       </c>
@@ -8688,12 +8688,12 @@
       </c>
     </row>
     <row r="34" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="282"/>
-      <c r="B34" s="279"/>
+      <c r="A34" s="214"/>
+      <c r="B34" s="211"/>
       <c r="C34" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="279"/>
+      <c r="D34" s="211"/>
       <c r="E34" s="90" t="s">
         <v>19</v>
       </c>
@@ -8712,12 +8712,12 @@
       <c r="L34" s="95"/>
     </row>
     <row r="35" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="282"/>
-      <c r="B35" s="279"/>
+      <c r="A35" s="214"/>
+      <c r="B35" s="211"/>
       <c r="C35" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="279"/>
+      <c r="D35" s="211"/>
       <c r="E35" s="90" t="s">
         <v>19</v>
       </c>
@@ -8736,12 +8736,12 @@
       <c r="L35" s="95"/>
     </row>
     <row r="36" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="282"/>
-      <c r="B36" s="279"/>
+      <c r="A36" s="214"/>
+      <c r="B36" s="211"/>
       <c r="C36" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="279"/>
+      <c r="D36" s="211"/>
       <c r="E36" s="90" t="s">
         <v>80</v>
       </c>
@@ -8760,12 +8760,12 @@
       <c r="L36" s="95"/>
     </row>
     <row r="37" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="282"/>
-      <c r="B37" s="279"/>
+      <c r="A37" s="214"/>
+      <c r="B37" s="211"/>
       <c r="C37" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="279"/>
+      <c r="D37" s="211"/>
       <c r="E37" s="90" t="s">
         <v>19</v>
       </c>
@@ -8784,12 +8784,12 @@
       <c r="L37" s="95"/>
     </row>
     <row r="38" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="282"/>
-      <c r="B38" s="279"/>
+      <c r="A38" s="214"/>
+      <c r="B38" s="211"/>
       <c r="C38" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="279"/>
+      <c r="D38" s="211"/>
       <c r="E38" s="90" t="s">
         <v>19</v>
       </c>
@@ -8808,12 +8808,12 @@
       <c r="L38" s="95"/>
     </row>
     <row r="39" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="282"/>
-      <c r="B39" s="279"/>
+      <c r="A39" s="214"/>
+      <c r="B39" s="211"/>
       <c r="C39" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="279"/>
+      <c r="D39" s="211"/>
       <c r="E39" s="90" t="s">
         <v>80</v>
       </c>
@@ -8832,12 +8832,12 @@
       <c r="L39" s="95"/>
     </row>
     <row r="40" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="283"/>
-      <c r="B40" s="280"/>
+      <c r="A40" s="215"/>
+      <c r="B40" s="212"/>
       <c r="C40" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="280"/>
+      <c r="D40" s="212"/>
       <c r="E40" s="90" t="s">
         <v>80</v>
       </c>
@@ -8857,18 +8857,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="D17:D26"/>
+    <mergeCell ref="A27:A40"/>
+    <mergeCell ref="B27:B40"/>
+    <mergeCell ref="D27:D40"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="B10:B16"/>
     <mergeCell ref="D10:D16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="D17:D26"/>
-    <mergeCell ref="A27:A40"/>
-    <mergeCell ref="B27:B40"/>
-    <mergeCell ref="D27:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8884,7 +8884,7 @@
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
+      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8951,10 +8951,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="268">
+      <c r="A2" s="251">
         <v>1</v>
       </c>
-      <c r="B2" s="258" t="s">
+      <c r="B2" s="245" t="s">
         <v>410</v>
       </c>
       <c r="C2" s="63" t="s">
@@ -8992,8 +8992,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="269"/>
-      <c r="B3" s="258"/>
+      <c r="A3" s="252"/>
+      <c r="B3" s="245"/>
       <c r="C3" s="63" t="s">
         <v>403</v>
       </c>
@@ -9024,8 +9024,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="269"/>
-      <c r="B4" s="258"/>
+      <c r="A4" s="252"/>
+      <c r="B4" s="245"/>
       <c r="C4" s="63" t="s">
         <v>404</v>
       </c>
@@ -9056,8 +9056,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="269"/>
-      <c r="B5" s="258"/>
+      <c r="A5" s="252"/>
+      <c r="B5" s="245"/>
       <c r="C5" s="63" t="s">
         <v>405</v>
       </c>
@@ -9088,8 +9088,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="269"/>
-      <c r="B6" s="259" t="s">
+      <c r="A6" s="252"/>
+      <c r="B6" s="246" t="s">
         <v>412</v>
       </c>
       <c r="C6" s="63" t="s">
@@ -9116,8 +9116,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="269"/>
-      <c r="B7" s="260"/>
+      <c r="A7" s="252"/>
+      <c r="B7" s="247"/>
       <c r="C7" s="63" t="s">
         <v>190</v>
       </c>
@@ -9155,8 +9155,8 @@
       <c r="O7"/>
     </row>
     <row r="8" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="269"/>
-      <c r="B8" s="260"/>
+      <c r="A8" s="252"/>
+      <c r="B8" s="247"/>
       <c r="C8" s="63" t="s">
         <v>409</v>
       </c>
@@ -9185,8 +9185,8 @@
       <c r="O8"/>
     </row>
     <row r="9" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="269"/>
-      <c r="B9" s="260"/>
+      <c r="A9" s="252"/>
+      <c r="B9" s="247"/>
       <c r="C9" s="63" t="s">
         <v>419</v>
       </c>
@@ -9211,8 +9211,8 @@
       <c r="O9"/>
     </row>
     <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="269"/>
-      <c r="B10" s="260"/>
+      <c r="A10" s="252"/>
+      <c r="B10" s="247"/>
       <c r="C10" s="63" t="s">
         <v>394</v>
       </c>
@@ -9247,8 +9247,8 @@
       <c r="O10"/>
     </row>
     <row r="11" spans="1:15" s="71" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="269"/>
-      <c r="B11" s="259" t="s">
+      <c r="A11" s="252"/>
+      <c r="B11" s="246" t="s">
         <v>413</v>
       </c>
       <c r="C11" s="72" t="s">
@@ -9277,8 +9277,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="71" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="269"/>
-      <c r="B12" s="260"/>
+      <c r="A12" s="252"/>
+      <c r="B12" s="247"/>
       <c r="C12" s="72" t="s">
         <v>415</v>
       </c>
@@ -9309,10 +9309,10 @@
       </c>
     </row>
     <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="250">
+      <c r="A13" s="234">
         <v>2</v>
       </c>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="230" t="s">
         <v>186</v>
       </c>
       <c r="C13" s="100" t="s">
@@ -9356,8 +9356,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="251"/>
-      <c r="B14" s="247"/>
+      <c r="A14" s="235"/>
+      <c r="B14" s="231"/>
       <c r="C14" s="100" t="s">
         <v>194</v>
       </c>
@@ -9399,8 +9399,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="251"/>
-      <c r="B15" s="247"/>
+      <c r="A15" s="235"/>
+      <c r="B15" s="231"/>
       <c r="C15" s="100" t="s">
         <v>195</v>
       </c>
@@ -9442,8 +9442,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="252"/>
-      <c r="B16" s="248"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="232"/>
       <c r="C16" s="21" t="s">
         <v>196</v>
       </c>
@@ -9485,8 +9485,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="253"/>
-      <c r="B17" s="249"/>
+      <c r="A17" s="237"/>
+      <c r="B17" s="233"/>
       <c r="C17" s="21" t="s">
         <v>197</v>
       </c>
@@ -9528,91 +9528,91 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="254">
+      <c r="A18" s="241">
         <v>3</v>
       </c>
-      <c r="B18" s="261" t="s">
+      <c r="B18" s="248" t="s">
         <v>417</v>
       </c>
       <c r="C18" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="D18" s="287" t="s">
+      <c r="D18" s="197" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="289" t="s">
+      <c r="E18" s="200" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="295" t="s">
+      <c r="F18" s="208" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="295" t="s">
+      <c r="G18" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="H18" s="210">
+      <c r="H18" s="279">
         <v>42506</v>
       </c>
-      <c r="I18" s="210">
+      <c r="I18" s="279">
         <v>42524</v>
       </c>
-      <c r="J18" s="213">
+      <c r="J18" s="282">
         <v>42523</v>
       </c>
-      <c r="K18" s="208" t="s">
+      <c r="K18" s="205" t="s">
         <v>303</v>
       </c>
-      <c r="L18" s="187" t="s">
+      <c r="L18" s="296" t="s">
         <v>421</v>
       </c>
       <c r="M18" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="192" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="186" t="s">
+      <c r="N18" s="300" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="295" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="255"/>
-      <c r="B19" s="262"/>
+      <c r="A19" s="242"/>
+      <c r="B19" s="198"/>
       <c r="C19" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="262"/>
-      <c r="E19" s="290"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="216"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="214"/>
-      <c r="K19" s="209"/>
-      <c r="L19" s="187"/>
-      <c r="N19" s="193"/>
-      <c r="O19" s="186"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="280"/>
+      <c r="I19" s="280"/>
+      <c r="J19" s="283"/>
+      <c r="K19" s="278"/>
+      <c r="L19" s="296"/>
+      <c r="N19" s="301"/>
+      <c r="O19" s="295"/>
     </row>
     <row r="20" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="255"/>
-      <c r="B20" s="262"/>
+      <c r="A20" s="242"/>
+      <c r="B20" s="198"/>
       <c r="C20" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="D20" s="288"/>
-      <c r="E20" s="291"/>
-      <c r="F20" s="296"/>
-      <c r="G20" s="296"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="212"/>
-      <c r="J20" s="215"/>
-      <c r="K20" s="209"/>
-      <c r="L20" s="187"/>
-      <c r="N20" s="193"/>
-      <c r="O20" s="186"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="209"/>
+      <c r="H20" s="281"/>
+      <c r="I20" s="281"/>
+      <c r="J20" s="284"/>
+      <c r="K20" s="278"/>
+      <c r="L20" s="296"/>
+      <c r="N20" s="301"/>
+      <c r="O20" s="295"/>
     </row>
     <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="256"/>
-      <c r="B21" s="263"/>
+      <c r="A21" s="243"/>
+      <c r="B21" s="249"/>
       <c r="C21" s="106" t="s">
         <v>271</v>
       </c>
@@ -9651,8 +9651,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="256"/>
-      <c r="B22" s="263"/>
+      <c r="A22" s="243"/>
+      <c r="B22" s="249"/>
       <c r="C22" s="106" t="s">
         <v>270</v>
       </c>
@@ -9689,8 +9689,8 @@
       </c>
     </row>
     <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="256"/>
-      <c r="B23" s="263"/>
+      <c r="A23" s="243"/>
+      <c r="B23" s="249"/>
       <c r="C23" s="111" t="s">
         <v>273</v>
       </c>
@@ -9729,66 +9729,66 @@
       </c>
     </row>
     <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="256"/>
-      <c r="B24" s="263"/>
+      <c r="A24" s="243"/>
+      <c r="B24" s="249"/>
       <c r="C24" s="106" t="s">
         <v>202</v>
       </c>
-      <c r="D24" s="292" t="s">
+      <c r="D24" s="203" t="s">
         <v>285</v>
       </c>
-      <c r="E24" s="293" t="s">
+      <c r="E24" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="294" t="s">
+      <c r="F24" s="207" t="s">
         <v>183</v>
       </c>
-      <c r="G24" s="294" t="s">
+      <c r="G24" s="207" t="s">
         <v>198</v>
       </c>
-      <c r="H24" s="208">
+      <c r="H24" s="205">
         <v>42576</v>
       </c>
-      <c r="I24" s="208">
+      <c r="I24" s="205">
         <v>42579</v>
       </c>
-      <c r="J24" s="208">
+      <c r="J24" s="205">
         <v>42579</v>
       </c>
-      <c r="K24" s="217" t="s">
+      <c r="K24" s="285" t="s">
         <v>303</v>
       </c>
-      <c r="L24" s="188" t="s">
+      <c r="L24" s="297" t="s">
         <v>421</v>
       </c>
-      <c r="N24" s="194" t="s">
-        <v>19</v>
-      </c>
-      <c r="O24" s="185" t="s">
+      <c r="N24" s="289" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="287" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="257"/>
-      <c r="B25" s="262"/>
+      <c r="A25" s="244"/>
+      <c r="B25" s="198"/>
       <c r="C25" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="D25" s="288"/>
-      <c r="E25" s="290"/>
-      <c r="F25" s="216"/>
-      <c r="G25" s="216"/>
-      <c r="H25" s="216"/>
-      <c r="I25" s="216"/>
-      <c r="J25" s="216"/>
-      <c r="K25" s="214"/>
-      <c r="L25" s="189"/>
-      <c r="N25" s="191"/>
-      <c r="O25" s="185"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="201"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="283"/>
+      <c r="L25" s="298"/>
+      <c r="N25" s="290"/>
+      <c r="O25" s="287"/>
     </row>
     <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="112"/>
-      <c r="B26" s="264"/>
+      <c r="B26" s="250"/>
       <c r="C26" s="106" t="s">
         <v>418</v>
       </c>
@@ -9830,7 +9830,7 @@
       <c r="A27" s="238">
         <v>4</v>
       </c>
-      <c r="B27" s="265" t="s">
+      <c r="B27" s="222" t="s">
         <v>205</v>
       </c>
       <c r="C27" s="113" t="s">
@@ -9872,7 +9872,7 @@
     </row>
     <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="239"/>
-      <c r="B28" s="266"/>
+      <c r="B28" s="223"/>
       <c r="C28" s="113" t="s">
         <v>207</v>
       </c>
@@ -9912,7 +9912,7 @@
     </row>
     <row r="29" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="239"/>
-      <c r="B29" s="266"/>
+      <c r="B29" s="223"/>
       <c r="C29" s="113" t="s">
         <v>208</v>
       </c>
@@ -9952,7 +9952,7 @@
     </row>
     <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="240"/>
-      <c r="B30" s="267"/>
+      <c r="B30" s="224"/>
       <c r="C30" s="26" t="s">
         <v>209</v>
       </c>
@@ -9994,7 +9994,7 @@
       <c r="A31" s="238">
         <v>5</v>
       </c>
-      <c r="B31" s="265" t="s">
+      <c r="B31" s="222" t="s">
         <v>210</v>
       </c>
       <c r="C31" s="113" t="s">
@@ -10036,7 +10036,7 @@
     </row>
     <row r="32" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="239"/>
-      <c r="B32" s="266"/>
+      <c r="B32" s="223"/>
       <c r="C32" s="113" t="s">
         <v>211</v>
       </c>
@@ -10076,7 +10076,7 @@
     </row>
     <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="239"/>
-      <c r="B33" s="266"/>
+      <c r="B33" s="223"/>
       <c r="C33" s="113" t="s">
         <v>395</v>
       </c>
@@ -10116,7 +10116,7 @@
     </row>
     <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="240"/>
-      <c r="B34" s="267"/>
+      <c r="B34" s="224"/>
       <c r="C34" s="26" t="s">
         <v>212</v>
       </c>
@@ -10155,89 +10155,89 @@
       </c>
     </row>
     <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="241">
+      <c r="A35" s="256">
         <v>6</v>
       </c>
-      <c r="B35" s="273" t="s">
+      <c r="B35" s="225" t="s">
         <v>213</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D35" s="278" t="s">
+      <c r="D35" s="210" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="281" t="s">
+      <c r="E35" s="213" t="s">
         <v>191</v>
       </c>
-      <c r="F35" s="281" t="s">
+      <c r="F35" s="213" t="s">
         <v>182</v>
       </c>
-      <c r="G35" s="281" t="s">
+      <c r="G35" s="213" t="s">
         <v>180</v>
       </c>
-      <c r="H35" s="281" t="s">
+      <c r="H35" s="213" t="s">
         <v>182</v>
       </c>
-      <c r="I35" s="281" t="s">
+      <c r="I35" s="213" t="s">
         <v>182</v>
       </c>
-      <c r="J35" s="284" t="s">
+      <c r="J35" s="216" t="s">
         <v>182</v>
       </c>
-      <c r="K35" s="199" t="s">
+      <c r="K35" s="286" t="s">
         <v>182</v>
       </c>
-      <c r="L35" s="190" t="s">
+      <c r="L35" s="299" t="s">
         <v>421</v>
       </c>
-      <c r="N35" s="191" t="s">
+      <c r="N35" s="290" t="s">
         <v>182</v>
       </c>
-      <c r="O35" s="185" t="s">
+      <c r="O35" s="287" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="242"/>
-      <c r="B36" s="274"/>
+      <c r="A36" s="257"/>
+      <c r="B36" s="226"/>
       <c r="C36" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="D36" s="279"/>
-      <c r="E36" s="282"/>
-      <c r="F36" s="282"/>
-      <c r="G36" s="282"/>
-      <c r="H36" s="282"/>
-      <c r="I36" s="282"/>
-      <c r="J36" s="285"/>
-      <c r="K36" s="199"/>
-      <c r="L36" s="190"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="214"/>
+      <c r="J36" s="217"/>
+      <c r="K36" s="286"/>
+      <c r="L36" s="299"/>
       <c r="M36" s="34"/>
-      <c r="N36" s="191"/>
-      <c r="O36" s="185"/>
+      <c r="N36" s="290"/>
+      <c r="O36" s="287"/>
     </row>
     <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="242"/>
-      <c r="B37" s="274"/>
+      <c r="A37" s="257"/>
+      <c r="B37" s="226"/>
       <c r="C37" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D37" s="280"/>
-      <c r="E37" s="283"/>
-      <c r="F37" s="283"/>
-      <c r="G37" s="283"/>
-      <c r="H37" s="283"/>
-      <c r="I37" s="283"/>
-      <c r="J37" s="286"/>
-      <c r="K37" s="199"/>
-      <c r="L37" s="190"/>
-      <c r="N37" s="191"/>
-      <c r="O37" s="185"/>
+      <c r="D37" s="212"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="218"/>
+      <c r="K37" s="286"/>
+      <c r="L37" s="299"/>
+      <c r="N37" s="290"/>
+      <c r="O37" s="287"/>
     </row>
     <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="239"/>
-      <c r="B38" s="266"/>
+      <c r="B38" s="223"/>
       <c r="C38" s="113" t="s">
         <v>217</v>
       </c>
@@ -10277,7 +10277,7 @@
     </row>
     <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="239"/>
-      <c r="B39" s="266"/>
+      <c r="B39" s="223"/>
       <c r="C39" s="113" t="s">
         <v>218</v>
       </c>
@@ -10317,7 +10317,7 @@
     </row>
     <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="240"/>
-      <c r="B40" s="267"/>
+      <c r="B40" s="224"/>
       <c r="C40" s="26" t="s">
         <v>212</v>
       </c>
@@ -10356,10 +10356,10 @@
       </c>
     </row>
     <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="237">
+      <c r="A41" s="255">
         <v>7</v>
       </c>
-      <c r="B41" s="272" t="s">
+      <c r="B41" s="221" t="s">
         <v>219</v>
       </c>
       <c r="C41" s="118" t="s">
@@ -10400,8 +10400,8 @@
       </c>
     </row>
     <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="243"/>
-      <c r="B42" s="275"/>
+      <c r="A42" s="258"/>
+      <c r="B42" s="227"/>
       <c r="C42" s="118" t="s">
         <v>221</v>
       </c>
@@ -10440,8 +10440,8 @@
       </c>
     </row>
     <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="243"/>
-      <c r="B43" s="275"/>
+      <c r="A43" s="258"/>
+      <c r="B43" s="227"/>
       <c r="C43" s="118" t="s">
         <v>222</v>
       </c>
@@ -10480,8 +10480,8 @@
       </c>
     </row>
     <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="244"/>
-      <c r="B44" s="276"/>
+      <c r="A44" s="259"/>
+      <c r="B44" s="228"/>
       <c r="C44" s="27" t="s">
         <v>223</v>
       </c>
@@ -10523,8 +10523,8 @@
       </c>
     </row>
     <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="243"/>
-      <c r="B45" s="275"/>
+      <c r="A45" s="258"/>
+      <c r="B45" s="227"/>
       <c r="C45" s="118" t="s">
         <v>224</v>
       </c>
@@ -10563,8 +10563,8 @@
       </c>
     </row>
     <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="245"/>
-      <c r="B46" s="277"/>
+      <c r="A46" s="260"/>
+      <c r="B46" s="229"/>
       <c r="C46" s="118" t="s">
         <v>225</v>
       </c>
@@ -10598,8 +10598,8 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="244"/>
-      <c r="B47" s="276"/>
+      <c r="A47" s="259"/>
+      <c r="B47" s="228"/>
       <c r="C47" s="27" t="s">
         <v>226</v>
       </c>
@@ -10638,8 +10638,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="245"/>
-      <c r="B48" s="277"/>
+      <c r="A48" s="260"/>
+      <c r="B48" s="229"/>
       <c r="C48" s="118" t="s">
         <v>272</v>
       </c>
@@ -10678,8 +10678,8 @@
       </c>
     </row>
     <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="243"/>
-      <c r="B49" s="275"/>
+      <c r="A49" s="258"/>
+      <c r="B49" s="227"/>
       <c r="C49" s="118" t="s">
         <v>279</v>
       </c>
@@ -10718,8 +10718,8 @@
       </c>
     </row>
     <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="236"/>
-      <c r="B50" s="271"/>
+      <c r="A50" s="254"/>
+      <c r="B50" s="220"/>
       <c r="C50" s="27" t="s">
         <v>227</v>
       </c>
@@ -10758,10 +10758,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="39" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="237">
+      <c r="A51" s="255">
         <v>8</v>
       </c>
-      <c r="B51" s="272" t="s">
+      <c r="B51" s="221" t="s">
         <v>228</v>
       </c>
       <c r="C51" s="118" t="s">
@@ -10797,8 +10797,8 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="236"/>
-      <c r="B52" s="271"/>
+      <c r="A52" s="254"/>
+      <c r="B52" s="220"/>
       <c r="C52" s="27" t="s">
         <v>229</v>
       </c>
@@ -10837,10 +10837,10 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="235">
+      <c r="A53" s="253">
         <v>9</v>
       </c>
-      <c r="B53" s="270" t="s">
+      <c r="B53" s="219" t="s">
         <v>231</v>
       </c>
       <c r="C53" s="27" t="s">
@@ -10881,8 +10881,8 @@
       </c>
     </row>
     <row r="54" spans="1:15" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="236"/>
-      <c r="B54" s="271"/>
+      <c r="A54" s="254"/>
+      <c r="B54" s="220"/>
       <c r="C54" s="27" t="s">
         <v>232</v>
       </c>
@@ -10921,10 +10921,10 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="222">
+      <c r="A55" s="263">
         <v>10</v>
       </c>
-      <c r="B55" s="220" t="s">
+      <c r="B55" s="261" t="s">
         <v>233</v>
       </c>
       <c r="C55" s="20" t="s">
@@ -10961,8 +10961,8 @@
       <c r="O55"/>
     </row>
     <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="223"/>
-      <c r="B56" s="229"/>
+      <c r="A56" s="264"/>
+      <c r="B56" s="270"/>
       <c r="C56" s="20" t="s">
         <v>221</v>
       </c>
@@ -10997,8 +10997,8 @@
       <c r="O56"/>
     </row>
     <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="223"/>
-      <c r="B57" s="229"/>
+      <c r="A57" s="264"/>
+      <c r="B57" s="270"/>
       <c r="C57" s="20" t="s">
         <v>222</v>
       </c>
@@ -11033,8 +11033,8 @@
       <c r="O57"/>
     </row>
     <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="224"/>
-      <c r="B58" s="229"/>
+      <c r="A58" s="265"/>
+      <c r="B58" s="270"/>
       <c r="C58" s="20" t="s">
         <v>235</v>
       </c>
@@ -11069,8 +11069,8 @@
       <c r="O58"/>
     </row>
     <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="224"/>
-      <c r="B59" s="229"/>
+      <c r="A59" s="265"/>
+      <c r="B59" s="270"/>
       <c r="C59" s="20" t="s">
         <v>272</v>
       </c>
@@ -11107,8 +11107,8 @@
       <c r="O59"/>
     </row>
     <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="223"/>
-      <c r="B60" s="229"/>
+      <c r="A60" s="264"/>
+      <c r="B60" s="270"/>
       <c r="C60" s="20" t="s">
         <v>279</v>
       </c>
@@ -11143,8 +11143,8 @@
       <c r="O60"/>
     </row>
     <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="223"/>
-      <c r="B61" s="229"/>
+      <c r="A61" s="264"/>
+      <c r="B61" s="270"/>
       <c r="C61" s="20" t="s">
         <v>280</v>
       </c>
@@ -11179,8 +11179,8 @@
       <c r="O61"/>
     </row>
     <row r="62" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="224"/>
-      <c r="B62" s="221"/>
+      <c r="A62" s="265"/>
+      <c r="B62" s="262"/>
       <c r="C62" s="20" t="s">
         <v>236</v>
       </c>
@@ -11215,34 +11215,36 @@
       <c r="O62"/>
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="224"/>
-      <c r="B63" s="220" t="s">
+      <c r="A63" s="265"/>
+      <c r="B63" s="261" t="s">
         <v>251</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="D63" s="218" t="s">
+      <c r="D63" s="185" t="s">
         <v>292</v>
       </c>
-      <c r="E63" s="197" t="s">
+      <c r="E63" s="187" t="s">
         <v>151</v>
       </c>
-      <c r="F63" s="197" t="s">
+      <c r="F63" s="187" t="s">
         <v>134</v>
       </c>
-      <c r="G63" s="197" t="s">
+      <c r="G63" s="187" t="s">
         <v>198</v>
       </c>
-      <c r="H63" s="195">
-        <v>42594</v>
-      </c>
-      <c r="I63" s="195">
-        <v>42599</v>
-      </c>
-      <c r="J63" s="197"/>
+      <c r="H63" s="189">
+        <v>42625</v>
+      </c>
+      <c r="I63" s="189">
+        <v>42630</v>
+      </c>
+      <c r="J63" s="189">
+        <v>42634</v>
+      </c>
       <c r="K63" s="31" t="s">
-        <v>498</v>
+        <v>303</v>
       </c>
       <c r="L63" s="75" t="s">
         <v>454</v>
@@ -11251,18 +11253,18 @@
       <c r="O63"/>
     </row>
     <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="224"/>
-      <c r="B64" s="229"/>
+      <c r="A64" s="265"/>
+      <c r="B64" s="270"/>
       <c r="C64" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="D64" s="219"/>
-      <c r="E64" s="198"/>
-      <c r="F64" s="198"/>
-      <c r="G64" s="198"/>
-      <c r="H64" s="196"/>
-      <c r="I64" s="196"/>
-      <c r="J64" s="198"/>
+      <c r="D64" s="277"/>
+      <c r="E64" s="188"/>
+      <c r="F64" s="188"/>
+      <c r="G64" s="188"/>
+      <c r="H64" s="276"/>
+      <c r="I64" s="276"/>
+      <c r="J64" s="188"/>
       <c r="K64" s="31" t="s">
         <v>498</v>
       </c>
@@ -11273,8 +11275,8 @@
       <c r="O64"/>
     </row>
     <row r="65" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="224"/>
-      <c r="B65" s="221"/>
+      <c r="A65" s="265"/>
+      <c r="B65" s="262"/>
       <c r="C65" s="20" t="s">
         <v>239</v>
       </c>
@@ -11309,8 +11311,8 @@
       <c r="O65"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="224"/>
-      <c r="B66" s="220" t="s">
+      <c r="A66" s="265"/>
+      <c r="B66" s="261" t="s">
         <v>250</v>
       </c>
       <c r="C66" s="20" t="s">
@@ -11345,8 +11347,8 @@
       <c r="O66"/>
     </row>
     <row r="67" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="224"/>
-      <c r="B67" s="229"/>
+      <c r="A67" s="265"/>
+      <c r="B67" s="270"/>
       <c r="C67" s="20" t="s">
         <v>241</v>
       </c>
@@ -11381,8 +11383,8 @@
       <c r="O67"/>
     </row>
     <row r="68" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="224"/>
-      <c r="B68" s="229"/>
+      <c r="A68" s="265"/>
+      <c r="B68" s="270"/>
       <c r="C68" s="20" t="s">
         <v>242</v>
       </c>
@@ -11417,8 +11419,8 @@
       <c r="O68"/>
     </row>
     <row r="69" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="224"/>
-      <c r="B69" s="229"/>
+      <c r="A69" s="265"/>
+      <c r="B69" s="270"/>
       <c r="C69" s="20" t="s">
         <v>243</v>
       </c>
@@ -11453,30 +11455,30 @@
       <c r="O69"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="224"/>
-      <c r="B70" s="229"/>
+      <c r="A70" s="265"/>
+      <c r="B70" s="270"/>
       <c r="C70" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="D70" s="218" t="s">
+      <c r="D70" s="185" t="s">
         <v>294</v>
       </c>
-      <c r="E70" s="197" t="s">
+      <c r="E70" s="187" t="s">
         <v>151</v>
       </c>
-      <c r="F70" s="197" t="s">
+      <c r="F70" s="187" t="s">
         <v>134</v>
       </c>
-      <c r="G70" s="197" t="s">
+      <c r="G70" s="187" t="s">
         <v>198</v>
       </c>
-      <c r="H70" s="195">
+      <c r="H70" s="189">
         <v>42605</v>
       </c>
-      <c r="I70" s="195">
+      <c r="I70" s="189">
         <v>42608</v>
       </c>
-      <c r="J70" s="197"/>
+      <c r="J70" s="187"/>
       <c r="K70" s="31" t="s">
         <v>283</v>
       </c>
@@ -11487,18 +11489,18 @@
       <c r="O70"/>
     </row>
     <row r="71" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="224"/>
-      <c r="B71" s="229"/>
+      <c r="A71" s="265"/>
+      <c r="B71" s="270"/>
       <c r="C71" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="D71" s="301"/>
-      <c r="E71" s="198"/>
-      <c r="F71" s="198"/>
-      <c r="G71" s="198"/>
-      <c r="H71" s="198"/>
-      <c r="I71" s="198"/>
-      <c r="J71" s="198"/>
+      <c r="D71" s="186"/>
+      <c r="E71" s="188"/>
+      <c r="F71" s="188"/>
+      <c r="G71" s="188"/>
+      <c r="H71" s="188"/>
+      <c r="I71" s="188"/>
+      <c r="J71" s="188"/>
       <c r="K71" s="31" t="s">
         <v>283</v>
       </c>
@@ -11509,8 +11511,8 @@
       <c r="O71"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="224"/>
-      <c r="B72" s="221"/>
+      <c r="A72" s="265"/>
+      <c r="B72" s="262"/>
       <c r="C72" s="20" t="s">
         <v>246</v>
       </c>
@@ -11543,8 +11545,8 @@
       <c r="O72"/>
     </row>
     <row r="73" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="224"/>
-      <c r="B73" s="220" t="s">
+      <c r="A73" s="265"/>
+      <c r="B73" s="261" t="s">
         <v>249</v>
       </c>
       <c r="C73" s="20" t="s">
@@ -11581,8 +11583,8 @@
       <c r="O73"/>
     </row>
     <row r="74" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="224"/>
-      <c r="B74" s="229"/>
+      <c r="A74" s="265"/>
+      <c r="B74" s="270"/>
       <c r="C74" s="20" t="s">
         <v>281</v>
       </c>
@@ -11617,8 +11619,8 @@
       <c r="O74"/>
     </row>
     <row r="75" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="224"/>
-      <c r="B75" s="221"/>
+      <c r="A75" s="265"/>
+      <c r="B75" s="262"/>
       <c r="C75" s="20" t="s">
         <v>248</v>
       </c>
@@ -11651,8 +11653,8 @@
       <c r="O75"/>
     </row>
     <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="223"/>
-      <c r="B76" s="230"/>
+      <c r="A76" s="264"/>
+      <c r="B76" s="271"/>
       <c r="C76" s="20" t="s">
         <v>252</v>
       </c>
@@ -11687,8 +11689,8 @@
       <c r="O76"/>
     </row>
     <row r="77" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="224"/>
-      <c r="B77" s="231"/>
+      <c r="A77" s="265"/>
+      <c r="B77" s="272"/>
       <c r="C77" s="20" t="s">
         <v>253</v>
       </c>
@@ -11723,8 +11725,8 @@
       <c r="O77"/>
     </row>
     <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="223"/>
-      <c r="B78" s="230"/>
+      <c r="A78" s="264"/>
+      <c r="B78" s="271"/>
       <c r="C78" s="20" t="s">
         <v>254</v>
       </c>
@@ -11759,8 +11761,8 @@
       <c r="O78"/>
     </row>
     <row r="79" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="224"/>
-      <c r="B79" s="220" t="s">
+      <c r="A79" s="265"/>
+      <c r="B79" s="261" t="s">
         <v>257</v>
       </c>
       <c r="C79" s="20" t="s">
@@ -11795,8 +11797,8 @@
       <c r="O79"/>
     </row>
     <row r="80" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="224"/>
-      <c r="B80" s="221"/>
+      <c r="A80" s="265"/>
+      <c r="B80" s="262"/>
       <c r="C80" s="20" t="s">
         <v>256</v>
       </c>
@@ -11831,7 +11833,7 @@
       <c r="O80"/>
     </row>
     <row r="81" spans="1:15" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="223"/>
+      <c r="A81" s="264"/>
       <c r="B81" s="19" t="s">
         <v>258</v>
       </c>
@@ -11869,7 +11871,7 @@
       <c r="O81"/>
     </row>
     <row r="82" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="224"/>
+      <c r="A82" s="265"/>
       <c r="B82" s="20" t="s">
         <v>260</v>
       </c>
@@ -11901,8 +11903,8 @@
       <c r="O82"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="224"/>
-      <c r="B83" s="220" t="s">
+      <c r="A83" s="265"/>
+      <c r="B83" s="261" t="s">
         <v>262</v>
       </c>
       <c r="C83" s="20" t="s">
@@ -11933,8 +11935,8 @@
       <c r="O83"/>
     </row>
     <row r="84" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="224"/>
-      <c r="B84" s="221"/>
+      <c r="A84" s="265"/>
+      <c r="B84" s="262"/>
       <c r="C84" s="20" t="s">
         <v>264</v>
       </c>
@@ -11963,8 +11965,8 @@
       <c r="O84"/>
     </row>
     <row r="85" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="224"/>
-      <c r="B85" s="220" t="s">
+      <c r="A85" s="265"/>
+      <c r="B85" s="261" t="s">
         <v>265</v>
       </c>
       <c r="C85" s="20" t="s">
@@ -11995,8 +11997,8 @@
       <c r="O85"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="225"/>
-      <c r="B86" s="221"/>
+      <c r="A86" s="266"/>
+      <c r="B86" s="262"/>
       <c r="C86" s="20" t="s">
         <v>267</v>
       </c>
@@ -12025,10 +12027,10 @@
       <c r="O86"/>
     </row>
     <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="232">
+      <c r="A87" s="273">
         <v>11</v>
       </c>
-      <c r="B87" s="226" t="s">
+      <c r="B87" s="267" t="s">
         <v>269</v>
       </c>
       <c r="C87" s="123" t="s">
@@ -12069,80 +12071,80 @@
       </c>
     </row>
     <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="232"/>
-      <c r="B88" s="226"/>
+      <c r="A88" s="273"/>
+      <c r="B88" s="267"/>
       <c r="C88" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="D88" s="297" t="s">
+      <c r="D88" s="190" t="s">
         <v>285</v>
       </c>
-      <c r="E88" s="300" t="s">
+      <c r="E88" s="193" t="s">
         <v>151</v>
       </c>
-      <c r="F88" s="300" t="s">
+      <c r="F88" s="193" t="s">
         <v>183</v>
       </c>
-      <c r="G88" s="300" t="s">
+      <c r="G88" s="193" t="s">
         <v>198</v>
       </c>
-      <c r="H88" s="202">
+      <c r="H88" s="196">
         <v>42576</v>
       </c>
-      <c r="I88" s="202">
+      <c r="I88" s="196">
         <v>42579</v>
       </c>
-      <c r="J88" s="205">
+      <c r="J88" s="292">
         <v>42579</v>
       </c>
-      <c r="K88" s="200" t="s">
+      <c r="K88" s="288" t="s">
         <v>303</v>
       </c>
-      <c r="L88" s="200" t="s">
+      <c r="L88" s="288" t="s">
         <v>421</v>
       </c>
-      <c r="N88" s="194" t="s">
-        <v>19</v>
-      </c>
-      <c r="O88" s="185" t="s">
+      <c r="N88" s="289" t="s">
+        <v>19</v>
+      </c>
+      <c r="O88" s="287" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="233"/>
-      <c r="B89" s="227"/>
+      <c r="A89" s="274"/>
+      <c r="B89" s="268"/>
       <c r="C89" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="D89" s="298"/>
-      <c r="E89" s="203"/>
-      <c r="F89" s="203"/>
-      <c r="G89" s="203"/>
-      <c r="H89" s="203"/>
-      <c r="I89" s="203"/>
-      <c r="J89" s="206"/>
-      <c r="K89" s="201"/>
-      <c r="L89" s="200"/>
-      <c r="N89" s="191"/>
-      <c r="O89" s="185"/>
+      <c r="D89" s="191"/>
+      <c r="E89" s="194"/>
+      <c r="F89" s="194"/>
+      <c r="G89" s="194"/>
+      <c r="H89" s="194"/>
+      <c r="I89" s="194"/>
+      <c r="J89" s="293"/>
+      <c r="K89" s="291"/>
+      <c r="L89" s="288"/>
+      <c r="N89" s="290"/>
+      <c r="O89" s="287"/>
     </row>
     <row r="90" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="234"/>
-      <c r="B90" s="228"/>
+      <c r="A90" s="275"/>
+      <c r="B90" s="269"/>
       <c r="C90" s="159" t="s">
         <v>282</v>
       </c>
-      <c r="D90" s="299"/>
-      <c r="E90" s="204"/>
-      <c r="F90" s="204"/>
-      <c r="G90" s="204"/>
-      <c r="H90" s="204"/>
-      <c r="I90" s="204"/>
-      <c r="J90" s="207"/>
-      <c r="K90" s="201"/>
-      <c r="L90" s="200"/>
-      <c r="N90" s="191"/>
-      <c r="O90" s="185"/>
+      <c r="D90" s="192"/>
+      <c r="E90" s="195"/>
+      <c r="F90" s="195"/>
+      <c r="G90" s="195"/>
+      <c r="H90" s="195"/>
+      <c r="I90" s="195"/>
+      <c r="J90" s="294"/>
+      <c r="K90" s="291"/>
+      <c r="L90" s="288"/>
+      <c r="N90" s="290"/>
+      <c r="O90" s="287"/>
     </row>
     <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="160">
@@ -12199,75 +12201,14 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="89">
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="G88:G90"/>
-    <mergeCell ref="H88:H90"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A55:A86"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B66:B72"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N24:N25"/>
     <mergeCell ref="I63:I64"/>
     <mergeCell ref="J63:J64"/>
     <mergeCell ref="K35:K37"/>
@@ -12280,14 +12221,75 @@
     <mergeCell ref="J70:J71"/>
     <mergeCell ref="I88:I90"/>
     <mergeCell ref="J88:J90"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A55:A86"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B66:B72"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="H88:H90"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="H70:H71"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:L2 K38:L39 K27:L29 K32:L33 K35:L35 K21:L24 K3:K10 L3:L12 L38:L51 K41:L79">
     <cfRule type="expression" dxfId="15" priority="24">
@@ -13482,10 +13484,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="304" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -13511,8 +13513,8 @@
       <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
-      <c r="B3" s="303"/>
+      <c r="A3" s="287"/>
+      <c r="B3" s="304"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -13532,8 +13534,8 @@
       <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
-      <c r="B4" s="303"/>
+      <c r="A4" s="287"/>
+      <c r="B4" s="304"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -13553,8 +13555,8 @@
       <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
-      <c r="B5" s="303"/>
+      <c r="A5" s="287"/>
+      <c r="B5" s="304"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -13574,8 +13576,8 @@
       <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
-      <c r="B6" s="303"/>
+      <c r="A6" s="287"/>
+      <c r="B6" s="304"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -13599,8 +13601,8 @@
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
-      <c r="B7" s="303"/>
+      <c r="A7" s="287"/>
+      <c r="B7" s="304"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -13624,8 +13626,8 @@
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="303"/>
+      <c r="A8" s="287"/>
+      <c r="B8" s="304"/>
       <c r="C8" s="39" t="s">
         <v>73</v>
       </c>
@@ -13649,8 +13651,8 @@
       <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
-      <c r="B9" s="303"/>
+      <c r="A9" s="287"/>
+      <c r="B9" s="304"/>
       <c r="C9" s="39" t="s">
         <v>18</v>
       </c>
@@ -13670,7 +13672,7 @@
       <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="185">
+      <c r="A10" s="287">
         <v>2</v>
       </c>
       <c r="B10" s="302" t="s">
@@ -13700,7 +13702,7 @@
       <c r="L10" s="39"/>
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>10</v>
@@ -13722,7 +13724,7 @@
       <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="39" t="s">
         <v>11</v>
@@ -13744,7 +13746,7 @@
       <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="185"/>
+      <c r="A13" s="287"/>
       <c r="B13" s="302"/>
       <c r="C13" s="39" t="s">
         <v>12</v>
@@ -13766,7 +13768,7 @@
       <c r="L13" s="39"/>
     </row>
     <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="185"/>
+      <c r="A14" s="287"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
         <v>13</v>
@@ -13790,7 +13792,7 @@
       <c r="L14" s="39"/>
     </row>
     <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="287"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
         <v>14</v>
@@ -13814,7 +13816,7 @@
       <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="185"/>
+      <c r="A16" s="287"/>
       <c r="B16" s="302"/>
       <c r="C16" s="39" t="s">
         <v>15</v>
@@ -13838,7 +13840,7 @@
       <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="185"/>
+      <c r="A17" s="287"/>
       <c r="B17" s="302"/>
       <c r="C17" s="39" t="s">
         <v>16</v>
@@ -13862,7 +13864,7 @@
       <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="185"/>
+      <c r="A18" s="287"/>
       <c r="B18" s="302"/>
       <c r="C18" s="39" t="s">
         <v>17</v>
@@ -13886,7 +13888,7 @@
       <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="287"/>
       <c r="B19" s="302"/>
       <c r="C19" s="39" t="s">
         <v>81</v>
@@ -13908,7 +13910,7 @@
       <c r="L19" s="39"/>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="185"/>
+      <c r="A20" s="287"/>
       <c r="B20" s="302"/>
       <c r="C20" s="40" t="s">
         <v>84</v>
@@ -13932,7 +13934,7 @@
       <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="185"/>
+      <c r="A21" s="287"/>
       <c r="B21" s="302"/>
       <c r="C21" s="40" t="s">
         <v>85</v>
@@ -13956,7 +13958,7 @@
       <c r="L21" s="39"/>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="185"/>
+      <c r="A22" s="287"/>
       <c r="B22" s="302"/>
       <c r="C22" s="39" t="s">
         <v>86</v>
@@ -13980,7 +13982,7 @@
       <c r="L22" s="39"/>
     </row>
     <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
+      <c r="A23" s="287"/>
       <c r="B23" s="302"/>
       <c r="C23" s="39" t="s">
         <v>101</v>
@@ -14004,7 +14006,7 @@
       <c r="L23" s="39"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="185">
+      <c r="A24" s="287">
         <v>3</v>
       </c>
       <c r="B24" s="302" t="s">
@@ -14013,7 +14015,7 @@
       <c r="C24" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="304" t="s">
+      <c r="D24" s="303" t="s">
         <v>163</v>
       </c>
       <c r="E24" s="39" t="s">
@@ -14033,12 +14035,12 @@
       <c r="K24" s="39"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="185"/>
+      <c r="A25" s="287"/>
       <c r="B25" s="302"/>
       <c r="C25" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="304"/>
+      <c r="D25" s="303"/>
       <c r="E25" s="39" t="s">
         <v>80</v>
       </c>
@@ -14056,12 +14058,12 @@
       <c r="K25" s="39"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="185"/>
+      <c r="A26" s="287"/>
       <c r="B26" s="302"/>
       <c r="C26" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="304"/>
+      <c r="D26" s="303"/>
       <c r="E26" s="39" t="s">
         <v>19</v>
       </c>
@@ -14079,12 +14081,12 @@
       <c r="K26" s="39"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
+      <c r="A27" s="287"/>
       <c r="B27" s="302"/>
       <c r="C27" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="304"/>
+      <c r="D27" s="303"/>
       <c r="E27" s="39" t="s">
         <v>19</v>
       </c>
@@ -14102,12 +14104,12 @@
       <c r="K27" s="39"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="185"/>
+      <c r="A28" s="287"/>
       <c r="B28" s="302"/>
       <c r="C28" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="304"/>
+      <c r="D28" s="303"/>
       <c r="E28" s="39" t="s">
         <v>19</v>
       </c>
@@ -14125,12 +14127,12 @@
       <c r="K28" s="39"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="185"/>
+      <c r="A29" s="287"/>
       <c r="B29" s="302"/>
       <c r="C29" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="304"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="39" t="s">
         <v>80</v>
       </c>
@@ -14148,12 +14150,12 @@
       <c r="K29" s="39"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="185"/>
+      <c r="A30" s="287"/>
       <c r="B30" s="302"/>
       <c r="C30" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="304"/>
+      <c r="D30" s="303"/>
       <c r="E30" s="39" t="s">
         <v>19</v>
       </c>
@@ -14171,7 +14173,7 @@
       <c r="K30" s="39"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185">
+      <c r="A31" s="287">
         <v>4</v>
       </c>
       <c r="B31" s="302" t="s">
@@ -14180,7 +14182,7 @@
       <c r="C31" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="304" t="s">
+      <c r="D31" s="303" t="s">
         <v>276</v>
       </c>
       <c r="E31" s="39" t="s">
@@ -14198,12 +14200,12 @@
       <c r="K31" s="39"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="185"/>
+      <c r="A32" s="287"/>
       <c r="B32" s="302"/>
       <c r="C32" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="304"/>
+      <c r="D32" s="303"/>
       <c r="E32" s="39" t="s">
         <v>19</v>
       </c>
@@ -14219,12 +14221,12 @@
       <c r="K32" s="39"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="185"/>
+      <c r="A33" s="287"/>
       <c r="B33" s="302"/>
       <c r="C33" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="304"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="39" t="s">
         <v>19</v>
       </c>
@@ -14240,12 +14242,12 @@
       <c r="K33" s="39"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="185"/>
+      <c r="A34" s="287"/>
       <c r="B34" s="302"/>
       <c r="C34" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="304"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="41" t="s">
         <v>19</v>
       </c>
@@ -14263,12 +14265,12 @@
       <c r="K34" s="39"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="185"/>
+      <c r="A35" s="287"/>
       <c r="B35" s="302"/>
       <c r="C35" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="304"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="39" t="s">
         <v>19</v>
       </c>
@@ -14288,12 +14290,12 @@
       <c r="K35" s="39"/>
     </row>
     <row r="36" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="185"/>
+      <c r="A36" s="287"/>
       <c r="B36" s="302"/>
       <c r="C36" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="304"/>
+      <c r="D36" s="303"/>
       <c r="E36" s="39" t="s">
         <v>80</v>
       </c>
@@ -14312,12 +14314,12 @@
       <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="185"/>
+      <c r="A37" s="287"/>
       <c r="B37" s="302"/>
       <c r="C37" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="304"/>
+      <c r="D37" s="303"/>
       <c r="E37" s="39" t="s">
         <v>19</v>
       </c>
@@ -14336,12 +14338,12 @@
       <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="185"/>
+      <c r="A38" s="287"/>
       <c r="B38" s="302"/>
       <c r="C38" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="304"/>
+      <c r="D38" s="303"/>
       <c r="E38" s="39" t="s">
         <v>19</v>
       </c>
@@ -14360,12 +14362,12 @@
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="185"/>
+      <c r="A39" s="287"/>
       <c r="B39" s="302"/>
       <c r="C39" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="304"/>
+      <c r="D39" s="303"/>
       <c r="E39" s="39" t="s">
         <v>19</v>
       </c>
@@ -14381,12 +14383,12 @@
       <c r="K39" s="39"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="185"/>
+      <c r="A40" s="287"/>
       <c r="B40" s="302"/>
       <c r="C40" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="304"/>
+      <c r="D40" s="303"/>
       <c r="E40" s="40" t="s">
         <v>19</v>
       </c>
@@ -14402,12 +14404,12 @@
       <c r="K40" s="39"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="185"/>
+      <c r="A41" s="287"/>
       <c r="B41" s="302"/>
       <c r="C41" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="304"/>
+      <c r="D41" s="303"/>
       <c r="E41" s="40" t="s">
         <v>19</v>
       </c>
@@ -14427,12 +14429,12 @@
       <c r="K41" s="39"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="185"/>
+      <c r="A42" s="287"/>
       <c r="B42" s="302"/>
       <c r="C42" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="304"/>
+      <c r="D42" s="303"/>
       <c r="E42" s="40" t="s">
         <v>19</v>
       </c>
@@ -14452,12 +14454,12 @@
       <c r="K42" s="39"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="185"/>
+      <c r="A43" s="287"/>
       <c r="B43" s="302"/>
       <c r="C43" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="304"/>
+      <c r="D43" s="303"/>
       <c r="E43" s="40" t="s">
         <v>19</v>
       </c>
@@ -14477,12 +14479,12 @@
       <c r="K43" s="39"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="185"/>
+      <c r="A44" s="287"/>
       <c r="B44" s="302"/>
       <c r="C44" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="304"/>
+      <c r="D44" s="303"/>
       <c r="E44" s="40" t="s">
         <v>19</v>
       </c>
@@ -14502,12 +14504,12 @@
       <c r="K44" s="39"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="185"/>
+      <c r="A45" s="287"/>
       <c r="B45" s="302"/>
       <c r="C45" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="304"/>
+      <c r="D45" s="303"/>
       <c r="E45" s="40" t="s">
         <v>80</v>
       </c>
@@ -14525,12 +14527,12 @@
       <c r="K45" s="39"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="185"/>
+      <c r="A46" s="287"/>
       <c r="B46" s="302"/>
       <c r="C46" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="304"/>
+      <c r="D46" s="303"/>
       <c r="E46" s="40" t="s">
         <v>19</v>
       </c>
@@ -14546,12 +14548,12 @@
       <c r="K46" s="39"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
+      <c r="A47" s="287"/>
       <c r="B47" s="302"/>
       <c r="C47" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="304"/>
+      <c r="D47" s="303"/>
       <c r="E47" s="40" t="s">
         <v>19</v>
       </c>
@@ -14567,7 +14569,7 @@
       <c r="K47" s="39"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="185">
+      <c r="A48" s="287">
         <v>5</v>
       </c>
       <c r="B48" s="302" t="s">
@@ -14576,7 +14578,7 @@
       <c r="C48" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="304" t="s">
+      <c r="D48" s="303" t="s">
         <v>278</v>
       </c>
       <c r="E48" s="39" t="s">
@@ -14594,12 +14596,12 @@
       <c r="K48" s="39"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="185"/>
+      <c r="A49" s="287"/>
       <c r="B49" s="302"/>
       <c r="C49" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="304"/>
+      <c r="D49" s="303"/>
       <c r="E49" s="39" t="s">
         <v>19</v>
       </c>
@@ -14615,12 +14617,12 @@
       <c r="K49" s="39"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="185"/>
+      <c r="A50" s="287"/>
       <c r="B50" s="302"/>
       <c r="C50" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="304"/>
+      <c r="D50" s="303"/>
       <c r="E50" s="39" t="s">
         <v>19</v>
       </c>
@@ -14636,12 +14638,12 @@
       <c r="K50" s="39"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="185"/>
+      <c r="A51" s="287"/>
       <c r="B51" s="302"/>
       <c r="C51" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="304"/>
+      <c r="D51" s="303"/>
       <c r="E51" s="41" t="s">
         <v>19</v>
       </c>
@@ -14659,12 +14661,12 @@
       <c r="K51" s="39"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="185"/>
+      <c r="A52" s="287"/>
       <c r="B52" s="302"/>
       <c r="C52" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="304"/>
+      <c r="D52" s="303"/>
       <c r="E52" s="39" t="s">
         <v>19</v>
       </c>
@@ -14684,12 +14686,12 @@
       <c r="K52" s="39"/>
     </row>
     <row r="53" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="185"/>
+      <c r="A53" s="287"/>
       <c r="B53" s="302"/>
       <c r="C53" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="304"/>
+      <c r="D53" s="303"/>
       <c r="E53" s="39" t="s">
         <v>80</v>
       </c>
@@ -14708,12 +14710,12 @@
       <c r="L53" s="13"/>
     </row>
     <row r="54" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="185"/>
+      <c r="A54" s="287"/>
       <c r="B54" s="302"/>
       <c r="C54" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="304"/>
+      <c r="D54" s="303"/>
       <c r="E54" s="39" t="s">
         <v>19</v>
       </c>
@@ -14732,12 +14734,12 @@
       <c r="L54" s="13"/>
     </row>
     <row r="55" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="185"/>
+      <c r="A55" s="287"/>
       <c r="B55" s="302"/>
       <c r="C55" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="304"/>
+      <c r="D55" s="303"/>
       <c r="E55" s="39" t="s">
         <v>19</v>
       </c>
@@ -14756,12 +14758,12 @@
       <c r="L55" s="13"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="185"/>
+      <c r="A56" s="287"/>
       <c r="B56" s="302"/>
       <c r="C56" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="304"/>
+      <c r="D56" s="303"/>
       <c r="E56" s="39" t="s">
         <v>19</v>
       </c>
@@ -14777,12 +14779,12 @@
       <c r="K56" s="39"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="185"/>
+      <c r="A57" s="287"/>
       <c r="B57" s="302"/>
       <c r="C57" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="304"/>
+      <c r="D57" s="303"/>
       <c r="E57" s="40" t="s">
         <v>19</v>
       </c>
@@ -14798,12 +14800,12 @@
       <c r="K57" s="39"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="185"/>
+      <c r="A58" s="287"/>
       <c r="B58" s="302"/>
       <c r="C58" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D58" s="304"/>
+      <c r="D58" s="303"/>
       <c r="E58" s="40" t="s">
         <v>19</v>
       </c>
@@ -14823,12 +14825,12 @@
       <c r="K58" s="39"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="185"/>
+      <c r="A59" s="287"/>
       <c r="B59" s="302"/>
       <c r="C59" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="304"/>
+      <c r="D59" s="303"/>
       <c r="E59" s="40" t="s">
         <v>19</v>
       </c>
@@ -14848,12 +14850,12 @@
       <c r="K59" s="39"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="185"/>
+      <c r="A60" s="287"/>
       <c r="B60" s="302"/>
       <c r="C60" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="304"/>
+      <c r="D60" s="303"/>
       <c r="E60" s="40" t="s">
         <v>19</v>
       </c>
@@ -14873,12 +14875,12 @@
       <c r="K60" s="39"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="185"/>
+      <c r="A61" s="287"/>
       <c r="B61" s="302"/>
       <c r="C61" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="304"/>
+      <c r="D61" s="303"/>
       <c r="E61" s="40" t="s">
         <v>19</v>
       </c>
@@ -14896,12 +14898,12 @@
       <c r="K61" s="39"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="185"/>
+      <c r="A62" s="287"/>
       <c r="B62" s="302"/>
       <c r="C62" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="304"/>
+      <c r="D62" s="303"/>
       <c r="E62" s="40" t="s">
         <v>80</v>
       </c>
@@ -14919,12 +14921,12 @@
       <c r="K62" s="39"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="185"/>
+      <c r="A63" s="287"/>
       <c r="B63" s="302"/>
       <c r="C63" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="304"/>
+      <c r="D63" s="303"/>
       <c r="E63" s="40" t="s">
         <v>19</v>
       </c>
@@ -14940,12 +14942,12 @@
       <c r="K63" s="39"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="185"/>
+      <c r="A64" s="287"/>
       <c r="B64" s="302"/>
       <c r="C64" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="304"/>
+      <c r="D64" s="303"/>
       <c r="E64" s="40" t="s">
         <v>19</v>
       </c>
@@ -14963,7 +14965,7 @@
       <c r="K64" s="39"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="185">
+      <c r="A65" s="287">
         <v>6</v>
       </c>
       <c r="B65" s="302" t="s">
@@ -14972,7 +14974,7 @@
       <c r="C65" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="304" t="s">
+      <c r="D65" s="303" t="s">
         <v>164</v>
       </c>
       <c r="E65" s="39" t="s">
@@ -14990,12 +14992,12 @@
       <c r="K65" s="39"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="185"/>
+      <c r="A66" s="287"/>
       <c r="B66" s="302"/>
       <c r="C66" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="304"/>
+      <c r="D66" s="303"/>
       <c r="E66" s="39" t="s">
         <v>19</v>
       </c>
@@ -15011,12 +15013,12 @@
       <c r="K66" s="39"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="185"/>
+      <c r="A67" s="287"/>
       <c r="B67" s="302"/>
       <c r="C67" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="304"/>
+      <c r="D67" s="303"/>
       <c r="E67" s="39" t="s">
         <v>19</v>
       </c>
@@ -15032,7 +15034,7 @@
       <c r="K67" s="39"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="185">
+      <c r="A68" s="287">
         <v>7</v>
       </c>
       <c r="B68" s="302" t="s">
@@ -15041,7 +15043,7 @@
       <c r="C68" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="304" t="s">
+      <c r="D68" s="303" t="s">
         <v>165</v>
       </c>
       <c r="E68" s="39" t="s">
@@ -15059,12 +15061,12 @@
       <c r="K68" s="39"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="185"/>
+      <c r="A69" s="287"/>
       <c r="B69" s="302"/>
       <c r="C69" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="304"/>
+      <c r="D69" s="303"/>
       <c r="E69" s="39" t="s">
         <v>19</v>
       </c>
@@ -15080,12 +15082,12 @@
       <c r="K69" s="39"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="185"/>
+      <c r="A70" s="287"/>
       <c r="B70" s="302"/>
       <c r="C70" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="304"/>
+      <c r="D70" s="303"/>
       <c r="E70" s="39" t="s">
         <v>19</v>
       </c>
@@ -15101,7 +15103,7 @@
       <c r="K70" s="39"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="185">
+      <c r="A71" s="287">
         <v>8</v>
       </c>
       <c r="B71" s="302" t="s">
@@ -15110,7 +15112,7 @@
       <c r="C71" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="304" t="s">
+      <c r="D71" s="303" t="s">
         <v>166</v>
       </c>
       <c r="E71" s="39" t="s">
@@ -15128,12 +15130,12 @@
       <c r="K71" s="39"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="185"/>
+      <c r="A72" s="287"/>
       <c r="B72" s="302"/>
       <c r="C72" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="304"/>
+      <c r="D72" s="303"/>
       <c r="E72" s="39" t="s">
         <v>19</v>
       </c>
@@ -15149,12 +15151,12 @@
       <c r="K72" s="39"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="185"/>
+      <c r="A73" s="287"/>
       <c r="B73" s="302"/>
       <c r="C73" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="304"/>
+      <c r="D73" s="303"/>
       <c r="E73" s="39" t="s">
         <v>19</v>
       </c>
@@ -15170,7 +15172,7 @@
       <c r="K73" s="39"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="185">
+      <c r="A74" s="287">
         <v>9</v>
       </c>
       <c r="B74" s="302" t="s">
@@ -15179,7 +15181,7 @@
       <c r="C74" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="304" t="s">
+      <c r="D74" s="303" t="s">
         <v>167</v>
       </c>
       <c r="E74" s="39" t="s">
@@ -15197,12 +15199,12 @@
       <c r="K74" s="39"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="185"/>
+      <c r="A75" s="287"/>
       <c r="B75" s="302"/>
       <c r="C75" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="304"/>
+      <c r="D75" s="303"/>
       <c r="E75" s="39" t="s">
         <v>19</v>
       </c>
@@ -15218,12 +15220,12 @@
       <c r="K75" s="39"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="185"/>
+      <c r="A76" s="287"/>
       <c r="B76" s="302"/>
       <c r="C76" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="304"/>
+      <c r="D76" s="303"/>
       <c r="E76" s="39" t="s">
         <v>19</v>
       </c>
@@ -15239,12 +15241,12 @@
       <c r="K76" s="39"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="185"/>
+      <c r="A77" s="287"/>
       <c r="B77" s="302"/>
       <c r="C77" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="304"/>
+      <c r="D77" s="303"/>
       <c r="E77" s="39" t="s">
         <v>19</v>
       </c>
@@ -15264,12 +15266,12 @@
       <c r="K77" s="39"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="185"/>
+      <c r="A78" s="287"/>
       <c r="B78" s="302"/>
       <c r="C78" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D78" s="304"/>
+      <c r="D78" s="303"/>
       <c r="E78" s="41" t="s">
         <v>19</v>
       </c>
@@ -15287,7 +15289,7 @@
       <c r="K78" s="39"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="185">
+      <c r="A79" s="287">
         <v>10</v>
       </c>
       <c r="B79" s="302" t="s">
@@ -15296,7 +15298,7 @@
       <c r="C79" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="304" t="s">
+      <c r="D79" s="303" t="s">
         <v>168</v>
       </c>
       <c r="E79" s="39" t="s">
@@ -15314,12 +15316,12 @@
       <c r="K79" s="39"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="185"/>
+      <c r="A80" s="287"/>
       <c r="B80" s="302"/>
       <c r="C80" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="304"/>
+      <c r="D80" s="303"/>
       <c r="E80" s="39" t="s">
         <v>19</v>
       </c>
@@ -15335,12 +15337,12 @@
       <c r="K80" s="39"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="185"/>
+      <c r="A81" s="287"/>
       <c r="B81" s="302"/>
       <c r="C81" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="304"/>
+      <c r="D81" s="303"/>
       <c r="E81" s="39" t="s">
         <v>19</v>
       </c>
@@ -15356,12 +15358,12 @@
       <c r="K81" s="39"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="185"/>
+      <c r="A82" s="287"/>
       <c r="B82" s="302"/>
       <c r="C82" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="304"/>
+      <c r="D82" s="303"/>
       <c r="E82" s="41" t="s">
         <v>19</v>
       </c>
@@ -15381,7 +15383,7 @@
       <c r="K82" s="39"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="185">
+      <c r="A83" s="287">
         <v>11</v>
       </c>
       <c r="B83" s="302" t="s">
@@ -15390,7 +15392,7 @@
       <c r="C83" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="304" t="s">
+      <c r="D83" s="303" t="s">
         <v>169</v>
       </c>
       <c r="E83" s="41" t="s">
@@ -15408,12 +15410,12 @@
       <c r="K83" s="39"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="185"/>
+      <c r="A84" s="287"/>
       <c r="B84" s="302"/>
       <c r="C84" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="304"/>
+      <c r="D84" s="303"/>
       <c r="E84" s="41" t="s">
         <v>19</v>
       </c>
@@ -15429,12 +15431,12 @@
       <c r="K84" s="39"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="185"/>
+      <c r="A85" s="287"/>
       <c r="B85" s="302"/>
       <c r="C85" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="304"/>
+      <c r="D85" s="303"/>
       <c r="E85" s="41" t="s">
         <v>19</v>
       </c>
@@ -15450,12 +15452,12 @@
       <c r="K85" s="39"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="185"/>
+      <c r="A86" s="287"/>
       <c r="B86" s="302"/>
       <c r="C86" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="304"/>
+      <c r="D86" s="303"/>
       <c r="E86" s="41" t="s">
         <v>19</v>
       </c>
@@ -15475,12 +15477,12 @@
       <c r="K86" s="39"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="185"/>
+      <c r="A87" s="287"/>
       <c r="B87" s="302"/>
       <c r="C87" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="304"/>
+      <c r="D87" s="303"/>
       <c r="E87" s="41" t="s">
         <v>19</v>
       </c>
@@ -15500,12 +15502,12 @@
       <c r="K87" s="41"/>
     </row>
     <row r="88" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="185"/>
+      <c r="A88" s="287"/>
       <c r="B88" s="302"/>
       <c r="C88" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="304"/>
+      <c r="D88" s="303"/>
       <c r="E88" s="41" t="s">
         <v>80</v>
       </c>
@@ -15524,12 +15526,12 @@
       <c r="L88" s="13"/>
     </row>
     <row r="89" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="185"/>
+      <c r="A89" s="287"/>
       <c r="B89" s="302"/>
       <c r="C89" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="304"/>
+      <c r="D89" s="303"/>
       <c r="E89" s="41" t="s">
         <v>19</v>
       </c>
@@ -15548,12 +15550,12 @@
       <c r="L89" s="13"/>
     </row>
     <row r="90" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="185"/>
+      <c r="A90" s="287"/>
       <c r="B90" s="302"/>
       <c r="C90" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D90" s="304"/>
+      <c r="D90" s="303"/>
       <c r="E90" s="41" t="s">
         <v>19</v>
       </c>
@@ -15572,12 +15574,12 @@
       <c r="L90" s="13"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="185"/>
+      <c r="A91" s="287"/>
       <c r="B91" s="302"/>
       <c r="C91" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D91" s="304"/>
+      <c r="D91" s="303"/>
       <c r="E91" s="41" t="s">
         <v>19</v>
       </c>
@@ -15597,12 +15599,12 @@
       <c r="K91" s="41"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="185"/>
+      <c r="A92" s="287"/>
       <c r="B92" s="302"/>
       <c r="C92" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D92" s="304"/>
+      <c r="D92" s="303"/>
       <c r="E92" s="40" t="s">
         <v>19</v>
       </c>
@@ -15618,7 +15620,7 @@
       <c r="K92" s="39"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="185">
+      <c r="A93" s="287">
         <v>12</v>
       </c>
       <c r="B93" s="302" t="s">
@@ -15645,7 +15647,7 @@
       <c r="K93" s="39"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="185"/>
+      <c r="A94" s="287"/>
       <c r="B94" s="302"/>
       <c r="C94" s="40" t="s">
         <v>11</v>
@@ -15666,7 +15668,7 @@
       <c r="K94" s="39"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="185"/>
+      <c r="A95" s="287"/>
       <c r="B95" s="302"/>
       <c r="C95" s="40" t="s">
         <v>12</v>
@@ -15687,7 +15689,7 @@
       <c r="K95" s="39"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="185"/>
+      <c r="A96" s="287"/>
       <c r="B96" s="302"/>
       <c r="C96" s="40" t="s">
         <v>13</v>
@@ -15712,7 +15714,7 @@
       <c r="K96" s="39"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="185"/>
+      <c r="A97" s="287"/>
       <c r="B97" s="302"/>
       <c r="C97" s="40" t="s">
         <v>14</v>
@@ -15737,7 +15739,7 @@
       <c r="K97" s="41"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="185"/>
+      <c r="A98" s="287"/>
       <c r="B98" s="302"/>
       <c r="C98" s="39" t="s">
         <v>174</v>
@@ -15758,7 +15760,7 @@
       <c r="K98" s="39"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="185"/>
+      <c r="A99" s="287"/>
       <c r="B99" s="302"/>
       <c r="C99" s="39" t="s">
         <v>175</v>
@@ -15781,7 +15783,7 @@
       <c r="K99" s="39"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="185"/>
+      <c r="A100" s="287"/>
       <c r="B100" s="302"/>
       <c r="C100" s="39" t="s">
         <v>176</v>
@@ -15811,34 +15813,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B93:B100"/>
-    <mergeCell ref="A93:A100"/>
-    <mergeCell ref="D93:D100"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="A83:A92"/>
-    <mergeCell ref="D83:D92"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D31:D47"/>
-    <mergeCell ref="D48:D64"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="D10:D23"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A48:A64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B48:B64"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="A31:A47"/>
     <mergeCell ref="B24:B30"/>
@@ -15847,6 +15821,34 @@
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A23"/>
     <mergeCell ref="B10:B23"/>
+    <mergeCell ref="A48:A64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B48:B64"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="D31:D47"/>
+    <mergeCell ref="D48:D64"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D10:D23"/>
+    <mergeCell ref="B93:B100"/>
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="D93:D100"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="A83:A92"/>
+    <mergeCell ref="D83:D92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16153,10 +16155,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="304" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -16179,8 +16181,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
-      <c r="B3" s="303"/>
+      <c r="A3" s="287"/>
+      <c r="B3" s="304"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -16197,8 +16199,8 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
-      <c r="B4" s="303"/>
+      <c r="A4" s="287"/>
+      <c r="B4" s="304"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -16217,8 +16219,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
-      <c r="B5" s="303"/>
+      <c r="A5" s="287"/>
+      <c r="B5" s="304"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -16237,8 +16239,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
-      <c r="B6" s="303"/>
+      <c r="A6" s="287"/>
+      <c r="B6" s="304"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -16257,8 +16259,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
-      <c r="B7" s="303"/>
+      <c r="A7" s="287"/>
+      <c r="B7" s="304"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -16277,8 +16279,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="303"/>
+      <c r="A8" s="287"/>
+      <c r="B8" s="304"/>
       <c r="C8" s="39" t="s">
         <v>73</v>
       </c>
@@ -16297,8 +16299,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
-      <c r="B9" s="303"/>
+      <c r="A9" s="287"/>
+      <c r="B9" s="304"/>
       <c r="C9" s="39" t="s">
         <v>18</v>
       </c>
@@ -16376,7 +16378,7 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -16403,7 +16405,7 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
@@ -16422,7 +16424,7 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
@@ -16443,7 +16445,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
@@ -16464,7 +16466,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
@@ -16485,7 +16487,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
@@ -16506,7 +16508,7 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>15</v>
@@ -16527,7 +16529,7 @@
       <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>16</v>
@@ -16548,7 +16550,7 @@
       <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>17</v>
@@ -16569,7 +16571,7 @@
       <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>81</v>
@@ -16588,7 +16590,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="40" t="s">
         <v>84</v>
@@ -16609,7 +16611,7 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="185"/>
+      <c r="A13" s="287"/>
       <c r="B13" s="302"/>
       <c r="C13" s="40" t="s">
         <v>85</v>
@@ -16630,7 +16632,7 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="185"/>
+      <c r="A14" s="287"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
         <v>86</v>
@@ -16651,7 +16653,7 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="287"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
         <v>101</v>
@@ -16732,7 +16734,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
@@ -16741,7 +16743,7 @@
       <c r="C2" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="304" t="s">
+      <c r="D2" s="303" t="s">
         <v>169</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -16759,12 +16761,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="304"/>
+      <c r="D3" s="303"/>
       <c r="E3" s="41" t="s">
         <v>19</v>
       </c>
@@ -16778,12 +16780,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="304"/>
+      <c r="D4" s="303"/>
       <c r="E4" s="41" t="s">
         <v>19</v>
       </c>
@@ -16799,12 +16801,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="304"/>
+      <c r="D5" s="303"/>
       <c r="E5" s="41" t="s">
         <v>19</v>
       </c>
@@ -16820,12 +16822,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="304"/>
+      <c r="D6" s="303"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -16841,12 +16843,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="304"/>
+      <c r="D7" s="303"/>
       <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
@@ -16862,12 +16864,12 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="304"/>
+      <c r="D8" s="303"/>
       <c r="E8" s="41" t="s">
         <v>80</v>
       </c>
@@ -16881,12 +16883,12 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="304"/>
+      <c r="D9" s="303"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
@@ -16900,12 +16902,12 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="304"/>
+      <c r="D10" s="303"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
@@ -16919,12 +16921,12 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="304"/>
+      <c r="D11" s="303"/>
       <c r="E11" s="41" t="s">
         <v>19</v>
       </c>
@@ -16940,12 +16942,12 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="304"/>
+      <c r="D12" s="303"/>
       <c r="E12" s="40" t="s">
         <v>19</v>
       </c>
@@ -17401,10 +17403,10 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="287" t="s">
         <v>327</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -17427,8 +17429,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
-      <c r="B3" s="185"/>
+      <c r="A3" s="287"/>
+      <c r="B3" s="287"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -17445,8 +17447,8 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
-      <c r="B4" s="185"/>
+      <c r="A4" s="287"/>
+      <c r="B4" s="287"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -17465,8 +17467,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
-      <c r="B5" s="185"/>
+      <c r="A5" s="287"/>
+      <c r="B5" s="287"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -17485,8 +17487,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
-      <c r="B6" s="185"/>
+      <c r="A6" s="287"/>
+      <c r="B6" s="287"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -17505,8 +17507,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
-      <c r="B7" s="185"/>
+      <c r="A7" s="287"/>
+      <c r="B7" s="287"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -17525,8 +17527,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="185"/>
+      <c r="A8" s="287"/>
+      <c r="B8" s="287"/>
       <c r="C8" s="41" t="s">
         <v>328</v>
       </c>
@@ -17543,8 +17545,8 @@
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
-      <c r="B9" s="185"/>
+      <c r="A9" s="287"/>
+      <c r="B9" s="287"/>
       <c r="C9" s="41" t="s">
         <v>103</v>
       </c>
@@ -17561,8 +17563,8 @@
       <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
-      <c r="B10" s="185"/>
+      <c r="A10" s="287"/>
+      <c r="B10" s="287"/>
       <c r="C10" s="41" t="s">
         <v>329</v>
       </c>

--- a/Documentation/AzureTasks Tags Mappingv3.0.xlsx
+++ b/Documentation/AzureTasks Tags Mappingv3.0.xlsx
@@ -331,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="500">
   <si>
     <t>SL #</t>
   </si>
@@ -1210,15 +1210,6 @@
     <t>Configure-FirewallSettingsInVM.ps1</t>
   </si>
   <si>
-    <t>Install-WebServerRoleAndFeatures.ps1</t>
-  </si>
-  <si>
-    <t>Configure-ApplicationPoolSettings.ps1</t>
-  </si>
-  <si>
-    <t>Configure-IISSettings.ps1</t>
-  </si>
-  <si>
     <t>Restart-IISServices.ps1</t>
   </si>
   <si>
@@ -1830,6 +1821,21 @@
   </si>
   <si>
     <t>Create file share folder and enable read/write permissions &amp; Provide any advanced user setting on folder or server (if applicable)</t>
+  </si>
+  <si>
+    <t>Install-WebServerRoleOnRMVM.ps1</t>
+  </si>
+  <si>
+    <t>Export-IISApplicationPoolSettings.ps1 / Import-IISApplicationPoolSettings.ps1</t>
+  </si>
+  <si>
+    <t>Export-IISWebSites.ps1 / Import-IISWebsites.ps1</t>
+  </si>
+  <si>
+    <t>Get-VMConnectionDetails.ps1</t>
+  </si>
+  <si>
+    <t>Test-SQLConnectionExtension.ps1</t>
   </si>
 </sst>
 </file>
@@ -2310,7 +2316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2768,9 +2774,336 @@
     <xf numFmtId="15" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2786,348 +3119,21 @@
     <xf numFmtId="15" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3146,6 +3152,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3155,18 +3173,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3181,6 +3187,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3795,7 +3810,7 @@
         <v>130</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E1" s="55" t="s">
         <v>129</v>
@@ -3848,7 +3863,7 @@
         <v>42523</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -3856,7 +3871,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C3" s="44" t="s">
         <v>133</v>
@@ -3880,10 +3895,10 @@
         <v>42523</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3915,7 +3930,7 @@
         <v>42524</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3947,7 +3962,7 @@
         <v>42523</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3955,7 +3970,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>133</v>
@@ -3979,7 +3994,7 @@
         <v>42555</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4011,7 +4026,7 @@
         <v>42556</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -4043,10 +4058,10 @@
         <v>42524</v>
       </c>
       <c r="J8" s="54" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K8" s="52" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -4078,10 +4093,10 @@
         <v>42524</v>
       </c>
       <c r="J9" s="54" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K9" s="52" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -4113,10 +4128,10 @@
         <v>42524</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K10" s="52" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -4148,10 +4163,10 @@
         <v>42528</v>
       </c>
       <c r="J11" s="54" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K11" s="52" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -4165,7 +4180,7 @@
         <v>133</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E12" s="52" t="s">
         <v>134</v>
@@ -4183,10 +4198,10 @@
         <v>42528</v>
       </c>
       <c r="J12" s="54" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K12" s="52" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4218,7 +4233,7 @@
         <v>42548</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -4346,7 +4361,7 @@
         <v>42573</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -4378,7 +4393,7 @@
         <v>42571</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4410,7 +4425,7 @@
         <v>42571</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4418,7 +4433,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>133</v>
@@ -4442,7 +4457,7 @@
         <v>42579</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4474,7 +4489,7 @@
         <v>42570</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -4482,13 +4497,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C22" s="52" t="s">
         <v>133</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E22" s="52" t="s">
         <v>134</v>
@@ -4506,10 +4521,10 @@
         <v>42586</v>
       </c>
       <c r="J22" s="52" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K22" s="52" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -4517,13 +4532,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>133</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E23" s="52" t="s">
         <v>134</v>
@@ -4541,10 +4556,10 @@
         <v>42586</v>
       </c>
       <c r="J23" s="52" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K23" s="52" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -4552,13 +4567,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C24" s="52" t="s">
         <v>133</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E24" s="52" t="s">
         <v>134</v>
@@ -4576,10 +4591,10 @@
         <v>42586</v>
       </c>
       <c r="J24" s="52" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K24" s="52" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -4611,7 +4626,7 @@
         <v>42590</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4643,7 +4658,7 @@
         <v>42586</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -4675,7 +4690,7 @@
         <v>42587</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -4683,13 +4698,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>183</v>
@@ -4707,7 +4722,7 @@
         <v>42586</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4818,10 +4833,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="305" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D2" s="305" t="s">
         <v>285</v>
@@ -4830,13 +4845,13 @@
         <v>19</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4894,7 +4909,7 @@
         <v>21</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4977,14 +4992,14 @@
       <c r="A10" s="309"/>
       <c r="B10" s="306"/>
       <c r="C10" s="40" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D10" s="306"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>21</v>
@@ -4995,14 +5010,14 @@
       <c r="A11" s="309"/>
       <c r="B11" s="306"/>
       <c r="C11" s="40" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D11" s="306"/>
       <c r="E11" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G11" s="40" t="s">
         <v>87</v>
@@ -5015,14 +5030,14 @@
       <c r="A12" s="309"/>
       <c r="B12" s="306"/>
       <c r="C12" s="40" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D12" s="306"/>
       <c r="E12" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>21</v>
@@ -5033,14 +5048,14 @@
       <c r="A13" s="309"/>
       <c r="B13" s="306"/>
       <c r="C13" s="40" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D13" s="306"/>
       <c r="E13" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>21</v>
@@ -5051,14 +5066,14 @@
       <c r="A14" s="309"/>
       <c r="B14" s="306"/>
       <c r="C14" s="40" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D14" s="306"/>
       <c r="E14" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>21</v>
@@ -5069,14 +5084,14 @@
       <c r="A15" s="309"/>
       <c r="B15" s="306"/>
       <c r="C15" s="40" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D15" s="306"/>
       <c r="E15" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>87</v>
@@ -5089,94 +5104,94 @@
       <c r="A16" s="309"/>
       <c r="B16" s="306"/>
       <c r="C16" s="40" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D16" s="306"/>
       <c r="E16" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>87</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="309"/>
       <c r="B17" s="306"/>
       <c r="C17" s="51" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D17" s="306"/>
       <c r="E17" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G17" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="309"/>
       <c r="B18" s="306"/>
       <c r="C18" s="40" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D18" s="306"/>
       <c r="E18" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G18" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="309"/>
       <c r="B19" s="306"/>
       <c r="C19" s="40" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D19" s="306"/>
       <c r="E19" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G19" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="309"/>
       <c r="B20" s="306"/>
       <c r="C20" s="40" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D20" s="306"/>
       <c r="E20" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>21</v>
@@ -5187,14 +5202,14 @@
       <c r="A21" s="309"/>
       <c r="B21" s="306"/>
       <c r="C21" s="40" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D21" s="306"/>
       <c r="E21" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G21" s="40" t="s">
         <v>21</v>
@@ -5205,14 +5220,14 @@
       <c r="A22" s="309"/>
       <c r="B22" s="306"/>
       <c r="C22" s="40" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D22" s="306"/>
       <c r="E22" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>21</v>
@@ -5223,20 +5238,20 @@
       <c r="A23" s="309"/>
       <c r="B23" s="306"/>
       <c r="C23" s="40" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D23" s="306"/>
       <c r="E23" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G23" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -5256,27 +5271,27 @@
         <v>21</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="310"/>
       <c r="B25" s="307"/>
       <c r="C25" s="40" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D25" s="307"/>
       <c r="E25" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -5341,14 +5356,14 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D2" s="302" t="s">
         <v>276</v>
@@ -5357,19 +5372,19 @@
         <v>19</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
@@ -5388,7 +5403,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
@@ -5409,7 +5424,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
@@ -5425,12 +5440,12 @@
         <v>21</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
@@ -5451,7 +5466,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
@@ -5472,17 +5487,17 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D8" s="302"/>
       <c r="E8" s="39" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>21</v>
@@ -5491,7 +5506,7 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>15</v>
@@ -5510,7 +5525,7 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>16</v>
@@ -5529,7 +5544,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>17</v>
@@ -5548,7 +5563,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="39" t="s">
         <v>102</v>
@@ -5567,7 +5582,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="185"/>
+      <c r="A13" s="287"/>
       <c r="B13" s="302"/>
       <c r="C13" s="39" t="s">
         <v>103</v>
@@ -5586,7 +5601,7 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="185"/>
+      <c r="A14" s="287"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
         <v>104</v>
@@ -5607,17 +5622,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="287"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D15" s="302"/>
       <c r="E15" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>20</v>
@@ -5628,7 +5643,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="185"/>
+      <c r="A16" s="287"/>
       <c r="B16" s="302"/>
       <c r="C16" s="39" t="s">
         <v>106</v>
@@ -5649,61 +5664,61 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="185"/>
+      <c r="A17" s="287"/>
       <c r="B17" s="302"/>
       <c r="C17" s="39" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D17" s="302"/>
       <c r="E17" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G17" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="185"/>
+      <c r="A18" s="287"/>
       <c r="B18" s="302"/>
       <c r="C18" s="39" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D18" s="302"/>
       <c r="E18" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G18" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="287"/>
       <c r="B19" s="302"/>
       <c r="C19" s="39" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D19" s="302"/>
       <c r="E19" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G19" s="40" t="s">
         <v>20</v>
@@ -5713,17 +5728,17 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="185"/>
+      <c r="A20" s="287"/>
       <c r="B20" s="302"/>
       <c r="C20" s="39" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D20" s="302"/>
       <c r="E20" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>21</v>
@@ -5733,17 +5748,17 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="185"/>
+      <c r="A21" s="287"/>
       <c r="B21" s="302"/>
       <c r="C21" s="39" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D21" s="302"/>
       <c r="E21" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G21" s="39" t="s">
         <v>21</v>
@@ -5751,17 +5766,17 @@
       <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="185"/>
+      <c r="A22" s="287"/>
       <c r="B22" s="302"/>
       <c r="C22" s="39" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D22" s="302"/>
       <c r="E22" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G22" s="39" t="s">
         <v>21</v>
@@ -5829,14 +5844,14 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="303" t="s">
         <v>207</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D2" s="305" t="s">
         <v>277</v>
@@ -5845,18 +5860,18 @@
         <v>19</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
-      <c r="B3" s="304"/>
+      <c r="A3" s="287"/>
+      <c r="B3" s="303"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -5873,8 +5888,8 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
-      <c r="B4" s="304"/>
+      <c r="A4" s="287"/>
+      <c r="B4" s="303"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -5893,8 +5908,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
-      <c r="B5" s="304"/>
+      <c r="A5" s="287"/>
+      <c r="B5" s="303"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -5909,12 +5924,12 @@
         <v>21</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
-      <c r="B6" s="304"/>
+      <c r="A6" s="287"/>
+      <c r="B6" s="303"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -5933,8 +5948,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
-      <c r="B7" s="304"/>
+      <c r="A7" s="287"/>
+      <c r="B7" s="303"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -5953,8 +5968,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="304"/>
+      <c r="A8" s="287"/>
+      <c r="B8" s="303"/>
       <c r="C8" s="41" t="s">
         <v>103</v>
       </c>
@@ -5971,17 +5986,17 @@
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
-      <c r="B9" s="304"/>
+      <c r="A9" s="287"/>
+      <c r="B9" s="303"/>
       <c r="C9" s="41" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D9" s="306"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>21</v>
@@ -5989,17 +6004,17 @@
       <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
-      <c r="B10" s="304"/>
+      <c r="A10" s="287"/>
+      <c r="B10" s="303"/>
       <c r="C10" s="50" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D10" s="306"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>21</v>
@@ -6007,20 +6022,20 @@
       <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
-      <c r="B11" s="304"/>
+      <c r="A11" s="287"/>
+      <c r="B11" s="303"/>
       <c r="C11" s="41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D11" s="307"/>
       <c r="E11" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H11" s="40"/>
     </row>
@@ -6086,14 +6101,14 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
         <v>109</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D2" s="302" t="s">
         <v>278</v>
@@ -6102,18 +6117,18 @@
         <v>19</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
@@ -6132,7 +6147,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
@@ -6153,7 +6168,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
@@ -6169,12 +6184,12 @@
         <v>21</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
@@ -6195,7 +6210,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
@@ -6216,7 +6231,7 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>15</v>
@@ -6235,7 +6250,7 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>16</v>
@@ -6254,7 +6269,7 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>17</v>
@@ -6273,7 +6288,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>102</v>
@@ -6292,7 +6307,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="39" t="s">
         <v>103</v>
@@ -6311,7 +6326,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="185"/>
+      <c r="A13" s="287"/>
       <c r="B13" s="302"/>
       <c r="C13" s="39" t="s">
         <v>104</v>
@@ -6332,17 +6347,17 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="185"/>
+      <c r="A14" s="287"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D14" s="302"/>
       <c r="E14" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>20</v>
@@ -6353,7 +6368,7 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="287"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
         <v>106</v>
@@ -6374,17 +6389,17 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="185"/>
+      <c r="A16" s="287"/>
       <c r="B16" s="302"/>
       <c r="C16" s="39" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D16" s="302"/>
       <c r="E16" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>21</v>
@@ -6395,17 +6410,17 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="185"/>
+      <c r="A17" s="287"/>
       <c r="B17" s="302"/>
       <c r="C17" s="39" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D17" s="302"/>
       <c r="E17" s="40" t="s">
         <v>80</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G17" s="40" t="s">
         <v>93</v>
@@ -6416,17 +6431,17 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="185"/>
+      <c r="A18" s="287"/>
       <c r="B18" s="302"/>
       <c r="C18" s="39" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D18" s="302"/>
       <c r="E18" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>21</v>
@@ -6435,17 +6450,17 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="287"/>
       <c r="B19" s="302"/>
       <c r="C19" s="39" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D19" s="302"/>
       <c r="E19" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G19" s="39" t="s">
         <v>21</v>
@@ -6455,43 +6470,43 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="185"/>
+      <c r="A20" s="287"/>
       <c r="B20" s="302"/>
       <c r="C20" s="41" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D20" s="302"/>
       <c r="E20" s="56" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G20" s="41" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="185"/>
+      <c r="A21" s="287"/>
       <c r="B21" s="302"/>
       <c r="C21" s="41" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D21" s="302"/>
       <c r="E21" s="56" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G21" s="41" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -6556,34 +6571,34 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D2" s="302" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -6602,7 +6617,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -6623,7 +6638,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -6639,12 +6654,12 @@
         <v>21</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -6665,7 +6680,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -6686,7 +6701,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>174</v>
@@ -6702,12 +6717,12 @@
         <v>20</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>175</v>
@@ -6728,7 +6743,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>176</v>
@@ -6744,11 +6759,11 @@
         <v>20</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="41" t="s">
         <v>90</v>
@@ -6761,14 +6776,14 @@
         <v>90</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="41" t="s">
         <v>76</v>
@@ -6784,107 +6799,107 @@
         <v>20</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="185"/>
+      <c r="A13" s="287"/>
       <c r="B13" s="302"/>
       <c r="C13" s="41" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D13" s="302"/>
       <c r="E13" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="185"/>
+      <c r="A14" s="287"/>
       <c r="B14" s="302"/>
       <c r="C14" s="41" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D14" s="302"/>
       <c r="E14" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G14" s="41" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="56" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="287"/>
       <c r="B15" s="302"/>
       <c r="C15" s="41" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D15" s="302"/>
       <c r="E15" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="185"/>
+      <c r="A16" s="287"/>
       <c r="B16" s="302"/>
       <c r="C16" s="41" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D16" s="302"/>
       <c r="E16" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="185"/>
+      <c r="A17" s="287"/>
       <c r="B17" s="302"/>
       <c r="C17" s="41" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D17" s="302"/>
       <c r="E17" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -6948,14 +6963,14 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
         <v>224</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D2" s="302" t="s">
         <v>289</v>
@@ -6964,18 +6979,18 @@
         <v>19</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -6994,7 +7009,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7015,7 +7030,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7031,12 +7046,12 @@
         <v>21</v>
       </c>
       <c r="H5" s="84" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7057,7 +7072,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7078,7 +7093,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -7094,49 +7109,49 @@
         <v>20</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D9" s="302"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D10" s="302"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -7200,14 +7215,14 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
         <v>208</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D2" s="302" t="s">
         <v>286</v>
@@ -7216,18 +7231,18 @@
         <v>19</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -7246,7 +7261,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7267,7 +7282,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7283,12 +7298,12 @@
         <v>21</v>
       </c>
       <c r="H5" s="84" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7309,7 +7324,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7330,7 +7345,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -7346,43 +7361,43 @@
         <v>20</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D9" s="302"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D10" s="302"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>21</v>
@@ -7390,20 +7405,20 @@
       <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="41" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D11" s="302"/>
       <c r="E11" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="G11" s="41" t="s">
         <v>389</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>392</v>
       </c>
       <c r="H11" s="40"/>
     </row>
@@ -7468,14 +7483,14 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
         <v>211</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D2" s="302" t="s">
         <v>287</v>
@@ -7484,18 +7499,18 @@
         <v>19</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -7514,7 +7529,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7535,7 +7550,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7551,12 +7566,12 @@
         <v>21</v>
       </c>
       <c r="H5" s="84" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7577,7 +7592,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7598,7 +7613,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -7614,61 +7629,61 @@
         <v>20</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D9" s="302"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D10" s="302"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10" s="41" t="s">
         <v>389</v>
       </c>
-      <c r="G10" s="41" t="s">
-        <v>392</v>
-      </c>
       <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="41" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D11" s="302"/>
       <c r="E11" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G11" s="41" t="s">
         <v>21</v>
@@ -7676,23 +7691,23 @@
       <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="41" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D12" s="302"/>
       <c r="E12" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -7754,32 +7769,32 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302"/>
       <c r="C2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D2" s="302" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
@@ -7798,7 +7813,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
@@ -7819,7 +7834,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
@@ -7835,12 +7850,12 @@
         <v>21</v>
       </c>
       <c r="H5" s="84" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
@@ -7861,7 +7876,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
@@ -7882,7 +7897,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
@@ -7898,49 +7913,49 @@
         <v>20</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D9" s="302"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D10" s="302"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -7975,16 +7990,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="314">
+      <c r="A2" s="311">
         <v>1</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="304" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>304</v>
-      </c>
-      <c r="D2" s="303" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" s="304" t="s">
         <v>161</v>
       </c>
       <c r="E2" s="76" t="s">
@@ -7992,22 +8007,22 @@
       </c>
       <c r="F2" s="76"/>
       <c r="G2" s="76" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H2" s="76" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="76" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="314"/>
-      <c r="B3" s="303"/>
+      <c r="A3" s="311"/>
+      <c r="B3" s="304"/>
       <c r="C3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="303"/>
+      <c r="D3" s="304"/>
       <c r="E3" s="77" t="s">
         <v>19</v>
       </c>
@@ -8024,12 +8039,12 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="314"/>
-      <c r="B4" s="303"/>
+      <c r="A4" s="311"/>
+      <c r="B4" s="304"/>
       <c r="C4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="303"/>
+      <c r="D4" s="304"/>
       <c r="E4" s="77" t="s">
         <v>19</v>
       </c>
@@ -8046,12 +8061,12 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="314"/>
-      <c r="B5" s="303"/>
+      <c r="A5" s="311"/>
+      <c r="B5" s="304"/>
       <c r="C5" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="303"/>
+      <c r="D5" s="304"/>
       <c r="E5" s="77" t="s">
         <v>19</v>
       </c>
@@ -8070,12 +8085,12 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="314"/>
-      <c r="B6" s="303"/>
+      <c r="A6" s="311"/>
+      <c r="B6" s="304"/>
       <c r="C6" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="303"/>
+      <c r="D6" s="304"/>
       <c r="E6" s="77" t="s">
         <v>19</v>
       </c>
@@ -8096,12 +8111,12 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="314"/>
-      <c r="B7" s="303"/>
+      <c r="A7" s="311"/>
+      <c r="B7" s="304"/>
       <c r="C7" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="303"/>
+      <c r="D7" s="304"/>
       <c r="E7" s="77" t="s">
         <v>19</v>
       </c>
@@ -8122,12 +8137,12 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="314"/>
-      <c r="B8" s="303"/>
+      <c r="A8" s="311"/>
+      <c r="B8" s="304"/>
       <c r="C8" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="303"/>
+      <c r="D8" s="304"/>
       <c r="E8" s="77" t="s">
         <v>19</v>
       </c>
@@ -8148,12 +8163,12 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="314"/>
-      <c r="B9" s="303"/>
+      <c r="A9" s="311"/>
+      <c r="B9" s="304"/>
       <c r="C9" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="303"/>
+      <c r="D9" s="304"/>
       <c r="E9" s="77" t="s">
         <v>19</v>
       </c>
@@ -8170,42 +8185,42 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="315">
+      <c r="A10" s="312">
         <v>2</v>
       </c>
-      <c r="B10" s="315" t="s">
-        <v>425</v>
+      <c r="B10" s="312" t="s">
+        <v>422</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="D10" s="315" t="s">
-        <v>426</v>
+        <v>301</v>
+      </c>
+      <c r="D10" s="312" t="s">
+        <v>423</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F10" s="82"/>
       <c r="G10" s="82" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H10" s="82" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="76" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="316"/>
-      <c r="B11" s="316"/>
+      <c r="A11" s="313"/>
+      <c r="B11" s="313"/>
       <c r="C11" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="316"/>
+      <c r="D11" s="313"/>
       <c r="E11" s="83" t="s">
         <v>19</v>
       </c>
@@ -8219,12 +8234,12 @@
       <c r="I11" s="84"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="316"/>
-      <c r="B12" s="316"/>
+      <c r="A12" s="313"/>
+      <c r="B12" s="313"/>
       <c r="C12" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="316"/>
+      <c r="D12" s="313"/>
       <c r="E12" s="83" t="s">
         <v>19</v>
       </c>
@@ -8238,12 +8253,12 @@
       <c r="I12" s="84"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="316"/>
-      <c r="B13" s="316"/>
+      <c r="A13" s="313"/>
+      <c r="B13" s="313"/>
       <c r="C13" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="316"/>
+      <c r="D13" s="313"/>
       <c r="E13" s="83" t="s">
         <v>19</v>
       </c>
@@ -8257,12 +8272,12 @@
       <c r="I13" s="84"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="316"/>
-      <c r="B14" s="316"/>
+      <c r="A14" s="313"/>
+      <c r="B14" s="313"/>
       <c r="C14" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="316"/>
+      <c r="D14" s="313"/>
       <c r="E14" s="83" t="s">
         <v>19</v>
       </c>
@@ -8280,12 +8295,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="316"/>
-      <c r="B15" s="316"/>
+      <c r="A15" s="313"/>
+      <c r="B15" s="313"/>
       <c r="C15" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="316"/>
+      <c r="D15" s="313"/>
       <c r="E15" s="83" t="s">
         <v>19</v>
       </c>
@@ -8303,12 +8318,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="317"/>
-      <c r="B16" s="317"/>
+      <c r="A16" s="314"/>
+      <c r="B16" s="314"/>
       <c r="C16" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="317"/>
+      <c r="D16" s="314"/>
       <c r="E16" s="83" t="s">
         <v>19</v>
       </c>
@@ -8324,37 +8339,37 @@
       <c r="I16" s="84"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="311">
+      <c r="A17" s="315">
         <v>3</v>
       </c>
-      <c r="B17" s="311" t="s">
+      <c r="B17" s="315" t="s">
+        <v>401</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="315" t="s">
         <v>404</v>
-      </c>
-      <c r="C17" s="86" t="s">
-        <v>304</v>
-      </c>
-      <c r="D17" s="311" t="s">
-        <v>407</v>
       </c>
       <c r="E17" s="87" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="88"/>
       <c r="G17" s="87" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H17" s="87"/>
       <c r="I17" s="76" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="312"/>
-      <c r="B18" s="312"/>
+      <c r="A18" s="316"/>
+      <c r="B18" s="316"/>
       <c r="C18" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="312"/>
+      <c r="D18" s="316"/>
       <c r="E18" s="87" t="s">
         <v>19</v>
       </c>
@@ -8368,12 +8383,12 @@
       <c r="I18" s="88"/>
     </row>
     <row r="19" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="312"/>
-      <c r="B19" s="312"/>
+      <c r="A19" s="316"/>
+      <c r="B19" s="316"/>
       <c r="C19" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="312"/>
+      <c r="D19" s="316"/>
       <c r="E19" s="87" t="s">
         <v>19</v>
       </c>
@@ -8387,12 +8402,12 @@
       <c r="I19" s="88"/>
     </row>
     <row r="20" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="312"/>
-      <c r="B20" s="312"/>
+      <c r="A20" s="316"/>
+      <c r="B20" s="316"/>
       <c r="C20" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="312"/>
+      <c r="D20" s="316"/>
       <c r="E20" s="87" t="s">
         <v>19</v>
       </c>
@@ -8406,12 +8421,12 @@
       <c r="I20" s="88"/>
     </row>
     <row r="21" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="312"/>
-      <c r="B21" s="312"/>
+      <c r="A21" s="316"/>
+      <c r="B21" s="316"/>
       <c r="C21" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="312"/>
+      <c r="D21" s="316"/>
       <c r="E21" s="87" t="s">
         <v>19</v>
       </c>
@@ -8429,12 +8444,12 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="312"/>
-      <c r="B22" s="312"/>
+      <c r="A22" s="316"/>
+      <c r="B22" s="316"/>
       <c r="C22" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="312"/>
+      <c r="D22" s="316"/>
       <c r="E22" s="87" t="s">
         <v>19</v>
       </c>
@@ -8452,12 +8467,12 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="312"/>
-      <c r="B23" s="312"/>
+      <c r="A23" s="316"/>
+      <c r="B23" s="316"/>
       <c r="C23" s="87" t="s">
-        <v>428</v>
-      </c>
-      <c r="D23" s="312"/>
+        <v>425</v>
+      </c>
+      <c r="D23" s="316"/>
       <c r="E23" s="87" t="s">
         <v>19</v>
       </c>
@@ -8465,19 +8480,19 @@
         <v>152</v>
       </c>
       <c r="G23" s="87" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H23" s="87" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="312"/>
-      <c r="B24" s="312"/>
+      <c r="A24" s="316"/>
+      <c r="B24" s="316"/>
       <c r="C24" s="87" t="s">
-        <v>429</v>
-      </c>
-      <c r="D24" s="312"/>
+        <v>426</v>
+      </c>
+      <c r="D24" s="316"/>
       <c r="E24" s="87" t="s">
         <v>19</v>
       </c>
@@ -8485,22 +8500,22 @@
         <v>152</v>
       </c>
       <c r="G24" s="87" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H24" s="87" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="88" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="312"/>
-      <c r="B25" s="312"/>
+      <c r="A25" s="316"/>
+      <c r="B25" s="316"/>
       <c r="C25" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="312"/>
+      <c r="D25" s="316"/>
       <c r="E25" s="87" t="s">
         <v>19</v>
       </c>
@@ -8513,37 +8528,37 @@
       <c r="I25" s="88"/>
     </row>
     <row r="26" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="313"/>
-      <c r="B26" s="313"/>
+      <c r="A26" s="317"/>
+      <c r="B26" s="317"/>
       <c r="C26" s="87" t="s">
-        <v>431</v>
-      </c>
-      <c r="D26" s="313"/>
+        <v>428</v>
+      </c>
+      <c r="D26" s="317"/>
       <c r="E26" s="87" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="88"/>
       <c r="G26" s="87" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H26" s="87" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="88" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="281">
+      <c r="A27" s="213">
         <v>4</v>
       </c>
-      <c r="B27" s="278" t="s">
-        <v>433</v>
+      <c r="B27" s="210" t="s">
+        <v>430</v>
       </c>
       <c r="C27" s="90" t="s">
-        <v>304</v>
-      </c>
-      <c r="D27" s="278" t="s">
+        <v>301</v>
+      </c>
+      <c r="D27" s="210" t="s">
         <v>163</v>
       </c>
       <c r="E27" s="90" t="s">
@@ -8551,20 +8566,20 @@
       </c>
       <c r="F27" s="91"/>
       <c r="G27" s="90" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H27" s="90"/>
       <c r="I27" s="91" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="282"/>
-      <c r="B28" s="279"/>
+      <c r="A28" s="214"/>
+      <c r="B28" s="211"/>
       <c r="C28" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="279"/>
+      <c r="D28" s="211"/>
       <c r="E28" s="90" t="s">
         <v>19</v>
       </c>
@@ -8578,12 +8593,12 @@
       <c r="I28" s="91"/>
     </row>
     <row r="29" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="282"/>
-      <c r="B29" s="279"/>
+      <c r="A29" s="214"/>
+      <c r="B29" s="211"/>
       <c r="C29" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="279"/>
+      <c r="D29" s="211"/>
       <c r="E29" s="90" t="s">
         <v>19</v>
       </c>
@@ -8597,12 +8612,12 @@
       <c r="I29" s="91"/>
     </row>
     <row r="30" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="282"/>
-      <c r="B30" s="279"/>
+      <c r="A30" s="214"/>
+      <c r="B30" s="211"/>
       <c r="C30" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="279"/>
+      <c r="D30" s="211"/>
       <c r="E30" s="90" t="s">
         <v>19</v>
       </c>
@@ -8616,12 +8631,12 @@
       <c r="I30" s="91"/>
     </row>
     <row r="31" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="282"/>
-      <c r="B31" s="279"/>
+      <c r="A31" s="214"/>
+      <c r="B31" s="211"/>
       <c r="C31" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="279"/>
+      <c r="D31" s="211"/>
       <c r="E31" s="90" t="s">
         <v>19</v>
       </c>
@@ -8639,12 +8654,12 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="282"/>
-      <c r="B32" s="279"/>
+      <c r="A32" s="214"/>
+      <c r="B32" s="211"/>
       <c r="C32" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="279"/>
+      <c r="D32" s="211"/>
       <c r="E32" s="90" t="s">
         <v>19</v>
       </c>
@@ -8662,12 +8677,12 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="282"/>
-      <c r="B33" s="279"/>
+      <c r="A33" s="214"/>
+      <c r="B33" s="211"/>
       <c r="C33" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="279"/>
+      <c r="D33" s="211"/>
       <c r="E33" s="90" t="s">
         <v>19</v>
       </c>
@@ -8681,16 +8696,16 @@
         <v>20</v>
       </c>
       <c r="I33" s="90" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="282"/>
-      <c r="B34" s="279"/>
+      <c r="A34" s="214"/>
+      <c r="B34" s="211"/>
       <c r="C34" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="279"/>
+      <c r="D34" s="211"/>
       <c r="E34" s="90" t="s">
         <v>19</v>
       </c>
@@ -8699,7 +8714,7 @@
         <v>90</v>
       </c>
       <c r="H34" s="90" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I34" s="90" t="s">
         <v>97</v>
@@ -8709,12 +8724,12 @@
       <c r="L34" s="95"/>
     </row>
     <row r="35" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="282"/>
-      <c r="B35" s="279"/>
+      <c r="A35" s="214"/>
+      <c r="B35" s="211"/>
       <c r="C35" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="279"/>
+      <c r="D35" s="211"/>
       <c r="E35" s="90" t="s">
         <v>19</v>
       </c>
@@ -8733,12 +8748,12 @@
       <c r="L35" s="95"/>
     </row>
     <row r="36" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="282"/>
-      <c r="B36" s="279"/>
+      <c r="A36" s="214"/>
+      <c r="B36" s="211"/>
       <c r="C36" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="279"/>
+      <c r="D36" s="211"/>
       <c r="E36" s="90" t="s">
         <v>80</v>
       </c>
@@ -8757,12 +8772,12 @@
       <c r="L36" s="95"/>
     </row>
     <row r="37" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="282"/>
-      <c r="B37" s="279"/>
+      <c r="A37" s="214"/>
+      <c r="B37" s="211"/>
       <c r="C37" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="279"/>
+      <c r="D37" s="211"/>
       <c r="E37" s="90" t="s">
         <v>19</v>
       </c>
@@ -8781,12 +8796,12 @@
       <c r="L37" s="95"/>
     </row>
     <row r="38" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="282"/>
-      <c r="B38" s="279"/>
+      <c r="A38" s="214"/>
+      <c r="B38" s="211"/>
       <c r="C38" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="279"/>
+      <c r="D38" s="211"/>
       <c r="E38" s="90" t="s">
         <v>19</v>
       </c>
@@ -8805,12 +8820,12 @@
       <c r="L38" s="95"/>
     </row>
     <row r="39" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="282"/>
-      <c r="B39" s="279"/>
+      <c r="A39" s="214"/>
+      <c r="B39" s="211"/>
       <c r="C39" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="279"/>
+      <c r="D39" s="211"/>
       <c r="E39" s="90" t="s">
         <v>80</v>
       </c>
@@ -8829,12 +8844,12 @@
       <c r="L39" s="95"/>
     </row>
     <row r="40" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="283"/>
-      <c r="B40" s="280"/>
+      <c r="A40" s="215"/>
+      <c r="B40" s="212"/>
       <c r="C40" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="280"/>
+      <c r="D40" s="212"/>
       <c r="E40" s="90" t="s">
         <v>80</v>
       </c>
@@ -8854,18 +8869,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="D17:D26"/>
+    <mergeCell ref="A27:A40"/>
+    <mergeCell ref="B27:B40"/>
+    <mergeCell ref="D27:D40"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="B10:B16"/>
     <mergeCell ref="D10:D16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="D17:D26"/>
-    <mergeCell ref="A27:A40"/>
-    <mergeCell ref="B27:B40"/>
-    <mergeCell ref="D27:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8873,15 +8888,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" filterMode="1">
+  <sheetPr codeName="Sheet2">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8938,21 +8953,21 @@
         <v>171</v>
       </c>
       <c r="L1" s="73" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="268">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="251">
         <v>1</v>
       </c>
-      <c r="B2" s="258" t="s">
-        <v>410</v>
+      <c r="B2" s="245" t="s">
+        <v>407</v>
       </c>
       <c r="C2" s="63" t="s">
         <v>9</v>
@@ -8979,23 +8994,23 @@
         <v>42523</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L2" s="74" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="269"/>
-      <c r="B3" s="258"/>
+    <row r="3" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="252"/>
+      <c r="B3" s="245"/>
       <c r="C3" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3" s="68" t="s">
         <v>403</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>406</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>151</v>
@@ -9014,20 +9029,20 @@
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="30" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L3" s="74" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="269"/>
-      <c r="B4" s="258"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="252"/>
+      <c r="B4" s="245"/>
       <c r="C4" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="68" t="s">
         <v>404</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>407</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>151</v>
@@ -9046,17 +9061,17 @@
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L4" s="74" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="269"/>
-      <c r="B5" s="258"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="252"/>
+      <c r="B5" s="245"/>
       <c r="C5" s="63" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D5" s="68" t="s">
         <v>163</v>
@@ -9078,22 +9093,22 @@
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="30" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L5" s="74" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="269"/>
-      <c r="B6" s="259" t="s">
-        <v>412</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="252"/>
+      <c r="B6" s="246" t="s">
+        <v>409</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>151</v>
@@ -9109,12 +9124,12 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="74" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="269"/>
-      <c r="B7" s="260"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="252"/>
+      <c r="B7" s="247"/>
       <c r="C7" s="63" t="s">
         <v>190</v>
       </c>
@@ -9143,19 +9158,19 @@
         <v>182</v>
       </c>
       <c r="L7" s="74" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="269"/>
-      <c r="B8" s="260"/>
+    <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="252"/>
+      <c r="B8" s="247"/>
       <c r="C8" s="63" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>182</v>
@@ -9176,16 +9191,16 @@
         <v>182</v>
       </c>
       <c r="L8" s="74" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="269"/>
-      <c r="B9" s="260"/>
+    <row r="9" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="252"/>
+      <c r="B9" s="247"/>
       <c r="C9" s="63" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>182</v>
@@ -9202,25 +9217,25 @@
         <v>182</v>
       </c>
       <c r="L9" s="74" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="269"/>
-      <c r="B10" s="260"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="252"/>
+      <c r="B10" s="247"/>
       <c r="C10" s="63" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>151</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>198</v>
@@ -9235,21 +9250,21 @@
         <v>42598</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L10" s="74" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" s="71" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="269"/>
-      <c r="B11" s="259" t="s">
-        <v>413</v>
+    <row r="11" spans="1:15" s="71" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="252"/>
+      <c r="B11" s="246" t="s">
+        <v>410</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D11" s="72" t="s">
         <v>161</v>
@@ -9258,7 +9273,7 @@
         <v>151</v>
       </c>
       <c r="F11" s="72" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G11" s="72" t="s">
         <v>198</v>
@@ -9267,26 +9282,26 @@
       <c r="I11" s="72"/>
       <c r="J11" s="72"/>
       <c r="K11" s="72" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L11" s="74" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="71" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="269"/>
-      <c r="B12" s="260"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="71" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="252"/>
+      <c r="B12" s="247"/>
       <c r="C12" s="72" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E12" s="72" t="s">
         <v>151</v>
       </c>
       <c r="F12" s="72" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G12" s="72" t="s">
         <v>198</v>
@@ -9299,17 +9314,17 @@
       </c>
       <c r="J12" s="72"/>
       <c r="K12" s="72" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L12" s="74" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="250">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="234">
         <v>2</v>
       </c>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="230" t="s">
         <v>186</v>
       </c>
       <c r="C13" s="100" t="s">
@@ -9337,10 +9352,10 @@
         <v>42523</v>
       </c>
       <c r="K13" s="104" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L13" s="104" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M13" t="s">
         <v>19</v>
@@ -9349,12 +9364,12 @@
         <v>19</v>
       </c>
       <c r="O13" s="150" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="251"/>
-      <c r="B14" s="247"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="235"/>
+      <c r="B14" s="231"/>
       <c r="C14" s="100" t="s">
         <v>194</v>
       </c>
@@ -9380,10 +9395,10 @@
         <v>42524</v>
       </c>
       <c r="K14" s="104" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L14" s="183" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -9392,12 +9407,12 @@
         <v>19</v>
       </c>
       <c r="O14" s="150" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="251"/>
-      <c r="B15" s="247"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="235"/>
+      <c r="B15" s="231"/>
       <c r="C15" s="100" t="s">
         <v>195</v>
       </c>
@@ -9423,10 +9438,10 @@
         <v>42523</v>
       </c>
       <c r="K15" s="104" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L15" s="183" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M15" t="s">
         <v>19</v>
@@ -9435,12 +9450,12 @@
         <v>19</v>
       </c>
       <c r="O15" s="150" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="252"/>
-      <c r="B16" s="248"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="236"/>
+      <c r="B16" s="232"/>
       <c r="C16" s="21" t="s">
         <v>196</v>
       </c>
@@ -9469,10 +9484,10 @@
         <v>182</v>
       </c>
       <c r="L16" s="183" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N16" s="105" t="s">
         <v>182</v>
@@ -9481,9 +9496,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="253"/>
-      <c r="B17" s="249"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="237"/>
+      <c r="B17" s="233"/>
       <c r="C17" s="21" t="s">
         <v>197</v>
       </c>
@@ -9512,10 +9527,10 @@
         <v>182</v>
       </c>
       <c r="L17" s="183" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M17" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N17" s="132" t="s">
         <v>182</v>
@@ -9524,92 +9539,92 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="254">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="241">
         <v>3</v>
       </c>
-      <c r="B18" s="261" t="s">
-        <v>417</v>
+      <c r="B18" s="248" t="s">
+        <v>414</v>
       </c>
       <c r="C18" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="D18" s="287" t="s">
+      <c r="D18" s="197" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="289" t="s">
+      <c r="E18" s="200" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="295" t="s">
+      <c r="F18" s="208" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="295" t="s">
+      <c r="G18" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="H18" s="210">
+      <c r="H18" s="279">
         <v>42506</v>
       </c>
-      <c r="I18" s="210">
+      <c r="I18" s="279">
         <v>42524</v>
       </c>
-      <c r="J18" s="213">
+      <c r="J18" s="282">
         <v>42523</v>
       </c>
-      <c r="K18" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L18" s="187" t="s">
-        <v>421</v>
+      <c r="K18" s="205" t="s">
+        <v>300</v>
+      </c>
+      <c r="L18" s="296" t="s">
+        <v>418</v>
       </c>
       <c r="M18" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="192" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="186" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="255"/>
-      <c r="B19" s="262"/>
+      <c r="N18" s="300" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="295" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="242"/>
+      <c r="B19" s="198"/>
       <c r="C19" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="262"/>
-      <c r="E19" s="290"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="216"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="214"/>
-      <c r="K19" s="209"/>
-      <c r="L19" s="187"/>
-      <c r="N19" s="193"/>
-      <c r="O19" s="186"/>
-    </row>
-    <row r="20" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="255"/>
-      <c r="B20" s="262"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="280"/>
+      <c r="I19" s="280"/>
+      <c r="J19" s="283"/>
+      <c r="K19" s="278"/>
+      <c r="L19" s="296"/>
+      <c r="N19" s="301"/>
+      <c r="O19" s="295"/>
+    </row>
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="242"/>
+      <c r="B20" s="198"/>
       <c r="C20" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="D20" s="288"/>
-      <c r="E20" s="291"/>
-      <c r="F20" s="296"/>
-      <c r="G20" s="296"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="212"/>
-      <c r="J20" s="215"/>
-      <c r="K20" s="209"/>
-      <c r="L20" s="187"/>
-      <c r="N20" s="193"/>
-      <c r="O20" s="186"/>
-    </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="256"/>
-      <c r="B21" s="263"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="209"/>
+      <c r="H20" s="281"/>
+      <c r="I20" s="281"/>
+      <c r="J20" s="284"/>
+      <c r="K20" s="278"/>
+      <c r="L20" s="296"/>
+      <c r="N20" s="301"/>
+      <c r="O20" s="295"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="243"/>
+      <c r="B21" s="249"/>
       <c r="C21" s="106" t="s">
         <v>271</v>
       </c>
@@ -9635,21 +9650,21 @@
         <v>42573</v>
       </c>
       <c r="K21" s="158" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L21" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N21" s="137" t="s">
         <v>19</v>
       </c>
       <c r="O21" s="151" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="256"/>
-      <c r="B22" s="263"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="243"/>
+      <c r="B22" s="249"/>
       <c r="C22" s="106" t="s">
         <v>270</v>
       </c>
@@ -9675,19 +9690,19 @@
         <v>42571</v>
       </c>
       <c r="K22" s="158" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L22" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N22" s="138"/>
       <c r="O22" s="151" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="256"/>
-      <c r="B23" s="263"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="243"/>
+      <c r="B23" s="249"/>
       <c r="C23" s="111" t="s">
         <v>273</v>
       </c>
@@ -9713,84 +9728,84 @@
         <v>42571</v>
       </c>
       <c r="K23" s="158" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L23" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N23" s="139" t="s">
         <v>19</v>
       </c>
       <c r="O23" s="151" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="256"/>
-      <c r="B24" s="263"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="243"/>
+      <c r="B24" s="249"/>
       <c r="C24" s="106" t="s">
         <v>202</v>
       </c>
-      <c r="D24" s="292" t="s">
+      <c r="D24" s="203" t="s">
         <v>285</v>
       </c>
-      <c r="E24" s="293" t="s">
+      <c r="E24" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="294" t="s">
+      <c r="F24" s="207" t="s">
         <v>183</v>
       </c>
-      <c r="G24" s="294" t="s">
+      <c r="G24" s="207" t="s">
         <v>198</v>
       </c>
-      <c r="H24" s="208">
+      <c r="H24" s="205">
         <v>42576</v>
       </c>
-      <c r="I24" s="208">
+      <c r="I24" s="205">
         <v>42579</v>
       </c>
-      <c r="J24" s="208">
+      <c r="J24" s="205">
         <v>42579</v>
       </c>
-      <c r="K24" s="217" t="s">
-        <v>303</v>
-      </c>
-      <c r="L24" s="188" t="s">
-        <v>421</v>
-      </c>
-      <c r="N24" s="194" t="s">
-        <v>19</v>
-      </c>
-      <c r="O24" s="185" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="257"/>
-      <c r="B25" s="262"/>
+      <c r="K24" s="285" t="s">
+        <v>300</v>
+      </c>
+      <c r="L24" s="297" t="s">
+        <v>418</v>
+      </c>
+      <c r="N24" s="289" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="287" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="244"/>
+      <c r="B25" s="198"/>
       <c r="C25" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="D25" s="288"/>
-      <c r="E25" s="290"/>
-      <c r="F25" s="216"/>
-      <c r="G25" s="216"/>
-      <c r="H25" s="216"/>
-      <c r="I25" s="216"/>
-      <c r="J25" s="216"/>
-      <c r="K25" s="214"/>
-      <c r="L25" s="189"/>
-      <c r="N25" s="191"/>
-      <c r="O25" s="185"/>
-    </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="199"/>
+      <c r="E25" s="201"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="283"/>
+      <c r="L25" s="298"/>
+      <c r="N25" s="290"/>
+      <c r="O25" s="287"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="112"/>
-      <c r="B26" s="264"/>
+      <c r="B26" s="250"/>
       <c r="C26" s="106" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D26" s="154" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E26" s="108" t="s">
         <v>151</v>
@@ -9811,23 +9826,23 @@
         <v>42611</v>
       </c>
       <c r="K26" s="158" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L26" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>80</v>
       </c>
       <c r="O26" s="151" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="238">
         <v>4</v>
       </c>
-      <c r="B27" s="265" t="s">
+      <c r="B27" s="222" t="s">
         <v>205</v>
       </c>
       <c r="C27" s="113" t="s">
@@ -9855,21 +9870,21 @@
         <v>42556</v>
       </c>
       <c r="K27" s="117" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L27" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N27" s="140" t="s">
         <v>19</v>
       </c>
       <c r="O27" s="151" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="239"/>
-      <c r="B28" s="266"/>
+      <c r="B28" s="223"/>
       <c r="C28" s="113" t="s">
         <v>207</v>
       </c>
@@ -9895,21 +9910,21 @@
         <v>42570</v>
       </c>
       <c r="K28" s="117" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L28" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N28" s="141" t="s">
         <v>19</v>
       </c>
       <c r="O28" s="151" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="239"/>
-      <c r="B29" s="266"/>
+      <c r="B29" s="223"/>
       <c r="C29" s="113" t="s">
         <v>208</v>
       </c>
@@ -9935,21 +9950,21 @@
         <v>42586</v>
       </c>
       <c r="K29" s="117" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L29" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N29" s="128" t="s">
         <v>19</v>
       </c>
       <c r="O29" s="151" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="240"/>
-      <c r="B30" s="267"/>
+      <c r="B30" s="224"/>
       <c r="C30" s="26" t="s">
         <v>209</v>
       </c>
@@ -9978,7 +9993,7 @@
         <v>182</v>
       </c>
       <c r="L30" s="168" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N30" s="133" t="s">
         <v>182</v>
@@ -9987,11 +10002,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="238">
         <v>5</v>
       </c>
-      <c r="B31" s="265" t="s">
+      <c r="B31" s="222" t="s">
         <v>210</v>
       </c>
       <c r="C31" s="113" t="s">
@@ -10019,21 +10034,21 @@
         <v>42556</v>
       </c>
       <c r="K31" s="117" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L31" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N31" s="140" t="s">
         <v>19</v>
       </c>
       <c r="O31" s="151" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="239"/>
-      <c r="B32" s="266"/>
+      <c r="B32" s="223"/>
       <c r="C32" s="113" t="s">
         <v>211</v>
       </c>
@@ -10059,26 +10074,26 @@
         <v>42587</v>
       </c>
       <c r="K32" s="117" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L32" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N32" s="142" t="s">
         <v>19</v>
       </c>
       <c r="O32" s="151" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="239"/>
-      <c r="B33" s="266"/>
+      <c r="B33" s="223"/>
       <c r="C33" s="113" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D33" s="114" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E33" s="115" t="s">
         <v>151</v>
@@ -10099,21 +10114,21 @@
         <v>42586</v>
       </c>
       <c r="K33" s="117" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L33" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N33" s="143" t="s">
         <v>19</v>
       </c>
       <c r="O33" s="151" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="240"/>
-      <c r="B34" s="267"/>
+      <c r="B34" s="224"/>
       <c r="C34" s="26" t="s">
         <v>212</v>
       </c>
@@ -10142,7 +10157,7 @@
         <v>182</v>
       </c>
       <c r="L34" s="168" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N34" s="133" t="s">
         <v>182</v>
@@ -10151,90 +10166,90 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="241">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="256">
         <v>6</v>
       </c>
-      <c r="B35" s="273" t="s">
+      <c r="B35" s="225" t="s">
         <v>213</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D35" s="278" t="s">
+      <c r="D35" s="210" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="281" t="s">
+      <c r="E35" s="213" t="s">
         <v>191</v>
       </c>
-      <c r="F35" s="281" t="s">
+      <c r="F35" s="213" t="s">
         <v>182</v>
       </c>
-      <c r="G35" s="281" t="s">
+      <c r="G35" s="213" t="s">
         <v>180</v>
       </c>
-      <c r="H35" s="281" t="s">
+      <c r="H35" s="213" t="s">
         <v>182</v>
       </c>
-      <c r="I35" s="281" t="s">
+      <c r="I35" s="213" t="s">
         <v>182</v>
       </c>
-      <c r="J35" s="284" t="s">
+      <c r="J35" s="216" t="s">
         <v>182</v>
       </c>
-      <c r="K35" s="199" t="s">
+      <c r="K35" s="286" t="s">
         <v>182</v>
       </c>
-      <c r="L35" s="190" t="s">
-        <v>421</v>
-      </c>
-      <c r="N35" s="191" t="s">
+      <c r="L35" s="299" t="s">
+        <v>418</v>
+      </c>
+      <c r="N35" s="290" t="s">
         <v>182</v>
       </c>
-      <c r="O35" s="185" t="s">
+      <c r="O35" s="287" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="242"/>
-      <c r="B36" s="274"/>
+    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="257"/>
+      <c r="B36" s="226"/>
       <c r="C36" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="D36" s="279"/>
-      <c r="E36" s="282"/>
-      <c r="F36" s="282"/>
-      <c r="G36" s="282"/>
-      <c r="H36" s="282"/>
-      <c r="I36" s="282"/>
-      <c r="J36" s="285"/>
-      <c r="K36" s="199"/>
-      <c r="L36" s="190"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="214"/>
+      <c r="J36" s="217"/>
+      <c r="K36" s="286"/>
+      <c r="L36" s="299"/>
       <c r="M36" s="34"/>
-      <c r="N36" s="191"/>
-      <c r="O36" s="185"/>
-    </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="242"/>
-      <c r="B37" s="274"/>
+      <c r="N36" s="290"/>
+      <c r="O36" s="287"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="257"/>
+      <c r="B37" s="226"/>
       <c r="C37" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D37" s="280"/>
-      <c r="E37" s="283"/>
-      <c r="F37" s="283"/>
-      <c r="G37" s="283"/>
-      <c r="H37" s="283"/>
-      <c r="I37" s="283"/>
-      <c r="J37" s="286"/>
-      <c r="K37" s="199"/>
-      <c r="L37" s="190"/>
-      <c r="N37" s="191"/>
-      <c r="O37" s="185"/>
-    </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="212"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="218"/>
+      <c r="K37" s="286"/>
+      <c r="L37" s="299"/>
+      <c r="N37" s="290"/>
+      <c r="O37" s="287"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="239"/>
-      <c r="B38" s="266"/>
+      <c r="B38" s="223"/>
       <c r="C38" s="113" t="s">
         <v>217</v>
       </c>
@@ -10263,18 +10278,18 @@
         <v>182</v>
       </c>
       <c r="L38" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M38" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O38" s="151" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="239"/>
-      <c r="B39" s="266"/>
+      <c r="B39" s="223"/>
       <c r="C39" s="113" t="s">
         <v>218</v>
       </c>
@@ -10300,21 +10315,21 @@
         <v>42557</v>
       </c>
       <c r="K39" s="117" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L39" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N39" s="144" t="s">
         <v>19</v>
       </c>
       <c r="O39" s="151" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="240"/>
-      <c r="B40" s="267"/>
+      <c r="B40" s="224"/>
       <c r="C40" s="26" t="s">
         <v>212</v>
       </c>
@@ -10343,7 +10358,7 @@
         <v>182</v>
       </c>
       <c r="L40" s="168" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N40" s="133" t="s">
         <v>182</v>
@@ -10352,11 +10367,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="237">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="255">
         <v>7</v>
       </c>
-      <c r="B41" s="272" t="s">
+      <c r="B41" s="221" t="s">
         <v>219</v>
       </c>
       <c r="C41" s="118" t="s">
@@ -10384,21 +10399,21 @@
         <v>42523</v>
       </c>
       <c r="K41" s="121" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L41" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N41" s="145" t="s">
         <v>19</v>
       </c>
       <c r="O41" s="151" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="243"/>
-      <c r="B42" s="275"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="258"/>
+      <c r="B42" s="227"/>
       <c r="C42" s="118" t="s">
         <v>221</v>
       </c>
@@ -10424,21 +10439,21 @@
         <v>42556</v>
       </c>
       <c r="K42" s="121" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L42" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N42" s="140" t="s">
         <v>19</v>
       </c>
       <c r="O42" s="151" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="243"/>
-      <c r="B43" s="275"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="258"/>
+      <c r="B43" s="227"/>
       <c r="C43" s="118" t="s">
         <v>222</v>
       </c>
@@ -10464,21 +10479,21 @@
         <v>42570</v>
       </c>
       <c r="K43" s="121" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L43" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N43" s="141" t="s">
         <v>19</v>
       </c>
       <c r="O43" s="151" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="244"/>
-      <c r="B44" s="276"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="259"/>
+      <c r="B44" s="228"/>
       <c r="C44" s="27" t="s">
         <v>223</v>
       </c>
@@ -10507,10 +10522,10 @@
         <v>182</v>
       </c>
       <c r="L44" s="168" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M44" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N44" s="12" t="s">
         <v>182</v>
@@ -10519,9 +10534,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="243"/>
-      <c r="B45" s="275"/>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="258"/>
+      <c r="B45" s="227"/>
       <c r="C45" s="118" t="s">
         <v>224</v>
       </c>
@@ -10547,21 +10562,21 @@
         <v>42590</v>
       </c>
       <c r="K45" s="121" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L45" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N45" s="146" t="s">
         <v>19</v>
       </c>
       <c r="O45" s="151" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="245"/>
-      <c r="B46" s="277"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="260"/>
+      <c r="B46" s="229"/>
       <c r="C46" s="118" t="s">
         <v>225</v>
       </c>
@@ -10588,15 +10603,15 @@
         <v>182</v>
       </c>
       <c r="L46" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="O46" s="151" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="244"/>
-      <c r="B47" s="276"/>
+    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="259"/>
+      <c r="B47" s="228"/>
       <c r="C47" s="27" t="s">
         <v>226</v>
       </c>
@@ -10625,18 +10640,18 @@
         <v>182</v>
       </c>
       <c r="L47" s="168" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N47" s="12" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="O47" s="151" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="245"/>
-      <c r="B48" s="277"/>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="260"/>
+      <c r="B48" s="229"/>
       <c r="C48" s="118" t="s">
         <v>272</v>
       </c>
@@ -10662,21 +10677,21 @@
         <v>42585</v>
       </c>
       <c r="K48" s="184" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L48" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N48" s="147" t="s">
         <v>19</v>
       </c>
       <c r="O48" s="151" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="243"/>
-      <c r="B49" s="275"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="258"/>
+      <c r="B49" s="227"/>
       <c r="C49" s="118" t="s">
         <v>279</v>
       </c>
@@ -10702,21 +10717,21 @@
         <v>42571</v>
       </c>
       <c r="K49" s="184" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L49" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N49" s="139" t="s">
         <v>19</v>
       </c>
       <c r="O49" s="151" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="236"/>
-      <c r="B50" s="271"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="254"/>
+      <c r="B50" s="220"/>
       <c r="C50" s="27" t="s">
         <v>227</v>
       </c>
@@ -10745,7 +10760,7 @@
         <v>182</v>
       </c>
       <c r="L50" s="168" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N50" s="12" t="s">
         <v>182</v>
@@ -10754,18 +10769,18 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="39" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="237">
+    <row r="51" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A51" s="255">
         <v>8</v>
       </c>
-      <c r="B51" s="272" t="s">
+      <c r="B51" s="221" t="s">
         <v>228</v>
       </c>
       <c r="C51" s="118" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D51" s="119" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E51" s="120" t="s">
         <v>191</v>
@@ -10784,18 +10799,18 @@
       </c>
       <c r="J51" s="177"/>
       <c r="K51" s="184" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L51" s="104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="O51" s="151" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="236"/>
-      <c r="B52" s="271"/>
+    <row r="52" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="254"/>
+      <c r="B52" s="220"/>
       <c r="C52" s="27" t="s">
         <v>229</v>
       </c>
@@ -10824,7 +10839,7 @@
         <v>182</v>
       </c>
       <c r="L52" s="168" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N52" s="12" t="s">
         <v>182</v>
@@ -10833,11 +10848,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="235">
+    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="253">
         <v>9</v>
       </c>
-      <c r="B53" s="270" t="s">
+      <c r="B53" s="219" t="s">
         <v>231</v>
       </c>
       <c r="C53" s="27" t="s">
@@ -10868,7 +10883,7 @@
         <v>182</v>
       </c>
       <c r="L53" s="168" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N53" s="12" t="s">
         <v>182</v>
@@ -10877,9 +10892,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="236"/>
-      <c r="B54" s="271"/>
+    <row r="54" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="254"/>
+      <c r="B54" s="220"/>
       <c r="C54" s="27" t="s">
         <v>232</v>
       </c>
@@ -10908,7 +10923,7 @@
         <v>182</v>
       </c>
       <c r="L54" s="168" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N54" s="12" t="s">
         <v>182</v>
@@ -10917,11 +10932,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="222">
+    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="263">
         <v>10</v>
       </c>
-      <c r="B55" s="220" t="s">
+      <c r="B55" s="261" t="s">
         <v>233</v>
       </c>
       <c r="C55" s="20" t="s">
@@ -10949,17 +10964,17 @@
         <v>42523</v>
       </c>
       <c r="K55" s="178" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L55" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N55"/>
       <c r="O55"/>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="223"/>
-      <c r="B56" s="229"/>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="264"/>
+      <c r="B56" s="270"/>
       <c r="C56" s="20" t="s">
         <v>221</v>
       </c>
@@ -10985,17 +11000,17 @@
         <v>42556</v>
       </c>
       <c r="K56" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L56" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="223"/>
-      <c r="B57" s="229"/>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="264"/>
+      <c r="B57" s="270"/>
       <c r="C57" s="20" t="s">
         <v>222</v>
       </c>
@@ -11021,17 +11036,17 @@
         <v>42570</v>
       </c>
       <c r="K57" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L57" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="224"/>
-      <c r="B58" s="229"/>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="265"/>
+      <c r="B58" s="270"/>
       <c r="C58" s="20" t="s">
         <v>235</v>
       </c>
@@ -11060,14 +11075,14 @@
         <v>182</v>
       </c>
       <c r="L58" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="224"/>
-      <c r="B59" s="229"/>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="265"/>
+      <c r="B59" s="270"/>
       <c r="C59" s="20" t="s">
         <v>272</v>
       </c>
@@ -11093,19 +11108,19 @@
         <v>42585</v>
       </c>
       <c r="K59" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L59" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N59" s="71" t="s">
         <v>19</v>
       </c>
       <c r="O59"/>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="223"/>
-      <c r="B60" s="229"/>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="264"/>
+      <c r="B60" s="270"/>
       <c r="C60" s="20" t="s">
         <v>279</v>
       </c>
@@ -11131,17 +11146,17 @@
         <v>42571</v>
       </c>
       <c r="K60" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L60" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N60"/>
       <c r="O60"/>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="223"/>
-      <c r="B61" s="229"/>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="264"/>
+      <c r="B61" s="270"/>
       <c r="C61" s="20" t="s">
         <v>280</v>
       </c>
@@ -11167,17 +11182,17 @@
         <v>42584</v>
       </c>
       <c r="K61" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L61" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N61"/>
       <c r="O61"/>
     </row>
-    <row r="62" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="224"/>
-      <c r="B62" s="221"/>
+    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="265"/>
+      <c r="B62" s="262"/>
       <c r="C62" s="20" t="s">
         <v>236</v>
       </c>
@@ -11206,70 +11221,72 @@
         <v>182</v>
       </c>
       <c r="L62" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N62"/>
       <c r="O62"/>
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="224"/>
-      <c r="B63" s="220" t="s">
+      <c r="A63" s="265"/>
+      <c r="B63" s="261" t="s">
         <v>251</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="D63" s="218" t="s">
-        <v>292</v>
-      </c>
-      <c r="E63" s="197" t="s">
+      <c r="D63" s="185" t="s">
+        <v>495</v>
+      </c>
+      <c r="E63" s="187" t="s">
         <v>151</v>
       </c>
-      <c r="F63" s="197" t="s">
+      <c r="F63" s="187" t="s">
         <v>134</v>
       </c>
-      <c r="G63" s="197" t="s">
+      <c r="G63" s="187" t="s">
         <v>198</v>
       </c>
-      <c r="H63" s="195">
-        <v>42594</v>
-      </c>
-      <c r="I63" s="195">
-        <v>42599</v>
-      </c>
-      <c r="J63" s="197"/>
-      <c r="K63" s="31" t="s">
-        <v>283</v>
+      <c r="H63" s="189">
+        <v>42625</v>
+      </c>
+      <c r="I63" s="189">
+        <v>42630</v>
+      </c>
+      <c r="J63" s="189">
+        <v>42637</v>
+      </c>
+      <c r="K63" s="323" t="s">
+        <v>300</v>
       </c>
       <c r="L63" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
     </row>
-    <row r="64" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="224"/>
-      <c r="B64" s="229"/>
+    <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="265"/>
+      <c r="B64" s="270"/>
       <c r="C64" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="D64" s="219"/>
-      <c r="E64" s="198"/>
-      <c r="F64" s="198"/>
-      <c r="G64" s="198"/>
-      <c r="H64" s="196"/>
-      <c r="I64" s="196"/>
-      <c r="J64" s="198"/>
-      <c r="K64" s="31"/>
+      <c r="D64" s="277"/>
+      <c r="E64" s="188"/>
+      <c r="F64" s="188"/>
+      <c r="G64" s="188"/>
+      <c r="H64" s="276"/>
+      <c r="I64" s="276"/>
+      <c r="J64" s="188"/>
+      <c r="K64" s="324"/>
       <c r="L64" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
     </row>
-    <row r="65" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="224"/>
-      <c r="B65" s="221"/>
+    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="265"/>
+      <c r="B65" s="262"/>
       <c r="C65" s="20" t="s">
         <v>239</v>
       </c>
@@ -11298,21 +11315,21 @@
         <v>182</v>
       </c>
       <c r="L65" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="224"/>
-      <c r="B66" s="220" t="s">
+    <row r="66" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="265"/>
+      <c r="B66" s="261" t="s">
         <v>250</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>240</v>
       </c>
       <c r="D66" s="69" t="s">
-        <v>293</v>
+        <v>496</v>
       </c>
       <c r="E66" s="58" t="s">
         <v>151</v>
@@ -11324,24 +11341,26 @@
         <v>198</v>
       </c>
       <c r="H66" s="57">
-        <v>42600</v>
+        <v>42631</v>
       </c>
       <c r="I66" s="57">
-        <v>42604</v>
-      </c>
-      <c r="J66" s="58"/>
+        <v>42635</v>
+      </c>
+      <c r="J66" s="57">
+        <v>42640</v>
+      </c>
       <c r="K66" s="31" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="L66" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
     </row>
-    <row r="67" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="224"/>
-      <c r="B67" s="229"/>
+    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="265"/>
+      <c r="B67" s="270"/>
       <c r="C67" s="20" t="s">
         <v>241</v>
       </c>
@@ -11370,14 +11389,14 @@
         <v>182</v>
       </c>
       <c r="L67" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
     </row>
-    <row r="68" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="224"/>
-      <c r="B68" s="229"/>
+    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="265"/>
+      <c r="B68" s="270"/>
       <c r="C68" s="20" t="s">
         <v>242</v>
       </c>
@@ -11406,14 +11425,14 @@
         <v>182</v>
       </c>
       <c r="L68" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N68"/>
       <c r="O68"/>
     </row>
-    <row r="69" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="224"/>
-      <c r="B69" s="229"/>
+    <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="265"/>
+      <c r="B69" s="270"/>
       <c r="C69" s="20" t="s">
         <v>243</v>
       </c>
@@ -11442,75 +11461,75 @@
         <v>182</v>
       </c>
       <c r="L69" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N69"/>
       <c r="O69"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="224"/>
-      <c r="B70" s="229"/>
+      <c r="A70" s="265"/>
+      <c r="B70" s="270"/>
       <c r="C70" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="D70" s="218" t="s">
-        <v>294</v>
-      </c>
-      <c r="E70" s="197" t="s">
+      <c r="D70" s="185" t="s">
+        <v>497</v>
+      </c>
+      <c r="E70" s="187" t="s">
         <v>151</v>
       </c>
-      <c r="F70" s="197" t="s">
+      <c r="F70" s="187" t="s">
         <v>134</v>
       </c>
-      <c r="G70" s="197" t="s">
+      <c r="G70" s="187" t="s">
         <v>198</v>
       </c>
-      <c r="H70" s="195">
-        <v>42605</v>
-      </c>
-      <c r="I70" s="195">
-        <v>42608</v>
-      </c>
-      <c r="J70" s="197"/>
-      <c r="K70" s="31" t="s">
-        <v>283</v>
+      <c r="H70" s="189">
+        <v>42636</v>
+      </c>
+      <c r="I70" s="189">
+        <v>42639</v>
+      </c>
+      <c r="J70" s="189">
+        <v>42640</v>
+      </c>
+      <c r="K70" s="323" t="s">
+        <v>300</v>
       </c>
       <c r="L70" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N70"/>
       <c r="O70"/>
     </row>
-    <row r="71" spans="1:15" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="224"/>
-      <c r="B71" s="229"/>
+    <row r="71" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="265"/>
+      <c r="B71" s="270"/>
       <c r="C71" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="D71" s="301"/>
-      <c r="E71" s="198"/>
-      <c r="F71" s="198"/>
-      <c r="G71" s="198"/>
-      <c r="H71" s="198"/>
-      <c r="I71" s="198"/>
-      <c r="J71" s="198"/>
-      <c r="K71" s="31" t="s">
-        <v>283</v>
-      </c>
+      <c r="D71" s="186"/>
+      <c r="E71" s="188"/>
+      <c r="F71" s="188"/>
+      <c r="G71" s="188"/>
+      <c r="H71" s="188"/>
+      <c r="I71" s="188"/>
+      <c r="J71" s="188"/>
+      <c r="K71" s="324"/>
       <c r="L71" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N71"/>
       <c r="O71"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="224"/>
-      <c r="B72" s="221"/>
+      <c r="A72" s="265"/>
+      <c r="B72" s="262"/>
       <c r="C72" s="20" t="s">
         <v>246</v>
       </c>
       <c r="D72" s="69" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E72" s="58" t="s">
         <v>151</v>
@@ -11527,19 +11546,21 @@
       <c r="I72" s="57">
         <v>42612</v>
       </c>
-      <c r="J72" s="58"/>
+      <c r="J72" s="57">
+        <v>42617</v>
+      </c>
       <c r="K72" s="31" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="L72" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N72"/>
       <c r="O72"/>
     </row>
-    <row r="73" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="224"/>
-      <c r="B73" s="220" t="s">
+    <row r="73" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="265"/>
+      <c r="B73" s="261" t="s">
         <v>249</v>
       </c>
       <c r="C73" s="20" t="s">
@@ -11567,17 +11588,17 @@
         <v>42523</v>
       </c>
       <c r="K73" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L73" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="224"/>
-      <c r="B74" s="229"/>
+    <row r="74" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="265"/>
+      <c r="B74" s="270"/>
       <c r="C74" s="20" t="s">
         <v>281</v>
       </c>
@@ -11606,14 +11627,14 @@
         <v>182</v>
       </c>
       <c r="L74" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="224"/>
-      <c r="B75" s="221"/>
+    <row r="75" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="265"/>
+      <c r="B75" s="262"/>
       <c r="C75" s="20" t="s">
         <v>248</v>
       </c>
@@ -11637,17 +11658,17 @@
       </c>
       <c r="J75" s="58"/>
       <c r="K75" s="31" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="L75" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N75"/>
       <c r="O75"/>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="223"/>
-      <c r="B76" s="230"/>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="264"/>
+      <c r="B76" s="271"/>
       <c r="C76" s="20" t="s">
         <v>252</v>
       </c>
@@ -11673,22 +11694,22 @@
         <v>42556</v>
       </c>
       <c r="K76" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L76" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N76"/>
       <c r="O76"/>
     </row>
-    <row r="77" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="224"/>
-      <c r="B77" s="231"/>
+    <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="265"/>
+      <c r="B77" s="272"/>
       <c r="C77" s="20" t="s">
         <v>253</v>
       </c>
       <c r="D77" s="69" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E77" s="58" t="s">
         <v>151</v>
@@ -11709,17 +11730,17 @@
         <v>42598</v>
       </c>
       <c r="K77" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L77" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N77"/>
       <c r="O77"/>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="223"/>
-      <c r="B78" s="230"/>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="264"/>
+      <c r="B78" s="271"/>
       <c r="C78" s="20" t="s">
         <v>254</v>
       </c>
@@ -11745,27 +11766,27 @@
         <v>42570</v>
       </c>
       <c r="K78" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L78" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N78"/>
       <c r="O78"/>
     </row>
-    <row r="79" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="224"/>
-      <c r="B79" s="220" t="s">
+    <row r="79" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="265"/>
+      <c r="B79" s="261" t="s">
         <v>257</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>255</v>
       </c>
       <c r="D79" s="69" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E79" s="58" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F79" s="58" t="s">
         <v>183</v>
@@ -11781,17 +11802,17 @@
       </c>
       <c r="J79" s="58"/>
       <c r="K79" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L79" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N79"/>
       <c r="O79"/>
     </row>
-    <row r="80" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="224"/>
-      <c r="B80" s="221"/>
+    <row r="80" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="265"/>
+      <c r="B80" s="262"/>
       <c r="C80" s="20" t="s">
         <v>256</v>
       </c>
@@ -11817,16 +11838,16 @@
         <v>42584</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L80" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N80"/>
       <c r="O80"/>
     </row>
-    <row r="81" spans="1:15" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="223"/>
+    <row r="81" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="264"/>
       <c r="B81" s="19" t="s">
         <v>258</v>
       </c>
@@ -11834,13 +11855,13 @@
         <v>259</v>
       </c>
       <c r="D81" s="69" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E81" s="58" t="s">
         <v>151</v>
       </c>
       <c r="F81" s="58" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G81" s="58" t="s">
         <v>198</v>
@@ -11855,16 +11876,16 @@
         <v>42580</v>
       </c>
       <c r="K81" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L81" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N81"/>
       <c r="O81"/>
     </row>
-    <row r="82" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="224"/>
+    <row r="82" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="265"/>
       <c r="B82" s="20" t="s">
         <v>260</v>
       </c>
@@ -11872,10 +11893,10 @@
         <v>261</v>
       </c>
       <c r="D82" s="69" t="s">
-        <v>301</v>
+        <v>498</v>
       </c>
       <c r="E82" s="58" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="F82" s="58" t="s">
         <v>183</v>
@@ -11883,28 +11904,34 @@
       <c r="G82" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
+      <c r="H82" s="325">
+        <v>42627</v>
+      </c>
+      <c r="I82" s="325">
+        <v>42627</v>
+      </c>
+      <c r="J82" s="325">
+        <v>42627</v>
+      </c>
       <c r="K82" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L82" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N82"/>
       <c r="O82"/>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="224"/>
-      <c r="B83" s="220" t="s">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="265"/>
+      <c r="B83" s="261" t="s">
         <v>262</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>263</v>
       </c>
       <c r="D83" s="69" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E83" s="58" t="s">
         <v>151</v>
@@ -11915,26 +11942,32 @@
       <c r="G83" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
+      <c r="H83" s="325">
+        <v>42625</v>
+      </c>
+      <c r="I83" s="325">
+        <v>42626</v>
+      </c>
+      <c r="J83" s="325">
+        <v>42626</v>
+      </c>
       <c r="K83" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L83" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N83"/>
       <c r="O83"/>
     </row>
-    <row r="84" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="224"/>
-      <c r="B84" s="221"/>
+    <row r="84" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="265"/>
+      <c r="B84" s="262"/>
       <c r="C84" s="20" t="s">
         <v>264</v>
       </c>
       <c r="D84" s="69" t="s">
-        <v>301</v>
+        <v>499</v>
       </c>
       <c r="E84" s="58" t="s">
         <v>151</v>
@@ -11945,28 +11978,34 @@
       <c r="G84" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58"/>
+      <c r="H84" s="325">
+        <v>42628</v>
+      </c>
+      <c r="I84" s="325">
+        <v>42629</v>
+      </c>
+      <c r="J84" s="325">
+        <v>42629</v>
+      </c>
       <c r="K84" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L84" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N84"/>
       <c r="O84"/>
     </row>
-    <row r="85" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="224"/>
-      <c r="B85" s="220" t="s">
+    <row r="85" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="265"/>
+      <c r="B85" s="261" t="s">
         <v>265</v>
       </c>
       <c r="C85" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D85" s="69" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E85" s="58" t="s">
         <v>191</v>
@@ -11984,19 +12023,19 @@
         <v>283</v>
       </c>
       <c r="L85" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N85"/>
       <c r="O85"/>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="225"/>
-      <c r="B86" s="221"/>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="266"/>
+      <c r="B86" s="262"/>
       <c r="C86" s="20" t="s">
         <v>267</v>
       </c>
       <c r="D86" s="69" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E86" s="58" t="s">
         <v>191</v>
@@ -12014,16 +12053,16 @@
         <v>283</v>
       </c>
       <c r="L86" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N86"/>
       <c r="O86"/>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="232">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="273">
         <v>11</v>
       </c>
-      <c r="B87" s="226" t="s">
+      <c r="B87" s="267" t="s">
         <v>269</v>
       </c>
       <c r="C87" s="123" t="s">
@@ -12051,106 +12090,106 @@
         <v>42523</v>
       </c>
       <c r="K87" s="184" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L87" s="121" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N87" s="145" t="s">
         <v>19</v>
       </c>
       <c r="O87" s="151" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="232"/>
-      <c r="B88" s="226"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="273"/>
+      <c r="B88" s="267"/>
       <c r="C88" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="D88" s="297" t="s">
+      <c r="D88" s="190" t="s">
         <v>285</v>
       </c>
-      <c r="E88" s="300" t="s">
+      <c r="E88" s="193" t="s">
         <v>151</v>
       </c>
-      <c r="F88" s="300" t="s">
+      <c r="F88" s="193" t="s">
         <v>183</v>
       </c>
-      <c r="G88" s="300" t="s">
+      <c r="G88" s="193" t="s">
         <v>198</v>
       </c>
-      <c r="H88" s="202">
+      <c r="H88" s="196">
         <v>42576</v>
       </c>
-      <c r="I88" s="202">
+      <c r="I88" s="196">
         <v>42579</v>
       </c>
-      <c r="J88" s="205">
+      <c r="J88" s="292">
         <v>42579</v>
       </c>
-      <c r="K88" s="200" t="s">
-        <v>303</v>
-      </c>
-      <c r="L88" s="200" t="s">
-        <v>421</v>
-      </c>
-      <c r="N88" s="194" t="s">
-        <v>19</v>
-      </c>
-      <c r="O88" s="185" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="233"/>
-      <c r="B89" s="227"/>
+      <c r="K88" s="288" t="s">
+        <v>300</v>
+      </c>
+      <c r="L88" s="288" t="s">
+        <v>418</v>
+      </c>
+      <c r="N88" s="289" t="s">
+        <v>19</v>
+      </c>
+      <c r="O88" s="287" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="274"/>
+      <c r="B89" s="268"/>
       <c r="C89" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="D89" s="298"/>
-      <c r="E89" s="203"/>
-      <c r="F89" s="203"/>
-      <c r="G89" s="203"/>
-      <c r="H89" s="203"/>
-      <c r="I89" s="203"/>
-      <c r="J89" s="206"/>
-      <c r="K89" s="201"/>
-      <c r="L89" s="200"/>
-      <c r="N89" s="191"/>
-      <c r="O89" s="185"/>
-    </row>
-    <row r="90" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="234"/>
-      <c r="B90" s="228"/>
+      <c r="D89" s="191"/>
+      <c r="E89" s="194"/>
+      <c r="F89" s="194"/>
+      <c r="G89" s="194"/>
+      <c r="H89" s="194"/>
+      <c r="I89" s="194"/>
+      <c r="J89" s="293"/>
+      <c r="K89" s="291"/>
+      <c r="L89" s="288"/>
+      <c r="N89" s="290"/>
+      <c r="O89" s="287"/>
+    </row>
+    <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="275"/>
+      <c r="B90" s="269"/>
       <c r="C90" s="159" t="s">
         <v>282</v>
       </c>
-      <c r="D90" s="299"/>
-      <c r="E90" s="204"/>
-      <c r="F90" s="204"/>
-      <c r="G90" s="204"/>
-      <c r="H90" s="204"/>
-      <c r="I90" s="204"/>
-      <c r="J90" s="207"/>
-      <c r="K90" s="201"/>
-      <c r="L90" s="200"/>
-      <c r="N90" s="191"/>
-      <c r="O90" s="185"/>
-    </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D90" s="192"/>
+      <c r="E90" s="195"/>
+      <c r="F90" s="195"/>
+      <c r="G90" s="195"/>
+      <c r="H90" s="195"/>
+      <c r="I90" s="195"/>
+      <c r="J90" s="294"/>
+      <c r="K90" s="291"/>
+      <c r="L90" s="288"/>
+      <c r="N90" s="290"/>
+      <c r="O90" s="287"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="160">
         <v>12</v>
       </c>
       <c r="B91" s="161" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C91" s="161" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D91" s="162" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E91" s="163" t="s">
         <v>151</v>
@@ -12171,98 +12210,26 @@
         <v>42611</v>
       </c>
       <c r="K91" s="164" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L91" s="166" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="O91" s="151" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O91">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Script"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="Not-Started"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="89">
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="G88:G90"/>
-    <mergeCell ref="H88:H90"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A55:A86"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B66:B72"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
+  <autoFilter ref="A1:O91"/>
+  <mergeCells count="91">
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N24:N25"/>
     <mergeCell ref="I63:I64"/>
     <mergeCell ref="J63:J64"/>
     <mergeCell ref="K35:K37"/>
@@ -12275,16 +12242,79 @@
     <mergeCell ref="J70:J71"/>
     <mergeCell ref="I88:I90"/>
     <mergeCell ref="J88:J90"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A55:A86"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B66:B72"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="H88:H90"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="H70:H71"/>
   </mergeCells>
-  <conditionalFormatting sqref="K1:L2 K38:L39 K27:L29 K32:L33 K35:L35 K21:L24 K3:K10 L3:L12 L38:L51 K41:L79">
+  <conditionalFormatting sqref="K1:L2 K38:L39 K27:L29 K32:L33 K35:L35 K21:L24 K3:K10 L3:L12 L38:L51 K41:L63 K72:L79 L71 K65:L70 L64">
     <cfRule type="expression" dxfId="15" priority="24">
       <formula>IF(K1="Completed",TRUE,FALSE)</formula>
     </cfRule>
@@ -12332,7 +12362,7 @@
       <formula>IF(K81="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:L2 K3:K10 K91:L1048576 N13:N17 N30 N34 N40 K21:L24 K19:K20 K26:L35 K25 K36:K37 K13:L18 L3:L12 K38:L79 K81:L88">
+  <conditionalFormatting sqref="K1:L2 K3:K10 K91:L1048576 N13:N17 N30 N34 N40 K21:L24 K19:K20 K26:L35 K25 K36:K37 K13:L18 L3:L12 K38:L63 K81:L88 K72:L79 L71 K65:L70 L64">
     <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Script-Ready">
       <formula>NOT(ISERROR(SEARCH("Script-Ready",K1)))</formula>
     </cfRule>
@@ -12439,25 +12469,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="305" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D2" s="305" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E2" s="83" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="83" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G2" s="83" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -12515,7 +12545,7 @@
         <v>21</v>
       </c>
       <c r="H5" s="84" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -12575,7 +12605,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="84" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -12638,10 +12668,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="308" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C2" s="148" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D2" s="305" t="s">
         <v>274</v>
@@ -12650,13 +12680,13 @@
         <v>19</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -12714,27 +12744,27 @@
         <v>21</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="309"/>
       <c r="B6" s="309"/>
       <c r="C6" s="149" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D6" s="306"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -12774,7 +12804,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -12794,7 +12824,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -12861,7 +12891,7 @@
         <v>272</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D2" s="320" t="s">
         <v>290</v>
@@ -12870,13 +12900,13 @@
         <v>19</v>
       </c>
       <c r="F2" s="83" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G2" s="83" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -12934,7 +12964,7 @@
         <v>21</v>
       </c>
       <c r="H5" s="84" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -12981,14 +13011,14 @@
       <c r="A8" s="319"/>
       <c r="B8" s="318"/>
       <c r="C8" s="83" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D8" s="321"/>
       <c r="E8" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="83" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G8" s="84" t="s">
         <v>21</v>
@@ -12999,34 +13029,34 @@
       <c r="A9" s="319"/>
       <c r="B9" s="318"/>
       <c r="C9" s="83" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D9" s="321"/>
       <c r="E9" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="83" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G9" s="84" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="152" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="319"/>
       <c r="B10" s="318"/>
       <c r="C10" s="83" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D10" s="321"/>
       <c r="E10" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="83" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G10" s="84" t="s">
         <v>21</v>
@@ -13037,20 +13067,20 @@
       <c r="A11" s="319"/>
       <c r="B11" s="318"/>
       <c r="C11" s="83" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D11" s="321"/>
       <c r="E11" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="83" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G11" s="84" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -13070,61 +13100,61 @@
         <v>20</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="319"/>
       <c r="B13" s="318"/>
       <c r="C13" s="83" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D13" s="321"/>
       <c r="E13" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="83" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G13" s="84" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="152" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="319"/>
       <c r="B14" s="318"/>
       <c r="C14" s="83" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D14" s="321"/>
       <c r="E14" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="83" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G14" s="84" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="84" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="319"/>
       <c r="B15" s="318"/>
       <c r="C15" s="83" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D15" s="321"/>
       <c r="E15" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="83" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G15" s="84" t="s">
         <v>21</v>
@@ -13135,34 +13165,34 @@
       <c r="A16" s="319"/>
       <c r="B16" s="318"/>
       <c r="C16" s="83" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D16" s="321"/>
       <c r="E16" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="83" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G16" s="84" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="152" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="319"/>
       <c r="B17" s="318"/>
       <c r="C17" s="83" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D17" s="321"/>
       <c r="E17" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="83" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G17" s="84" t="s">
         <v>21</v>
@@ -13175,34 +13205,34 @@
       <c r="A18" s="319"/>
       <c r="B18" s="318"/>
       <c r="C18" s="83" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D18" s="321"/>
       <c r="E18" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G18" s="84" t="s">
         <v>21</v>
       </c>
       <c r="H18" s="84" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="319"/>
       <c r="B19" s="318"/>
       <c r="C19" s="83" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D19" s="321"/>
       <c r="E19" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="83" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G19" s="84" t="s">
         <v>21</v>
@@ -13215,14 +13245,14 @@
       <c r="A20" s="319"/>
       <c r="B20" s="318"/>
       <c r="C20" s="83" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D20" s="321"/>
       <c r="E20" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="83" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G20" s="84" t="s">
         <v>21</v>
@@ -13235,14 +13265,14 @@
       <c r="A21" s="319"/>
       <c r="B21" s="318"/>
       <c r="C21" s="83" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D21" s="321"/>
       <c r="E21" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="83" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G21" s="84" t="s">
         <v>21</v>
@@ -13253,14 +13283,14 @@
       <c r="A22" s="319"/>
       <c r="B22" s="318"/>
       <c r="C22" s="83" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D22" s="321"/>
       <c r="E22" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G22" s="84" t="s">
         <v>21</v>
@@ -13271,34 +13301,34 @@
       <c r="A23" s="319"/>
       <c r="B23" s="318"/>
       <c r="C23" s="83" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D23" s="321"/>
       <c r="E23" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="83" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G23" s="84" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="152" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="319"/>
       <c r="B24" s="318"/>
       <c r="C24" s="83" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D24" s="321"/>
       <c r="E24" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="83" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G24" s="84" t="s">
         <v>21</v>
@@ -13311,14 +13341,14 @@
       <c r="A25" s="319"/>
       <c r="B25" s="318"/>
       <c r="C25" s="83" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D25" s="321"/>
       <c r="E25" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="83" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G25" s="84" t="s">
         <v>21</v>
@@ -13331,14 +13361,14 @@
       <c r="A26" s="319"/>
       <c r="B26" s="318"/>
       <c r="C26" s="83" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D26" s="321"/>
       <c r="E26" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="83" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G26" s="84" t="s">
         <v>21</v>
@@ -13349,34 +13379,34 @@
       <c r="A27" s="319"/>
       <c r="B27" s="318"/>
       <c r="C27" s="83" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D27" s="321"/>
       <c r="E27" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="83" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G27" s="84" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="152" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="319"/>
       <c r="B28" s="318"/>
       <c r="C28" s="83" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D28" s="321"/>
       <c r="E28" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="83" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G28" s="84" t="s">
         <v>21</v>
@@ -13389,20 +13419,20 @@
       <c r="A29" s="319"/>
       <c r="B29" s="318"/>
       <c r="C29" s="83" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D29" s="322"/>
       <c r="E29" s="84" t="s">
         <v>19</v>
       </c>
       <c r="F29" s="83" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G29" s="84" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="84" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -13477,14 +13507,14 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="304" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D2" s="302" t="s">
         <v>161</v>
@@ -13494,20 +13524,20 @@
       </c>
       <c r="F2" s="39"/>
       <c r="G2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
-      <c r="B3" s="303"/>
+      <c r="A3" s="287"/>
+      <c r="B3" s="304"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -13527,8 +13557,8 @@
       <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
-      <c r="B4" s="303"/>
+      <c r="A4" s="287"/>
+      <c r="B4" s="304"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -13548,8 +13578,8 @@
       <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
-      <c r="B5" s="303"/>
+      <c r="A5" s="287"/>
+      <c r="B5" s="304"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -13569,8 +13599,8 @@
       <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
-      <c r="B6" s="303"/>
+      <c r="A6" s="287"/>
+      <c r="B6" s="304"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -13594,8 +13624,8 @@
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
-      <c r="B7" s="303"/>
+      <c r="A7" s="287"/>
+      <c r="B7" s="304"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -13619,8 +13649,8 @@
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="303"/>
+      <c r="A8" s="287"/>
+      <c r="B8" s="304"/>
       <c r="C8" s="39" t="s">
         <v>73</v>
       </c>
@@ -13644,8 +13674,8 @@
       <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
-      <c r="B9" s="303"/>
+      <c r="A9" s="287"/>
+      <c r="B9" s="304"/>
       <c r="C9" s="39" t="s">
         <v>18</v>
       </c>
@@ -13665,14 +13695,14 @@
       <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="185">
+      <c r="A10" s="287">
         <v>2</v>
       </c>
       <c r="B10" s="302" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D10" s="302" t="s">
         <v>162</v>
@@ -13682,20 +13712,20 @@
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H10" s="39" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>10</v>
@@ -13717,7 +13747,7 @@
       <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="39" t="s">
         <v>11</v>
@@ -13739,7 +13769,7 @@
       <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="185"/>
+      <c r="A13" s="287"/>
       <c r="B13" s="302"/>
       <c r="C13" s="39" t="s">
         <v>12</v>
@@ -13761,7 +13791,7 @@
       <c r="L13" s="39"/>
     </row>
     <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="185"/>
+      <c r="A14" s="287"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
         <v>13</v>
@@ -13785,7 +13815,7 @@
       <c r="L14" s="39"/>
     </row>
     <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="287"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
         <v>14</v>
@@ -13809,7 +13839,7 @@
       <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="185"/>
+      <c r="A16" s="287"/>
       <c r="B16" s="302"/>
       <c r="C16" s="39" t="s">
         <v>15</v>
@@ -13826,14 +13856,14 @@
         <v>21</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
       <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="185"/>
+      <c r="A17" s="287"/>
       <c r="B17" s="302"/>
       <c r="C17" s="39" t="s">
         <v>16</v>
@@ -13850,14 +13880,14 @@
         <v>21</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
       <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="185"/>
+      <c r="A18" s="287"/>
       <c r="B18" s="302"/>
       <c r="C18" s="39" t="s">
         <v>17</v>
@@ -13874,14 +13904,14 @@
         <v>21</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J18" s="39"/>
       <c r="K18" s="39"/>
       <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="287"/>
       <c r="B19" s="302"/>
       <c r="C19" s="39" t="s">
         <v>81</v>
@@ -13903,7 +13933,7 @@
       <c r="L19" s="39"/>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="185"/>
+      <c r="A20" s="287"/>
       <c r="B20" s="302"/>
       <c r="C20" s="40" t="s">
         <v>84</v>
@@ -13927,7 +13957,7 @@
       <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="185"/>
+      <c r="A21" s="287"/>
       <c r="B21" s="302"/>
       <c r="C21" s="40" t="s">
         <v>85</v>
@@ -13951,7 +13981,7 @@
       <c r="L21" s="39"/>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="185"/>
+      <c r="A22" s="287"/>
       <c r="B22" s="302"/>
       <c r="C22" s="39" t="s">
         <v>86</v>
@@ -13975,7 +14005,7 @@
       <c r="L22" s="39"/>
     </row>
     <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
+      <c r="A23" s="287"/>
       <c r="B23" s="302"/>
       <c r="C23" s="39" t="s">
         <v>101</v>
@@ -13999,7 +14029,7 @@
       <c r="L23" s="39"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="185">
+      <c r="A24" s="287">
         <v>3</v>
       </c>
       <c r="B24" s="302" t="s">
@@ -14008,7 +14038,7 @@
       <c r="C24" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="304" t="s">
+      <c r="D24" s="303" t="s">
         <v>163</v>
       </c>
       <c r="E24" s="39" t="s">
@@ -14028,12 +14058,12 @@
       <c r="K24" s="39"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="185"/>
+      <c r="A25" s="287"/>
       <c r="B25" s="302"/>
       <c r="C25" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="304"/>
+      <c r="D25" s="303"/>
       <c r="E25" s="39" t="s">
         <v>80</v>
       </c>
@@ -14051,12 +14081,12 @@
       <c r="K25" s="39"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="185"/>
+      <c r="A26" s="287"/>
       <c r="B26" s="302"/>
       <c r="C26" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="304"/>
+      <c r="D26" s="303"/>
       <c r="E26" s="39" t="s">
         <v>19</v>
       </c>
@@ -14074,12 +14104,12 @@
       <c r="K26" s="39"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
+      <c r="A27" s="287"/>
       <c r="B27" s="302"/>
       <c r="C27" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="304"/>
+      <c r="D27" s="303"/>
       <c r="E27" s="39" t="s">
         <v>19</v>
       </c>
@@ -14097,12 +14127,12 @@
       <c r="K27" s="39"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="185"/>
+      <c r="A28" s="287"/>
       <c r="B28" s="302"/>
       <c r="C28" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="304"/>
+      <c r="D28" s="303"/>
       <c r="E28" s="39" t="s">
         <v>19</v>
       </c>
@@ -14120,12 +14150,12 @@
       <c r="K28" s="39"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="185"/>
+      <c r="A29" s="287"/>
       <c r="B29" s="302"/>
       <c r="C29" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="304"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="39" t="s">
         <v>80</v>
       </c>
@@ -14143,12 +14173,12 @@
       <c r="K29" s="39"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="185"/>
+      <c r="A30" s="287"/>
       <c r="B30" s="302"/>
       <c r="C30" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="304"/>
+      <c r="D30" s="303"/>
       <c r="E30" s="39" t="s">
         <v>19</v>
       </c>
@@ -14166,16 +14196,16 @@
       <c r="K30" s="39"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185">
+      <c r="A31" s="287">
         <v>4</v>
       </c>
       <c r="B31" s="302" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C31" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="304" t="s">
+      <c r="D31" s="303" t="s">
         <v>276</v>
       </c>
       <c r="E31" s="39" t="s">
@@ -14193,12 +14223,12 @@
       <c r="K31" s="39"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="185"/>
+      <c r="A32" s="287"/>
       <c r="B32" s="302"/>
       <c r="C32" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="304"/>
+      <c r="D32" s="303"/>
       <c r="E32" s="39" t="s">
         <v>19</v>
       </c>
@@ -14214,12 +14244,12 @@
       <c r="K32" s="39"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="185"/>
+      <c r="A33" s="287"/>
       <c r="B33" s="302"/>
       <c r="C33" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="304"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="39" t="s">
         <v>19</v>
       </c>
@@ -14235,12 +14265,12 @@
       <c r="K33" s="39"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="185"/>
+      <c r="A34" s="287"/>
       <c r="B34" s="302"/>
       <c r="C34" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="304"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="41" t="s">
         <v>19</v>
       </c>
@@ -14258,12 +14288,12 @@
       <c r="K34" s="39"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="185"/>
+      <c r="A35" s="287"/>
       <c r="B35" s="302"/>
       <c r="C35" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="304"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="39" t="s">
         <v>19</v>
       </c>
@@ -14283,12 +14313,12 @@
       <c r="K35" s="39"/>
     </row>
     <row r="36" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="185"/>
+      <c r="A36" s="287"/>
       <c r="B36" s="302"/>
       <c r="C36" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="304"/>
+      <c r="D36" s="303"/>
       <c r="E36" s="39" t="s">
         <v>80</v>
       </c>
@@ -14307,12 +14337,12 @@
       <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="185"/>
+      <c r="A37" s="287"/>
       <c r="B37" s="302"/>
       <c r="C37" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="304"/>
+      <c r="D37" s="303"/>
       <c r="E37" s="39" t="s">
         <v>19</v>
       </c>
@@ -14331,12 +14361,12 @@
       <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="185"/>
+      <c r="A38" s="287"/>
       <c r="B38" s="302"/>
       <c r="C38" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="304"/>
+      <c r="D38" s="303"/>
       <c r="E38" s="39" t="s">
         <v>19</v>
       </c>
@@ -14355,12 +14385,12 @@
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="185"/>
+      <c r="A39" s="287"/>
       <c r="B39" s="302"/>
       <c r="C39" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="304"/>
+      <c r="D39" s="303"/>
       <c r="E39" s="39" t="s">
         <v>19</v>
       </c>
@@ -14376,12 +14406,12 @@
       <c r="K39" s="39"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="185"/>
+      <c r="A40" s="287"/>
       <c r="B40" s="302"/>
       <c r="C40" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="304"/>
+      <c r="D40" s="303"/>
       <c r="E40" s="40" t="s">
         <v>19</v>
       </c>
@@ -14397,12 +14427,12 @@
       <c r="K40" s="39"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="185"/>
+      <c r="A41" s="287"/>
       <c r="B41" s="302"/>
       <c r="C41" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="304"/>
+      <c r="D41" s="303"/>
       <c r="E41" s="40" t="s">
         <v>19</v>
       </c>
@@ -14422,12 +14452,12 @@
       <c r="K41" s="39"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="185"/>
+      <c r="A42" s="287"/>
       <c r="B42" s="302"/>
       <c r="C42" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="304"/>
+      <c r="D42" s="303"/>
       <c r="E42" s="40" t="s">
         <v>19</v>
       </c>
@@ -14447,12 +14477,12 @@
       <c r="K42" s="39"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="185"/>
+      <c r="A43" s="287"/>
       <c r="B43" s="302"/>
       <c r="C43" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="304"/>
+      <c r="D43" s="303"/>
       <c r="E43" s="40" t="s">
         <v>19</v>
       </c>
@@ -14472,12 +14502,12 @@
       <c r="K43" s="39"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="185"/>
+      <c r="A44" s="287"/>
       <c r="B44" s="302"/>
       <c r="C44" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="304"/>
+      <c r="D44" s="303"/>
       <c r="E44" s="40" t="s">
         <v>19</v>
       </c>
@@ -14497,12 +14527,12 @@
       <c r="K44" s="39"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="185"/>
+      <c r="A45" s="287"/>
       <c r="B45" s="302"/>
       <c r="C45" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="304"/>
+      <c r="D45" s="303"/>
       <c r="E45" s="40" t="s">
         <v>80</v>
       </c>
@@ -14520,12 +14550,12 @@
       <c r="K45" s="39"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="185"/>
+      <c r="A46" s="287"/>
       <c r="B46" s="302"/>
       <c r="C46" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="304"/>
+      <c r="D46" s="303"/>
       <c r="E46" s="40" t="s">
         <v>19</v>
       </c>
@@ -14541,12 +14571,12 @@
       <c r="K46" s="39"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
+      <c r="A47" s="287"/>
       <c r="B47" s="302"/>
       <c r="C47" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="304"/>
+      <c r="D47" s="303"/>
       <c r="E47" s="40" t="s">
         <v>19</v>
       </c>
@@ -14562,7 +14592,7 @@
       <c r="K47" s="39"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="185">
+      <c r="A48" s="287">
         <v>5</v>
       </c>
       <c r="B48" s="302" t="s">
@@ -14571,7 +14601,7 @@
       <c r="C48" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="304" t="s">
+      <c r="D48" s="303" t="s">
         <v>278</v>
       </c>
       <c r="E48" s="39" t="s">
@@ -14589,12 +14619,12 @@
       <c r="K48" s="39"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="185"/>
+      <c r="A49" s="287"/>
       <c r="B49" s="302"/>
       <c r="C49" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="304"/>
+      <c r="D49" s="303"/>
       <c r="E49" s="39" t="s">
         <v>19</v>
       </c>
@@ -14610,12 +14640,12 @@
       <c r="K49" s="39"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="185"/>
+      <c r="A50" s="287"/>
       <c r="B50" s="302"/>
       <c r="C50" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="304"/>
+      <c r="D50" s="303"/>
       <c r="E50" s="39" t="s">
         <v>19</v>
       </c>
@@ -14631,12 +14661,12 @@
       <c r="K50" s="39"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="185"/>
+      <c r="A51" s="287"/>
       <c r="B51" s="302"/>
       <c r="C51" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="304"/>
+      <c r="D51" s="303"/>
       <c r="E51" s="41" t="s">
         <v>19</v>
       </c>
@@ -14654,12 +14684,12 @@
       <c r="K51" s="39"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="185"/>
+      <c r="A52" s="287"/>
       <c r="B52" s="302"/>
       <c r="C52" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="304"/>
+      <c r="D52" s="303"/>
       <c r="E52" s="39" t="s">
         <v>19</v>
       </c>
@@ -14679,12 +14709,12 @@
       <c r="K52" s="39"/>
     </row>
     <row r="53" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="185"/>
+      <c r="A53" s="287"/>
       <c r="B53" s="302"/>
       <c r="C53" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="304"/>
+      <c r="D53" s="303"/>
       <c r="E53" s="39" t="s">
         <v>80</v>
       </c>
@@ -14703,12 +14733,12 @@
       <c r="L53" s="13"/>
     </row>
     <row r="54" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="185"/>
+      <c r="A54" s="287"/>
       <c r="B54" s="302"/>
       <c r="C54" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="304"/>
+      <c r="D54" s="303"/>
       <c r="E54" s="39" t="s">
         <v>19</v>
       </c>
@@ -14727,12 +14757,12 @@
       <c r="L54" s="13"/>
     </row>
     <row r="55" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="185"/>
+      <c r="A55" s="287"/>
       <c r="B55" s="302"/>
       <c r="C55" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="304"/>
+      <c r="D55" s="303"/>
       <c r="E55" s="39" t="s">
         <v>19</v>
       </c>
@@ -14751,12 +14781,12 @@
       <c r="L55" s="13"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="185"/>
+      <c r="A56" s="287"/>
       <c r="B56" s="302"/>
       <c r="C56" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="304"/>
+      <c r="D56" s="303"/>
       <c r="E56" s="39" t="s">
         <v>19</v>
       </c>
@@ -14772,12 +14802,12 @@
       <c r="K56" s="39"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="185"/>
+      <c r="A57" s="287"/>
       <c r="B57" s="302"/>
       <c r="C57" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="304"/>
+      <c r="D57" s="303"/>
       <c r="E57" s="40" t="s">
         <v>19</v>
       </c>
@@ -14793,12 +14823,12 @@
       <c r="K57" s="39"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="185"/>
+      <c r="A58" s="287"/>
       <c r="B58" s="302"/>
       <c r="C58" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D58" s="304"/>
+      <c r="D58" s="303"/>
       <c r="E58" s="40" t="s">
         <v>19</v>
       </c>
@@ -14818,12 +14848,12 @@
       <c r="K58" s="39"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="185"/>
+      <c r="A59" s="287"/>
       <c r="B59" s="302"/>
       <c r="C59" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="304"/>
+      <c r="D59" s="303"/>
       <c r="E59" s="40" t="s">
         <v>19</v>
       </c>
@@ -14843,12 +14873,12 @@
       <c r="K59" s="39"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="185"/>
+      <c r="A60" s="287"/>
       <c r="B60" s="302"/>
       <c r="C60" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="304"/>
+      <c r="D60" s="303"/>
       <c r="E60" s="40" t="s">
         <v>19</v>
       </c>
@@ -14868,12 +14898,12 @@
       <c r="K60" s="39"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="185"/>
+      <c r="A61" s="287"/>
       <c r="B61" s="302"/>
       <c r="C61" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="304"/>
+      <c r="D61" s="303"/>
       <c r="E61" s="40" t="s">
         <v>19</v>
       </c>
@@ -14891,12 +14921,12 @@
       <c r="K61" s="39"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="185"/>
+      <c r="A62" s="287"/>
       <c r="B62" s="302"/>
       <c r="C62" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="304"/>
+      <c r="D62" s="303"/>
       <c r="E62" s="40" t="s">
         <v>80</v>
       </c>
@@ -14914,12 +14944,12 @@
       <c r="K62" s="39"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="185"/>
+      <c r="A63" s="287"/>
       <c r="B63" s="302"/>
       <c r="C63" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="304"/>
+      <c r="D63" s="303"/>
       <c r="E63" s="40" t="s">
         <v>19</v>
       </c>
@@ -14935,12 +14965,12 @@
       <c r="K63" s="39"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="185"/>
+      <c r="A64" s="287"/>
       <c r="B64" s="302"/>
       <c r="C64" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="304"/>
+      <c r="D64" s="303"/>
       <c r="E64" s="40" t="s">
         <v>19</v>
       </c>
@@ -14958,7 +14988,7 @@
       <c r="K64" s="39"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="185">
+      <c r="A65" s="287">
         <v>6</v>
       </c>
       <c r="B65" s="302" t="s">
@@ -14967,7 +14997,7 @@
       <c r="C65" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="304" t="s">
+      <c r="D65" s="303" t="s">
         <v>164</v>
       </c>
       <c r="E65" s="39" t="s">
@@ -14985,12 +15015,12 @@
       <c r="K65" s="39"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="185"/>
+      <c r="A66" s="287"/>
       <c r="B66" s="302"/>
       <c r="C66" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="304"/>
+      <c r="D66" s="303"/>
       <c r="E66" s="39" t="s">
         <v>19</v>
       </c>
@@ -15006,12 +15036,12 @@
       <c r="K66" s="39"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="185"/>
+      <c r="A67" s="287"/>
       <c r="B67" s="302"/>
       <c r="C67" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="304"/>
+      <c r="D67" s="303"/>
       <c r="E67" s="39" t="s">
         <v>19</v>
       </c>
@@ -15027,7 +15057,7 @@
       <c r="K67" s="39"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="185">
+      <c r="A68" s="287">
         <v>7</v>
       </c>
       <c r="B68" s="302" t="s">
@@ -15036,7 +15066,7 @@
       <c r="C68" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="304" t="s">
+      <c r="D68" s="303" t="s">
         <v>165</v>
       </c>
       <c r="E68" s="39" t="s">
@@ -15054,12 +15084,12 @@
       <c r="K68" s="39"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="185"/>
+      <c r="A69" s="287"/>
       <c r="B69" s="302"/>
       <c r="C69" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="304"/>
+      <c r="D69" s="303"/>
       <c r="E69" s="39" t="s">
         <v>19</v>
       </c>
@@ -15075,12 +15105,12 @@
       <c r="K69" s="39"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="185"/>
+      <c r="A70" s="287"/>
       <c r="B70" s="302"/>
       <c r="C70" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="304"/>
+      <c r="D70" s="303"/>
       <c r="E70" s="39" t="s">
         <v>19</v>
       </c>
@@ -15096,7 +15126,7 @@
       <c r="K70" s="39"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="185">
+      <c r="A71" s="287">
         <v>8</v>
       </c>
       <c r="B71" s="302" t="s">
@@ -15105,7 +15135,7 @@
       <c r="C71" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="304" t="s">
+      <c r="D71" s="303" t="s">
         <v>166</v>
       </c>
       <c r="E71" s="39" t="s">
@@ -15123,12 +15153,12 @@
       <c r="K71" s="39"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="185"/>
+      <c r="A72" s="287"/>
       <c r="B72" s="302"/>
       <c r="C72" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="304"/>
+      <c r="D72" s="303"/>
       <c r="E72" s="39" t="s">
         <v>19</v>
       </c>
@@ -15144,12 +15174,12 @@
       <c r="K72" s="39"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="185"/>
+      <c r="A73" s="287"/>
       <c r="B73" s="302"/>
       <c r="C73" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="304"/>
+      <c r="D73" s="303"/>
       <c r="E73" s="39" t="s">
         <v>19</v>
       </c>
@@ -15165,7 +15195,7 @@
       <c r="K73" s="39"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="185">
+      <c r="A74" s="287">
         <v>9</v>
       </c>
       <c r="B74" s="302" t="s">
@@ -15174,7 +15204,7 @@
       <c r="C74" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="304" t="s">
+      <c r="D74" s="303" t="s">
         <v>167</v>
       </c>
       <c r="E74" s="39" t="s">
@@ -15192,12 +15222,12 @@
       <c r="K74" s="39"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="185"/>
+      <c r="A75" s="287"/>
       <c r="B75" s="302"/>
       <c r="C75" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="304"/>
+      <c r="D75" s="303"/>
       <c r="E75" s="39" t="s">
         <v>19</v>
       </c>
@@ -15213,12 +15243,12 @@
       <c r="K75" s="39"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="185"/>
+      <c r="A76" s="287"/>
       <c r="B76" s="302"/>
       <c r="C76" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="304"/>
+      <c r="D76" s="303"/>
       <c r="E76" s="39" t="s">
         <v>19</v>
       </c>
@@ -15234,12 +15264,12 @@
       <c r="K76" s="39"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="185"/>
+      <c r="A77" s="287"/>
       <c r="B77" s="302"/>
       <c r="C77" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="304"/>
+      <c r="D77" s="303"/>
       <c r="E77" s="39" t="s">
         <v>19</v>
       </c>
@@ -15259,12 +15289,12 @@
       <c r="K77" s="39"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="185"/>
+      <c r="A78" s="287"/>
       <c r="B78" s="302"/>
       <c r="C78" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D78" s="304"/>
+      <c r="D78" s="303"/>
       <c r="E78" s="41" t="s">
         <v>19</v>
       </c>
@@ -15282,7 +15312,7 @@
       <c r="K78" s="39"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="185">
+      <c r="A79" s="287">
         <v>10</v>
       </c>
       <c r="B79" s="302" t="s">
@@ -15291,7 +15321,7 @@
       <c r="C79" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="304" t="s">
+      <c r="D79" s="303" t="s">
         <v>168</v>
       </c>
       <c r="E79" s="39" t="s">
@@ -15309,12 +15339,12 @@
       <c r="K79" s="39"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="185"/>
+      <c r="A80" s="287"/>
       <c r="B80" s="302"/>
       <c r="C80" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="304"/>
+      <c r="D80" s="303"/>
       <c r="E80" s="39" t="s">
         <v>19</v>
       </c>
@@ -15330,12 +15360,12 @@
       <c r="K80" s="39"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="185"/>
+      <c r="A81" s="287"/>
       <c r="B81" s="302"/>
       <c r="C81" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="304"/>
+      <c r="D81" s="303"/>
       <c r="E81" s="39" t="s">
         <v>19</v>
       </c>
@@ -15351,12 +15381,12 @@
       <c r="K81" s="39"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="185"/>
+      <c r="A82" s="287"/>
       <c r="B82" s="302"/>
       <c r="C82" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="304"/>
+      <c r="D82" s="303"/>
       <c r="E82" s="41" t="s">
         <v>19</v>
       </c>
@@ -15376,7 +15406,7 @@
       <c r="K82" s="39"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="185">
+      <c r="A83" s="287">
         <v>11</v>
       </c>
       <c r="B83" s="302" t="s">
@@ -15385,7 +15415,7 @@
       <c r="C83" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="304" t="s">
+      <c r="D83" s="303" t="s">
         <v>169</v>
       </c>
       <c r="E83" s="41" t="s">
@@ -15403,12 +15433,12 @@
       <c r="K83" s="39"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="185"/>
+      <c r="A84" s="287"/>
       <c r="B84" s="302"/>
       <c r="C84" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="304"/>
+      <c r="D84" s="303"/>
       <c r="E84" s="41" t="s">
         <v>19</v>
       </c>
@@ -15424,12 +15454,12 @@
       <c r="K84" s="39"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="185"/>
+      <c r="A85" s="287"/>
       <c r="B85" s="302"/>
       <c r="C85" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="304"/>
+      <c r="D85" s="303"/>
       <c r="E85" s="41" t="s">
         <v>19</v>
       </c>
@@ -15445,12 +15475,12 @@
       <c r="K85" s="39"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="185"/>
+      <c r="A86" s="287"/>
       <c r="B86" s="302"/>
       <c r="C86" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="304"/>
+      <c r="D86" s="303"/>
       <c r="E86" s="41" t="s">
         <v>19</v>
       </c>
@@ -15470,12 +15500,12 @@
       <c r="K86" s="39"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="185"/>
+      <c r="A87" s="287"/>
       <c r="B87" s="302"/>
       <c r="C87" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="304"/>
+      <c r="D87" s="303"/>
       <c r="E87" s="41" t="s">
         <v>19</v>
       </c>
@@ -15495,12 +15525,12 @@
       <c r="K87" s="41"/>
     </row>
     <row r="88" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="185"/>
+      <c r="A88" s="287"/>
       <c r="B88" s="302"/>
       <c r="C88" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="304"/>
+      <c r="D88" s="303"/>
       <c r="E88" s="41" t="s">
         <v>80</v>
       </c>
@@ -15519,12 +15549,12 @@
       <c r="L88" s="13"/>
     </row>
     <row r="89" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="185"/>
+      <c r="A89" s="287"/>
       <c r="B89" s="302"/>
       <c r="C89" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="304"/>
+      <c r="D89" s="303"/>
       <c r="E89" s="41" t="s">
         <v>19</v>
       </c>
@@ -15543,12 +15573,12 @@
       <c r="L89" s="13"/>
     </row>
     <row r="90" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="185"/>
+      <c r="A90" s="287"/>
       <c r="B90" s="302"/>
       <c r="C90" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D90" s="304"/>
+      <c r="D90" s="303"/>
       <c r="E90" s="41" t="s">
         <v>19</v>
       </c>
@@ -15567,12 +15597,12 @@
       <c r="L90" s="13"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="185"/>
+      <c r="A91" s="287"/>
       <c r="B91" s="302"/>
       <c r="C91" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D91" s="304"/>
+      <c r="D91" s="303"/>
       <c r="E91" s="41" t="s">
         <v>19</v>
       </c>
@@ -15592,12 +15622,12 @@
       <c r="K91" s="41"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="185"/>
+      <c r="A92" s="287"/>
       <c r="B92" s="302"/>
       <c r="C92" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D92" s="304"/>
+      <c r="D92" s="303"/>
       <c r="E92" s="40" t="s">
         <v>19</v>
       </c>
@@ -15613,7 +15643,7 @@
       <c r="K92" s="39"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="185">
+      <c r="A93" s="287">
         <v>12</v>
       </c>
       <c r="B93" s="302" t="s">
@@ -15640,7 +15670,7 @@
       <c r="K93" s="39"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="185"/>
+      <c r="A94" s="287"/>
       <c r="B94" s="302"/>
       <c r="C94" s="40" t="s">
         <v>11</v>
@@ -15661,7 +15691,7 @@
       <c r="K94" s="39"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="185"/>
+      <c r="A95" s="287"/>
       <c r="B95" s="302"/>
       <c r="C95" s="40" t="s">
         <v>12</v>
@@ -15682,7 +15712,7 @@
       <c r="K95" s="39"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="185"/>
+      <c r="A96" s="287"/>
       <c r="B96" s="302"/>
       <c r="C96" s="40" t="s">
         <v>13</v>
@@ -15707,7 +15737,7 @@
       <c r="K96" s="39"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="185"/>
+      <c r="A97" s="287"/>
       <c r="B97" s="302"/>
       <c r="C97" s="40" t="s">
         <v>14</v>
@@ -15732,7 +15762,7 @@
       <c r="K97" s="41"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="185"/>
+      <c r="A98" s="287"/>
       <c r="B98" s="302"/>
       <c r="C98" s="39" t="s">
         <v>174</v>
@@ -15753,7 +15783,7 @@
       <c r="K98" s="39"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="185"/>
+      <c r="A99" s="287"/>
       <c r="B99" s="302"/>
       <c r="C99" s="39" t="s">
         <v>175</v>
@@ -15776,7 +15806,7 @@
       <c r="K99" s="39"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="185"/>
+      <c r="A100" s="287"/>
       <c r="B100" s="302"/>
       <c r="C100" s="39" t="s">
         <v>176</v>
@@ -15806,34 +15836,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B93:B100"/>
-    <mergeCell ref="A93:A100"/>
-    <mergeCell ref="D93:D100"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="A83:A92"/>
-    <mergeCell ref="D83:D92"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D31:D47"/>
-    <mergeCell ref="D48:D64"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="D10:D23"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A48:A64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B48:B64"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="A31:A47"/>
     <mergeCell ref="B24:B30"/>
@@ -15842,6 +15844,34 @@
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A23"/>
     <mergeCell ref="B10:B23"/>
+    <mergeCell ref="A48:A64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B48:B64"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="D31:D47"/>
+    <mergeCell ref="D48:D64"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D10:D23"/>
+    <mergeCell ref="B93:B100"/>
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="D93:D100"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="A83:A92"/>
+    <mergeCell ref="D83:D92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16148,14 +16178,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="304" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D2" s="305" t="s">
         <v>161</v>
@@ -16164,18 +16194,18 @@
         <v>19</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
-      <c r="B3" s="303"/>
+      <c r="A3" s="287"/>
+      <c r="B3" s="304"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -16192,8 +16222,8 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
-      <c r="B4" s="303"/>
+      <c r="A4" s="287"/>
+      <c r="B4" s="304"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -16212,8 +16242,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
-      <c r="B5" s="303"/>
+      <c r="A5" s="287"/>
+      <c r="B5" s="304"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -16228,12 +16258,12 @@
         <v>21</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
-      <c r="B6" s="303"/>
+      <c r="A6" s="287"/>
+      <c r="B6" s="304"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -16252,8 +16282,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
-      <c r="B7" s="303"/>
+      <c r="A7" s="287"/>
+      <c r="B7" s="304"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -16272,8 +16302,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="303"/>
+      <c r="A8" s="287"/>
+      <c r="B8" s="304"/>
       <c r="C8" s="39" t="s">
         <v>73</v>
       </c>
@@ -16292,8 +16322,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
-      <c r="B9" s="303"/>
+      <c r="A9" s="287"/>
+      <c r="B9" s="304"/>
       <c r="C9" s="39" t="s">
         <v>18</v>
       </c>
@@ -16371,14 +16401,14 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D2" s="305" t="s">
         <v>162</v>
@@ -16387,18 +16417,18 @@
         <v>19</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
@@ -16417,7 +16447,7 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
@@ -16438,7 +16468,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
@@ -16454,12 +16484,12 @@
         <v>21</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
@@ -16480,7 +16510,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
@@ -16501,7 +16531,7 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="39" t="s">
         <v>15</v>
@@ -16517,12 +16547,12 @@
         <v>21</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="39" t="s">
         <v>16</v>
@@ -16538,12 +16568,12 @@
         <v>21</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="39" t="s">
         <v>17</v>
@@ -16559,12 +16589,12 @@
         <v>21</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="39" t="s">
         <v>81</v>
@@ -16583,7 +16613,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="40" t="s">
         <v>84</v>
@@ -16604,7 +16634,7 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="185"/>
+      <c r="A13" s="287"/>
       <c r="B13" s="302"/>
       <c r="C13" s="40" t="s">
         <v>85</v>
@@ -16625,7 +16655,7 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="185"/>
+      <c r="A14" s="287"/>
       <c r="B14" s="302"/>
       <c r="C14" s="39" t="s">
         <v>86</v>
@@ -16646,7 +16676,7 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="287"/>
       <c r="B15" s="302"/>
       <c r="C15" s="39" t="s">
         <v>101</v>
@@ -16727,39 +16757,39 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
       <c r="B2" s="302" t="s">
         <v>157</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="D2" s="304" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" s="303" t="s">
         <v>169</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="302"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="304"/>
+      <c r="D3" s="303"/>
       <c r="E3" s="41" t="s">
         <v>19</v>
       </c>
@@ -16773,12 +16803,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="302"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="304"/>
+      <c r="D4" s="303"/>
       <c r="E4" s="41" t="s">
         <v>19</v>
       </c>
@@ -16794,12 +16824,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="302"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="304"/>
+      <c r="D5" s="303"/>
       <c r="E5" s="41" t="s">
         <v>19</v>
       </c>
@@ -16810,17 +16840,17 @@
         <v>21</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="302"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="304"/>
+      <c r="D6" s="303"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -16836,12 +16866,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="302"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="304"/>
+      <c r="D7" s="303"/>
       <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
@@ -16857,12 +16887,12 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="302"/>
       <c r="C8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="304"/>
+      <c r="D8" s="303"/>
       <c r="E8" s="41" t="s">
         <v>80</v>
       </c>
@@ -16876,12 +16906,12 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="302"/>
       <c r="C9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="304"/>
+      <c r="D9" s="303"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
@@ -16895,12 +16925,12 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="302"/>
       <c r="C10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="304"/>
+      <c r="D10" s="303"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
@@ -16914,12 +16944,12 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="302"/>
       <c r="C11" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="304"/>
+      <c r="D11" s="303"/>
       <c r="E11" s="41" t="s">
         <v>19</v>
       </c>
@@ -16935,12 +16965,12 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="302"/>
       <c r="C12" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="304"/>
+      <c r="D12" s="303"/>
       <c r="E12" s="40" t="s">
         <v>19</v>
       </c>
@@ -17022,7 +17052,7 @@
         <v>271</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D2" s="305" t="s">
         <v>284</v>
@@ -17031,13 +17061,13 @@
         <v>19</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -17095,7 +17125,7 @@
         <v>21</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -17142,14 +17172,14 @@
       <c r="A8" s="309"/>
       <c r="B8" s="309"/>
       <c r="C8" s="41" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D8" s="306"/>
       <c r="E8" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>21</v>
@@ -17160,14 +17190,14 @@
       <c r="A9" s="309"/>
       <c r="B9" s="309"/>
       <c r="C9" s="41" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D9" s="306"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>21</v>
@@ -17178,14 +17208,14 @@
       <c r="A10" s="309"/>
       <c r="B10" s="309"/>
       <c r="C10" s="41" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D10" s="306"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>87</v>
@@ -17198,34 +17228,34 @@
       <c r="A11" s="309"/>
       <c r="B11" s="309"/>
       <c r="C11" s="50" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D11" s="306"/>
       <c r="E11" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G11" s="40" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="309"/>
       <c r="B12" s="309"/>
       <c r="C12" s="41" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D12" s="306"/>
       <c r="E12" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>87</v>
@@ -17238,100 +17268,100 @@
       <c r="A13" s="309"/>
       <c r="B13" s="309"/>
       <c r="C13" s="50" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D13" s="306"/>
       <c r="E13" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="309"/>
       <c r="B14" s="309"/>
       <c r="C14" s="41" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D14" s="306"/>
       <c r="E14" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G14" s="41" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="309"/>
       <c r="B15" s="309"/>
       <c r="C15" s="41" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D15" s="306"/>
       <c r="E15" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G15" s="41" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="309"/>
       <c r="B16" s="309"/>
       <c r="C16" s="41" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D16" s="306"/>
       <c r="E16" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G16" s="41" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="310"/>
       <c r="B17" s="310"/>
       <c r="C17" s="50" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D17" s="307"/>
       <c r="E17" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G17" s="41" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -17396,14 +17426,14 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="287">
         <v>1</v>
       </c>
-      <c r="B2" s="185" t="s">
-        <v>327</v>
+      <c r="B2" s="287" t="s">
+        <v>324</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D2" s="302" t="s">
         <v>275</v>
@@ -17412,18 +17442,18 @@
         <v>19</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
-      <c r="B3" s="185"/>
+      <c r="A3" s="287"/>
+      <c r="B3" s="287"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
@@ -17440,8 +17470,8 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
-      <c r="B4" s="185"/>
+      <c r="A4" s="287"/>
+      <c r="B4" s="287"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
@@ -17460,8 +17490,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
-      <c r="B5" s="185"/>
+      <c r="A5" s="287"/>
+      <c r="B5" s="287"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
@@ -17476,12 +17506,12 @@
         <v>21</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
-      <c r="B6" s="185"/>
+      <c r="A6" s="287"/>
+      <c r="B6" s="287"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
@@ -17500,8 +17530,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
-      <c r="B7" s="185"/>
+      <c r="A7" s="287"/>
+      <c r="B7" s="287"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
@@ -17520,17 +17550,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="185"/>
+      <c r="A8" s="287"/>
+      <c r="B8" s="287"/>
       <c r="C8" s="41" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D8" s="302"/>
       <c r="E8" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>21</v>
@@ -17538,8 +17568,8 @@
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
-      <c r="B9" s="185"/>
+      <c r="A9" s="287"/>
+      <c r="B9" s="287"/>
       <c r="C9" s="41" t="s">
         <v>103</v>
       </c>
@@ -17556,23 +17586,23 @@
       <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
-      <c r="B10" s="185"/>
+      <c r="A10" s="287"/>
+      <c r="B10" s="287"/>
       <c r="C10" s="41" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D10" s="302"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
